--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="644">
   <si>
     <t>Week</t>
   </si>
@@ -1608,6 +1608,9 @@
     <t>Joe Jimenez</t>
   </si>
   <si>
+    <t>Wilyer Abreu</t>
+  </si>
+  <si>
     <t>Yoshinobu Yamamoto</t>
   </si>
   <si>
@@ -1674,10 +1677,7 @@
     <t>Carson Spiers</t>
   </si>
   <si>
-    <t>Daniel Schneemann</t>
-  </si>
-  <si>
-    <t>Brooks Lee</t>
+    <t>LaMonte Wade Jr.</t>
   </si>
   <si>
     <t>Ke'Bryan Hayes</t>
@@ -1758,9 +1758,6 @@
     <t>Ezequiel Tovar</t>
   </si>
   <si>
-    <t>Davis Schneider</t>
-  </si>
-  <si>
     <t>Javier Assad</t>
   </si>
   <si>
@@ -1776,6 +1773,15 @@
     <t>Tyler Rogers</t>
   </si>
   <si>
+    <t>Hunter Harvey</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
+  </si>
+  <si>
+    <t>Jacob Young</t>
+  </si>
+  <si>
     <t>Jared Jones</t>
   </si>
   <si>
@@ -1812,9 +1818,6 @@
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
     <t>Cade Smith</t>
   </si>
   <si>
@@ -1824,6 +1827,9 @@
     <t>Drew Thorpe</t>
   </si>
   <si>
+    <t>Max Schuemann</t>
+  </si>
+  <si>
     <t>Christopher Morel</t>
   </si>
   <si>
@@ -1848,13 +1854,13 @@
     <t>Seth Lugo</t>
   </si>
   <si>
-    <t>Jose Soriano</t>
-  </si>
-  <si>
     <t>Ben Rice</t>
   </si>
   <si>
     <t>Rece Hinds</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
@@ -15167,55 +15173,55 @@
         <v>25</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182">
+        <v>0.8852459</v>
+      </c>
+      <c r="G182" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182">
+        <v>2.6557377</v>
+      </c>
+      <c r="I182" t="s">
+        <v>35</v>
+      </c>
+      <c r="J182">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>36</v>
+      </c>
+      <c r="L182">
+        <v>0.3372093</v>
+      </c>
+      <c r="M182" t="s">
+        <v>35</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
         <v>37</v>
       </c>
-      <c r="F182">
-        <v>0.82758621</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
-      <c r="H182">
-        <v>2.79310345</v>
-      </c>
-      <c r="I182" t="s">
-        <v>36</v>
-      </c>
-      <c r="J182">
-        <v>7</v>
-      </c>
-      <c r="K182" t="s">
-        <v>36</v>
-      </c>
-      <c r="L182">
-        <v>0.37931034</v>
-      </c>
-      <c r="M182" t="s">
-        <v>35</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182" t="s">
-        <v>36</v>
-      </c>
       <c r="P182">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q182" t="s">
         <v>35</v>
       </c>
       <c r="R182">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S182" t="s">
         <v>35</v>
       </c>
       <c r="T182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U182" t="s">
         <v>35</v>
@@ -15238,61 +15244,61 @@
         <v>24</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E183" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183">
+        <v>1.17757009</v>
+      </c>
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183">
+        <v>5.04672897</v>
+      </c>
+      <c r="I183" t="s">
+        <v>36</v>
+      </c>
+      <c r="J183">
+        <v>39</v>
+      </c>
+      <c r="K183" t="s">
+        <v>35</v>
+      </c>
+      <c r="L183">
+        <v>0.31952663</v>
+      </c>
+      <c r="M183" t="s">
+        <v>36</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
         <v>37</v>
       </c>
-      <c r="F183">
+      <c r="P183">
+        <v>24</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>36</v>
+      </c>
+      <c r="R183">
+        <v>20</v>
+      </c>
+      <c r="S183" t="s">
+        <v>36</v>
+      </c>
+      <c r="T183">
         <v>1</v>
       </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
-      <c r="H183">
-        <v>5.72727273</v>
-      </c>
-      <c r="I183" t="s">
-        <v>35</v>
-      </c>
-      <c r="J183">
-        <v>10</v>
-      </c>
-      <c r="K183" t="s">
-        <v>35</v>
-      </c>
-      <c r="L183">
-        <v>0.37837838</v>
-      </c>
-      <c r="M183" t="s">
-        <v>36</v>
-      </c>
-      <c r="N183">
-        <v>2</v>
-      </c>
-      <c r="O183" t="s">
-        <v>35</v>
-      </c>
-      <c r="P183">
-        <v>16</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>36</v>
-      </c>
-      <c r="R183">
-        <v>9</v>
-      </c>
-      <c r="S183" t="s">
-        <v>36</v>
-      </c>
-      <c r="T183">
-        <v>0</v>
-      </c>
       <c r="U183" t="s">
         <v>36</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W183" t="s">
         <v>35</v>
@@ -15309,64 +15315,64 @@
         <v>27</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F184">
-        <v>1.57894737</v>
+        <v>0.93103448</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H184">
-        <v>5.68421053</v>
+        <v>2.79310345</v>
       </c>
       <c r="I184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J184">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K184" t="s">
         <v>36</v>
       </c>
       <c r="L184">
-        <v>0.31764706</v>
+        <v>0.34391534</v>
       </c>
       <c r="M184" t="s">
         <v>35</v>
       </c>
       <c r="N184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" t="s">
         <v>36</v>
       </c>
       <c r="P184">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q184" t="s">
         <v>35</v>
       </c>
       <c r="R184">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="S184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U184" t="s">
+        <v>36</v>
+      </c>
+      <c r="V184">
+        <v>2</v>
+      </c>
+      <c r="W184" t="s">
         <v>37</v>
-      </c>
-      <c r="V184">
-        <v>0</v>
-      </c>
-      <c r="W184" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -15380,64 +15386,64 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F185">
-        <v>1.36363636</v>
+        <v>1.31372549</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>5.31818182</v>
+        <v>5.11764706</v>
       </c>
       <c r="I185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J185">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K185" t="s">
         <v>35</v>
       </c>
       <c r="L185">
-        <v>0.2739726</v>
+        <v>0.31395349</v>
       </c>
       <c r="M185" t="s">
         <v>36</v>
       </c>
       <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>35</v>
+      </c>
+      <c r="P185">
+        <v>18</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>36</v>
+      </c>
+      <c r="R185">
+        <v>25</v>
+      </c>
+      <c r="S185" t="s">
+        <v>36</v>
+      </c>
+      <c r="T185">
+        <v>3</v>
+      </c>
+      <c r="U185" t="s">
+        <v>35</v>
+      </c>
+      <c r="V185">
         <v>2</v>
       </c>
-      <c r="O185" t="s">
-        <v>35</v>
-      </c>
-      <c r="P185">
-        <v>8</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>36</v>
-      </c>
-      <c r="R185">
-        <v>16</v>
-      </c>
-      <c r="S185" t="s">
-        <v>35</v>
-      </c>
-      <c r="T185">
-        <v>1</v>
-      </c>
-      <c r="U185" t="s">
+      <c r="W185" t="s">
         <v>37</v>
-      </c>
-      <c r="V185">
-        <v>1</v>
-      </c>
-      <c r="W185" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -15451,64 +15457,64 @@
         <v>28</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
         <v>35</v>
       </c>
       <c r="F186">
-        <v>0.94520548</v>
+        <v>0.85416667</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
       </c>
       <c r="H186">
-        <v>1.84931507</v>
+        <v>2.0625</v>
       </c>
       <c r="I186" t="s">
         <v>35</v>
       </c>
       <c r="J186">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="K186" t="s">
         <v>35</v>
       </c>
       <c r="L186">
-        <v>0.37974684</v>
+        <v>0.40860215</v>
       </c>
       <c r="M186" t="s">
         <v>35</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P186">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q186" t="s">
         <v>35</v>
       </c>
       <c r="R186">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="S186" t="s">
         <v>35</v>
       </c>
       <c r="T186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U186" t="s">
         <v>37</v>
       </c>
       <c r="V186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -15522,64 +15528,64 @@
         <v>26</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E187" t="s">
         <v>36</v>
       </c>
       <c r="F187">
-        <v>0.875</v>
+        <v>1.03225806</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
       </c>
       <c r="H187">
-        <v>4.5</v>
+        <v>4.35483871</v>
       </c>
       <c r="I187" t="s">
         <v>36</v>
       </c>
       <c r="J187">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K187" t="s">
         <v>36</v>
       </c>
       <c r="L187">
-        <v>0.28333333</v>
+        <v>0.28472222</v>
       </c>
       <c r="M187" t="s">
         <v>36</v>
       </c>
       <c r="N187">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q187" t="s">
         <v>36</v>
       </c>
       <c r="R187">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S187" t="s">
         <v>36</v>
       </c>
       <c r="T187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U187" t="s">
         <v>37</v>
       </c>
       <c r="V187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -15593,64 +15599,64 @@
         <v>31</v>
       </c>
       <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188">
+        <v>1.26415094</v>
+      </c>
+      <c r="G188" t="s">
+        <v>35</v>
+      </c>
+      <c r="H188">
+        <v>4.41509434</v>
+      </c>
+      <c r="I188" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188">
+        <v>40</v>
+      </c>
+      <c r="K188" t="s">
+        <v>35</v>
+      </c>
+      <c r="L188">
+        <v>0.33557047</v>
+      </c>
+      <c r="M188" t="s">
+        <v>35</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="E188" t="s">
-        <v>35</v>
-      </c>
-      <c r="F188">
-        <v>1.61538462</v>
-      </c>
-      <c r="G188" t="s">
-        <v>35</v>
-      </c>
-      <c r="H188">
-        <v>9</v>
-      </c>
-      <c r="I188" t="s">
-        <v>36</v>
-      </c>
-      <c r="J188">
-        <v>9</v>
-      </c>
-      <c r="K188" t="s">
-        <v>36</v>
-      </c>
-      <c r="L188">
-        <v>0.42307692</v>
-      </c>
-      <c r="M188" t="s">
-        <v>35</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
       <c r="O188" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P188">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R188">
+        <v>12</v>
+      </c>
+      <c r="S188" t="s">
+        <v>36</v>
+      </c>
+      <c r="T188">
         <v>4</v>
       </c>
-      <c r="S188" t="s">
-        <v>36</v>
-      </c>
-      <c r="T188">
-        <v>0</v>
-      </c>
       <c r="U188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V188">
         <v>2</v>
       </c>
       <c r="W188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -15664,31 +15670,31 @@
         <v>30</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" t="s">
         <v>36</v>
       </c>
       <c r="F189">
-        <v>1.67647059</v>
+        <v>1.51515152</v>
       </c>
       <c r="G189" t="s">
         <v>36</v>
       </c>
       <c r="H189">
-        <v>6.35294118</v>
+        <v>4.90909091</v>
       </c>
       <c r="I189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J189">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L189">
-        <v>0.3015873</v>
+        <v>0.27272727</v>
       </c>
       <c r="M189" t="s">
         <v>36</v>
@@ -15697,16 +15703,16 @@
         <v>1</v>
       </c>
       <c r="O189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P189">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R189">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S189" t="s">
         <v>35</v>
@@ -15715,13 +15721,13 @@
         <v>2</v>
       </c>
       <c r="U189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W189" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15735,31 +15741,31 @@
         <v>33</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E190" t="s">
         <v>36</v>
       </c>
       <c r="F190">
-        <v>1.14705882</v>
+        <v>1.18965517</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
       </c>
       <c r="H190">
-        <v>5.55882353</v>
+        <v>5.12068966</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
       </c>
       <c r="J190">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K190" t="s">
         <v>36</v>
       </c>
       <c r="L190">
-        <v>0.25806452</v>
+        <v>0.31914894</v>
       </c>
       <c r="M190" t="s">
         <v>36</v>
@@ -15771,13 +15777,13 @@
         <v>36</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q190" t="s">
         <v>36</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S190" t="s">
         <v>36</v>
@@ -15786,10 +15792,10 @@
         <v>2</v>
       </c>
       <c r="U190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V190">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W190" t="s">
         <v>35</v>
@@ -15806,31 +15812,31 @@
         <v>29</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
         <v>35</v>
       </c>
       <c r="F191">
-        <v>0.82352941</v>
+        <v>1.09322034</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
       </c>
       <c r="H191">
-        <v>2.11764706</v>
+        <v>3.20338983</v>
       </c>
       <c r="I191" t="s">
         <v>35</v>
       </c>
       <c r="J191">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K191" t="s">
         <v>35</v>
       </c>
       <c r="L191">
-        <v>0.36986301</v>
+        <v>0.34939759</v>
       </c>
       <c r="M191" t="s">
         <v>35</v>
@@ -15842,25 +15848,25 @@
         <v>35</v>
       </c>
       <c r="P191">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q191" t="s">
         <v>35</v>
       </c>
       <c r="R191">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S191" t="s">
         <v>35</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U191" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W191" t="s">
         <v>36</v>
@@ -15877,64 +15883,64 @@
         <v>34</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.90909091</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
-        <v>1.28571429</v>
+        <v>2.04545455</v>
       </c>
       <c r="I192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J192">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K192" t="s">
         <v>36</v>
       </c>
       <c r="L192">
-        <v>0.26984127</v>
+        <v>0.27972028</v>
       </c>
       <c r="M192" t="s">
         <v>36</v>
       </c>
       <c r="N192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O192" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P192">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q192" t="s">
         <v>36</v>
       </c>
       <c r="R192">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S192" t="s">
         <v>36</v>
       </c>
       <c r="T192">
+        <v>4</v>
+      </c>
+      <c r="U192" t="s">
+        <v>35</v>
+      </c>
+      <c r="V192">
         <v>2</v>
       </c>
-      <c r="U192" t="s">
-        <v>35</v>
-      </c>
-      <c r="V192">
-        <v>0</v>
-      </c>
       <c r="W192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15948,55 +15954,55 @@
         <v>32</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F193">
-        <v>1.17073171</v>
+        <v>1.08661417</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
-        <v>4.6097561</v>
+        <v>2.76377953</v>
       </c>
       <c r="I193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J193">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K193" t="s">
         <v>35</v>
       </c>
       <c r="L193">
-        <v>0.37313433</v>
+        <v>0.33793103</v>
       </c>
       <c r="M193" t="s">
         <v>35</v>
       </c>
       <c r="N193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P193">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q193" t="s">
         <v>35</v>
       </c>
       <c r="R193">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S193" t="s">
         <v>35</v>
       </c>
       <c r="T193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U193" t="s">
         <v>36</v>
@@ -16005,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="W193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -17094,7 +17100,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1085"/>
+  <dimension ref="A1:C1086"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25198,7 +25204,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="B737">
         <v>2024</v>
@@ -25209,7 +25215,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B738">
         <v>2024</v>
@@ -25220,7 +25226,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B739">
         <v>2024</v>
@@ -25231,7 +25237,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" t="s">
-        <v>520</v>
+        <v>311</v>
       </c>
       <c r="B740">
         <v>2024</v>
@@ -25242,7 +25248,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="B741">
         <v>2024</v>
@@ -25253,7 +25259,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="B742">
         <v>2024</v>
@@ -25264,7 +25270,7 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="B743">
         <v>2024</v>
@@ -25275,7 +25281,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" t="s">
-        <v>421</v>
+        <v>521</v>
       </c>
       <c r="B744">
         <v>2024</v>
@@ -25286,7 +25292,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B745">
         <v>2024</v>
@@ -25297,7 +25303,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B746">
         <v>2024</v>
@@ -25308,7 +25314,7 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B747">
         <v>2024</v>
@@ -25319,7 +25325,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B748">
         <v>2024</v>
@@ -25330,7 +25336,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" t="s">
-        <v>525</v>
+        <v>422</v>
       </c>
       <c r="B749">
         <v>2024</v>
@@ -25341,7 +25347,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" t="s">
-        <v>422</v>
+        <v>216</v>
       </c>
       <c r="B750">
         <v>2024</v>
@@ -25352,7 +25358,7 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="B751">
         <v>2024</v>
@@ -25363,7 +25369,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" t="s">
-        <v>325</v>
+        <v>526</v>
       </c>
       <c r="B752">
         <v>2024</v>
@@ -25374,7 +25380,7 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B753">
         <v>2024</v>
@@ -25385,7 +25391,7 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="B754">
         <v>2024</v>
@@ -25396,7 +25402,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="B755">
         <v>2024</v>
@@ -25407,7 +25413,7 @@
     </row>
     <row r="756" spans="1:3">
       <c r="A756" t="s">
-        <v>528</v>
+        <v>336</v>
       </c>
       <c r="B756">
         <v>2024</v>
@@ -25418,7 +25424,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
       <c r="B757">
         <v>2024</v>
@@ -25429,7 +25435,7 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B758">
         <v>2024</v>
@@ -25473,7 +25479,7 @@
     </row>
     <row r="762" spans="1:3">
       <c r="A762" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B762">
         <v>2024</v>
@@ -25572,7 +25578,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B771">
         <v>2024</v>
@@ -25627,7 +25633,7 @@
     </row>
     <row r="776" spans="1:3">
       <c r="A776" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B776">
         <v>2024</v>
@@ -25660,7 +25666,7 @@
     </row>
     <row r="779" spans="1:3">
       <c r="A779" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B779">
         <v>2024</v>
@@ -25671,7 +25677,7 @@
     </row>
     <row r="780" spans="1:3">
       <c r="A780" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B780">
         <v>2024</v>
@@ -25682,7 +25688,7 @@
     </row>
     <row r="781" spans="1:3">
       <c r="A781" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B781">
         <v>2024</v>
@@ -25693,7 +25699,7 @@
     </row>
     <row r="782" spans="1:3">
       <c r="A782" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B782">
         <v>2024</v>
@@ -25726,7 +25732,7 @@
     </row>
     <row r="785" spans="1:3">
       <c r="A785" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B785">
         <v>2024</v>
@@ -25737,7 +25743,7 @@
     </row>
     <row r="786" spans="1:3">
       <c r="A786" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B786">
         <v>2024</v>
@@ -25748,7 +25754,7 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B787">
         <v>2024</v>
@@ -25770,7 +25776,7 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B789">
         <v>2024</v>
@@ -25781,7 +25787,7 @@
     </row>
     <row r="790" spans="1:3">
       <c r="A790" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B790">
         <v>2024</v>
@@ -25792,7 +25798,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="B791">
         <v>2024</v>
@@ -25803,7 +25809,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="B792">
         <v>2024</v>
@@ -25814,7 +25820,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" t="s">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="B793">
         <v>2024</v>
@@ -25825,7 +25831,7 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="B794">
         <v>2024</v>
@@ -25836,7 +25842,7 @@
     </row>
     <row r="795" spans="1:3">
       <c r="A795" t="s">
-        <v>438</v>
+        <v>542</v>
       </c>
       <c r="B795">
         <v>2024</v>
@@ -25847,7 +25853,7 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B796">
         <v>2024</v>
@@ -25858,7 +25864,7 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B797">
         <v>2024</v>
@@ -25869,7 +25875,7 @@
     </row>
     <row r="798" spans="1:3">
       <c r="A798" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
       <c r="B798">
         <v>2024</v>
@@ -25880,7 +25886,7 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" t="s">
-        <v>432</v>
+        <v>113</v>
       </c>
       <c r="B799">
         <v>2024</v>
@@ -25891,7 +25897,7 @@
     </row>
     <row r="800" spans="1:3">
       <c r="A800" t="s">
-        <v>113</v>
+        <v>545</v>
       </c>
       <c r="B800">
         <v>2024</v>
@@ -25902,7 +25908,7 @@
     </row>
     <row r="801" spans="1:3">
       <c r="A801" t="s">
-        <v>544</v>
+        <v>369</v>
       </c>
       <c r="B801">
         <v>2024</v>
@@ -25913,7 +25919,7 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="B802">
         <v>2024</v>
@@ -25924,7 +25930,7 @@
     </row>
     <row r="803" spans="1:3">
       <c r="A803" t="s">
-        <v>400</v>
+        <v>546</v>
       </c>
       <c r="B803">
         <v>2024</v>
@@ -25935,7 +25941,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B804">
         <v>2024</v>
@@ -25946,7 +25952,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" t="s">
-        <v>546</v>
+        <v>277</v>
       </c>
       <c r="B805">
         <v>2024</v>
@@ -25957,7 +25963,7 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>277</v>
+        <v>510</v>
       </c>
       <c r="B806">
         <v>2024</v>
@@ -25968,7 +25974,7 @@
     </row>
     <row r="807" spans="1:3">
       <c r="A807" t="s">
-        <v>204</v>
+        <v>548</v>
       </c>
       <c r="B807">
         <v>2024</v>
@@ -25979,7 +25985,7 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="B808">
         <v>2024</v>
@@ -25990,7 +25996,7 @@
     </row>
     <row r="809" spans="1:3">
       <c r="A809" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B809">
         <v>2024</v>
@@ -26001,7 +26007,7 @@
     </row>
     <row r="810" spans="1:3">
       <c r="A810" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B810">
         <v>2024</v>
@@ -26012,7 +26018,7 @@
     </row>
     <row r="811" spans="1:3">
       <c r="A811" t="s">
-        <v>549</v>
+        <v>253</v>
       </c>
       <c r="B811">
         <v>2024</v>
@@ -26023,7 +26029,7 @@
     </row>
     <row r="812" spans="1:3">
       <c r="A812" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B812">
         <v>2024</v>
@@ -26034,7 +26040,7 @@
     </row>
     <row r="813" spans="1:3">
       <c r="A813" t="s">
-        <v>253</v>
+        <v>410</v>
       </c>
       <c r="B813">
         <v>2024</v>
@@ -26045,7 +26051,7 @@
     </row>
     <row r="814" spans="1:3">
       <c r="A814" t="s">
-        <v>551</v>
+        <v>129</v>
       </c>
       <c r="B814">
         <v>2024</v>
@@ -26056,7 +26062,7 @@
     </row>
     <row r="815" spans="1:3">
       <c r="A815" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B815">
         <v>2024</v>
@@ -26067,7 +26073,7 @@
     </row>
     <row r="816" spans="1:3">
       <c r="A816" t="s">
-        <v>552</v>
+        <v>265</v>
       </c>
       <c r="B816">
         <v>2024</v>
@@ -26078,7 +26084,7 @@
     </row>
     <row r="817" spans="1:3">
       <c r="A817" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="B817">
         <v>2024</v>
@@ -26089,7 +26095,7 @@
     </row>
     <row r="818" spans="1:3">
       <c r="A818" t="s">
-        <v>553</v>
+        <v>255</v>
       </c>
       <c r="B818">
         <v>2024</v>
@@ -26100,7 +26106,7 @@
     </row>
     <row r="819" spans="1:3">
       <c r="A819" t="s">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="B819">
         <v>2024</v>
@@ -26111,18 +26117,18 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" t="s">
-        <v>185</v>
+        <v>553</v>
       </c>
       <c r="B820">
         <v>2024</v>
       </c>
       <c r="C820" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="821" spans="1:3">
       <c r="A821" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B821">
         <v>2024</v>
@@ -26133,7 +26139,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B822">
         <v>2024</v>
@@ -26144,7 +26150,7 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" t="s">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="B823">
         <v>2024</v>
@@ -26155,7 +26161,7 @@
     </row>
     <row r="824" spans="1:3">
       <c r="A824" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="B824">
         <v>2024</v>
@@ -26166,7 +26172,7 @@
     </row>
     <row r="825" spans="1:3">
       <c r="A825" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="B825">
         <v>2024</v>
@@ -26177,7 +26183,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="B826">
         <v>2024</v>
@@ -26188,7 +26194,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="B827">
         <v>2024</v>
@@ -26199,7 +26205,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" t="s">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="B828">
         <v>2024</v>
@@ -26210,7 +26216,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" t="s">
-        <v>453</v>
+        <v>218</v>
       </c>
       <c r="B829">
         <v>2024</v>
@@ -26221,7 +26227,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B830">
         <v>2024</v>
@@ -26232,7 +26238,7 @@
     </row>
     <row r="831" spans="1:3">
       <c r="A831" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B831">
         <v>2024</v>
@@ -26243,7 +26249,7 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" t="s">
-        <v>231</v>
+        <v>473</v>
       </c>
       <c r="B832">
         <v>2024</v>
@@ -26254,7 +26260,7 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" t="s">
-        <v>554</v>
+        <v>231</v>
       </c>
       <c r="B833">
         <v>2024</v>
@@ -26265,7 +26271,7 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="B834">
         <v>2024</v>
@@ -26276,7 +26282,7 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="B835">
         <v>2024</v>
@@ -26287,7 +26293,7 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" t="s">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="B836">
         <v>2024</v>
@@ -26298,7 +26304,7 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" t="s">
-        <v>155</v>
+        <v>555</v>
       </c>
       <c r="B837">
         <v>2024</v>
@@ -26309,7 +26315,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" t="s">
-        <v>465</v>
+        <v>155</v>
       </c>
       <c r="B838">
         <v>2024</v>
@@ -26320,7 +26326,7 @@
     </row>
     <row r="839" spans="1:3">
       <c r="A839" t="s">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="B839">
         <v>2024</v>
@@ -26331,7 +26337,7 @@
     </row>
     <row r="840" spans="1:3">
       <c r="A840" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B840">
         <v>2024</v>
@@ -26342,7 +26348,7 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" t="s">
-        <v>444</v>
+        <v>557</v>
       </c>
       <c r="B841">
         <v>2024</v>
@@ -26353,7 +26359,7 @@
     </row>
     <row r="842" spans="1:3">
       <c r="A842" t="s">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="B842">
         <v>2024</v>
@@ -26364,7 +26370,7 @@
     </row>
     <row r="843" spans="1:3">
       <c r="A843" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="B843">
         <v>2024</v>
@@ -26375,7 +26381,7 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="B844">
         <v>2024</v>
@@ -26386,7 +26392,7 @@
     </row>
     <row r="845" spans="1:3">
       <c r="A845" t="s">
-        <v>558</v>
+        <v>171</v>
       </c>
       <c r="B845">
         <v>2024</v>
@@ -26397,7 +26403,7 @@
     </row>
     <row r="846" spans="1:3">
       <c r="A846" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B846">
         <v>2024</v>
@@ -26408,7 +26414,7 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B847">
         <v>2024</v>
@@ -26419,7 +26425,7 @@
     </row>
     <row r="848" spans="1:3">
       <c r="A848" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B848">
         <v>2024</v>
@@ -26430,7 +26436,7 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" t="s">
-        <v>168</v>
+        <v>561</v>
       </c>
       <c r="B849">
         <v>2024</v>
@@ -26441,7 +26447,7 @@
     </row>
     <row r="850" spans="1:3">
       <c r="A850" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B850">
         <v>2024</v>
@@ -26452,18 +26458,18 @@
     </row>
     <row r="851" spans="1:3">
       <c r="A851" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B851">
         <v>2024</v>
       </c>
       <c r="C851" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="B852">
         <v>2024</v>
@@ -26474,7 +26480,7 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="B853">
         <v>2024</v>
@@ -26485,7 +26491,7 @@
     </row>
     <row r="854" spans="1:3">
       <c r="A854" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B854">
         <v>2024</v>
@@ -26496,7 +26502,7 @@
     </row>
     <row r="855" spans="1:3">
       <c r="A855" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="B855">
         <v>2024</v>
@@ -26507,7 +26513,7 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="B856">
         <v>2024</v>
@@ -26518,7 +26524,7 @@
     </row>
     <row r="857" spans="1:3">
       <c r="A857" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="B857">
         <v>2024</v>
@@ -26529,7 +26535,7 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="B858">
         <v>2024</v>
@@ -26540,7 +26546,7 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="B859">
         <v>2024</v>
@@ -26551,7 +26557,7 @@
     </row>
     <row r="860" spans="1:3">
       <c r="A860" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="B860">
         <v>2024</v>
@@ -26562,7 +26568,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="B861">
         <v>2024</v>
@@ -26573,7 +26579,7 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B862">
         <v>2024</v>
@@ -26584,7 +26590,7 @@
     </row>
     <row r="863" spans="1:3">
       <c r="A863" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="B863">
         <v>2024</v>
@@ -26595,7 +26601,7 @@
     </row>
     <row r="864" spans="1:3">
       <c r="A864" t="s">
-        <v>378</v>
+        <v>241</v>
       </c>
       <c r="B864">
         <v>2024</v>
@@ -26606,7 +26612,7 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="B865">
         <v>2024</v>
@@ -26617,7 +26623,7 @@
     </row>
     <row r="866" spans="1:3">
       <c r="A866" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B866">
         <v>2024</v>
@@ -26628,7 +26634,7 @@
     </row>
     <row r="867" spans="1:3">
       <c r="A867" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="B867">
         <v>2024</v>
@@ -26639,7 +26645,7 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="B868">
         <v>2024</v>
@@ -26650,7 +26656,7 @@
     </row>
     <row r="869" spans="1:3">
       <c r="A869" t="s">
-        <v>323</v>
+        <v>564</v>
       </c>
       <c r="B869">
         <v>2024</v>
@@ -26661,7 +26667,7 @@
     </row>
     <row r="870" spans="1:3">
       <c r="A870" t="s">
-        <v>565</v>
+        <v>323</v>
       </c>
       <c r="B870">
         <v>2024</v>
@@ -26672,7 +26678,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B871">
         <v>2024</v>
@@ -26683,7 +26689,7 @@
     </row>
     <row r="872" spans="1:3">
       <c r="A872" t="s">
-        <v>395</v>
+        <v>566</v>
       </c>
       <c r="B872">
         <v>2024</v>
@@ -26694,7 +26700,7 @@
     </row>
     <row r="873" spans="1:3">
       <c r="A873" t="s">
-        <v>567</v>
+        <v>395</v>
       </c>
       <c r="B873">
         <v>2024</v>
@@ -26705,7 +26711,7 @@
     </row>
     <row r="874" spans="1:3">
       <c r="A874" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B874">
         <v>2024</v>
@@ -26716,7 +26722,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" t="s">
-        <v>270</v>
+        <v>568</v>
       </c>
       <c r="B875">
         <v>2024</v>
@@ -26727,7 +26733,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" t="s">
-        <v>569</v>
+        <v>270</v>
       </c>
       <c r="B876">
         <v>2024</v>
@@ -26738,7 +26744,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" t="s">
-        <v>145</v>
+        <v>569</v>
       </c>
       <c r="B877">
         <v>2024</v>
@@ -26749,7 +26755,7 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" t="s">
-        <v>474</v>
+        <v>145</v>
       </c>
       <c r="B878">
         <v>2024</v>
@@ -26760,7 +26766,7 @@
     </row>
     <row r="879" spans="1:3">
       <c r="A879" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B879">
         <v>2024</v>
@@ -26771,18 +26777,18 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" t="s">
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="B880">
         <v>2024</v>
       </c>
       <c r="C880" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="A881" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B881">
         <v>2024</v>
@@ -26793,7 +26799,7 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="B882">
         <v>2024</v>
@@ -26804,7 +26810,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B883">
         <v>2024</v>
@@ -26815,7 +26821,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="B884">
         <v>2024</v>
@@ -26826,7 +26832,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" t="s">
-        <v>122</v>
+        <v>509</v>
       </c>
       <c r="B885">
         <v>2024</v>
@@ -26837,7 +26843,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" t="s">
-        <v>406</v>
+        <v>122</v>
       </c>
       <c r="B886">
         <v>2024</v>
@@ -26848,7 +26854,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="B887">
         <v>2024</v>
@@ -26859,7 +26865,7 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="B888">
         <v>2024</v>
@@ -26870,7 +26876,7 @@
     </row>
     <row r="889" spans="1:3">
       <c r="A889" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B889">
         <v>2024</v>
@@ -26881,7 +26887,7 @@
     </row>
     <row r="890" spans="1:3">
       <c r="A890" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="B890">
         <v>2024</v>
@@ -26892,7 +26898,7 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="B891">
         <v>2024</v>
@@ -26903,7 +26909,7 @@
     </row>
     <row r="892" spans="1:3">
       <c r="A892" t="s">
-        <v>570</v>
+        <v>374</v>
       </c>
       <c r="B892">
         <v>2024</v>
@@ -26914,7 +26920,7 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" t="s">
-        <v>226</v>
+        <v>570</v>
       </c>
       <c r="B893">
         <v>2024</v>
@@ -26925,7 +26931,7 @@
     </row>
     <row r="894" spans="1:3">
       <c r="A894" t="s">
-        <v>571</v>
+        <v>226</v>
       </c>
       <c r="B894">
         <v>2024</v>
@@ -26936,7 +26942,7 @@
     </row>
     <row r="895" spans="1:3">
       <c r="A895" t="s">
-        <v>458</v>
+        <v>571</v>
       </c>
       <c r="B895">
         <v>2024</v>
@@ -26947,7 +26953,7 @@
     </row>
     <row r="896" spans="1:3">
       <c r="A896" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="B896">
         <v>2024</v>
@@ -26958,7 +26964,7 @@
     </row>
     <row r="897" spans="1:3">
       <c r="A897" t="s">
-        <v>219</v>
+        <v>513</v>
       </c>
       <c r="B897">
         <v>2024</v>
@@ -26969,7 +26975,7 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B898">
         <v>2024</v>
@@ -26980,7 +26986,7 @@
     </row>
     <row r="899" spans="1:3">
       <c r="A899" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
       <c r="B899">
         <v>2024</v>
@@ -26991,7 +26997,7 @@
     </row>
     <row r="900" spans="1:3">
       <c r="A900" t="s">
-        <v>393</v>
+        <v>572</v>
       </c>
       <c r="B900">
         <v>2024</v>
@@ -27002,7 +27008,7 @@
     </row>
     <row r="901" spans="1:3">
       <c r="A901" t="s">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="B901">
         <v>2024</v>
@@ -27013,7 +27019,7 @@
     </row>
     <row r="902" spans="1:3">
       <c r="A902" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B902">
         <v>2024</v>
@@ -27024,7 +27030,7 @@
     </row>
     <row r="903" spans="1:3">
       <c r="A903" t="s">
-        <v>573</v>
+        <v>249</v>
       </c>
       <c r="B903">
         <v>2024</v>
@@ -27035,7 +27041,7 @@
     </row>
     <row r="904" spans="1:3">
       <c r="A904" t="s">
-        <v>413</v>
+        <v>573</v>
       </c>
       <c r="B904">
         <v>2024</v>
@@ -27046,7 +27052,7 @@
     </row>
     <row r="905" spans="1:3">
       <c r="A905" t="s">
-        <v>574</v>
+        <v>413</v>
       </c>
       <c r="B905">
         <v>2024</v>
@@ -27057,7 +27063,7 @@
     </row>
     <row r="906" spans="1:3">
       <c r="A906" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B906">
         <v>2024</v>
@@ -27068,7 +27074,7 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B907">
         <v>2024</v>
@@ -27079,7 +27085,7 @@
     </row>
     <row r="908" spans="1:3">
       <c r="A908" t="s">
-        <v>424</v>
+        <v>576</v>
       </c>
       <c r="B908">
         <v>2024</v>
@@ -27090,7 +27096,7 @@
     </row>
     <row r="909" spans="1:3">
       <c r="A909" t="s">
-        <v>577</v>
+        <v>424</v>
       </c>
       <c r="B909">
         <v>2024</v>
@@ -27101,18 +27107,18 @@
     </row>
     <row r="910" spans="1:3">
       <c r="A910" t="s">
-        <v>132</v>
+        <v>577</v>
       </c>
       <c r="B910">
         <v>2024</v>
       </c>
       <c r="C910" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B911">
         <v>2024</v>
@@ -27123,7 +27129,7 @@
     </row>
     <row r="912" spans="1:3">
       <c r="A912" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B912">
         <v>2024</v>
@@ -27310,7 +27316,7 @@
     </row>
     <row r="929" spans="1:3">
       <c r="A929" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="B929">
         <v>2024</v>
@@ -27321,7 +27327,7 @@
     </row>
     <row r="930" spans="1:3">
       <c r="A930" t="s">
-        <v>580</v>
+        <v>246</v>
       </c>
       <c r="B930">
         <v>2024</v>
@@ -27332,7 +27338,7 @@
     </row>
     <row r="931" spans="1:3">
       <c r="A931" t="s">
-        <v>342</v>
+        <v>580</v>
       </c>
       <c r="B931">
         <v>2024</v>
@@ -27343,7 +27349,7 @@
     </row>
     <row r="932" spans="1:3">
       <c r="A932" t="s">
-        <v>246</v>
+        <v>581</v>
       </c>
       <c r="B932">
         <v>2024</v>
@@ -27354,7 +27360,7 @@
     </row>
     <row r="933" spans="1:3">
       <c r="A933" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B933">
         <v>2024</v>
@@ -27365,7 +27371,7 @@
     </row>
     <row r="934" spans="1:3">
       <c r="A934" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B934">
         <v>2024</v>
@@ -27376,7 +27382,7 @@
     </row>
     <row r="935" spans="1:3">
       <c r="A935" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B935">
         <v>2024</v>
@@ -27387,7 +27393,7 @@
     </row>
     <row r="936" spans="1:3">
       <c r="A936" t="s">
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="B936">
         <v>2024</v>
@@ -27398,7 +27404,7 @@
     </row>
     <row r="937" spans="1:3">
       <c r="A937" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="B937">
         <v>2024</v>
@@ -27409,7 +27415,7 @@
     </row>
     <row r="938" spans="1:3">
       <c r="A938" t="s">
-        <v>584</v>
+        <v>204</v>
       </c>
       <c r="B938">
         <v>2024</v>
@@ -27420,7 +27426,7 @@
     </row>
     <row r="939" spans="1:3">
       <c r="A939" t="s">
-        <v>390</v>
+        <v>586</v>
       </c>
       <c r="B939">
         <v>2024</v>
@@ -27431,7 +27437,7 @@
     </row>
     <row r="940" spans="1:3">
       <c r="A940" t="s">
-        <v>585</v>
+        <v>89</v>
       </c>
       <c r="B940">
         <v>2024</v>
@@ -27442,18 +27448,18 @@
     </row>
     <row r="941" spans="1:3">
       <c r="A941" t="s">
-        <v>102</v>
+        <v>587</v>
       </c>
       <c r="B941">
         <v>2024</v>
       </c>
       <c r="C941" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="942" spans="1:3">
       <c r="A942" t="s">
-        <v>339</v>
+        <v>102</v>
       </c>
       <c r="B942">
         <v>2024</v>
@@ -27464,7 +27470,7 @@
     </row>
     <row r="943" spans="1:3">
       <c r="A943" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="B943">
         <v>2024</v>
@@ -27475,7 +27481,7 @@
     </row>
     <row r="944" spans="1:3">
       <c r="A944" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="B944">
         <v>2024</v>
@@ -27486,7 +27492,7 @@
     </row>
     <row r="945" spans="1:3">
       <c r="A945" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="B945">
         <v>2024</v>
@@ -27497,7 +27503,7 @@
     </row>
     <row r="946" spans="1:3">
       <c r="A946" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B946">
         <v>2024</v>
@@ -27508,7 +27514,7 @@
     </row>
     <row r="947" spans="1:3">
       <c r="A947" t="s">
-        <v>490</v>
+        <v>212</v>
       </c>
       <c r="B947">
         <v>2024</v>
@@ -27519,7 +27525,7 @@
     </row>
     <row r="948" spans="1:3">
       <c r="A948" t="s">
-        <v>161</v>
+        <v>490</v>
       </c>
       <c r="B948">
         <v>2024</v>
@@ -27530,7 +27536,7 @@
     </row>
     <row r="949" spans="1:3">
       <c r="A949" t="s">
-        <v>479</v>
+        <v>161</v>
       </c>
       <c r="B949">
         <v>2024</v>
@@ -27541,7 +27547,7 @@
     </row>
     <row r="950" spans="1:3">
       <c r="A950" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="B950">
         <v>2024</v>
@@ -27552,7 +27558,7 @@
     </row>
     <row r="951" spans="1:3">
       <c r="A951" t="s">
-        <v>586</v>
+        <v>429</v>
       </c>
       <c r="B951">
         <v>2024</v>
@@ -27563,7 +27569,7 @@
     </row>
     <row r="952" spans="1:3">
       <c r="A952" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B952">
         <v>2024</v>
@@ -27574,7 +27580,7 @@
     </row>
     <row r="953" spans="1:3">
       <c r="A953" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B953">
         <v>2024</v>
@@ -27585,7 +27591,7 @@
     </row>
     <row r="954" spans="1:3">
       <c r="A954" t="s">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="B954">
         <v>2024</v>
@@ -27596,7 +27602,7 @@
     </row>
     <row r="955" spans="1:3">
       <c r="A955" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="B955">
         <v>2024</v>
@@ -27607,7 +27613,7 @@
     </row>
     <row r="956" spans="1:3">
       <c r="A956" t="s">
-        <v>589</v>
+        <v>295</v>
       </c>
       <c r="B956">
         <v>2024</v>
@@ -27618,7 +27624,7 @@
     </row>
     <row r="957" spans="1:3">
       <c r="A957" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B957">
         <v>2024</v>
@@ -27629,7 +27635,7 @@
     </row>
     <row r="958" spans="1:3">
       <c r="A958" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B958">
         <v>2024</v>
@@ -27640,7 +27646,7 @@
     </row>
     <row r="959" spans="1:3">
       <c r="A959" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B959">
         <v>2024</v>
@@ -27651,7 +27657,7 @@
     </row>
     <row r="960" spans="1:3">
       <c r="A960" t="s">
-        <v>379</v>
+        <v>594</v>
       </c>
       <c r="B960">
         <v>2024</v>
@@ -27662,7 +27668,7 @@
     </row>
     <row r="961" spans="1:3">
       <c r="A961" t="s">
-        <v>593</v>
+        <v>379</v>
       </c>
       <c r="B961">
         <v>2024</v>
@@ -27673,7 +27679,7 @@
     </row>
     <row r="962" spans="1:3">
       <c r="A962" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B962">
         <v>2024</v>
@@ -27684,7 +27690,7 @@
     </row>
     <row r="963" spans="1:3">
       <c r="A963" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B963">
         <v>2024</v>
@@ -27695,7 +27701,7 @@
     </row>
     <row r="964" spans="1:3">
       <c r="A964" t="s">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="B964">
         <v>2024</v>
@@ -27706,7 +27712,7 @@
     </row>
     <row r="965" spans="1:3">
       <c r="A965" t="s">
-        <v>596</v>
+        <v>464</v>
       </c>
       <c r="B965">
         <v>2024</v>
@@ -27717,7 +27723,7 @@
     </row>
     <row r="966" spans="1:3">
       <c r="A966" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B966">
         <v>2024</v>
@@ -27728,7 +27734,7 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B967">
         <v>2024</v>
@@ -27739,7 +27745,7 @@
     </row>
     <row r="968" spans="1:3">
       <c r="A968" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B968">
         <v>2024</v>
@@ -27761,7 +27767,7 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B970">
         <v>2024</v>
@@ -27772,7 +27778,7 @@
     </row>
     <row r="971" spans="1:3">
       <c r="A971" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B971">
         <v>2024</v>
@@ -27783,18 +27789,18 @@
     </row>
     <row r="972" spans="1:3">
       <c r="A972" t="s">
-        <v>357</v>
+        <v>603</v>
       </c>
       <c r="B972">
         <v>2024</v>
       </c>
       <c r="C972" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="B973">
         <v>2024</v>
@@ -27805,7 +27811,7 @@
     </row>
     <row r="974" spans="1:3">
       <c r="A974" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="B974">
         <v>2024</v>
@@ -27816,7 +27822,7 @@
     </row>
     <row r="975" spans="1:3">
       <c r="A975" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="B975">
         <v>2024</v>
@@ -27827,7 +27833,7 @@
     </row>
     <row r="976" spans="1:3">
       <c r="A976" t="s">
-        <v>321</v>
+        <v>144</v>
       </c>
       <c r="B976">
         <v>2024</v>
@@ -27838,7 +27844,7 @@
     </row>
     <row r="977" spans="1:3">
       <c r="A977" t="s">
-        <v>494</v>
+        <v>321</v>
       </c>
       <c r="B977">
         <v>2024</v>
@@ -27849,7 +27855,7 @@
     </row>
     <row r="978" spans="1:3">
       <c r="A978" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="B978">
         <v>2024</v>
@@ -27860,7 +27866,7 @@
     </row>
     <row r="979" spans="1:3">
       <c r="A979" t="s">
-        <v>183</v>
+        <v>460</v>
       </c>
       <c r="B979">
         <v>2024</v>
@@ -27871,7 +27877,7 @@
     </row>
     <row r="980" spans="1:3">
       <c r="A980" t="s">
-        <v>602</v>
+        <v>183</v>
       </c>
       <c r="B980">
         <v>2024</v>
@@ -27882,7 +27888,7 @@
     </row>
     <row r="981" spans="1:3">
       <c r="A981" t="s">
-        <v>177</v>
+        <v>604</v>
       </c>
       <c r="B981">
         <v>2024</v>
@@ -27893,7 +27899,7 @@
     </row>
     <row r="982" spans="1:3">
       <c r="A982" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B982">
         <v>2024</v>
@@ -27904,7 +27910,7 @@
     </row>
     <row r="983" spans="1:3">
       <c r="A983" t="s">
-        <v>603</v>
+        <v>116</v>
       </c>
       <c r="B983">
         <v>2024</v>
@@ -27915,7 +27921,7 @@
     </row>
     <row r="984" spans="1:3">
       <c r="A984" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="B984">
         <v>2024</v>
@@ -27926,7 +27932,7 @@
     </row>
     <row r="985" spans="1:3">
       <c r="A985" t="s">
-        <v>604</v>
+        <v>502</v>
       </c>
       <c r="B985">
         <v>2024</v>
@@ -27937,7 +27943,7 @@
     </row>
     <row r="986" spans="1:3">
       <c r="A986" t="s">
-        <v>387</v>
+        <v>606</v>
       </c>
       <c r="B986">
         <v>2024</v>
@@ -27948,7 +27954,7 @@
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>605</v>
+        <v>387</v>
       </c>
       <c r="B987">
         <v>2024</v>
@@ -27959,7 +27965,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>118</v>
+        <v>607</v>
       </c>
       <c r="B988">
         <v>2024</v>
@@ -27970,7 +27976,7 @@
     </row>
     <row r="989" spans="1:3">
       <c r="A989" t="s">
-        <v>606</v>
+        <v>118</v>
       </c>
       <c r="B989">
         <v>2024</v>
@@ -27981,7 +27987,7 @@
     </row>
     <row r="990" spans="1:3">
       <c r="A990" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B990">
         <v>2024</v>
@@ -27992,7 +27998,7 @@
     </row>
     <row r="991" spans="1:3">
       <c r="A991" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
       <c r="B991">
         <v>2024</v>
@@ -28003,7 +28009,7 @@
     </row>
     <row r="992" spans="1:3">
       <c r="A992" t="s">
-        <v>608</v>
+        <v>484</v>
       </c>
       <c r="B992">
         <v>2024</v>
@@ -28014,7 +28020,7 @@
     </row>
     <row r="993" spans="1:3">
       <c r="A993" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B993">
         <v>2024</v>
@@ -28025,7 +28031,7 @@
     </row>
     <row r="994" spans="1:3">
       <c r="A994" t="s">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="B994">
         <v>2024</v>
@@ -28036,7 +28042,7 @@
     </row>
     <row r="995" spans="1:3">
       <c r="A995" t="s">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="B995">
         <v>2024</v>
@@ -28047,7 +28053,7 @@
     </row>
     <row r="996" spans="1:3">
       <c r="A996" t="s">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="B996">
         <v>2024</v>
@@ -28058,7 +28064,7 @@
     </row>
     <row r="997" spans="1:3">
       <c r="A997" t="s">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="B997">
         <v>2024</v>
@@ -28069,7 +28075,7 @@
     </row>
     <row r="998" spans="1:3">
       <c r="A998" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
       <c r="B998">
         <v>2024</v>
@@ -28080,7 +28086,7 @@
     </row>
     <row r="999" spans="1:3">
       <c r="A999" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B999">
         <v>2024</v>
@@ -28091,7 +28097,7 @@
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B1000">
         <v>2024</v>
@@ -28102,18 +28108,18 @@
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" t="s">
-        <v>263</v>
+        <v>614</v>
       </c>
       <c r="B1001">
         <v>2024</v>
       </c>
       <c r="C1001" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B1002">
         <v>2024</v>
@@ -28124,7 +28130,7 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="B1003">
         <v>2024</v>
@@ -28135,7 +28141,7 @@
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" t="s">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="B1004">
         <v>2024</v>
@@ -28146,7 +28152,7 @@
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="B1005">
         <v>2024</v>
@@ -28157,7 +28163,7 @@
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="B1006">
         <v>2024</v>
@@ -28168,7 +28174,7 @@
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" t="s">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="B1007">
         <v>2024</v>
@@ -28179,7 +28185,7 @@
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" t="s">
-        <v>613</v>
+        <v>418</v>
       </c>
       <c r="B1008">
         <v>2024</v>
@@ -28190,7 +28196,7 @@
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B1009">
         <v>2024</v>
@@ -28201,7 +28207,7 @@
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" t="s">
-        <v>388</v>
+        <v>616</v>
       </c>
       <c r="B1010">
         <v>2024</v>
@@ -28212,7 +28218,7 @@
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" t="s">
-        <v>615</v>
+        <v>388</v>
       </c>
       <c r="B1011">
         <v>2024</v>
@@ -28223,7 +28229,7 @@
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" t="s">
-        <v>251</v>
+        <v>617</v>
       </c>
       <c r="B1012">
         <v>2024</v>
@@ -28234,7 +28240,7 @@
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" t="s">
-        <v>489</v>
+        <v>251</v>
       </c>
       <c r="B1013">
         <v>2024</v>
@@ -28245,7 +28251,7 @@
     </row>
     <row r="1014" spans="1:3">
       <c r="A1014" t="s">
-        <v>616</v>
+        <v>489</v>
       </c>
       <c r="B1014">
         <v>2024</v>
@@ -28256,7 +28262,7 @@
     </row>
     <row r="1015" spans="1:3">
       <c r="A1015" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B1015">
         <v>2024</v>
@@ -28267,7 +28273,7 @@
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B1016">
         <v>2024</v>
@@ -28278,7 +28284,7 @@
     </row>
     <row r="1017" spans="1:3">
       <c r="A1017" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B1017">
         <v>2024</v>
@@ -28289,7 +28295,7 @@
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B1018">
         <v>2024</v>
@@ -28300,7 +28306,7 @@
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B1019">
         <v>2024</v>
@@ -28311,7 +28317,7 @@
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B1020">
         <v>2024</v>
@@ -28322,7 +28328,7 @@
     </row>
     <row r="1021" spans="1:3">
       <c r="A1021" t="s">
-        <v>303</v>
+        <v>624</v>
       </c>
       <c r="B1021">
         <v>2024</v>
@@ -28333,7 +28339,7 @@
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" t="s">
-        <v>623</v>
+        <v>303</v>
       </c>
       <c r="B1022">
         <v>2024</v>
@@ -28344,7 +28350,7 @@
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1023">
         <v>2024</v>
@@ -28355,7 +28361,7 @@
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" t="s">
-        <v>397</v>
+        <v>626</v>
       </c>
       <c r="B1024">
         <v>2024</v>
@@ -28366,7 +28372,7 @@
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="s">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="B1025">
         <v>2024</v>
@@ -28377,7 +28383,7 @@
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="B1026">
         <v>2024</v>
@@ -28388,7 +28394,7 @@
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" t="s">
-        <v>625</v>
+        <v>308</v>
       </c>
       <c r="B1027">
         <v>2024</v>
@@ -28399,7 +28405,7 @@
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B1028">
         <v>2024</v>
@@ -28410,18 +28416,18 @@
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" t="s">
-        <v>207</v>
+        <v>628</v>
       </c>
       <c r="B1029">
         <v>2024</v>
       </c>
       <c r="C1029" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B1030">
         <v>2024</v>
@@ -28432,7 +28438,7 @@
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" t="s">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="B1031">
         <v>2024</v>
@@ -28443,7 +28449,7 @@
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="B1032">
         <v>2024</v>
@@ -28454,7 +28460,7 @@
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" t="s">
-        <v>448</v>
+        <v>186</v>
       </c>
       <c r="B1033">
         <v>2024</v>
@@ -28465,7 +28471,7 @@
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" t="s">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="B1034">
         <v>2024</v>
@@ -28476,7 +28482,7 @@
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="B1035">
         <v>2024</v>
@@ -28487,7 +28493,7 @@
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="B1036">
         <v>2024</v>
@@ -28498,7 +28504,7 @@
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B1037">
         <v>2024</v>
@@ -28509,7 +28515,7 @@
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" t="s">
-        <v>198</v>
+        <v>459</v>
       </c>
       <c r="B1038">
         <v>2024</v>
@@ -28520,7 +28526,7 @@
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" t="s">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="B1039">
         <v>2024</v>
@@ -28531,7 +28537,7 @@
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" t="s">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="B1040">
         <v>2024</v>
@@ -28542,7 +28548,7 @@
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" t="s">
-        <v>447</v>
+        <v>215</v>
       </c>
       <c r="B1041">
         <v>2024</v>
@@ -28553,7 +28559,7 @@
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" t="s">
-        <v>306</v>
+        <v>447</v>
       </c>
       <c r="B1042">
         <v>2024</v>
@@ -28564,7 +28570,7 @@
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" t="s">
-        <v>477</v>
+        <v>306</v>
       </c>
       <c r="B1043">
         <v>2024</v>
@@ -28575,7 +28581,7 @@
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
       <c r="B1044">
         <v>2024</v>
@@ -28586,7 +28592,7 @@
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" t="s">
-        <v>430</v>
+        <v>629</v>
       </c>
       <c r="B1045">
         <v>2024</v>
@@ -28597,7 +28603,7 @@
     </row>
     <row r="1046" spans="1:3">
       <c r="A1046" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="B1046">
         <v>2024</v>
@@ -28608,7 +28614,7 @@
     </row>
     <row r="1047" spans="1:3">
       <c r="A1047" t="s">
-        <v>628</v>
+        <v>385</v>
       </c>
       <c r="B1047">
         <v>2024</v>
@@ -28619,7 +28625,7 @@
     </row>
     <row r="1048" spans="1:3">
       <c r="A1048" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1048">
         <v>2024</v>
@@ -28630,7 +28636,7 @@
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B1049">
         <v>2024</v>
@@ -28641,7 +28647,7 @@
     </row>
     <row r="1050" spans="1:3">
       <c r="A1050" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B1050">
         <v>2024</v>
@@ -28652,7 +28658,7 @@
     </row>
     <row r="1051" spans="1:3">
       <c r="A1051" t="s">
-        <v>234</v>
+        <v>633</v>
       </c>
       <c r="B1051">
         <v>2024</v>
@@ -28663,7 +28669,7 @@
     </row>
     <row r="1052" spans="1:3">
       <c r="A1052" t="s">
-        <v>632</v>
+        <v>234</v>
       </c>
       <c r="B1052">
         <v>2024</v>
@@ -28674,7 +28680,7 @@
     </row>
     <row r="1053" spans="1:3">
       <c r="A1053" t="s">
-        <v>152</v>
+        <v>634</v>
       </c>
       <c r="B1053">
         <v>2024</v>
@@ -28685,7 +28691,7 @@
     </row>
     <row r="1054" spans="1:3">
       <c r="A1054" t="s">
-        <v>633</v>
+        <v>152</v>
       </c>
       <c r="B1054">
         <v>2024</v>
@@ -28696,7 +28702,7 @@
     </row>
     <row r="1055" spans="1:3">
       <c r="A1055" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B1055">
         <v>2024</v>
@@ -28707,18 +28713,18 @@
     </row>
     <row r="1056" spans="1:3">
       <c r="A1056" t="s">
-        <v>134</v>
+        <v>636</v>
       </c>
       <c r="B1056">
         <v>2024</v>
       </c>
       <c r="C1056" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
       <c r="A1057" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="B1057">
         <v>2024</v>
@@ -28729,7 +28735,7 @@
     </row>
     <row r="1058" spans="1:3">
       <c r="A1058" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="B1058">
         <v>2024</v>
@@ -28740,7 +28746,7 @@
     </row>
     <row r="1059" spans="1:3">
       <c r="A1059" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B1059">
         <v>2024</v>
@@ -28751,7 +28757,7 @@
     </row>
     <row r="1060" spans="1:3">
       <c r="A1060" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B1060">
         <v>2024</v>
@@ -28762,7 +28768,7 @@
     </row>
     <row r="1061" spans="1:3">
       <c r="A1061" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B1061">
         <v>2024</v>
@@ -28773,7 +28779,7 @@
     </row>
     <row r="1062" spans="1:3">
       <c r="A1062" t="s">
-        <v>480</v>
+        <v>143</v>
       </c>
       <c r="B1062">
         <v>2024</v>
@@ -28784,7 +28790,7 @@
     </row>
     <row r="1063" spans="1:3">
       <c r="A1063" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B1063">
         <v>2024</v>
@@ -28795,7 +28801,7 @@
     </row>
     <row r="1064" spans="1:3">
       <c r="A1064" t="s">
-        <v>305</v>
+        <v>498</v>
       </c>
       <c r="B1064">
         <v>2024</v>
@@ -28806,7 +28812,7 @@
     </row>
     <row r="1065" spans="1:3">
       <c r="A1065" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B1065">
         <v>2024</v>
@@ -28817,7 +28823,7 @@
     </row>
     <row r="1066" spans="1:3">
       <c r="A1066" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="B1066">
         <v>2024</v>
@@ -28828,7 +28834,7 @@
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="B1067">
         <v>2024</v>
@@ -28839,7 +28845,7 @@
     </row>
     <row r="1068" spans="1:3">
       <c r="A1068" t="s">
-        <v>508</v>
+        <v>292</v>
       </c>
       <c r="B1068">
         <v>2024</v>
@@ -28850,7 +28856,7 @@
     </row>
     <row r="1069" spans="1:3">
       <c r="A1069" t="s">
-        <v>322</v>
+        <v>508</v>
       </c>
       <c r="B1069">
         <v>2024</v>
@@ -28861,7 +28867,7 @@
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B1070">
         <v>2024</v>
@@ -28872,7 +28878,7 @@
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" t="s">
-        <v>635</v>
+        <v>345</v>
       </c>
       <c r="B1071">
         <v>2024</v>
@@ -28883,7 +28889,7 @@
     </row>
     <row r="1072" spans="1:3">
       <c r="A1072" t="s">
-        <v>153</v>
+        <v>637</v>
       </c>
       <c r="B1072">
         <v>2024</v>
@@ -28894,7 +28900,7 @@
     </row>
     <row r="1073" spans="1:3">
       <c r="A1073" t="s">
-        <v>636</v>
+        <v>153</v>
       </c>
       <c r="B1073">
         <v>2024</v>
@@ -28905,7 +28911,7 @@
     </row>
     <row r="1074" spans="1:3">
       <c r="A1074" t="s">
-        <v>262</v>
+        <v>638</v>
       </c>
       <c r="B1074">
         <v>2024</v>
@@ -28916,7 +28922,7 @@
     </row>
     <row r="1075" spans="1:3">
       <c r="A1075" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1075">
         <v>2024</v>
@@ -28927,7 +28933,7 @@
     </row>
     <row r="1076" spans="1:3">
       <c r="A1076" t="s">
-        <v>637</v>
+        <v>350</v>
       </c>
       <c r="B1076">
         <v>2024</v>
@@ -28938,7 +28944,7 @@
     </row>
     <row r="1077" spans="1:3">
       <c r="A1077" t="s">
-        <v>450</v>
+        <v>639</v>
       </c>
       <c r="B1077">
         <v>2024</v>
@@ -28949,7 +28955,7 @@
     </row>
     <row r="1078" spans="1:3">
       <c r="A1078" t="s">
-        <v>638</v>
+        <v>450</v>
       </c>
       <c r="B1078">
         <v>2024</v>
@@ -28960,7 +28966,7 @@
     </row>
     <row r="1079" spans="1:3">
       <c r="A1079" t="s">
-        <v>269</v>
+        <v>640</v>
       </c>
       <c r="B1079">
         <v>2024</v>
@@ -28971,7 +28977,7 @@
     </row>
     <row r="1080" spans="1:3">
       <c r="A1080" t="s">
-        <v>463</v>
+        <v>269</v>
       </c>
       <c r="B1080">
         <v>2024</v>
@@ -28982,7 +28988,7 @@
     </row>
     <row r="1081" spans="1:3">
       <c r="A1081" t="s">
-        <v>639</v>
+        <v>463</v>
       </c>
       <c r="B1081">
         <v>2024</v>
@@ -28993,7 +28999,7 @@
     </row>
     <row r="1082" spans="1:3">
       <c r="A1082" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B1082">
         <v>2024</v>
@@ -29004,7 +29010,7 @@
     </row>
     <row r="1083" spans="1:3">
       <c r="A1083" t="s">
-        <v>114</v>
+        <v>642</v>
       </c>
       <c r="B1083">
         <v>2024</v>
@@ -29015,7 +29021,7 @@
     </row>
     <row r="1084" spans="1:3">
       <c r="A1084" t="s">
-        <v>641</v>
+        <v>114</v>
       </c>
       <c r="B1084">
         <v>2024</v>
@@ -29026,12 +29032,23 @@
     </row>
     <row r="1085" spans="1:3">
       <c r="A1085" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1085">
+        <v>2024</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c r="A1086" t="s">
         <v>258</v>
       </c>
-      <c r="B1085">
-        <v>2024</v>
-      </c>
-      <c r="C1085" t="s">
+      <c r="B1086">
+        <v>2024</v>
+      </c>
+      <c r="C1086" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="645">
   <si>
     <t>Week</t>
   </si>
@@ -1728,6 +1728,9 @@
     <t>Erick Fedde</t>
   </si>
   <si>
+    <t>Jake Meyers</t>
+  </si>
+  <si>
     <t>Gabriel Moreno</t>
   </si>
   <si>
@@ -1812,24 +1815,24 @@
     <t>Jordan Westburg</t>
   </si>
   <si>
-    <t>Mauricio Dubon</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
     <t>Cade Smith</t>
   </si>
   <si>
-    <t>Donovan Solano</t>
-  </si>
-  <si>
     <t>Drew Thorpe</t>
   </si>
   <si>
     <t>Max Schuemann</t>
   </si>
   <si>
+    <t>Brooks Lee</t>
+  </si>
+  <si>
+    <t>Angel Martinez</t>
+  </si>
+  <si>
     <t>Christopher Morel</t>
   </si>
   <si>
@@ -1860,7 +1863,7 @@
     <t>Rece Hinds</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
+    <t>Tyler Phillips</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
@@ -15173,61 +15176,61 @@
         <v>25</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F182">
-        <v>0.8852459</v>
+        <v>0.89256198</v>
       </c>
       <c r="G182" t="s">
         <v>35</v>
       </c>
       <c r="H182">
-        <v>2.6557377</v>
+        <v>2.00826446</v>
       </c>
       <c r="I182" t="s">
         <v>35</v>
       </c>
       <c r="J182">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K182" t="s">
         <v>36</v>
       </c>
       <c r="L182">
-        <v>0.3372093</v>
+        <v>0.34693878</v>
       </c>
       <c r="M182" t="s">
         <v>35</v>
       </c>
       <c r="N182">
+        <v>8</v>
+      </c>
+      <c r="O182" t="s">
+        <v>35</v>
+      </c>
+      <c r="P182">
+        <v>52</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>35</v>
+      </c>
+      <c r="R182">
+        <v>45</v>
+      </c>
+      <c r="S182" t="s">
+        <v>35</v>
+      </c>
+      <c r="T182">
+        <v>4</v>
+      </c>
+      <c r="U182" t="s">
+        <v>35</v>
+      </c>
+      <c r="V182">
         <v>3</v>
-      </c>
-      <c r="O182" t="s">
-        <v>37</v>
-      </c>
-      <c r="P182">
-        <v>30</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>35</v>
-      </c>
-      <c r="R182">
-        <v>28</v>
-      </c>
-      <c r="S182" t="s">
-        <v>35</v>
-      </c>
-      <c r="T182">
-        <v>2</v>
-      </c>
-      <c r="U182" t="s">
-        <v>35</v>
-      </c>
-      <c r="V182">
-        <v>1</v>
       </c>
       <c r="W182" t="s">
         <v>36</v>
@@ -15244,61 +15247,61 @@
         <v>24</v>
       </c>
       <c r="D183">
+        <v>18</v>
+      </c>
+      <c r="E183" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183">
+        <v>1.30882353</v>
+      </c>
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183">
+        <v>4.5</v>
+      </c>
+      <c r="I183" t="s">
+        <v>36</v>
+      </c>
+      <c r="J183">
+        <v>68</v>
+      </c>
+      <c r="K183" t="s">
+        <v>35</v>
+      </c>
+      <c r="L183">
+        <v>0.34365325</v>
+      </c>
+      <c r="M183" t="s">
+        <v>36</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>36</v>
+      </c>
+      <c r="P183">
+        <v>45</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>36</v>
+      </c>
+      <c r="R183">
+        <v>44</v>
+      </c>
+      <c r="S183" t="s">
+        <v>36</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183" t="s">
+        <v>36</v>
+      </c>
+      <c r="V183">
         <v>8</v>
-      </c>
-      <c r="E183" t="s">
-        <v>36</v>
-      </c>
-      <c r="F183">
-        <v>1.17757009</v>
-      </c>
-      <c r="G183" t="s">
-        <v>36</v>
-      </c>
-      <c r="H183">
-        <v>5.04672897</v>
-      </c>
-      <c r="I183" t="s">
-        <v>36</v>
-      </c>
-      <c r="J183">
-        <v>39</v>
-      </c>
-      <c r="K183" t="s">
-        <v>35</v>
-      </c>
-      <c r="L183">
-        <v>0.31952663</v>
-      </c>
-      <c r="M183" t="s">
-        <v>36</v>
-      </c>
-      <c r="N183">
-        <v>3</v>
-      </c>
-      <c r="O183" t="s">
-        <v>37</v>
-      </c>
-      <c r="P183">
-        <v>24</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>36</v>
-      </c>
-      <c r="R183">
-        <v>20</v>
-      </c>
-      <c r="S183" t="s">
-        <v>36</v>
-      </c>
-      <c r="T183">
-        <v>1</v>
-      </c>
-      <c r="U183" t="s">
-        <v>36</v>
-      </c>
-      <c r="V183">
-        <v>3</v>
       </c>
       <c r="W183" t="s">
         <v>35</v>
@@ -15315,61 +15318,61 @@
         <v>27</v>
       </c>
       <c r="D184">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184">
+        <v>1.04918033</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184">
+        <v>2.95081967</v>
+      </c>
+      <c r="I184" t="s">
+        <v>35</v>
+      </c>
+      <c r="J184">
+        <v>62</v>
+      </c>
+      <c r="K184" t="s">
+        <v>36</v>
+      </c>
+      <c r="L184">
+        <v>0.32763533</v>
+      </c>
+      <c r="M184" t="s">
+        <v>36</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
         <v>37</v>
       </c>
-      <c r="F184">
-        <v>0.93103448</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
-      <c r="H184">
-        <v>2.79310345</v>
-      </c>
-      <c r="I184" t="s">
-        <v>35</v>
-      </c>
-      <c r="J184">
-        <v>32</v>
-      </c>
-      <c r="K184" t="s">
-        <v>36</v>
-      </c>
-      <c r="L184">
-        <v>0.34391534</v>
-      </c>
-      <c r="M184" t="s">
-        <v>35</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184" t="s">
-        <v>36</v>
-      </c>
       <c r="P184">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q184" t="s">
         <v>35</v>
       </c>
       <c r="R184">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S184" t="s">
         <v>35</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W184" t="s">
         <v>37</v>
@@ -15386,61 +15389,61 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F185">
-        <v>1.31372549</v>
+        <v>1.19742489</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
       </c>
       <c r="H185">
-        <v>5.11764706</v>
+        <v>4.28755365</v>
       </c>
       <c r="I185" t="s">
         <v>36</v>
       </c>
       <c r="J185">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K185" t="s">
         <v>35</v>
       </c>
       <c r="L185">
-        <v>0.31395349</v>
+        <v>0.34036145</v>
       </c>
       <c r="M185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N185">
         <v>3</v>
       </c>
       <c r="O185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P185">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Q185" t="s">
         <v>36</v>
       </c>
       <c r="R185">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S185" t="s">
         <v>36</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W185" t="s">
         <v>37</v>
@@ -15457,64 +15460,64 @@
         <v>28</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
         <v>35</v>
       </c>
       <c r="F186">
-        <v>0.85416667</v>
+        <v>1.05128205</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>2.0625</v>
+        <v>3.34615385</v>
       </c>
       <c r="I186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J186">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="K186" t="s">
         <v>35</v>
       </c>
       <c r="L186">
-        <v>0.40860215</v>
+        <v>0.34582133</v>
       </c>
       <c r="M186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O186" t="s">
         <v>36</v>
       </c>
       <c r="P186">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Q186" t="s">
         <v>35</v>
       </c>
       <c r="R186">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="S186" t="s">
         <v>35</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V186">
         <v>4</v>
       </c>
       <c r="W186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -15528,49 +15531,49 @@
         <v>26</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
         <v>36</v>
       </c>
       <c r="F187">
-        <v>1.03225806</v>
+        <v>0.94660194</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>4.35483871</v>
+        <v>3.27669903</v>
       </c>
       <c r="I187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J187">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K187" t="s">
         <v>36</v>
       </c>
       <c r="L187">
-        <v>0.28472222</v>
+        <v>0.34892086</v>
       </c>
       <c r="M187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O187" t="s">
         <v>35</v>
       </c>
       <c r="P187">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Q187" t="s">
         <v>36</v>
       </c>
       <c r="R187">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S187" t="s">
         <v>36</v>
@@ -15579,13 +15582,13 @@
         <v>3</v>
       </c>
       <c r="U187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V187">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -15602,46 +15605,46 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F188">
-        <v>1.26415094</v>
+        <v>1.36633663</v>
       </c>
       <c r="G188" t="s">
         <v>35</v>
       </c>
       <c r="H188">
-        <v>4.41509434</v>
+        <v>4.81188119</v>
       </c>
       <c r="I188" t="s">
         <v>35</v>
       </c>
       <c r="J188">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K188" t="s">
         <v>35</v>
       </c>
       <c r="L188">
-        <v>0.33557047</v>
+        <v>0.28571429</v>
       </c>
       <c r="M188" t="s">
         <v>35</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O188" t="s">
         <v>35</v>
       </c>
       <c r="P188">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R188">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S188" t="s">
         <v>36</v>
@@ -15653,10 +15656,10 @@
         <v>35</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -15670,64 +15673,64 @@
         <v>30</v>
       </c>
       <c r="D189">
+        <v>11</v>
+      </c>
+      <c r="E189" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189">
+        <v>1.59183673</v>
+      </c>
+      <c r="G189" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189">
+        <v>6.06122449</v>
+      </c>
+      <c r="I189" t="s">
+        <v>36</v>
+      </c>
+      <c r="J189">
+        <v>58</v>
+      </c>
+      <c r="K189" t="s">
+        <v>36</v>
+      </c>
+      <c r="L189">
+        <v>0.27794562</v>
+      </c>
+      <c r="M189" t="s">
+        <v>36</v>
+      </c>
+      <c r="N189">
         <v>2</v>
       </c>
-      <c r="E189" t="s">
-        <v>36</v>
-      </c>
-      <c r="F189">
-        <v>1.51515152</v>
-      </c>
-      <c r="G189" t="s">
-        <v>36</v>
-      </c>
-      <c r="H189">
-        <v>4.90909091</v>
-      </c>
-      <c r="I189" t="s">
-        <v>36</v>
-      </c>
-      <c r="J189">
-        <v>30</v>
-      </c>
-      <c r="K189" t="s">
-        <v>36</v>
-      </c>
-      <c r="L189">
-        <v>0.27272727</v>
-      </c>
-      <c r="M189" t="s">
-        <v>36</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
       <c r="O189" t="s">
         <v>36</v>
       </c>
       <c r="P189">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R189">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="S189" t="s">
         <v>35</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U189" t="s">
         <v>36</v>
       </c>
       <c r="V189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15741,61 +15744,61 @@
         <v>33</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
         <v>36</v>
       </c>
       <c r="F190">
-        <v>1.18965517</v>
+        <v>1.26666667</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
       </c>
       <c r="H190">
-        <v>5.12068966</v>
+        <v>4.6</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
       </c>
       <c r="J190">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="K190" t="s">
         <v>36</v>
       </c>
       <c r="L190">
-        <v>0.31914894</v>
+        <v>0.33910035</v>
       </c>
       <c r="M190" t="s">
         <v>36</v>
       </c>
       <c r="N190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O190" t="s">
         <v>36</v>
       </c>
       <c r="P190">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q190" t="s">
         <v>36</v>
       </c>
       <c r="R190">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="S190" t="s">
         <v>36</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U190" t="s">
         <v>36</v>
       </c>
       <c r="V190">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W190" t="s">
         <v>35</v>
@@ -15812,61 +15815,61 @@
         <v>29</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E191" t="s">
         <v>35</v>
       </c>
       <c r="F191">
-        <v>1.09322034</v>
+        <v>1.14893617</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
       </c>
       <c r="H191">
-        <v>3.20338983</v>
+        <v>3.01595745</v>
       </c>
       <c r="I191" t="s">
         <v>35</v>
       </c>
       <c r="J191">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K191" t="s">
         <v>35</v>
       </c>
       <c r="L191">
-        <v>0.34939759</v>
+        <v>0.34545455</v>
       </c>
       <c r="M191" t="s">
         <v>35</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O191" t="s">
         <v>35</v>
       </c>
       <c r="P191">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q191" t="s">
         <v>35</v>
       </c>
       <c r="R191">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S191" t="s">
         <v>35</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U191" t="s">
         <v>35</v>
       </c>
       <c r="V191">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W191" t="s">
         <v>36</v>
@@ -15883,61 +15886,61 @@
         <v>34</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F192">
-        <v>0.90909091</v>
+        <v>1.24390244</v>
       </c>
       <c r="G192" t="s">
         <v>35</v>
       </c>
       <c r="H192">
-        <v>2.04545455</v>
+        <v>2.63414634</v>
       </c>
       <c r="I192" t="s">
         <v>35</v>
       </c>
       <c r="J192">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K192" t="s">
         <v>36</v>
       </c>
       <c r="L192">
-        <v>0.27972028</v>
+        <v>0.32103321</v>
       </c>
       <c r="M192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O192" t="s">
         <v>37</v>
       </c>
       <c r="P192">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q192" t="s">
         <v>36</v>
       </c>
       <c r="R192">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S192" t="s">
         <v>36</v>
       </c>
       <c r="T192">
+        <v>5</v>
+      </c>
+      <c r="U192" t="s">
+        <v>36</v>
+      </c>
+      <c r="V192">
         <v>4</v>
-      </c>
-      <c r="U192" t="s">
-        <v>35</v>
-      </c>
-      <c r="V192">
-        <v>2</v>
       </c>
       <c r="W192" t="s">
         <v>35</v>
@@ -15954,61 +15957,61 @@
         <v>32</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F193">
-        <v>1.08661417</v>
+        <v>1.29767442</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
       </c>
       <c r="H193">
-        <v>2.76377953</v>
+        <v>4.52093023</v>
       </c>
       <c r="I193" t="s">
         <v>36</v>
       </c>
       <c r="J193">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="K193" t="s">
         <v>35</v>
       </c>
       <c r="L193">
-        <v>0.33793103</v>
+        <v>0.31632653</v>
       </c>
       <c r="M193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N193">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O193" t="s">
         <v>37</v>
       </c>
       <c r="P193">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q193" t="s">
         <v>35</v>
       </c>
       <c r="R193">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S193" t="s">
         <v>35</v>
       </c>
       <c r="T193">
+        <v>6</v>
+      </c>
+      <c r="U193" t="s">
+        <v>35</v>
+      </c>
+      <c r="V193">
         <v>3</v>
-      </c>
-      <c r="U193" t="s">
-        <v>36</v>
-      </c>
-      <c r="V193">
-        <v>1</v>
       </c>
       <c r="W193" t="s">
         <v>36</v>
@@ -17100,7 +17103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1086"/>
+  <dimension ref="A1:C1084"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26106,7 +26109,7 @@
     </row>
     <row r="819" spans="1:3">
       <c r="A819" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
       <c r="B819">
         <v>2024</v>
@@ -26117,18 +26120,18 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" t="s">
-        <v>553</v>
+        <v>185</v>
       </c>
       <c r="B820">
         <v>2024</v>
       </c>
       <c r="C820" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="821" spans="1:3">
       <c r="A821" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B821">
         <v>2024</v>
@@ -26139,7 +26142,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B822">
         <v>2024</v>
@@ -26150,7 +26153,7 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="B823">
         <v>2024</v>
@@ -26161,7 +26164,7 @@
     </row>
     <row r="824" spans="1:3">
       <c r="A824" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="B824">
         <v>2024</v>
@@ -26172,7 +26175,7 @@
     </row>
     <row r="825" spans="1:3">
       <c r="A825" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="B825">
         <v>2024</v>
@@ -26183,7 +26186,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B826">
         <v>2024</v>
@@ -26194,7 +26197,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" t="s">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="B827">
         <v>2024</v>
@@ -26205,7 +26208,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
       <c r="B828">
         <v>2024</v>
@@ -26216,7 +26219,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="B829">
         <v>2024</v>
@@ -26227,7 +26230,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B830">
         <v>2024</v>
@@ -26238,7 +26241,7 @@
     </row>
     <row r="831" spans="1:3">
       <c r="A831" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B831">
         <v>2024</v>
@@ -26249,7 +26252,7 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" t="s">
-        <v>473</v>
+        <v>231</v>
       </c>
       <c r="B832">
         <v>2024</v>
@@ -26260,7 +26263,7 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" t="s">
-        <v>231</v>
+        <v>554</v>
       </c>
       <c r="B833">
         <v>2024</v>
@@ -26271,7 +26274,7 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834" t="s">
-        <v>554</v>
+        <v>214</v>
       </c>
       <c r="B834">
         <v>2024</v>
@@ -26282,7 +26285,7 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="B835">
         <v>2024</v>
@@ -26293,7 +26296,7 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" t="s">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="B836">
         <v>2024</v>
@@ -26304,7 +26307,7 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" t="s">
-        <v>555</v>
+        <v>155</v>
       </c>
       <c r="B837">
         <v>2024</v>
@@ -26315,7 +26318,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" t="s">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="B838">
         <v>2024</v>
@@ -26326,7 +26329,7 @@
     </row>
     <row r="839" spans="1:3">
       <c r="A839" t="s">
-        <v>465</v>
+        <v>556</v>
       </c>
       <c r="B839">
         <v>2024</v>
@@ -26337,7 +26340,7 @@
     </row>
     <row r="840" spans="1:3">
       <c r="A840" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B840">
         <v>2024</v>
@@ -26348,7 +26351,7 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" t="s">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="B841">
         <v>2024</v>
@@ -26359,7 +26362,7 @@
     </row>
     <row r="842" spans="1:3">
       <c r="A842" t="s">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="B842">
         <v>2024</v>
@@ -26370,7 +26373,7 @@
     </row>
     <row r="843" spans="1:3">
       <c r="A843" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="B843">
         <v>2024</v>
@@ -26381,7 +26384,7 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="B844">
         <v>2024</v>
@@ -26392,7 +26395,7 @@
     </row>
     <row r="845" spans="1:3">
       <c r="A845" t="s">
-        <v>171</v>
+        <v>559</v>
       </c>
       <c r="B845">
         <v>2024</v>
@@ -26403,7 +26406,7 @@
     </row>
     <row r="846" spans="1:3">
       <c r="A846" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B846">
         <v>2024</v>
@@ -26414,7 +26417,7 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B847">
         <v>2024</v>
@@ -26425,7 +26428,7 @@
     </row>
     <row r="848" spans="1:3">
       <c r="A848" t="s">
-        <v>560</v>
+        <v>168</v>
       </c>
       <c r="B848">
         <v>2024</v>
@@ -26436,7 +26439,7 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" t="s">
-        <v>561</v>
+        <v>314</v>
       </c>
       <c r="B849">
         <v>2024</v>
@@ -26447,29 +26450,29 @@
     </row>
     <row r="850" spans="1:3">
       <c r="A850" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="B850">
         <v>2024</v>
       </c>
       <c r="C850" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="B851">
         <v>2024</v>
       </c>
       <c r="C851" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B852">
         <v>2024</v>
@@ -26480,7 +26483,7 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B853">
         <v>2024</v>
@@ -26491,7 +26494,7 @@
     </row>
     <row r="854" spans="1:3">
       <c r="A854" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="B854">
         <v>2024</v>
@@ -26502,7 +26505,7 @@
     </row>
     <row r="855" spans="1:3">
       <c r="A855" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="B855">
         <v>2024</v>
@@ -26513,7 +26516,7 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B856">
         <v>2024</v>
@@ -26524,7 +26527,7 @@
     </row>
     <row r="857" spans="1:3">
       <c r="A857" t="s">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="B857">
         <v>2024</v>
@@ -26535,7 +26538,7 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="B858">
         <v>2024</v>
@@ -26546,7 +26549,7 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="B859">
         <v>2024</v>
@@ -26557,7 +26560,7 @@
     </row>
     <row r="860" spans="1:3">
       <c r="A860" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B860">
         <v>2024</v>
@@ -26568,7 +26571,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B861">
         <v>2024</v>
@@ -26579,7 +26582,7 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="B862">
         <v>2024</v>
@@ -26590,7 +26593,7 @@
     </row>
     <row r="863" spans="1:3">
       <c r="A863" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B863">
         <v>2024</v>
@@ -26601,7 +26604,7 @@
     </row>
     <row r="864" spans="1:3">
       <c r="A864" t="s">
-        <v>241</v>
+        <v>562</v>
       </c>
       <c r="B864">
         <v>2024</v>
@@ -26612,7 +26615,7 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" t="s">
-        <v>378</v>
+        <v>563</v>
       </c>
       <c r="B865">
         <v>2024</v>
@@ -26623,7 +26626,7 @@
     </row>
     <row r="866" spans="1:3">
       <c r="A866" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="B866">
         <v>2024</v>
@@ -26634,7 +26637,7 @@
     </row>
     <row r="867" spans="1:3">
       <c r="A867" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B867">
         <v>2024</v>
@@ -26645,7 +26648,7 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" t="s">
-        <v>501</v>
+        <v>323</v>
       </c>
       <c r="B868">
         <v>2024</v>
@@ -26656,7 +26659,7 @@
     </row>
     <row r="869" spans="1:3">
       <c r="A869" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B869">
         <v>2024</v>
@@ -26667,7 +26670,7 @@
     </row>
     <row r="870" spans="1:3">
       <c r="A870" t="s">
-        <v>323</v>
+        <v>566</v>
       </c>
       <c r="B870">
         <v>2024</v>
@@ -26678,7 +26681,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" t="s">
-        <v>565</v>
+        <v>395</v>
       </c>
       <c r="B871">
         <v>2024</v>
@@ -26689,7 +26692,7 @@
     </row>
     <row r="872" spans="1:3">
       <c r="A872" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B872">
         <v>2024</v>
@@ -26700,7 +26703,7 @@
     </row>
     <row r="873" spans="1:3">
       <c r="A873" t="s">
-        <v>395</v>
+        <v>568</v>
       </c>
       <c r="B873">
         <v>2024</v>
@@ -26711,7 +26714,7 @@
     </row>
     <row r="874" spans="1:3">
       <c r="A874" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B874">
         <v>2024</v>
@@ -26722,7 +26725,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" t="s">
-        <v>568</v>
+        <v>145</v>
       </c>
       <c r="B875">
         <v>2024</v>
@@ -26733,7 +26736,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" t="s">
-        <v>270</v>
+        <v>474</v>
       </c>
       <c r="B876">
         <v>2024</v>
@@ -26744,7 +26747,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" t="s">
-        <v>569</v>
+        <v>481</v>
       </c>
       <c r="B877">
         <v>2024</v>
@@ -26755,7 +26758,7 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" t="s">
-        <v>145</v>
+        <v>570</v>
       </c>
       <c r="B878">
         <v>2024</v>
@@ -26766,29 +26769,29 @@
     </row>
     <row r="879" spans="1:3">
       <c r="A879" t="s">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="B879">
         <v>2024</v>
       </c>
       <c r="C879" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="880" spans="1:3">
       <c r="A880" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="B880">
         <v>2024</v>
       </c>
       <c r="C880" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="A881" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="B881">
         <v>2024</v>
@@ -26799,7 +26802,7 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" t="s">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="B882">
         <v>2024</v>
@@ -26810,7 +26813,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" t="s">
-        <v>419</v>
+        <v>509</v>
       </c>
       <c r="B883">
         <v>2024</v>
@@ -26821,7 +26824,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" t="s">
-        <v>416</v>
+        <v>122</v>
       </c>
       <c r="B884">
         <v>2024</v>
@@ -26832,7 +26835,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" t="s">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="B885">
         <v>2024</v>
@@ -26843,7 +26846,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
       <c r="B886">
         <v>2024</v>
@@ -26854,7 +26857,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="B887">
         <v>2024</v>
@@ -26865,7 +26868,7 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="B888">
         <v>2024</v>
@@ -26876,7 +26879,7 @@
     </row>
     <row r="889" spans="1:3">
       <c r="A889" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B889">
         <v>2024</v>
@@ -26887,7 +26890,7 @@
     </row>
     <row r="890" spans="1:3">
       <c r="A890" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B890">
         <v>2024</v>
@@ -26898,7 +26901,7 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="B891">
         <v>2024</v>
@@ -26909,7 +26912,7 @@
     </row>
     <row r="892" spans="1:3">
       <c r="A892" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B892">
         <v>2024</v>
@@ -26920,7 +26923,7 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B893">
         <v>2024</v>
@@ -26931,7 +26934,7 @@
     </row>
     <row r="894" spans="1:3">
       <c r="A894" t="s">
-        <v>226</v>
+        <v>458</v>
       </c>
       <c r="B894">
         <v>2024</v>
@@ -26942,7 +26945,7 @@
     </row>
     <row r="895" spans="1:3">
       <c r="A895" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
       <c r="B895">
         <v>2024</v>
@@ -26953,7 +26956,7 @@
     </row>
     <row r="896" spans="1:3">
       <c r="A896" t="s">
-        <v>458</v>
+        <v>219</v>
       </c>
       <c r="B896">
         <v>2024</v>
@@ -26964,7 +26967,7 @@
     </row>
     <row r="897" spans="1:3">
       <c r="A897" t="s">
-        <v>513</v>
+        <v>165</v>
       </c>
       <c r="B897">
         <v>2024</v>
@@ -26975,7 +26978,7 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898" t="s">
-        <v>219</v>
+        <v>573</v>
       </c>
       <c r="B898">
         <v>2024</v>
@@ -26986,7 +26989,7 @@
     </row>
     <row r="899" spans="1:3">
       <c r="A899" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B899">
         <v>2024</v>
@@ -26997,7 +27000,7 @@
     </row>
     <row r="900" spans="1:3">
       <c r="A900" t="s">
-        <v>572</v>
+        <v>190</v>
       </c>
       <c r="B900">
         <v>2024</v>
@@ -27008,7 +27011,7 @@
     </row>
     <row r="901" spans="1:3">
       <c r="A901" t="s">
-        <v>393</v>
+        <v>249</v>
       </c>
       <c r="B901">
         <v>2024</v>
@@ -27019,7 +27022,7 @@
     </row>
     <row r="902" spans="1:3">
       <c r="A902" t="s">
-        <v>190</v>
+        <v>574</v>
       </c>
       <c r="B902">
         <v>2024</v>
@@ -27030,7 +27033,7 @@
     </row>
     <row r="903" spans="1:3">
       <c r="A903" t="s">
-        <v>249</v>
+        <v>413</v>
       </c>
       <c r="B903">
         <v>2024</v>
@@ -27041,7 +27044,7 @@
     </row>
     <row r="904" spans="1:3">
       <c r="A904" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B904">
         <v>2024</v>
@@ -27052,7 +27055,7 @@
     </row>
     <row r="905" spans="1:3">
       <c r="A905" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="B905">
         <v>2024</v>
@@ -27063,7 +27066,7 @@
     </row>
     <row r="906" spans="1:3">
       <c r="A906" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B906">
         <v>2024</v>
@@ -27074,7 +27077,7 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907" t="s">
-        <v>575</v>
+        <v>424</v>
       </c>
       <c r="B907">
         <v>2024</v>
@@ -27085,7 +27088,7 @@
     </row>
     <row r="908" spans="1:3">
       <c r="A908" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B908">
         <v>2024</v>
@@ -27096,29 +27099,29 @@
     </row>
     <row r="909" spans="1:3">
       <c r="A909" t="s">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="B909">
         <v>2024</v>
       </c>
       <c r="C909" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="910" spans="1:3">
       <c r="A910" t="s">
-        <v>577</v>
+        <v>193</v>
       </c>
       <c r="B910">
         <v>2024</v>
       </c>
       <c r="C910" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" t="s">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="B911">
         <v>2024</v>
@@ -27129,7 +27132,7 @@
     </row>
     <row r="912" spans="1:3">
       <c r="A912" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B912">
         <v>2024</v>
@@ -27140,7 +27143,7 @@
     </row>
     <row r="913" spans="1:3">
       <c r="A913" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="B913">
         <v>2024</v>
@@ -27151,7 +27154,7 @@
     </row>
     <row r="914" spans="1:3">
       <c r="A914" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B914">
         <v>2024</v>
@@ -27162,7 +27165,7 @@
     </row>
     <row r="915" spans="1:3">
       <c r="A915" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="B915">
         <v>2024</v>
@@ -27173,7 +27176,7 @@
     </row>
     <row r="916" spans="1:3">
       <c r="A916" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="B916">
         <v>2024</v>
@@ -27184,7 +27187,7 @@
     </row>
     <row r="917" spans="1:3">
       <c r="A917" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="B917">
         <v>2024</v>
@@ -27195,7 +27198,7 @@
     </row>
     <row r="918" spans="1:3">
       <c r="A918" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="B918">
         <v>2024</v>
@@ -27206,7 +27209,7 @@
     </row>
     <row r="919" spans="1:3">
       <c r="A919" t="s">
-        <v>299</v>
+        <v>579</v>
       </c>
       <c r="B919">
         <v>2024</v>
@@ -27217,7 +27220,7 @@
     </row>
     <row r="920" spans="1:3">
       <c r="A920" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="B920">
         <v>2024</v>
@@ -27228,7 +27231,7 @@
     </row>
     <row r="921" spans="1:3">
       <c r="A921" t="s">
-        <v>578</v>
+        <v>348</v>
       </c>
       <c r="B921">
         <v>2024</v>
@@ -27239,7 +27242,7 @@
     </row>
     <row r="922" spans="1:3">
       <c r="A922" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="B922">
         <v>2024</v>
@@ -27250,7 +27253,7 @@
     </row>
     <row r="923" spans="1:3">
       <c r="A923" t="s">
-        <v>348</v>
+        <v>580</v>
       </c>
       <c r="B923">
         <v>2024</v>
@@ -27261,7 +27264,7 @@
     </row>
     <row r="924" spans="1:3">
       <c r="A924" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="B924">
         <v>2024</v>
@@ -27272,7 +27275,7 @@
     </row>
     <row r="925" spans="1:3">
       <c r="A925" t="s">
-        <v>579</v>
+        <v>205</v>
       </c>
       <c r="B925">
         <v>2024</v>
@@ -27283,7 +27286,7 @@
     </row>
     <row r="926" spans="1:3">
       <c r="A926" t="s">
-        <v>208</v>
+        <v>405</v>
       </c>
       <c r="B926">
         <v>2024</v>
@@ -27294,7 +27297,7 @@
     </row>
     <row r="927" spans="1:3">
       <c r="A927" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="B927">
         <v>2024</v>
@@ -27305,7 +27308,7 @@
     </row>
     <row r="928" spans="1:3">
       <c r="A928" t="s">
-        <v>405</v>
+        <v>246</v>
       </c>
       <c r="B928">
         <v>2024</v>
@@ -27316,7 +27319,7 @@
     </row>
     <row r="929" spans="1:3">
       <c r="A929" t="s">
-        <v>342</v>
+        <v>581</v>
       </c>
       <c r="B929">
         <v>2024</v>
@@ -27327,7 +27330,7 @@
     </row>
     <row r="930" spans="1:3">
       <c r="A930" t="s">
-        <v>246</v>
+        <v>582</v>
       </c>
       <c r="B930">
         <v>2024</v>
@@ -27338,7 +27341,7 @@
     </row>
     <row r="931" spans="1:3">
       <c r="A931" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B931">
         <v>2024</v>
@@ -27349,7 +27352,7 @@
     </row>
     <row r="932" spans="1:3">
       <c r="A932" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B932">
         <v>2024</v>
@@ -27360,7 +27363,7 @@
     </row>
     <row r="933" spans="1:3">
       <c r="A933" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B933">
         <v>2024</v>
@@ -27371,7 +27374,7 @@
     </row>
     <row r="934" spans="1:3">
       <c r="A934" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B934">
         <v>2024</v>
@@ -27382,7 +27385,7 @@
     </row>
     <row r="935" spans="1:3">
       <c r="A935" t="s">
-        <v>584</v>
+        <v>235</v>
       </c>
       <c r="B935">
         <v>2024</v>
@@ -27393,7 +27396,7 @@
     </row>
     <row r="936" spans="1:3">
       <c r="A936" t="s">
-        <v>585</v>
+        <v>204</v>
       </c>
       <c r="B936">
         <v>2024</v>
@@ -27404,7 +27407,7 @@
     </row>
     <row r="937" spans="1:3">
       <c r="A937" t="s">
-        <v>235</v>
+        <v>587</v>
       </c>
       <c r="B937">
         <v>2024</v>
@@ -27415,7 +27418,7 @@
     </row>
     <row r="938" spans="1:3">
       <c r="A938" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="B938">
         <v>2024</v>
@@ -27426,7 +27429,7 @@
     </row>
     <row r="939" spans="1:3">
       <c r="A939" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B939">
         <v>2024</v>
@@ -27437,29 +27440,29 @@
     </row>
     <row r="940" spans="1:3">
       <c r="A940" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B940">
         <v>2024</v>
       </c>
       <c r="C940" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="941" spans="1:3">
       <c r="A941" t="s">
-        <v>587</v>
+        <v>339</v>
       </c>
       <c r="B941">
         <v>2024</v>
       </c>
       <c r="C941" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="942" spans="1:3">
       <c r="A942" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="B942">
         <v>2024</v>
@@ -27470,7 +27473,7 @@
     </row>
     <row r="943" spans="1:3">
       <c r="A943" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B943">
         <v>2024</v>
@@ -27481,7 +27484,7 @@
     </row>
     <row r="944" spans="1:3">
       <c r="A944" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="B944">
         <v>2024</v>
@@ -27492,7 +27495,7 @@
     </row>
     <row r="945" spans="1:3">
       <c r="A945" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="B945">
         <v>2024</v>
@@ -27503,7 +27506,7 @@
     </row>
     <row r="946" spans="1:3">
       <c r="A946" t="s">
-        <v>213</v>
+        <v>490</v>
       </c>
       <c r="B946">
         <v>2024</v>
@@ -27514,7 +27517,7 @@
     </row>
     <row r="947" spans="1:3">
       <c r="A947" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B947">
         <v>2024</v>
@@ -27525,7 +27528,7 @@
     </row>
     <row r="948" spans="1:3">
       <c r="A948" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B948">
         <v>2024</v>
@@ -27536,7 +27539,7 @@
     </row>
     <row r="949" spans="1:3">
       <c r="A949" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="B949">
         <v>2024</v>
@@ -27547,7 +27550,7 @@
     </row>
     <row r="950" spans="1:3">
       <c r="A950" t="s">
-        <v>479</v>
+        <v>589</v>
       </c>
       <c r="B950">
         <v>2024</v>
@@ -27558,7 +27561,7 @@
     </row>
     <row r="951" spans="1:3">
       <c r="A951" t="s">
-        <v>429</v>
+        <v>590</v>
       </c>
       <c r="B951">
         <v>2024</v>
@@ -27569,7 +27572,7 @@
     </row>
     <row r="952" spans="1:3">
       <c r="A952" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B952">
         <v>2024</v>
@@ -27580,7 +27583,7 @@
     </row>
     <row r="953" spans="1:3">
       <c r="A953" t="s">
-        <v>589</v>
+        <v>240</v>
       </c>
       <c r="B953">
         <v>2024</v>
@@ -27591,7 +27594,7 @@
     </row>
     <row r="954" spans="1:3">
       <c r="A954" t="s">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="B954">
         <v>2024</v>
@@ -27602,7 +27605,7 @@
     </row>
     <row r="955" spans="1:3">
       <c r="A955" t="s">
-        <v>240</v>
+        <v>592</v>
       </c>
       <c r="B955">
         <v>2024</v>
@@ -27613,7 +27616,7 @@
     </row>
     <row r="956" spans="1:3">
       <c r="A956" t="s">
-        <v>295</v>
+        <v>593</v>
       </c>
       <c r="B956">
         <v>2024</v>
@@ -27624,7 +27627,7 @@
     </row>
     <row r="957" spans="1:3">
       <c r="A957" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B957">
         <v>2024</v>
@@ -27635,7 +27638,7 @@
     </row>
     <row r="958" spans="1:3">
       <c r="A958" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B958">
         <v>2024</v>
@@ -27646,7 +27649,7 @@
     </row>
     <row r="959" spans="1:3">
       <c r="A959" t="s">
-        <v>593</v>
+        <v>379</v>
       </c>
       <c r="B959">
         <v>2024</v>
@@ -27657,7 +27660,7 @@
     </row>
     <row r="960" spans="1:3">
       <c r="A960" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B960">
         <v>2024</v>
@@ -27668,7 +27671,7 @@
     </row>
     <row r="961" spans="1:3">
       <c r="A961" t="s">
-        <v>379</v>
+        <v>597</v>
       </c>
       <c r="B961">
         <v>2024</v>
@@ -27679,7 +27682,7 @@
     </row>
     <row r="962" spans="1:3">
       <c r="A962" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B962">
         <v>2024</v>
@@ -27690,7 +27693,7 @@
     </row>
     <row r="963" spans="1:3">
       <c r="A963" t="s">
-        <v>596</v>
+        <v>464</v>
       </c>
       <c r="B963">
         <v>2024</v>
@@ -27701,7 +27704,7 @@
     </row>
     <row r="964" spans="1:3">
       <c r="A964" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B964">
         <v>2024</v>
@@ -27712,7 +27715,7 @@
     </row>
     <row r="965" spans="1:3">
       <c r="A965" t="s">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="B965">
         <v>2024</v>
@@ -27723,7 +27726,7 @@
     </row>
     <row r="966" spans="1:3">
       <c r="A966" t="s">
-        <v>598</v>
+        <v>352</v>
       </c>
       <c r="B966">
         <v>2024</v>
@@ -27734,7 +27737,7 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B967">
         <v>2024</v>
@@ -27745,7 +27748,7 @@
     </row>
     <row r="968" spans="1:3">
       <c r="A968" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B968">
         <v>2024</v>
@@ -27756,7 +27759,7 @@
     </row>
     <row r="969" spans="1:3">
       <c r="A969" t="s">
-        <v>352</v>
+        <v>603</v>
       </c>
       <c r="B969">
         <v>2024</v>
@@ -27767,7 +27770,7 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B970">
         <v>2024</v>
@@ -27778,29 +27781,29 @@
     </row>
     <row r="971" spans="1:3">
       <c r="A971" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="B971">
         <v>2024</v>
       </c>
       <c r="C971" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="A972" t="s">
-        <v>603</v>
+        <v>417</v>
       </c>
       <c r="B972">
         <v>2024</v>
       </c>
       <c r="C972" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="B973">
         <v>2024</v>
@@ -27811,7 +27814,7 @@
     </row>
     <row r="974" spans="1:3">
       <c r="A974" t="s">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="B974">
         <v>2024</v>
@@ -27822,7 +27825,7 @@
     </row>
     <row r="975" spans="1:3">
       <c r="A975" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="B975">
         <v>2024</v>
@@ -27833,7 +27836,7 @@
     </row>
     <row r="976" spans="1:3">
       <c r="A976" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="B976">
         <v>2024</v>
@@ -27844,7 +27847,7 @@
     </row>
     <row r="977" spans="1:3">
       <c r="A977" t="s">
-        <v>321</v>
+        <v>460</v>
       </c>
       <c r="B977">
         <v>2024</v>
@@ -27855,7 +27858,7 @@
     </row>
     <row r="978" spans="1:3">
       <c r="A978" t="s">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="B978">
         <v>2024</v>
@@ -27866,7 +27869,7 @@
     </row>
     <row r="979" spans="1:3">
       <c r="A979" t="s">
-        <v>460</v>
+        <v>605</v>
       </c>
       <c r="B979">
         <v>2024</v>
@@ -27877,7 +27880,7 @@
     </row>
     <row r="980" spans="1:3">
       <c r="A980" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B980">
         <v>2024</v>
@@ -27888,7 +27891,7 @@
     </row>
     <row r="981" spans="1:3">
       <c r="A981" t="s">
-        <v>604</v>
+        <v>116</v>
       </c>
       <c r="B981">
         <v>2024</v>
@@ -27899,7 +27902,7 @@
     </row>
     <row r="982" spans="1:3">
       <c r="A982" t="s">
-        <v>177</v>
+        <v>606</v>
       </c>
       <c r="B982">
         <v>2024</v>
@@ -27910,7 +27913,7 @@
     </row>
     <row r="983" spans="1:3">
       <c r="A983" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="B983">
         <v>2024</v>
@@ -27921,7 +27924,7 @@
     </row>
     <row r="984" spans="1:3">
       <c r="A984" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B984">
         <v>2024</v>
@@ -27932,7 +27935,7 @@
     </row>
     <row r="985" spans="1:3">
       <c r="A985" t="s">
-        <v>502</v>
+        <v>387</v>
       </c>
       <c r="B985">
         <v>2024</v>
@@ -27943,7 +27946,7 @@
     </row>
     <row r="986" spans="1:3">
       <c r="A986" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B986">
         <v>2024</v>
@@ -27954,7 +27957,7 @@
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>387</v>
+        <v>118</v>
       </c>
       <c r="B987">
         <v>2024</v>
@@ -27965,7 +27968,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B988">
         <v>2024</v>
@@ -27976,7 +27979,7 @@
     </row>
     <row r="989" spans="1:3">
       <c r="A989" t="s">
-        <v>118</v>
+        <v>610</v>
       </c>
       <c r="B989">
         <v>2024</v>
@@ -27987,7 +27990,7 @@
     </row>
     <row r="990" spans="1:3">
       <c r="A990" t="s">
-        <v>608</v>
+        <v>484</v>
       </c>
       <c r="B990">
         <v>2024</v>
@@ -27998,7 +28001,7 @@
     </row>
     <row r="991" spans="1:3">
       <c r="A991" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B991">
         <v>2024</v>
@@ -28009,7 +28012,7 @@
     </row>
     <row r="992" spans="1:3">
       <c r="A992" t="s">
-        <v>484</v>
+        <v>612</v>
       </c>
       <c r="B992">
         <v>2024</v>
@@ -28020,7 +28023,7 @@
     </row>
     <row r="993" spans="1:3">
       <c r="A993" t="s">
-        <v>610</v>
+        <v>333</v>
       </c>
       <c r="B993">
         <v>2024</v>
@@ -28031,7 +28034,7 @@
     </row>
     <row r="994" spans="1:3">
       <c r="A994" t="s">
-        <v>611</v>
+        <v>492</v>
       </c>
       <c r="B994">
         <v>2024</v>
@@ -28042,7 +28045,7 @@
     </row>
     <row r="995" spans="1:3">
       <c r="A995" t="s">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="B995">
         <v>2024</v>
@@ -28053,7 +28056,7 @@
     </row>
     <row r="996" spans="1:3">
       <c r="A996" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B996">
         <v>2024</v>
@@ -28064,7 +28067,7 @@
     </row>
     <row r="997" spans="1:3">
       <c r="A997" t="s">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="B997">
         <v>2024</v>
@@ -28075,7 +28078,7 @@
     </row>
     <row r="998" spans="1:3">
       <c r="A998" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="B998">
         <v>2024</v>
@@ -28086,7 +28089,7 @@
     </row>
     <row r="999" spans="1:3">
       <c r="A999" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B999">
         <v>2024</v>
@@ -28097,29 +28100,29 @@
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" t="s">
-        <v>613</v>
+        <v>263</v>
       </c>
       <c r="B1000">
         <v>2024</v>
       </c>
       <c r="C1000" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" t="s">
-        <v>614</v>
+        <v>276</v>
       </c>
       <c r="B1001">
         <v>2024</v>
       </c>
       <c r="C1001" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="B1002">
         <v>2024</v>
@@ -28130,7 +28133,7 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="B1003">
         <v>2024</v>
@@ -28141,7 +28144,7 @@
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="B1004">
         <v>2024</v>
@@ -28152,7 +28155,7 @@
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" t="s">
-        <v>407</v>
+        <v>201</v>
       </c>
       <c r="B1005">
         <v>2024</v>
@@ -28163,7 +28166,7 @@
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="B1006">
         <v>2024</v>
@@ -28174,7 +28177,7 @@
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" t="s">
-        <v>201</v>
+        <v>616</v>
       </c>
       <c r="B1007">
         <v>2024</v>
@@ -28185,7 +28188,7 @@
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" t="s">
-        <v>418</v>
+        <v>617</v>
       </c>
       <c r="B1008">
         <v>2024</v>
@@ -28196,7 +28199,7 @@
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" t="s">
-        <v>615</v>
+        <v>388</v>
       </c>
       <c r="B1009">
         <v>2024</v>
@@ -28207,7 +28210,7 @@
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B1010">
         <v>2024</v>
@@ -28218,7 +28221,7 @@
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" t="s">
-        <v>388</v>
+        <v>251</v>
       </c>
       <c r="B1011">
         <v>2024</v>
@@ -28229,7 +28232,7 @@
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" t="s">
-        <v>617</v>
+        <v>489</v>
       </c>
       <c r="B1012">
         <v>2024</v>
@@ -28240,7 +28243,7 @@
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" t="s">
-        <v>251</v>
+        <v>619</v>
       </c>
       <c r="B1013">
         <v>2024</v>
@@ -28251,7 +28254,7 @@
     </row>
     <row r="1014" spans="1:3">
       <c r="A1014" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
       <c r="B1014">
         <v>2024</v>
@@ -28262,7 +28265,7 @@
     </row>
     <row r="1015" spans="1:3">
       <c r="A1015" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B1015">
         <v>2024</v>
@@ -28273,7 +28276,7 @@
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B1016">
         <v>2024</v>
@@ -28284,7 +28287,7 @@
     </row>
     <row r="1017" spans="1:3">
       <c r="A1017" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B1017">
         <v>2024</v>
@@ -28295,7 +28298,7 @@
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B1018">
         <v>2024</v>
@@ -28306,7 +28309,7 @@
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B1019">
         <v>2024</v>
@@ -28317,7 +28320,7 @@
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" t="s">
-        <v>623</v>
+        <v>303</v>
       </c>
       <c r="B1020">
         <v>2024</v>
@@ -28328,7 +28331,7 @@
     </row>
     <row r="1021" spans="1:3">
       <c r="A1021" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B1021">
         <v>2024</v>
@@ -28339,7 +28342,7 @@
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" t="s">
-        <v>303</v>
+        <v>627</v>
       </c>
       <c r="B1022">
         <v>2024</v>
@@ -28350,7 +28353,7 @@
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" t="s">
-        <v>625</v>
+        <v>397</v>
       </c>
       <c r="B1023">
         <v>2024</v>
@@ -28361,7 +28364,7 @@
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" t="s">
-        <v>626</v>
+        <v>76</v>
       </c>
       <c r="B1024">
         <v>2024</v>
@@ -28372,7 +28375,7 @@
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="B1025">
         <v>2024</v>
@@ -28383,7 +28386,7 @@
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" t="s">
-        <v>76</v>
+        <v>628</v>
       </c>
       <c r="B1026">
         <v>2024</v>
@@ -28394,7 +28397,7 @@
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" t="s">
-        <v>308</v>
+        <v>629</v>
       </c>
       <c r="B1027">
         <v>2024</v>
@@ -28405,29 +28408,29 @@
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" t="s">
-        <v>627</v>
+        <v>207</v>
       </c>
       <c r="B1028">
         <v>2024</v>
       </c>
       <c r="C1028" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" t="s">
-        <v>628</v>
+        <v>156</v>
       </c>
       <c r="B1029">
         <v>2024</v>
       </c>
       <c r="C1029" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="B1030">
         <v>2024</v>
@@ -28438,7 +28441,7 @@
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B1031">
         <v>2024</v>
@@ -28449,7 +28452,7 @@
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" t="s">
-        <v>360</v>
+        <v>448</v>
       </c>
       <c r="B1032">
         <v>2024</v>
@@ -28460,7 +28463,7 @@
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="B1033">
         <v>2024</v>
@@ -28471,7 +28474,7 @@
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="B1034">
         <v>2024</v>
@@ -28482,7 +28485,7 @@
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="B1035">
         <v>2024</v>
@@ -28493,7 +28496,7 @@
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="B1036">
         <v>2024</v>
@@ -28504,7 +28507,7 @@
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="B1037">
         <v>2024</v>
@@ -28515,7 +28518,7 @@
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B1038">
         <v>2024</v>
@@ -28526,7 +28529,7 @@
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B1039">
         <v>2024</v>
@@ -28537,7 +28540,7 @@
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1040">
         <v>2024</v>
@@ -28548,7 +28551,7 @@
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="B1041">
         <v>2024</v>
@@ -28559,7 +28562,7 @@
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="B1042">
         <v>2024</v>
@@ -28570,7 +28573,7 @@
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" t="s">
-        <v>306</v>
+        <v>630</v>
       </c>
       <c r="B1043">
         <v>2024</v>
@@ -28581,7 +28584,7 @@
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="B1044">
         <v>2024</v>
@@ -28592,7 +28595,7 @@
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" t="s">
-        <v>629</v>
+        <v>385</v>
       </c>
       <c r="B1045">
         <v>2024</v>
@@ -28603,7 +28606,7 @@
     </row>
     <row r="1046" spans="1:3">
       <c r="A1046" t="s">
-        <v>430</v>
+        <v>631</v>
       </c>
       <c r="B1046">
         <v>2024</v>
@@ -28614,7 +28617,7 @@
     </row>
     <row r="1047" spans="1:3">
       <c r="A1047" t="s">
-        <v>385</v>
+        <v>632</v>
       </c>
       <c r="B1047">
         <v>2024</v>
@@ -28625,7 +28628,7 @@
     </row>
     <row r="1048" spans="1:3">
       <c r="A1048" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B1048">
         <v>2024</v>
@@ -28636,7 +28639,7 @@
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B1049">
         <v>2024</v>
@@ -28647,7 +28650,7 @@
     </row>
     <row r="1050" spans="1:3">
       <c r="A1050" t="s">
-        <v>632</v>
+        <v>234</v>
       </c>
       <c r="B1050">
         <v>2024</v>
@@ -28658,7 +28661,7 @@
     </row>
     <row r="1051" spans="1:3">
       <c r="A1051" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B1051">
         <v>2024</v>
@@ -28669,7 +28672,7 @@
     </row>
     <row r="1052" spans="1:3">
       <c r="A1052" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="B1052">
         <v>2024</v>
@@ -28680,7 +28683,7 @@
     </row>
     <row r="1053" spans="1:3">
       <c r="A1053" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B1053">
         <v>2024</v>
@@ -28691,7 +28694,7 @@
     </row>
     <row r="1054" spans="1:3">
       <c r="A1054" t="s">
-        <v>152</v>
+        <v>637</v>
       </c>
       <c r="B1054">
         <v>2024</v>
@@ -28702,29 +28705,29 @@
     </row>
     <row r="1055" spans="1:3">
       <c r="A1055" t="s">
-        <v>635</v>
+        <v>134</v>
       </c>
       <c r="B1055">
         <v>2024</v>
       </c>
       <c r="C1055" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
       <c r="A1056" t="s">
-        <v>636</v>
+        <v>252</v>
       </c>
       <c r="B1056">
         <v>2024</v>
       </c>
       <c r="C1056" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
       <c r="A1057" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B1057">
         <v>2024</v>
@@ -28735,7 +28738,7 @@
     </row>
     <row r="1058" spans="1:3">
       <c r="A1058" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="B1058">
         <v>2024</v>
@@ -28746,7 +28749,7 @@
     </row>
     <row r="1059" spans="1:3">
       <c r="A1059" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B1059">
         <v>2024</v>
@@ -28757,7 +28760,7 @@
     </row>
     <row r="1060" spans="1:3">
       <c r="A1060" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B1060">
         <v>2024</v>
@@ -28768,7 +28771,7 @@
     </row>
     <row r="1061" spans="1:3">
       <c r="A1061" t="s">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="B1061">
         <v>2024</v>
@@ -28779,7 +28782,7 @@
     </row>
     <row r="1062" spans="1:3">
       <c r="A1062" t="s">
-        <v>143</v>
+        <v>498</v>
       </c>
       <c r="B1062">
         <v>2024</v>
@@ -28790,7 +28793,7 @@
     </row>
     <row r="1063" spans="1:3">
       <c r="A1063" t="s">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="B1063">
         <v>2024</v>
@@ -28801,7 +28804,7 @@
     </row>
     <row r="1064" spans="1:3">
       <c r="A1064" t="s">
-        <v>498</v>
+        <v>286</v>
       </c>
       <c r="B1064">
         <v>2024</v>
@@ -28812,7 +28815,7 @@
     </row>
     <row r="1065" spans="1:3">
       <c r="A1065" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="B1065">
         <v>2024</v>
@@ -28823,7 +28826,7 @@
     </row>
     <row r="1066" spans="1:3">
       <c r="A1066" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B1066">
         <v>2024</v>
@@ -28834,7 +28837,7 @@
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067" t="s">
-        <v>346</v>
+        <v>508</v>
       </c>
       <c r="B1067">
         <v>2024</v>
@@ -28845,7 +28848,7 @@
     </row>
     <row r="1068" spans="1:3">
       <c r="A1068" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B1068">
         <v>2024</v>
@@ -28856,7 +28859,7 @@
     </row>
     <row r="1069" spans="1:3">
       <c r="A1069" t="s">
-        <v>508</v>
+        <v>345</v>
       </c>
       <c r="B1069">
         <v>2024</v>
@@ -28867,7 +28870,7 @@
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070" t="s">
-        <v>322</v>
+        <v>638</v>
       </c>
       <c r="B1070">
         <v>2024</v>
@@ -28878,7 +28881,7 @@
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" t="s">
-        <v>345</v>
+        <v>153</v>
       </c>
       <c r="B1071">
         <v>2024</v>
@@ -28889,7 +28892,7 @@
     </row>
     <row r="1072" spans="1:3">
       <c r="A1072" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B1072">
         <v>2024</v>
@@ -28900,7 +28903,7 @@
     </row>
     <row r="1073" spans="1:3">
       <c r="A1073" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="B1073">
         <v>2024</v>
@@ -28911,7 +28914,7 @@
     </row>
     <row r="1074" spans="1:3">
       <c r="A1074" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="B1074">
         <v>2024</v>
@@ -28922,7 +28925,7 @@
     </row>
     <row r="1075" spans="1:3">
       <c r="A1075" t="s">
-        <v>262</v>
+        <v>640</v>
       </c>
       <c r="B1075">
         <v>2024</v>
@@ -28933,7 +28936,7 @@
     </row>
     <row r="1076" spans="1:3">
       <c r="A1076" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="B1076">
         <v>2024</v>
@@ -28944,7 +28947,7 @@
     </row>
     <row r="1077" spans="1:3">
       <c r="A1077" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B1077">
         <v>2024</v>
@@ -28955,7 +28958,7 @@
     </row>
     <row r="1078" spans="1:3">
       <c r="A1078" t="s">
-        <v>450</v>
+        <v>269</v>
       </c>
       <c r="B1078">
         <v>2024</v>
@@ -28966,7 +28969,7 @@
     </row>
     <row r="1079" spans="1:3">
       <c r="A1079" t="s">
-        <v>640</v>
+        <v>463</v>
       </c>
       <c r="B1079">
         <v>2024</v>
@@ -28977,7 +28980,7 @@
     </row>
     <row r="1080" spans="1:3">
       <c r="A1080" t="s">
-        <v>269</v>
+        <v>642</v>
       </c>
       <c r="B1080">
         <v>2024</v>
@@ -28988,7 +28991,7 @@
     </row>
     <row r="1081" spans="1:3">
       <c r="A1081" t="s">
-        <v>463</v>
+        <v>643</v>
       </c>
       <c r="B1081">
         <v>2024</v>
@@ -28999,7 +29002,7 @@
     </row>
     <row r="1082" spans="1:3">
       <c r="A1082" t="s">
-        <v>641</v>
+        <v>114</v>
       </c>
       <c r="B1082">
         <v>2024</v>
@@ -29010,7 +29013,7 @@
     </row>
     <row r="1083" spans="1:3">
       <c r="A1083" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B1083">
         <v>2024</v>
@@ -29021,34 +29024,12 @@
     </row>
     <row r="1084" spans="1:3">
       <c r="A1084" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="B1084">
         <v>2024</v>
       </c>
       <c r="C1084" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:3">
-      <c r="A1085" t="s">
-        <v>643</v>
-      </c>
-      <c r="B1085">
-        <v>2024</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:3">
-      <c r="A1086" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1086">
-        <v>2024</v>
-      </c>
-      <c r="C1086" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -15466,7 +15466,7 @@
         <v>35</v>
       </c>
       <c r="F186">
-        <v>1.05128205</v>
+        <v>1.06410256</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -15839,7 +15839,7 @@
         <v>35</v>
       </c>
       <c r="L191">
-        <v>0.34545455</v>
+        <v>0.34848485</v>
       </c>
       <c r="M191" t="s">
         <v>35</v>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="644">
   <si>
     <t>Week</t>
   </si>
@@ -1606,9 +1606,6 @@
   </si>
   <si>
     <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Wilyer Abreu</t>
   </si>
   <si>
     <t>Yoshinobu Yamamoto</t>
@@ -15176,31 +15173,31 @@
         <v>25</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E182" t="s">
         <v>36</v>
       </c>
       <c r="F182">
-        <v>0.89256198</v>
+        <v>0.98843931</v>
       </c>
       <c r="G182" t="s">
         <v>35</v>
       </c>
       <c r="H182">
-        <v>2.00826446</v>
+        <v>2.49710983</v>
       </c>
       <c r="I182" t="s">
         <v>35</v>
       </c>
       <c r="J182">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="K182" t="s">
         <v>36</v>
       </c>
       <c r="L182">
-        <v>0.34693878</v>
+        <v>0.33482143</v>
       </c>
       <c r="M182" t="s">
         <v>35</v>
@@ -15209,28 +15206,28 @@
         <v>8</v>
       </c>
       <c r="O182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P182">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q182" t="s">
         <v>35</v>
       </c>
       <c r="R182">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S182" t="s">
         <v>35</v>
       </c>
       <c r="T182">
+        <v>6</v>
+      </c>
+      <c r="U182" t="s">
+        <v>35</v>
+      </c>
+      <c r="V182">
         <v>4</v>
-      </c>
-      <c r="U182" t="s">
-        <v>35</v>
-      </c>
-      <c r="V182">
-        <v>3</v>
       </c>
       <c r="W182" t="s">
         <v>36</v>
@@ -15247,61 +15244,61 @@
         <v>24</v>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
         <v>35</v>
       </c>
       <c r="F183">
-        <v>1.30882353</v>
+        <v>1.31906615</v>
       </c>
       <c r="G183" t="s">
         <v>36</v>
       </c>
       <c r="H183">
-        <v>4.5</v>
+        <v>4.83268482</v>
       </c>
       <c r="I183" t="s">
         <v>36</v>
       </c>
       <c r="J183">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K183" t="s">
         <v>35</v>
       </c>
       <c r="L183">
-        <v>0.34365325</v>
+        <v>0.32075472</v>
       </c>
       <c r="M183" t="s">
         <v>36</v>
       </c>
       <c r="N183">
+        <v>8</v>
+      </c>
+      <c r="O183" t="s">
+        <v>37</v>
+      </c>
+      <c r="P183">
+        <v>54</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>36</v>
+      </c>
+      <c r="R183">
+        <v>50</v>
+      </c>
+      <c r="S183" t="s">
+        <v>36</v>
+      </c>
+      <c r="T183">
         <v>4</v>
       </c>
-      <c r="O183" t="s">
-        <v>36</v>
-      </c>
-      <c r="P183">
-        <v>45</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>36</v>
-      </c>
-      <c r="R183">
-        <v>44</v>
-      </c>
-      <c r="S183" t="s">
-        <v>36</v>
-      </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
       <c r="U183" t="s">
         <v>36</v>
       </c>
       <c r="V183">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W183" t="s">
         <v>35</v>
@@ -15318,64 +15315,64 @@
         <v>27</v>
       </c>
       <c r="D184">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F184">
-        <v>1.04918033</v>
+        <v>1.05319149</v>
       </c>
       <c r="G184" t="s">
         <v>35</v>
       </c>
       <c r="H184">
-        <v>2.95081967</v>
+        <v>3.35106383</v>
       </c>
       <c r="I184" t="s">
         <v>35</v>
       </c>
       <c r="J184">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="K184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L184">
-        <v>0.32763533</v>
+        <v>0.33932584</v>
       </c>
       <c r="M184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P184">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q184" t="s">
         <v>35</v>
       </c>
       <c r="R184">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="S184" t="s">
         <v>35</v>
       </c>
       <c r="T184">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V184">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -15389,49 +15386,49 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F185">
-        <v>1.19742489</v>
+        <v>1.27306273</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
       </c>
       <c r="H185">
-        <v>4.28755365</v>
+        <v>4.38376384</v>
       </c>
       <c r="I185" t="s">
         <v>36</v>
       </c>
       <c r="J185">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L185">
-        <v>0.34036145</v>
+        <v>0.32714617</v>
       </c>
       <c r="M185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N185">
         <v>3</v>
       </c>
       <c r="O185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P185">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q185" t="s">
         <v>36</v>
       </c>
       <c r="R185">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S185" t="s">
         <v>36</v>
@@ -15440,13 +15437,13 @@
         <v>5</v>
       </c>
       <c r="U185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -15460,49 +15457,49 @@
         <v>28</v>
       </c>
       <c r="D186">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E186" t="s">
         <v>35</v>
       </c>
       <c r="F186">
-        <v>1.06410256</v>
+        <v>1.06122449</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
       </c>
       <c r="H186">
-        <v>3.34615385</v>
+        <v>3.30612245</v>
       </c>
       <c r="I186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J186">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="K186" t="s">
         <v>35</v>
       </c>
       <c r="L186">
-        <v>0.34582133</v>
+        <v>0.35111111</v>
       </c>
       <c r="M186" t="s">
         <v>36</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O186" t="s">
         <v>36</v>
       </c>
       <c r="P186">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Q186" t="s">
         <v>35</v>
       </c>
       <c r="R186">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S186" t="s">
         <v>35</v>
@@ -15514,10 +15511,10 @@
         <v>35</v>
       </c>
       <c r="V186">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -15531,49 +15528,49 @@
         <v>26</v>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E187" t="s">
         <v>36</v>
       </c>
       <c r="F187">
-        <v>0.94660194</v>
+        <v>1.04494382</v>
       </c>
       <c r="G187" t="s">
         <v>35</v>
       </c>
       <c r="H187">
-        <v>3.27669903</v>
+        <v>3.84269663</v>
       </c>
       <c r="I187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J187">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K187" t="s">
         <v>36</v>
       </c>
       <c r="L187">
-        <v>0.34892086</v>
+        <v>0.3538874</v>
       </c>
       <c r="M187" t="s">
         <v>35</v>
       </c>
       <c r="N187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O187" t="s">
         <v>35</v>
       </c>
       <c r="P187">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="Q187" t="s">
         <v>36</v>
       </c>
       <c r="R187">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S187" t="s">
         <v>36</v>
@@ -15585,10 +15582,10 @@
         <v>36</v>
       </c>
       <c r="V187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -15602,64 +15599,64 @@
         <v>31</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
         <v>36</v>
       </c>
       <c r="F188">
-        <v>1.36633663</v>
+        <v>1.24390244</v>
       </c>
       <c r="G188" t="s">
         <v>35</v>
       </c>
       <c r="H188">
-        <v>4.81188119</v>
+        <v>4.13937282</v>
       </c>
       <c r="I188" t="s">
         <v>35</v>
       </c>
       <c r="J188">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="K188" t="s">
         <v>35</v>
       </c>
       <c r="L188">
-        <v>0.28571429</v>
+        <v>0.29314421</v>
       </c>
       <c r="M188" t="s">
         <v>35</v>
       </c>
       <c r="N188">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O188" t="s">
         <v>35</v>
       </c>
       <c r="P188">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Q188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R188">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="S188" t="s">
         <v>36</v>
       </c>
       <c r="T188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U188" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V188">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -15673,31 +15670,31 @@
         <v>30</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E189" t="s">
         <v>35</v>
       </c>
       <c r="F189">
-        <v>1.59183673</v>
+        <v>1.43820225</v>
       </c>
       <c r="G189" t="s">
         <v>36</v>
       </c>
       <c r="H189">
-        <v>6.06122449</v>
+        <v>4.95505618</v>
       </c>
       <c r="I189" t="s">
         <v>36</v>
       </c>
       <c r="J189">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="K189" t="s">
         <v>36</v>
       </c>
       <c r="L189">
-        <v>0.27794562</v>
+        <v>0.28074246</v>
       </c>
       <c r="M189" t="s">
         <v>36</v>
@@ -15709,28 +15706,28 @@
         <v>36</v>
       </c>
       <c r="P189">
+        <v>48</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>36</v>
+      </c>
+      <c r="R189">
+        <v>48</v>
+      </c>
+      <c r="S189" t="s">
+        <v>35</v>
+      </c>
+      <c r="T189">
+        <v>5</v>
+      </c>
+      <c r="U189" t="s">
         <v>37</v>
       </c>
-      <c r="Q189" t="s">
-        <v>35</v>
-      </c>
-      <c r="R189">
-        <v>36</v>
-      </c>
-      <c r="S189" t="s">
-        <v>35</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189" t="s">
-        <v>36</v>
-      </c>
       <c r="V189">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15744,61 +15741,61 @@
         <v>33</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
         <v>36</v>
       </c>
       <c r="F190">
-        <v>1.26666667</v>
+        <v>1.27173913</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
       </c>
       <c r="H190">
-        <v>4.6</v>
+        <v>4.40217391</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
       </c>
       <c r="J190">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K190" t="s">
         <v>36</v>
       </c>
       <c r="L190">
-        <v>0.33910035</v>
+        <v>0.35356201</v>
       </c>
       <c r="M190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O190" t="s">
         <v>36</v>
       </c>
       <c r="P190">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q190" t="s">
         <v>36</v>
       </c>
       <c r="R190">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="S190" t="s">
         <v>36</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U190" t="s">
         <v>36</v>
       </c>
       <c r="V190">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W190" t="s">
         <v>35</v>
@@ -15815,49 +15812,49 @@
         <v>29</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
         <v>35</v>
       </c>
       <c r="F191">
-        <v>1.14893617</v>
+        <v>1.11538462</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
       </c>
       <c r="H191">
-        <v>3.01595745</v>
+        <v>2.76923077</v>
       </c>
       <c r="I191" t="s">
         <v>35</v>
       </c>
       <c r="J191">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K191" t="s">
         <v>35</v>
       </c>
       <c r="L191">
-        <v>0.34848485</v>
+        <v>0.32801822</v>
       </c>
       <c r="M191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O191" t="s">
         <v>35</v>
       </c>
       <c r="P191">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q191" t="s">
         <v>35</v>
       </c>
       <c r="R191">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="S191" t="s">
         <v>35</v>
@@ -15886,64 +15883,64 @@
         <v>34</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E192" t="s">
         <v>36</v>
       </c>
       <c r="F192">
-        <v>1.24390244</v>
+        <v>1.11049724</v>
       </c>
       <c r="G192" t="s">
         <v>35</v>
       </c>
       <c r="H192">
-        <v>2.63414634</v>
+        <v>2.23756906</v>
       </c>
       <c r="I192" t="s">
         <v>35</v>
       </c>
       <c r="J192">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K192" t="s">
         <v>36</v>
       </c>
       <c r="L192">
-        <v>0.32103321</v>
+        <v>0.31880109</v>
       </c>
       <c r="M192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N192">
         <v>6</v>
       </c>
       <c r="O192" t="s">
+        <v>36</v>
+      </c>
+      <c r="P192">
+        <v>41</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>36</v>
+      </c>
+      <c r="R192">
+        <v>28</v>
+      </c>
+      <c r="S192" t="s">
+        <v>36</v>
+      </c>
+      <c r="T192">
+        <v>7</v>
+      </c>
+      <c r="U192" t="s">
+        <v>36</v>
+      </c>
+      <c r="V192">
+        <v>7</v>
+      </c>
+      <c r="W192" t="s">
         <v>37</v>
-      </c>
-      <c r="P192">
-        <v>28</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>36</v>
-      </c>
-      <c r="R192">
-        <v>21</v>
-      </c>
-      <c r="S192" t="s">
-        <v>36</v>
-      </c>
-      <c r="T192">
-        <v>5</v>
-      </c>
-      <c r="U192" t="s">
-        <v>36</v>
-      </c>
-      <c r="V192">
-        <v>4</v>
-      </c>
-      <c r="W192" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15957,64 +15954,64 @@
         <v>32</v>
       </c>
       <c r="D193">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>35</v>
+      </c>
+      <c r="F193">
+        <v>1.38529412</v>
+      </c>
+      <c r="G193" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193">
+        <v>4.52647059</v>
+      </c>
+      <c r="I193" t="s">
+        <v>36</v>
+      </c>
+      <c r="J193">
+        <v>115</v>
+      </c>
+      <c r="K193" t="s">
+        <v>35</v>
+      </c>
+      <c r="L193">
+        <v>0.32642487</v>
+      </c>
+      <c r="M193" t="s">
+        <v>35</v>
+      </c>
+      <c r="N193">
+        <v>8</v>
+      </c>
+      <c r="O193" t="s">
+        <v>35</v>
+      </c>
+      <c r="P193">
+        <v>50</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>35</v>
+      </c>
+      <c r="R193">
+        <v>44</v>
+      </c>
+      <c r="S193" t="s">
+        <v>35</v>
+      </c>
+      <c r="T193">
+        <v>8</v>
+      </c>
+      <c r="U193" t="s">
+        <v>35</v>
+      </c>
+      <c r="V193">
         <v>7</v>
       </c>
-      <c r="E193" t="s">
-        <v>35</v>
-      </c>
-      <c r="F193">
-        <v>1.29767442</v>
-      </c>
-      <c r="G193" t="s">
-        <v>36</v>
-      </c>
-      <c r="H193">
-        <v>4.52093023</v>
-      </c>
-      <c r="I193" t="s">
-        <v>36</v>
-      </c>
-      <c r="J193">
-        <v>67</v>
-      </c>
-      <c r="K193" t="s">
-        <v>35</v>
-      </c>
-      <c r="L193">
-        <v>0.31632653</v>
-      </c>
-      <c r="M193" t="s">
-        <v>36</v>
-      </c>
-      <c r="N193">
-        <v>6</v>
-      </c>
-      <c r="O193" t="s">
+      <c r="W193" t="s">
         <v>37</v>
-      </c>
-      <c r="P193">
-        <v>39</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>35</v>
-      </c>
-      <c r="R193">
-        <v>26</v>
-      </c>
-      <c r="S193" t="s">
-        <v>35</v>
-      </c>
-      <c r="T193">
-        <v>6</v>
-      </c>
-      <c r="U193" t="s">
-        <v>35</v>
-      </c>
-      <c r="V193">
-        <v>3</v>
-      </c>
-      <c r="W193" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -17103,7 +17100,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1084"/>
+  <dimension ref="A1:C1083"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25438,18 +25435,18 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" t="s">
-        <v>530</v>
+        <v>396</v>
       </c>
       <c r="B758">
         <v>2024</v>
       </c>
       <c r="C758" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="A759" t="s">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="B759">
         <v>2024</v>
@@ -25460,7 +25457,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="B760">
         <v>2024</v>
@@ -25471,7 +25468,7 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" t="s">
-        <v>104</v>
+        <v>530</v>
       </c>
       <c r="B761">
         <v>2024</v>
@@ -25482,7 +25479,7 @@
     </row>
     <row r="762" spans="1:3">
       <c r="A762" t="s">
-        <v>531</v>
+        <v>268</v>
       </c>
       <c r="B762">
         <v>2024</v>
@@ -25493,7 +25490,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" t="s">
-        <v>268</v>
+        <v>440</v>
       </c>
       <c r="B763">
         <v>2024</v>
@@ -25504,7 +25501,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="B764">
         <v>2024</v>
@@ -25515,7 +25512,7 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B765">
         <v>2024</v>
@@ -25526,7 +25523,7 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" t="s">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="B766">
         <v>2024</v>
@@ -25537,7 +25534,7 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="B767">
         <v>2024</v>
@@ -25548,7 +25545,7 @@
     </row>
     <row r="768" spans="1:3">
       <c r="A768" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B768">
         <v>2024</v>
@@ -25559,7 +25556,7 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="B769">
         <v>2024</v>
@@ -25570,7 +25567,7 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="B770">
         <v>2024</v>
@@ -25581,7 +25578,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771" t="s">
-        <v>532</v>
+        <v>159</v>
       </c>
       <c r="B771">
         <v>2024</v>
@@ -25592,7 +25589,7 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="B772">
         <v>2024</v>
@@ -25603,7 +25600,7 @@
     </row>
     <row r="773" spans="1:3">
       <c r="A773" t="s">
-        <v>238</v>
+        <v>426</v>
       </c>
       <c r="B773">
         <v>2024</v>
@@ -25614,7 +25611,7 @@
     </row>
     <row r="774" spans="1:3">
       <c r="A774" t="s">
-        <v>426</v>
+        <v>267</v>
       </c>
       <c r="B774">
         <v>2024</v>
@@ -25625,7 +25622,7 @@
     </row>
     <row r="775" spans="1:3">
       <c r="A775" t="s">
-        <v>267</v>
+        <v>532</v>
       </c>
       <c r="B775">
         <v>2024</v>
@@ -25636,7 +25633,7 @@
     </row>
     <row r="776" spans="1:3">
       <c r="A776" t="s">
-        <v>533</v>
+        <v>98</v>
       </c>
       <c r="B776">
         <v>2024</v>
@@ -25647,7 +25644,7 @@
     </row>
     <row r="777" spans="1:3">
       <c r="A777" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="B777">
         <v>2024</v>
@@ -25658,7 +25655,7 @@
     </row>
     <row r="778" spans="1:3">
       <c r="A778" t="s">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="B778">
         <v>2024</v>
@@ -25702,7 +25699,7 @@
     </row>
     <row r="782" spans="1:3">
       <c r="A782" t="s">
-        <v>537</v>
+        <v>362</v>
       </c>
       <c r="B782">
         <v>2024</v>
@@ -25713,7 +25710,7 @@
     </row>
     <row r="783" spans="1:3">
       <c r="A783" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="B783">
         <v>2024</v>
@@ -25724,7 +25721,7 @@
     </row>
     <row r="784" spans="1:3">
       <c r="A784" t="s">
-        <v>273</v>
+        <v>537</v>
       </c>
       <c r="B784">
         <v>2024</v>
@@ -25757,7 +25754,7 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="B787">
         <v>2024</v>
@@ -25768,7 +25765,7 @@
     </row>
     <row r="788" spans="1:3">
       <c r="A788" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B788">
         <v>2024</v>
@@ -25779,18 +25776,18 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" t="s">
-        <v>541</v>
+        <v>271</v>
       </c>
       <c r="B789">
         <v>2024</v>
       </c>
       <c r="C789" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="A790" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="B790">
         <v>2024</v>
@@ -25801,7 +25798,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="B791">
         <v>2024</v>
@@ -25812,7 +25809,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" t="s">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="B792">
         <v>2024</v>
@@ -25823,7 +25820,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="B793">
         <v>2024</v>
@@ -25834,7 +25831,7 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="B794">
         <v>2024</v>
@@ -25867,7 +25864,7 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" t="s">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="B797">
         <v>2024</v>
@@ -25878,7 +25875,7 @@
     </row>
     <row r="798" spans="1:3">
       <c r="A798" t="s">
-        <v>432</v>
+        <v>113</v>
       </c>
       <c r="B798">
         <v>2024</v>
@@ -25889,7 +25886,7 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" t="s">
-        <v>113</v>
+        <v>544</v>
       </c>
       <c r="B799">
         <v>2024</v>
@@ -25900,7 +25897,7 @@
     </row>
     <row r="800" spans="1:3">
       <c r="A800" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
       <c r="B800">
         <v>2024</v>
@@ -25911,7 +25908,7 @@
     </row>
     <row r="801" spans="1:3">
       <c r="A801" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="B801">
         <v>2024</v>
@@ -25922,7 +25919,7 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="B802">
         <v>2024</v>
@@ -25944,7 +25941,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" t="s">
-        <v>547</v>
+        <v>277</v>
       </c>
       <c r="B804">
         <v>2024</v>
@@ -25955,7 +25952,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" t="s">
-        <v>277</v>
+        <v>510</v>
       </c>
       <c r="B805">
         <v>2024</v>
@@ -25966,7 +25963,7 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="B806">
         <v>2024</v>
@@ -26010,7 +26007,7 @@
     </row>
     <row r="810" spans="1:3">
       <c r="A810" t="s">
-        <v>551</v>
+        <v>253</v>
       </c>
       <c r="B810">
         <v>2024</v>
@@ -26021,7 +26018,7 @@
     </row>
     <row r="811" spans="1:3">
       <c r="A811" t="s">
-        <v>253</v>
+        <v>551</v>
       </c>
       <c r="B811">
         <v>2024</v>
@@ -26032,7 +26029,7 @@
     </row>
     <row r="812" spans="1:3">
       <c r="A812" t="s">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="B812">
         <v>2024</v>
@@ -26043,7 +26040,7 @@
     </row>
     <row r="813" spans="1:3">
       <c r="A813" t="s">
-        <v>410</v>
+        <v>129</v>
       </c>
       <c r="B813">
         <v>2024</v>
@@ -26054,7 +26051,7 @@
     </row>
     <row r="814" spans="1:3">
       <c r="A814" t="s">
-        <v>129</v>
+        <v>403</v>
       </c>
       <c r="B814">
         <v>2024</v>
@@ -26065,7 +26062,7 @@
     </row>
     <row r="815" spans="1:3">
       <c r="A815" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="B815">
         <v>2024</v>
@@ -26076,7 +26073,7 @@
     </row>
     <row r="816" spans="1:3">
       <c r="A816" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="B816">
         <v>2024</v>
@@ -26087,7 +26084,7 @@
     </row>
     <row r="817" spans="1:3">
       <c r="A817" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="B817">
         <v>2024</v>
@@ -26098,7 +26095,7 @@
     </row>
     <row r="818" spans="1:3">
       <c r="A818" t="s">
-        <v>255</v>
+        <v>552</v>
       </c>
       <c r="B818">
         <v>2024</v>
@@ -26109,18 +26106,18 @@
     </row>
     <row r="819" spans="1:3">
       <c r="A819" t="s">
-        <v>553</v>
+        <v>185</v>
       </c>
       <c r="B819">
         <v>2024</v>
       </c>
       <c r="C819" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="820" spans="1:3">
       <c r="A820" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B820">
         <v>2024</v>
@@ -26131,7 +26128,7 @@
     </row>
     <row r="821" spans="1:3">
       <c r="A821" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B821">
         <v>2024</v>
@@ -26142,7 +26139,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="B822">
         <v>2024</v>
@@ -26153,7 +26150,7 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="B823">
         <v>2024</v>
@@ -26164,7 +26161,7 @@
     </row>
     <row r="824" spans="1:3">
       <c r="A824" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="B824">
         <v>2024</v>
@@ -26175,7 +26172,7 @@
     </row>
     <row r="825" spans="1:3">
       <c r="A825" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B825">
         <v>2024</v>
@@ -26186,7 +26183,7 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" t="s">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="B826">
         <v>2024</v>
@@ -26197,7 +26194,7 @@
     </row>
     <row r="827" spans="1:3">
       <c r="A827" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
       <c r="B827">
         <v>2024</v>
@@ -26208,7 +26205,7 @@
     </row>
     <row r="828" spans="1:3">
       <c r="A828" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="B828">
         <v>2024</v>
@@ -26219,7 +26216,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B829">
         <v>2024</v>
@@ -26230,7 +26227,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B830">
         <v>2024</v>
@@ -26241,7 +26238,7 @@
     </row>
     <row r="831" spans="1:3">
       <c r="A831" t="s">
-        <v>473</v>
+        <v>231</v>
       </c>
       <c r="B831">
         <v>2024</v>
@@ -26252,7 +26249,7 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" t="s">
-        <v>231</v>
+        <v>553</v>
       </c>
       <c r="B832">
         <v>2024</v>
@@ -26263,7 +26260,7 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" t="s">
-        <v>554</v>
+        <v>214</v>
       </c>
       <c r="B833">
         <v>2024</v>
@@ -26274,7 +26271,7 @@
     </row>
     <row r="834" spans="1:3">
       <c r="A834" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="B834">
         <v>2024</v>
@@ -26285,7 +26282,7 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" t="s">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="B835">
         <v>2024</v>
@@ -26296,7 +26293,7 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" t="s">
-        <v>555</v>
+        <v>155</v>
       </c>
       <c r="B836">
         <v>2024</v>
@@ -26307,7 +26304,7 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" t="s">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="B837">
         <v>2024</v>
@@ -26318,7 +26315,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" t="s">
-        <v>465</v>
+        <v>555</v>
       </c>
       <c r="B838">
         <v>2024</v>
@@ -26340,7 +26337,7 @@
     </row>
     <row r="840" spans="1:3">
       <c r="A840" t="s">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="B840">
         <v>2024</v>
@@ -26351,7 +26348,7 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" t="s">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="B841">
         <v>2024</v>
@@ -26362,7 +26359,7 @@
     </row>
     <row r="842" spans="1:3">
       <c r="A842" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="B842">
         <v>2024</v>
@@ -26373,7 +26370,7 @@
     </row>
     <row r="843" spans="1:3">
       <c r="A843" t="s">
-        <v>171</v>
+        <v>557</v>
       </c>
       <c r="B843">
         <v>2024</v>
@@ -26417,7 +26414,7 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" t="s">
-        <v>561</v>
+        <v>168</v>
       </c>
       <c r="B847">
         <v>2024</v>
@@ -26428,7 +26425,7 @@
     </row>
     <row r="848" spans="1:3">
       <c r="A848" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="B848">
         <v>2024</v>
@@ -26439,18 +26436,18 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B849">
         <v>2024</v>
       </c>
       <c r="C849" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="B850">
         <v>2024</v>
@@ -26461,7 +26458,7 @@
     </row>
     <row r="851" spans="1:3">
       <c r="A851" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="B851">
         <v>2024</v>
@@ -26472,7 +26469,7 @@
     </row>
     <row r="852" spans="1:3">
       <c r="A852" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B852">
         <v>2024</v>
@@ -26483,7 +26480,7 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="B853">
         <v>2024</v>
@@ -26494,7 +26491,7 @@
     </row>
     <row r="854" spans="1:3">
       <c r="A854" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="B854">
         <v>2024</v>
@@ -26505,7 +26502,7 @@
     </row>
     <row r="855" spans="1:3">
       <c r="A855" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="B855">
         <v>2024</v>
@@ -26516,7 +26513,7 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="B856">
         <v>2024</v>
@@ -26527,7 +26524,7 @@
     </row>
     <row r="857" spans="1:3">
       <c r="A857" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="B857">
         <v>2024</v>
@@ -26538,7 +26535,7 @@
     </row>
     <row r="858" spans="1:3">
       <c r="A858" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="B858">
         <v>2024</v>
@@ -26549,7 +26546,7 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B859">
         <v>2024</v>
@@ -26560,7 +26557,7 @@
     </row>
     <row r="860" spans="1:3">
       <c r="A860" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B860">
         <v>2024</v>
@@ -26571,7 +26568,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="B861">
         <v>2024</v>
@@ -26582,7 +26579,7 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="B862">
         <v>2024</v>
@@ -26593,7 +26590,7 @@
     </row>
     <row r="863" spans="1:3">
       <c r="A863" t="s">
-        <v>378</v>
+        <v>561</v>
       </c>
       <c r="B863">
         <v>2024</v>
@@ -26615,7 +26612,7 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="B865">
         <v>2024</v>
@@ -26626,7 +26623,7 @@
     </row>
     <row r="866" spans="1:3">
       <c r="A866" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="B866">
         <v>2024</v>
@@ -26637,7 +26634,7 @@
     </row>
     <row r="867" spans="1:3">
       <c r="A867" t="s">
-        <v>564</v>
+        <v>323</v>
       </c>
       <c r="B867">
         <v>2024</v>
@@ -26648,7 +26645,7 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" t="s">
-        <v>323</v>
+        <v>564</v>
       </c>
       <c r="B868">
         <v>2024</v>
@@ -26670,7 +26667,7 @@
     </row>
     <row r="870" spans="1:3">
       <c r="A870" t="s">
-        <v>566</v>
+        <v>395</v>
       </c>
       <c r="B870">
         <v>2024</v>
@@ -26681,7 +26678,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" t="s">
-        <v>395</v>
+        <v>566</v>
       </c>
       <c r="B871">
         <v>2024</v>
@@ -26714,7 +26711,7 @@
     </row>
     <row r="874" spans="1:3">
       <c r="A874" t="s">
-        <v>569</v>
+        <v>145</v>
       </c>
       <c r="B874">
         <v>2024</v>
@@ -26725,7 +26722,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" t="s">
-        <v>145</v>
+        <v>474</v>
       </c>
       <c r="B875">
         <v>2024</v>
@@ -26736,7 +26733,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B876">
         <v>2024</v>
@@ -26747,7 +26744,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" t="s">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="B877">
         <v>2024</v>
@@ -26758,18 +26755,18 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" t="s">
-        <v>570</v>
+        <v>139</v>
       </c>
       <c r="B878">
         <v>2024</v>
       </c>
       <c r="C878" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="879" spans="1:3">
       <c r="A879" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="B879">
         <v>2024</v>
@@ -26780,7 +26777,7 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="B880">
         <v>2024</v>
@@ -26791,7 +26788,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B881">
         <v>2024</v>
@@ -26802,7 +26799,7 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" t="s">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="B882">
         <v>2024</v>
@@ -26813,7 +26810,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" t="s">
-        <v>509</v>
+        <v>122</v>
       </c>
       <c r="B883">
         <v>2024</v>
@@ -26824,7 +26821,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" t="s">
-        <v>122</v>
+        <v>406</v>
       </c>
       <c r="B884">
         <v>2024</v>
@@ -26835,7 +26832,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="B885">
         <v>2024</v>
@@ -26846,7 +26843,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" t="s">
-        <v>467</v>
+        <v>343</v>
       </c>
       <c r="B886">
         <v>2024</v>
@@ -26857,7 +26854,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="B887">
         <v>2024</v>
@@ -26868,7 +26865,7 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="B888">
         <v>2024</v>
@@ -26879,7 +26876,7 @@
     </row>
     <row r="889" spans="1:3">
       <c r="A889" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="B889">
         <v>2024</v>
@@ -26890,7 +26887,7 @@
     </row>
     <row r="890" spans="1:3">
       <c r="A890" t="s">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="B890">
         <v>2024</v>
@@ -26901,7 +26898,7 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" t="s">
-        <v>571</v>
+        <v>226</v>
       </c>
       <c r="B891">
         <v>2024</v>
@@ -26912,7 +26909,7 @@
     </row>
     <row r="892" spans="1:3">
       <c r="A892" t="s">
-        <v>226</v>
+        <v>571</v>
       </c>
       <c r="B892">
         <v>2024</v>
@@ -26923,7 +26920,7 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" t="s">
-        <v>572</v>
+        <v>458</v>
       </c>
       <c r="B893">
         <v>2024</v>
@@ -26934,7 +26931,7 @@
     </row>
     <row r="894" spans="1:3">
       <c r="A894" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="B894">
         <v>2024</v>
@@ -26945,7 +26942,7 @@
     </row>
     <row r="895" spans="1:3">
       <c r="A895" t="s">
-        <v>513</v>
+        <v>219</v>
       </c>
       <c r="B895">
         <v>2024</v>
@@ -26956,7 +26953,7 @@
     </row>
     <row r="896" spans="1:3">
       <c r="A896" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B896">
         <v>2024</v>
@@ -26967,7 +26964,7 @@
     </row>
     <row r="897" spans="1:3">
       <c r="A897" t="s">
-        <v>165</v>
+        <v>572</v>
       </c>
       <c r="B897">
         <v>2024</v>
@@ -26978,7 +26975,7 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898" t="s">
-        <v>573</v>
+        <v>393</v>
       </c>
       <c r="B898">
         <v>2024</v>
@@ -26989,7 +26986,7 @@
     </row>
     <row r="899" spans="1:3">
       <c r="A899" t="s">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="B899">
         <v>2024</v>
@@ -27000,7 +26997,7 @@
     </row>
     <row r="900" spans="1:3">
       <c r="A900" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="B900">
         <v>2024</v>
@@ -27011,7 +27008,7 @@
     </row>
     <row r="901" spans="1:3">
       <c r="A901" t="s">
-        <v>249</v>
+        <v>573</v>
       </c>
       <c r="B901">
         <v>2024</v>
@@ -27022,7 +27019,7 @@
     </row>
     <row r="902" spans="1:3">
       <c r="A902" t="s">
-        <v>574</v>
+        <v>413</v>
       </c>
       <c r="B902">
         <v>2024</v>
@@ -27033,7 +27030,7 @@
     </row>
     <row r="903" spans="1:3">
       <c r="A903" t="s">
-        <v>413</v>
+        <v>574</v>
       </c>
       <c r="B903">
         <v>2024</v>
@@ -27066,7 +27063,7 @@
     </row>
     <row r="906" spans="1:3">
       <c r="A906" t="s">
-        <v>577</v>
+        <v>424</v>
       </c>
       <c r="B906">
         <v>2024</v>
@@ -27077,7 +27074,7 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907" t="s">
-        <v>424</v>
+        <v>577</v>
       </c>
       <c r="B907">
         <v>2024</v>
@@ -27088,18 +27085,18 @@
     </row>
     <row r="908" spans="1:3">
       <c r="A908" t="s">
-        <v>578</v>
+        <v>132</v>
       </c>
       <c r="B908">
         <v>2024</v>
       </c>
       <c r="C908" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="909" spans="1:3">
       <c r="A909" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B909">
         <v>2024</v>
@@ -27110,7 +27107,7 @@
     </row>
     <row r="910" spans="1:3">
       <c r="A910" t="s">
-        <v>193</v>
+        <v>423</v>
       </c>
       <c r="B910">
         <v>2024</v>
@@ -27121,7 +27118,7 @@
     </row>
     <row r="911" spans="1:3">
       <c r="A911" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="B911">
         <v>2024</v>
@@ -27132,7 +27129,7 @@
     </row>
     <row r="912" spans="1:3">
       <c r="A912" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B912">
         <v>2024</v>
@@ -27143,7 +27140,7 @@
     </row>
     <row r="913" spans="1:3">
       <c r="A913" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B913">
         <v>2024</v>
@@ -27154,7 +27151,7 @@
     </row>
     <row r="914" spans="1:3">
       <c r="A914" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="B914">
         <v>2024</v>
@@ -27165,7 +27162,7 @@
     </row>
     <row r="915" spans="1:3">
       <c r="A915" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="B915">
         <v>2024</v>
@@ -27176,7 +27173,7 @@
     </row>
     <row r="916" spans="1:3">
       <c r="A916" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="B916">
         <v>2024</v>
@@ -27187,7 +27184,7 @@
     </row>
     <row r="917" spans="1:3">
       <c r="A917" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B917">
         <v>2024</v>
@@ -27198,7 +27195,7 @@
     </row>
     <row r="918" spans="1:3">
       <c r="A918" t="s">
-        <v>310</v>
+        <v>578</v>
       </c>
       <c r="B918">
         <v>2024</v>
@@ -27209,7 +27206,7 @@
     </row>
     <row r="919" spans="1:3">
       <c r="A919" t="s">
-        <v>579</v>
+        <v>341</v>
       </c>
       <c r="B919">
         <v>2024</v>
@@ -27220,7 +27217,7 @@
     </row>
     <row r="920" spans="1:3">
       <c r="A920" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B920">
         <v>2024</v>
@@ -27231,7 +27228,7 @@
     </row>
     <row r="921" spans="1:3">
       <c r="A921" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="B921">
         <v>2024</v>
@@ -27242,7 +27239,7 @@
     </row>
     <row r="922" spans="1:3">
       <c r="A922" t="s">
-        <v>137</v>
+        <v>579</v>
       </c>
       <c r="B922">
         <v>2024</v>
@@ -27253,7 +27250,7 @@
     </row>
     <row r="923" spans="1:3">
       <c r="A923" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
       <c r="B923">
         <v>2024</v>
@@ -27264,7 +27261,7 @@
     </row>
     <row r="924" spans="1:3">
       <c r="A924" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B924">
         <v>2024</v>
@@ -27275,7 +27272,7 @@
     </row>
     <row r="925" spans="1:3">
       <c r="A925" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="B925">
         <v>2024</v>
@@ -27286,7 +27283,7 @@
     </row>
     <row r="926" spans="1:3">
       <c r="A926" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="B926">
         <v>2024</v>
@@ -27297,7 +27294,7 @@
     </row>
     <row r="927" spans="1:3">
       <c r="A927" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="B927">
         <v>2024</v>
@@ -27308,7 +27305,7 @@
     </row>
     <row r="928" spans="1:3">
       <c r="A928" t="s">
-        <v>246</v>
+        <v>580</v>
       </c>
       <c r="B928">
         <v>2024</v>
@@ -27374,7 +27371,7 @@
     </row>
     <row r="934" spans="1:3">
       <c r="A934" t="s">
-        <v>586</v>
+        <v>235</v>
       </c>
       <c r="B934">
         <v>2024</v>
@@ -27385,7 +27382,7 @@
     </row>
     <row r="935" spans="1:3">
       <c r="A935" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B935">
         <v>2024</v>
@@ -27396,7 +27393,7 @@
     </row>
     <row r="936" spans="1:3">
       <c r="A936" t="s">
-        <v>204</v>
+        <v>586</v>
       </c>
       <c r="B936">
         <v>2024</v>
@@ -27407,7 +27404,7 @@
     </row>
     <row r="937" spans="1:3">
       <c r="A937" t="s">
-        <v>587</v>
+        <v>89</v>
       </c>
       <c r="B937">
         <v>2024</v>
@@ -27418,7 +27415,7 @@
     </row>
     <row r="938" spans="1:3">
       <c r="A938" t="s">
-        <v>89</v>
+        <v>587</v>
       </c>
       <c r="B938">
         <v>2024</v>
@@ -27429,18 +27426,18 @@
     </row>
     <row r="939" spans="1:3">
       <c r="A939" t="s">
-        <v>588</v>
+        <v>102</v>
       </c>
       <c r="B939">
         <v>2024</v>
       </c>
       <c r="C939" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="940" spans="1:3">
       <c r="A940" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="B940">
         <v>2024</v>
@@ -27451,7 +27448,7 @@
     </row>
     <row r="941" spans="1:3">
       <c r="A941" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="B941">
         <v>2024</v>
@@ -27462,7 +27459,7 @@
     </row>
     <row r="942" spans="1:3">
       <c r="A942" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="B942">
         <v>2024</v>
@@ -27473,7 +27470,7 @@
     </row>
     <row r="943" spans="1:3">
       <c r="A943" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="B943">
         <v>2024</v>
@@ -27484,7 +27481,7 @@
     </row>
     <row r="944" spans="1:3">
       <c r="A944" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B944">
         <v>2024</v>
@@ -27495,7 +27492,7 @@
     </row>
     <row r="945" spans="1:3">
       <c r="A945" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
       <c r="B945">
         <v>2024</v>
@@ -27506,7 +27503,7 @@
     </row>
     <row r="946" spans="1:3">
       <c r="A946" t="s">
-        <v>490</v>
+        <v>161</v>
       </c>
       <c r="B946">
         <v>2024</v>
@@ -27517,7 +27514,7 @@
     </row>
     <row r="947" spans="1:3">
       <c r="A947" t="s">
-        <v>161</v>
+        <v>479</v>
       </c>
       <c r="B947">
         <v>2024</v>
@@ -27528,7 +27525,7 @@
     </row>
     <row r="948" spans="1:3">
       <c r="A948" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="B948">
         <v>2024</v>
@@ -27539,7 +27536,7 @@
     </row>
     <row r="949" spans="1:3">
       <c r="A949" t="s">
-        <v>429</v>
+        <v>588</v>
       </c>
       <c r="B949">
         <v>2024</v>
@@ -27572,7 +27569,7 @@
     </row>
     <row r="952" spans="1:3">
       <c r="A952" t="s">
-        <v>591</v>
+        <v>240</v>
       </c>
       <c r="B952">
         <v>2024</v>
@@ -27583,7 +27580,7 @@
     </row>
     <row r="953" spans="1:3">
       <c r="A953" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="B953">
         <v>2024</v>
@@ -27594,7 +27591,7 @@
     </row>
     <row r="954" spans="1:3">
       <c r="A954" t="s">
-        <v>295</v>
+        <v>591</v>
       </c>
       <c r="B954">
         <v>2024</v>
@@ -27638,7 +27635,7 @@
     </row>
     <row r="958" spans="1:3">
       <c r="A958" t="s">
-        <v>595</v>
+        <v>379</v>
       </c>
       <c r="B958">
         <v>2024</v>
@@ -27649,7 +27646,7 @@
     </row>
     <row r="959" spans="1:3">
       <c r="A959" t="s">
-        <v>379</v>
+        <v>595</v>
       </c>
       <c r="B959">
         <v>2024</v>
@@ -27682,7 +27679,7 @@
     </row>
     <row r="962" spans="1:3">
       <c r="A962" t="s">
-        <v>598</v>
+        <v>464</v>
       </c>
       <c r="B962">
         <v>2024</v>
@@ -27693,7 +27690,7 @@
     </row>
     <row r="963" spans="1:3">
       <c r="A963" t="s">
-        <v>464</v>
+        <v>598</v>
       </c>
       <c r="B963">
         <v>2024</v>
@@ -27715,7 +27712,7 @@
     </row>
     <row r="965" spans="1:3">
       <c r="A965" t="s">
-        <v>600</v>
+        <v>352</v>
       </c>
       <c r="B965">
         <v>2024</v>
@@ -27726,7 +27723,7 @@
     </row>
     <row r="966" spans="1:3">
       <c r="A966" t="s">
-        <v>352</v>
+        <v>600</v>
       </c>
       <c r="B966">
         <v>2024</v>
@@ -27770,18 +27767,18 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" t="s">
-        <v>604</v>
+        <v>357</v>
       </c>
       <c r="B970">
         <v>2024</v>
       </c>
       <c r="C970" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="971" spans="1:3">
       <c r="A971" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="B971">
         <v>2024</v>
@@ -27792,7 +27789,7 @@
     </row>
     <row r="972" spans="1:3">
       <c r="A972" t="s">
-        <v>417</v>
+        <v>289</v>
       </c>
       <c r="B972">
         <v>2024</v>
@@ -27803,7 +27800,7 @@
     </row>
     <row r="973" spans="1:3">
       <c r="A973" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="B973">
         <v>2024</v>
@@ -27814,7 +27811,7 @@
     </row>
     <row r="974" spans="1:3">
       <c r="A974" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="B974">
         <v>2024</v>
@@ -27825,7 +27822,7 @@
     </row>
     <row r="975" spans="1:3">
       <c r="A975" t="s">
-        <v>321</v>
+        <v>494</v>
       </c>
       <c r="B975">
         <v>2024</v>
@@ -27836,7 +27833,7 @@
     </row>
     <row r="976" spans="1:3">
       <c r="A976" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="B976">
         <v>2024</v>
@@ -27847,7 +27844,7 @@
     </row>
     <row r="977" spans="1:3">
       <c r="A977" t="s">
-        <v>460</v>
+        <v>183</v>
       </c>
       <c r="B977">
         <v>2024</v>
@@ -27858,7 +27855,7 @@
     </row>
     <row r="978" spans="1:3">
       <c r="A978" t="s">
-        <v>183</v>
+        <v>604</v>
       </c>
       <c r="B978">
         <v>2024</v>
@@ -27869,7 +27866,7 @@
     </row>
     <row r="979" spans="1:3">
       <c r="A979" t="s">
-        <v>605</v>
+        <v>177</v>
       </c>
       <c r="B979">
         <v>2024</v>
@@ -27880,7 +27877,7 @@
     </row>
     <row r="980" spans="1:3">
       <c r="A980" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="B980">
         <v>2024</v>
@@ -27891,7 +27888,7 @@
     </row>
     <row r="981" spans="1:3">
       <c r="A981" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
       <c r="B981">
         <v>2024</v>
@@ -27902,7 +27899,7 @@
     </row>
     <row r="982" spans="1:3">
       <c r="A982" t="s">
-        <v>606</v>
+        <v>502</v>
       </c>
       <c r="B982">
         <v>2024</v>
@@ -27913,7 +27910,7 @@
     </row>
     <row r="983" spans="1:3">
       <c r="A983" t="s">
-        <v>502</v>
+        <v>606</v>
       </c>
       <c r="B983">
         <v>2024</v>
@@ -27935,7 +27932,7 @@
     </row>
     <row r="985" spans="1:3">
       <c r="A985" t="s">
-        <v>387</v>
+        <v>118</v>
       </c>
       <c r="B985">
         <v>2024</v>
@@ -27957,7 +27954,7 @@
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>118</v>
+        <v>609</v>
       </c>
       <c r="B987">
         <v>2024</v>
@@ -27968,7 +27965,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>609</v>
+        <v>484</v>
       </c>
       <c r="B988">
         <v>2024</v>
@@ -27990,7 +27987,7 @@
     </row>
     <row r="990" spans="1:3">
       <c r="A990" t="s">
-        <v>484</v>
+        <v>611</v>
       </c>
       <c r="B990">
         <v>2024</v>
@@ -28001,7 +27998,7 @@
     </row>
     <row r="991" spans="1:3">
       <c r="A991" t="s">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="B991">
         <v>2024</v>
@@ -28012,7 +28009,7 @@
     </row>
     <row r="992" spans="1:3">
       <c r="A992" t="s">
-        <v>612</v>
+        <v>492</v>
       </c>
       <c r="B992">
         <v>2024</v>
@@ -28023,7 +28020,7 @@
     </row>
     <row r="993" spans="1:3">
       <c r="A993" t="s">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="B993">
         <v>2024</v>
@@ -28034,7 +28031,7 @@
     </row>
     <row r="994" spans="1:3">
       <c r="A994" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B994">
         <v>2024</v>
@@ -28045,7 +28042,7 @@
     </row>
     <row r="995" spans="1:3">
       <c r="A995" t="s">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="B995">
         <v>2024</v>
@@ -28056,7 +28053,7 @@
     </row>
     <row r="996" spans="1:3">
       <c r="A996" t="s">
-        <v>516</v>
+        <v>613</v>
       </c>
       <c r="B996">
         <v>2024</v>
@@ -28067,7 +28064,7 @@
     </row>
     <row r="997" spans="1:3">
       <c r="A997" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B997">
         <v>2024</v>
@@ -28078,7 +28075,7 @@
     </row>
     <row r="998" spans="1:3">
       <c r="A998" t="s">
-        <v>614</v>
+        <v>461</v>
       </c>
       <c r="B998">
         <v>2024</v>
@@ -28089,18 +28086,18 @@
     </row>
     <row r="999" spans="1:3">
       <c r="A999" t="s">
-        <v>615</v>
+        <v>263</v>
       </c>
       <c r="B999">
         <v>2024</v>
       </c>
       <c r="C999" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B1000">
         <v>2024</v>
@@ -28111,7 +28108,7 @@
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" t="s">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="B1001">
         <v>2024</v>
@@ -28122,7 +28119,7 @@
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" t="s">
-        <v>103</v>
+        <v>407</v>
       </c>
       <c r="B1002">
         <v>2024</v>
@@ -28133,7 +28130,7 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="B1003">
         <v>2024</v>
@@ -28144,7 +28141,7 @@
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="B1004">
         <v>2024</v>
@@ -28155,7 +28152,7 @@
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" t="s">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="B1005">
         <v>2024</v>
@@ -28166,7 +28163,7 @@
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" t="s">
-        <v>418</v>
+        <v>615</v>
       </c>
       <c r="B1006">
         <v>2024</v>
@@ -28188,7 +28185,7 @@
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" t="s">
-        <v>617</v>
+        <v>388</v>
       </c>
       <c r="B1008">
         <v>2024</v>
@@ -28199,7 +28196,7 @@
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" t="s">
-        <v>388</v>
+        <v>617</v>
       </c>
       <c r="B1009">
         <v>2024</v>
@@ -28210,7 +28207,7 @@
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" t="s">
-        <v>618</v>
+        <v>251</v>
       </c>
       <c r="B1010">
         <v>2024</v>
@@ -28221,7 +28218,7 @@
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" t="s">
-        <v>251</v>
+        <v>489</v>
       </c>
       <c r="B1011">
         <v>2024</v>
@@ -28232,7 +28229,7 @@
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" t="s">
-        <v>489</v>
+        <v>618</v>
       </c>
       <c r="B1012">
         <v>2024</v>
@@ -28309,7 +28306,7 @@
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" t="s">
-        <v>625</v>
+        <v>303</v>
       </c>
       <c r="B1019">
         <v>2024</v>
@@ -28320,7 +28317,7 @@
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" t="s">
-        <v>303</v>
+        <v>625</v>
       </c>
       <c r="B1020">
         <v>2024</v>
@@ -28342,7 +28339,7 @@
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" t="s">
-        <v>627</v>
+        <v>397</v>
       </c>
       <c r="B1022">
         <v>2024</v>
@@ -28353,7 +28350,7 @@
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" t="s">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="B1023">
         <v>2024</v>
@@ -28364,7 +28361,7 @@
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="B1024">
         <v>2024</v>
@@ -28375,7 +28372,7 @@
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="s">
-        <v>308</v>
+        <v>627</v>
       </c>
       <c r="B1025">
         <v>2024</v>
@@ -28397,18 +28394,18 @@
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" t="s">
-        <v>629</v>
+        <v>207</v>
       </c>
       <c r="B1027">
         <v>2024</v>
       </c>
       <c r="C1027" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="B1028">
         <v>2024</v>
@@ -28419,7 +28416,7 @@
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="B1029">
         <v>2024</v>
@@ -28430,7 +28427,7 @@
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" t="s">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="B1030">
         <v>2024</v>
@@ -28441,7 +28438,7 @@
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" t="s">
-        <v>186</v>
+        <v>448</v>
       </c>
       <c r="B1031">
         <v>2024</v>
@@ -28452,7 +28449,7 @@
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" t="s">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="B1032">
         <v>2024</v>
@@ -28463,7 +28460,7 @@
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="B1033">
         <v>2024</v>
@@ -28474,7 +28471,7 @@
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="B1034">
         <v>2024</v>
@@ -28485,7 +28482,7 @@
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B1035">
         <v>2024</v>
@@ -28496,7 +28493,7 @@
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
       <c r="B1036">
         <v>2024</v>
@@ -28507,7 +28504,7 @@
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="B1037">
         <v>2024</v>
@@ -28518,7 +28515,7 @@
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" t="s">
-        <v>449</v>
+        <v>215</v>
       </c>
       <c r="B1038">
         <v>2024</v>
@@ -28529,7 +28526,7 @@
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B1039">
         <v>2024</v>
@@ -28540,7 +28537,7 @@
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" t="s">
-        <v>447</v>
+        <v>306</v>
       </c>
       <c r="B1040">
         <v>2024</v>
@@ -28551,7 +28548,7 @@
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" t="s">
-        <v>306</v>
+        <v>477</v>
       </c>
       <c r="B1041">
         <v>2024</v>
@@ -28562,7 +28559,7 @@
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" t="s">
-        <v>477</v>
+        <v>629</v>
       </c>
       <c r="B1042">
         <v>2024</v>
@@ -28573,7 +28570,7 @@
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" t="s">
-        <v>630</v>
+        <v>430</v>
       </c>
       <c r="B1043">
         <v>2024</v>
@@ -28584,7 +28581,7 @@
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="B1044">
         <v>2024</v>
@@ -28595,7 +28592,7 @@
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" t="s">
-        <v>385</v>
+        <v>630</v>
       </c>
       <c r="B1045">
         <v>2024</v>
@@ -28639,7 +28636,7 @@
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049" t="s">
-        <v>634</v>
+        <v>234</v>
       </c>
       <c r="B1049">
         <v>2024</v>
@@ -28650,7 +28647,7 @@
     </row>
     <row r="1050" spans="1:3">
       <c r="A1050" t="s">
-        <v>234</v>
+        <v>634</v>
       </c>
       <c r="B1050">
         <v>2024</v>
@@ -28661,7 +28658,7 @@
     </row>
     <row r="1051" spans="1:3">
       <c r="A1051" t="s">
-        <v>635</v>
+        <v>152</v>
       </c>
       <c r="B1051">
         <v>2024</v>
@@ -28672,7 +28669,7 @@
     </row>
     <row r="1052" spans="1:3">
       <c r="A1052" t="s">
-        <v>152</v>
+        <v>635</v>
       </c>
       <c r="B1052">
         <v>2024</v>
@@ -28694,18 +28691,18 @@
     </row>
     <row r="1054" spans="1:3">
       <c r="A1054" t="s">
-        <v>637</v>
+        <v>134</v>
       </c>
       <c r="B1054">
         <v>2024</v>
       </c>
       <c r="C1054" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
       <c r="A1055" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="B1055">
         <v>2024</v>
@@ -28716,7 +28713,7 @@
     </row>
     <row r="1056" spans="1:3">
       <c r="A1056" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="B1056">
         <v>2024</v>
@@ -28727,7 +28724,7 @@
     </row>
     <row r="1057" spans="1:3">
       <c r="A1057" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B1057">
         <v>2024</v>
@@ -28738,7 +28735,7 @@
     </row>
     <row r="1058" spans="1:3">
       <c r="A1058" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B1058">
         <v>2024</v>
@@ -28749,7 +28746,7 @@
     </row>
     <row r="1059" spans="1:3">
       <c r="A1059" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1059">
         <v>2024</v>
@@ -28760,7 +28757,7 @@
     </row>
     <row r="1060" spans="1:3">
       <c r="A1060" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="B1060">
         <v>2024</v>
@@ -28771,7 +28768,7 @@
     </row>
     <row r="1061" spans="1:3">
       <c r="A1061" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B1061">
         <v>2024</v>
@@ -28782,7 +28779,7 @@
     </row>
     <row r="1062" spans="1:3">
       <c r="A1062" t="s">
-        <v>498</v>
+        <v>305</v>
       </c>
       <c r="B1062">
         <v>2024</v>
@@ -28793,7 +28790,7 @@
     </row>
     <row r="1063" spans="1:3">
       <c r="A1063" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B1063">
         <v>2024</v>
@@ -28804,7 +28801,7 @@
     </row>
     <row r="1064" spans="1:3">
       <c r="A1064" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="B1064">
         <v>2024</v>
@@ -28815,7 +28812,7 @@
     </row>
     <row r="1065" spans="1:3">
       <c r="A1065" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="B1065">
         <v>2024</v>
@@ -28826,7 +28823,7 @@
     </row>
     <row r="1066" spans="1:3">
       <c r="A1066" t="s">
-        <v>292</v>
+        <v>508</v>
       </c>
       <c r="B1066">
         <v>2024</v>
@@ -28837,7 +28834,7 @@
     </row>
     <row r="1067" spans="1:3">
       <c r="A1067" t="s">
-        <v>508</v>
+        <v>322</v>
       </c>
       <c r="B1067">
         <v>2024</v>
@@ -28848,7 +28845,7 @@
     </row>
     <row r="1068" spans="1:3">
       <c r="A1068" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="B1068">
         <v>2024</v>
@@ -28859,7 +28856,7 @@
     </row>
     <row r="1069" spans="1:3">
       <c r="A1069" t="s">
-        <v>345</v>
+        <v>637</v>
       </c>
       <c r="B1069">
         <v>2024</v>
@@ -28870,7 +28867,7 @@
     </row>
     <row r="1070" spans="1:3">
       <c r="A1070" t="s">
-        <v>638</v>
+        <v>153</v>
       </c>
       <c r="B1070">
         <v>2024</v>
@@ -28881,7 +28878,7 @@
     </row>
     <row r="1071" spans="1:3">
       <c r="A1071" t="s">
-        <v>153</v>
+        <v>638</v>
       </c>
       <c r="B1071">
         <v>2024</v>
@@ -28892,7 +28889,7 @@
     </row>
     <row r="1072" spans="1:3">
       <c r="A1072" t="s">
-        <v>639</v>
+        <v>262</v>
       </c>
       <c r="B1072">
         <v>2024</v>
@@ -28903,7 +28900,7 @@
     </row>
     <row r="1073" spans="1:3">
       <c r="A1073" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="B1073">
         <v>2024</v>
@@ -28914,7 +28911,7 @@
     </row>
     <row r="1074" spans="1:3">
       <c r="A1074" t="s">
-        <v>350</v>
+        <v>639</v>
       </c>
       <c r="B1074">
         <v>2024</v>
@@ -28925,7 +28922,7 @@
     </row>
     <row r="1075" spans="1:3">
       <c r="A1075" t="s">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="B1075">
         <v>2024</v>
@@ -28936,7 +28933,7 @@
     </row>
     <row r="1076" spans="1:3">
       <c r="A1076" t="s">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="B1076">
         <v>2024</v>
@@ -28947,7 +28944,7 @@
     </row>
     <row r="1077" spans="1:3">
       <c r="A1077" t="s">
-        <v>641</v>
+        <v>269</v>
       </c>
       <c r="B1077">
         <v>2024</v>
@@ -28958,7 +28955,7 @@
     </row>
     <row r="1078" spans="1:3">
       <c r="A1078" t="s">
-        <v>269</v>
+        <v>463</v>
       </c>
       <c r="B1078">
         <v>2024</v>
@@ -28969,7 +28966,7 @@
     </row>
     <row r="1079" spans="1:3">
       <c r="A1079" t="s">
-        <v>463</v>
+        <v>641</v>
       </c>
       <c r="B1079">
         <v>2024</v>
@@ -28991,7 +28988,7 @@
     </row>
     <row r="1081" spans="1:3">
       <c r="A1081" t="s">
-        <v>643</v>
+        <v>114</v>
       </c>
       <c r="B1081">
         <v>2024</v>
@@ -29002,7 +28999,7 @@
     </row>
     <row r="1082" spans="1:3">
       <c r="A1082" t="s">
-        <v>114</v>
+        <v>643</v>
       </c>
       <c r="B1082">
         <v>2024</v>
@@ -29013,23 +29010,12 @@
     </row>
     <row r="1083" spans="1:3">
       <c r="A1083" t="s">
-        <v>644</v>
+        <v>258</v>
       </c>
       <c r="B1083">
         <v>2024</v>
       </c>
       <c r="C1083" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:3">
-      <c r="A1084" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1084">
-        <v>2024</v>
-      </c>
-      <c r="C1084" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6727" uniqueCount="684">
   <si>
     <t>Week</t>
   </si>
@@ -1701,12 +1701,12 @@
     <t>Austin Wells</t>
   </si>
   <si>
+    <t>Zack Gelof</t>
+  </si>
+  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Zack Gelof</t>
-  </si>
-  <si>
     <t>Chad Green</t>
   </si>
   <si>
@@ -1966,6 +1966,12 @@
   </si>
   <si>
     <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Jose Soriano</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
@@ -19770,7 +19776,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1284"/>
+  <dimension ref="A1:D1285"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19795,10 +19801,10 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -19809,10 +19815,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D3">
         <v>2021</v>
@@ -19823,10 +19829,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D4">
         <v>2021</v>
@@ -19837,10 +19843,10 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D5">
         <v>2021</v>
@@ -19851,10 +19857,10 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D6">
         <v>2021</v>
@@ -19865,10 +19871,10 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D7">
         <v>2021</v>
@@ -19879,10 +19885,10 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D8">
         <v>2021</v>
@@ -19893,10 +19899,10 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C9" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D9">
         <v>2021</v>
@@ -19907,10 +19913,10 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D10">
         <v>2021</v>
@@ -19921,10 +19927,10 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D11">
         <v>2021</v>
@@ -19935,10 +19941,10 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D12">
         <v>2021</v>
@@ -19949,10 +19955,10 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C13" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D13">
         <v>2021</v>
@@ -19963,10 +19969,10 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -19977,10 +19983,10 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C15" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D15">
         <v>2021</v>
@@ -19991,10 +19997,10 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C16" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D16">
         <v>2021</v>
@@ -20005,10 +20011,10 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C17" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D17">
         <v>2021</v>
@@ -20019,10 +20025,10 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C18" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D18">
         <v>2021</v>
@@ -20033,10 +20039,10 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C19" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D19">
         <v>2021</v>
@@ -20047,10 +20053,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C20" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D20">
         <v>2021</v>
@@ -20061,10 +20067,10 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C21" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D21">
         <v>2021</v>
@@ -20075,10 +20081,10 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C22" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D22">
         <v>2021</v>
@@ -20089,10 +20095,10 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C23" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D23">
         <v>2021</v>
@@ -20103,10 +20109,10 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D24">
         <v>2021</v>
@@ -20117,10 +20123,10 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C25" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D25">
         <v>2021</v>
@@ -20131,10 +20137,10 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D26">
         <v>2021</v>
@@ -20145,10 +20151,10 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C27" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D27">
         <v>2021</v>
@@ -20159,10 +20165,10 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C28" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D28">
         <v>2021</v>
@@ -20173,10 +20179,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C29" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D29">
         <v>2021</v>
@@ -20187,10 +20193,10 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C30" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D30">
         <v>2021</v>
@@ -20201,10 +20207,10 @@
         <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -20215,10 +20221,10 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C32" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -20229,10 +20235,10 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -20243,10 +20249,10 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C34" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -20257,10 +20263,10 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C35" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D35">
         <v>2021</v>
@@ -20271,10 +20277,10 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C36" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D36">
         <v>2021</v>
@@ -20285,10 +20291,10 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C37" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D37">
         <v>2021</v>
@@ -20299,10 +20305,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C38" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D38">
         <v>2021</v>
@@ -20313,10 +20319,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C39" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D39">
         <v>2021</v>
@@ -20327,10 +20333,10 @@
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C40" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D40">
         <v>2021</v>
@@ -20341,10 +20347,10 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C41" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D41">
         <v>2021</v>
@@ -20355,10 +20361,10 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C42" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D42">
         <v>2021</v>
@@ -20369,10 +20375,10 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C43" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D43">
         <v>2021</v>
@@ -20383,10 +20389,10 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C44" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D44">
         <v>2021</v>
@@ -20397,10 +20403,10 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C45" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D45">
         <v>2021</v>
@@ -20411,10 +20417,10 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C46" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D46">
         <v>2021</v>
@@ -20425,10 +20431,10 @@
         <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C47" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D47">
         <v>2021</v>
@@ -20439,10 +20445,10 @@
         <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D48">
         <v>2021</v>
@@ -20453,10 +20459,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C49" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D49">
         <v>2021</v>
@@ -20467,10 +20473,10 @@
         <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C50" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D50">
         <v>2021</v>
@@ -20481,10 +20487,10 @@
         <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C51" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D51">
         <v>2021</v>
@@ -23505,10 +23511,10 @@
         <v>321</v>
       </c>
       <c r="B267" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C267" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D267">
         <v>2022</v>
@@ -23519,10 +23525,10 @@
         <v>195</v>
       </c>
       <c r="B268" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C268" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D268">
         <v>2022</v>
@@ -23533,10 +23539,10 @@
         <v>292</v>
       </c>
       <c r="B269" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C269" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D269">
         <v>2022</v>
@@ -23547,10 +23553,10 @@
         <v>294</v>
       </c>
       <c r="B270" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C270" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D270">
         <v>2022</v>
@@ -23561,10 +23567,10 @@
         <v>78</v>
       </c>
       <c r="B271" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C271" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D271">
         <v>2022</v>
@@ -23575,10 +23581,10 @@
         <v>255</v>
       </c>
       <c r="B272" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C272" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D272">
         <v>2022</v>
@@ -23589,10 +23595,10 @@
         <v>89</v>
       </c>
       <c r="B273" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C273" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D273">
         <v>2022</v>
@@ -23603,10 +23609,10 @@
         <v>100</v>
       </c>
       <c r="B274" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C274" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D274">
         <v>2022</v>
@@ -23617,10 +23623,10 @@
         <v>79</v>
       </c>
       <c r="B275" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C275" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D275">
         <v>2022</v>
@@ -23631,10 +23637,10 @@
         <v>252</v>
       </c>
       <c r="B276" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C276" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D276">
         <v>2022</v>
@@ -23645,10 +23651,10 @@
         <v>304</v>
       </c>
       <c r="B277" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C277" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D277">
         <v>2022</v>
@@ -23659,10 +23665,10 @@
         <v>303</v>
       </c>
       <c r="B278" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C278" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D278">
         <v>2022</v>
@@ -23673,10 +23679,10 @@
         <v>309</v>
       </c>
       <c r="B279" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C279" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D279">
         <v>2022</v>
@@ -23687,10 +23693,10 @@
         <v>341</v>
       </c>
       <c r="B280" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C280" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D280">
         <v>2022</v>
@@ -23701,10 +23707,10 @@
         <v>342</v>
       </c>
       <c r="B281" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C281" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D281">
         <v>2022</v>
@@ -23715,10 +23721,10 @@
         <v>343</v>
       </c>
       <c r="B282" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C282" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D282">
         <v>2022</v>
@@ -23729,10 +23735,10 @@
         <v>311</v>
       </c>
       <c r="B283" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C283" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D283">
         <v>2022</v>
@@ -23743,10 +23749,10 @@
         <v>269</v>
       </c>
       <c r="B284" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C284" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D284">
         <v>2022</v>
@@ -23757,10 +23763,10 @@
         <v>344</v>
       </c>
       <c r="B285" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C285" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D285">
         <v>2022</v>
@@ -23771,10 +23777,10 @@
         <v>345</v>
       </c>
       <c r="B286" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C286" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D286">
         <v>2022</v>
@@ -23785,10 +23791,10 @@
         <v>277</v>
       </c>
       <c r="B287" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C287" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D287">
         <v>2022</v>
@@ -23799,10 +23805,10 @@
         <v>94</v>
       </c>
       <c r="B288" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C288" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D288">
         <v>2022</v>
@@ -23813,10 +23819,10 @@
         <v>243</v>
       </c>
       <c r="B289" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C289" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D289">
         <v>2022</v>
@@ -23827,10 +23833,10 @@
         <v>278</v>
       </c>
       <c r="B290" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C290" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D290">
         <v>2022</v>
@@ -23841,10 +23847,10 @@
         <v>340</v>
       </c>
       <c r="B291" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C291" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D291">
         <v>2022</v>
@@ -23855,10 +23861,10 @@
         <v>346</v>
       </c>
       <c r="B292" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C292" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D292">
         <v>2022</v>
@@ -23869,10 +23875,10 @@
         <v>182</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C293" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D293">
         <v>2022</v>
@@ -23883,10 +23889,10 @@
         <v>215</v>
       </c>
       <c r="B294" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C294" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D294">
         <v>2022</v>
@@ -23897,10 +23903,10 @@
         <v>280</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D295">
         <v>2022</v>
@@ -23911,10 +23917,10 @@
         <v>250</v>
       </c>
       <c r="B296" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C296" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D296">
         <v>2022</v>
@@ -23925,10 +23931,10 @@
         <v>143</v>
       </c>
       <c r="B297" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D297">
         <v>2022</v>
@@ -23939,10 +23945,10 @@
         <v>171</v>
       </c>
       <c r="B298" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C298" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D298">
         <v>2022</v>
@@ -23953,10 +23959,10 @@
         <v>313</v>
       </c>
       <c r="B299" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C299" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D299">
         <v>2022</v>
@@ -23967,10 +23973,10 @@
         <v>164</v>
       </c>
       <c r="B300" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C300" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D300">
         <v>2022</v>
@@ -23981,10 +23987,10 @@
         <v>347</v>
       </c>
       <c r="B301" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C301" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D301">
         <v>2022</v>
@@ -23995,10 +24001,10 @@
         <v>245</v>
       </c>
       <c r="B302" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C302" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D302">
         <v>2022</v>
@@ -24009,10 +24015,10 @@
         <v>119</v>
       </c>
       <c r="B303" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C303" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D303">
         <v>2022</v>
@@ -24023,10 +24029,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C304" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D304">
         <v>2022</v>
@@ -24037,10 +24043,10 @@
         <v>281</v>
       </c>
       <c r="B305" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C305" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D305">
         <v>2022</v>
@@ -24051,10 +24057,10 @@
         <v>348</v>
       </c>
       <c r="B306" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C306" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D306">
         <v>2022</v>
@@ -24065,10 +24071,10 @@
         <v>320</v>
       </c>
       <c r="B307" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C307" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D307">
         <v>2022</v>
@@ -24079,10 +24085,10 @@
         <v>349</v>
       </c>
       <c r="B308" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C308" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D308">
         <v>2022</v>
@@ -24093,10 +24099,10 @@
         <v>350</v>
       </c>
       <c r="B309" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C309" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D309">
         <v>2022</v>
@@ -24107,10 +24113,10 @@
         <v>351</v>
       </c>
       <c r="B310" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C310" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D310">
         <v>2022</v>
@@ -24121,10 +24127,10 @@
         <v>352</v>
       </c>
       <c r="B311" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C311" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D311">
         <v>2022</v>
@@ -24135,10 +24141,10 @@
         <v>140</v>
       </c>
       <c r="B312" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C312" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D312">
         <v>2022</v>
@@ -24149,10 +24155,10 @@
         <v>85</v>
       </c>
       <c r="B313" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C313" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D313">
         <v>2022</v>
@@ -24163,10 +24169,10 @@
         <v>353</v>
       </c>
       <c r="B314" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C314" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D314">
         <v>2022</v>
@@ -24177,10 +24183,10 @@
         <v>179</v>
       </c>
       <c r="B315" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C315" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D315">
         <v>2022</v>
@@ -24191,10 +24197,10 @@
         <v>221</v>
       </c>
       <c r="B316" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C316" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D316">
         <v>2022</v>
@@ -27593,10 +27599,10 @@
         <v>303</v>
       </c>
       <c r="B559" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C559" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D559">
         <v>2023</v>
@@ -27607,10 +27613,10 @@
         <v>314</v>
       </c>
       <c r="B560" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C560" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D560">
         <v>2023</v>
@@ -27621,10 +27627,10 @@
         <v>321</v>
       </c>
       <c r="B561" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C561" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D561">
         <v>2023</v>
@@ -27635,10 +27641,10 @@
         <v>452</v>
       </c>
       <c r="B562" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C562" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D562">
         <v>2023</v>
@@ -27649,10 +27655,10 @@
         <v>89</v>
       </c>
       <c r="B563" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C563" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D563">
         <v>2023</v>
@@ -27663,10 +27669,10 @@
         <v>205</v>
       </c>
       <c r="B564" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C564" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D564">
         <v>2023</v>
@@ -27677,10 +27683,10 @@
         <v>137</v>
       </c>
       <c r="B565" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C565" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D565">
         <v>2023</v>
@@ -27691,10 +27697,10 @@
         <v>166</v>
       </c>
       <c r="B566" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C566" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D566">
         <v>2023</v>
@@ -27705,10 +27711,10 @@
         <v>104</v>
       </c>
       <c r="B567" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C567" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D567">
         <v>2023</v>
@@ -27719,10 +27725,10 @@
         <v>292</v>
       </c>
       <c r="B568" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C568" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D568">
         <v>2023</v>
@@ -27733,10 +27739,10 @@
         <v>294</v>
       </c>
       <c r="B569" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C569" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D569">
         <v>2023</v>
@@ -27747,10 +27753,10 @@
         <v>364</v>
       </c>
       <c r="B570" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C570" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D570">
         <v>2023</v>
@@ -27761,10 +27767,10 @@
         <v>358</v>
       </c>
       <c r="B571" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C571" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D571">
         <v>2023</v>
@@ -27775,10 +27781,10 @@
         <v>203</v>
       </c>
       <c r="B572" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C572" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D572">
         <v>2023</v>
@@ -27789,10 +27795,10 @@
         <v>78</v>
       </c>
       <c r="B573" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C573" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D573">
         <v>2023</v>
@@ -27803,10 +27809,10 @@
         <v>193</v>
       </c>
       <c r="B574" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C574" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D574">
         <v>2023</v>
@@ -27817,10 +27823,10 @@
         <v>241</v>
       </c>
       <c r="B575" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C575" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D575">
         <v>2023</v>
@@ -27831,10 +27837,10 @@
         <v>259</v>
       </c>
       <c r="B576" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C576" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D576">
         <v>2023</v>
@@ -27845,10 +27851,10 @@
         <v>167</v>
       </c>
       <c r="B577" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C577" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D577">
         <v>2023</v>
@@ -27859,10 +27865,10 @@
         <v>438</v>
       </c>
       <c r="B578" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C578" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D578">
         <v>2023</v>
@@ -27873,10 +27879,10 @@
         <v>140</v>
       </c>
       <c r="B579" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C579" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D579">
         <v>2023</v>
@@ -27887,10 +27893,10 @@
         <v>278</v>
       </c>
       <c r="B580" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C580" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D580">
         <v>2023</v>
@@ -27901,10 +27907,10 @@
         <v>304</v>
       </c>
       <c r="B581" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C581" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D581">
         <v>2023</v>
@@ -27915,10 +27921,10 @@
         <v>391</v>
       </c>
       <c r="B582" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C582" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D582">
         <v>2023</v>
@@ -27929,10 +27935,10 @@
         <v>418</v>
       </c>
       <c r="B583" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C583" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D583">
         <v>2023</v>
@@ -27943,10 +27949,10 @@
         <v>446</v>
       </c>
       <c r="B584" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C584" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D584">
         <v>2023</v>
@@ -27957,10 +27963,10 @@
         <v>453</v>
       </c>
       <c r="B585" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C585" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D585">
         <v>2023</v>
@@ -27971,10 +27977,10 @@
         <v>227</v>
       </c>
       <c r="B586" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C586" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D586">
         <v>2023</v>
@@ -27985,10 +27991,10 @@
         <v>441</v>
       </c>
       <c r="B587" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C587" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D587">
         <v>2023</v>
@@ -27999,10 +28005,10 @@
         <v>260</v>
       </c>
       <c r="B588" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C588" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D588">
         <v>2023</v>
@@ -28013,10 +28019,10 @@
         <v>393</v>
       </c>
       <c r="B589" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C589" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D589">
         <v>2023</v>
@@ -28027,10 +28033,10 @@
         <v>184</v>
       </c>
       <c r="B590" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C590" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D590">
         <v>2023</v>
@@ -28041,10 +28047,10 @@
         <v>306</v>
       </c>
       <c r="B591" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C591" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D591">
         <v>2023</v>
@@ -28055,10 +28061,10 @@
         <v>377</v>
       </c>
       <c r="B592" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C592" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D592">
         <v>2023</v>
@@ -28069,10 +28075,10 @@
         <v>324</v>
       </c>
       <c r="B593" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C593" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D593">
         <v>2023</v>
@@ -28083,10 +28089,10 @@
         <v>344</v>
       </c>
       <c r="B594" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C594" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D594">
         <v>2023</v>
@@ -28097,10 +28103,10 @@
         <v>454</v>
       </c>
       <c r="B595" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C595" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D595">
         <v>2023</v>
@@ -28111,10 +28117,10 @@
         <v>320</v>
       </c>
       <c r="B596" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C596" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D596">
         <v>2023</v>
@@ -28125,10 +28131,10 @@
         <v>85</v>
       </c>
       <c r="B597" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C597" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D597">
         <v>2023</v>
@@ -28139,10 +28145,10 @@
         <v>430</v>
       </c>
       <c r="B598" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C598" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D598">
         <v>2023</v>
@@ -28153,10 +28159,10 @@
         <v>455</v>
       </c>
       <c r="B599" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C599" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D599">
         <v>2023</v>
@@ -28167,10 +28173,10 @@
         <v>419</v>
       </c>
       <c r="B600" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C600" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D600">
         <v>2023</v>
@@ -28181,10 +28187,10 @@
         <v>386</v>
       </c>
       <c r="B601" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C601" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D601">
         <v>2023</v>
@@ -28195,10 +28201,10 @@
         <v>363</v>
       </c>
       <c r="B602" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C602" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D602">
         <v>2023</v>
@@ -28209,10 +28215,10 @@
         <v>299</v>
       </c>
       <c r="B603" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C603" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D603">
         <v>2023</v>
@@ -28223,10 +28229,10 @@
         <v>250</v>
       </c>
       <c r="B604" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C604" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D604">
         <v>2023</v>
@@ -28237,10 +28243,10 @@
         <v>456</v>
       </c>
       <c r="B605" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C605" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D605">
         <v>2023</v>
@@ -28251,10 +28257,10 @@
         <v>413</v>
       </c>
       <c r="B606" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C606" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D606">
         <v>2023</v>
@@ -28265,10 +28271,10 @@
         <v>256</v>
       </c>
       <c r="B607" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C607" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D607">
         <v>2023</v>
@@ -28279,10 +28285,10 @@
         <v>457</v>
       </c>
       <c r="B608" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C608" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D608">
         <v>2023</v>
@@ -32073,10 +32079,10 @@
         <v>186</v>
       </c>
       <c r="B879" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C879" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D879">
         <v>2024</v>
@@ -32087,10 +32093,10 @@
         <v>315</v>
       </c>
       <c r="B880" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C880" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D880">
         <v>2024</v>
@@ -32101,10 +32107,10 @@
         <v>217</v>
       </c>
       <c r="B881" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C881" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D881">
         <v>2024</v>
@@ -32115,10 +32121,10 @@
         <v>247</v>
       </c>
       <c r="B882" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C882" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D882">
         <v>2024</v>
@@ -32129,10 +32135,10 @@
         <v>201</v>
       </c>
       <c r="B883" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C883" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D883">
         <v>2024</v>
@@ -32143,10 +32149,10 @@
         <v>353</v>
       </c>
       <c r="B884" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C884" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D884">
         <v>2024</v>
@@ -32157,10 +32163,10 @@
         <v>547</v>
       </c>
       <c r="B885" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C885" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D885">
         <v>2024</v>
@@ -32171,10 +32177,10 @@
         <v>477</v>
       </c>
       <c r="B886" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C886" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D886">
         <v>2024</v>
@@ -32185,10 +32191,10 @@
         <v>537</v>
       </c>
       <c r="B887" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C887" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D887">
         <v>2024</v>
@@ -32199,10 +32205,10 @@
         <v>430</v>
       </c>
       <c r="B888" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C888" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D888">
         <v>2024</v>
@@ -32213,10 +32219,10 @@
         <v>382</v>
       </c>
       <c r="B889" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C889" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D889">
         <v>2024</v>
@@ -32227,10 +32233,10 @@
         <v>370</v>
       </c>
       <c r="B890" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C890" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D890">
         <v>2024</v>
@@ -32241,10 +32247,10 @@
         <v>436</v>
       </c>
       <c r="B891" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C891" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D891">
         <v>2024</v>
@@ -32255,10 +32261,10 @@
         <v>534</v>
       </c>
       <c r="B892" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C892" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D892">
         <v>2024</v>
@@ -32269,10 +32275,10 @@
         <v>505</v>
       </c>
       <c r="B893" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C893" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D893">
         <v>2024</v>
@@ -32283,10 +32289,10 @@
         <v>528</v>
       </c>
       <c r="B894" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C894" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D894">
         <v>2024</v>
@@ -32297,10 +32303,10 @@
         <v>171</v>
       </c>
       <c r="B895" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C895" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D895">
         <v>2024</v>
@@ -32311,10 +32317,10 @@
         <v>514</v>
       </c>
       <c r="B896" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C896" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D896">
         <v>2024</v>
@@ -32325,10 +32331,10 @@
         <v>548</v>
       </c>
       <c r="B897" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C897" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D897">
         <v>2024</v>
@@ -32339,10 +32345,10 @@
         <v>513</v>
       </c>
       <c r="B898" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C898" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D898">
         <v>2024</v>
@@ -32353,10 +32359,10 @@
         <v>520</v>
       </c>
       <c r="B899" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C899" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D899">
         <v>2024</v>
@@ -32367,10 +32373,10 @@
         <v>549</v>
       </c>
       <c r="B900" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C900" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D900">
         <v>2024</v>
@@ -32381,10 +32387,10 @@
         <v>490</v>
       </c>
       <c r="B901" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C901" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D901">
         <v>2024</v>
@@ -32395,10 +32401,10 @@
         <v>550</v>
       </c>
       <c r="B902" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C902" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D902">
         <v>2024</v>
@@ -32409,10 +32415,10 @@
         <v>205</v>
       </c>
       <c r="B903" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C903" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D903">
         <v>2024</v>
@@ -32423,10 +32429,10 @@
         <v>551</v>
       </c>
       <c r="B904" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C904" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D904">
         <v>2024</v>
@@ -32437,10 +32443,10 @@
         <v>509</v>
       </c>
       <c r="B905" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C905" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D905">
         <v>2024</v>
@@ -32451,10 +32457,10 @@
         <v>425</v>
       </c>
       <c r="B906" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C906" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D906">
         <v>2024</v>
@@ -32462,13 +32468,13 @@
     </row>
     <row r="907" spans="1:4">
       <c r="A907" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="B907" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C907" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D907">
         <v>2024</v>
@@ -32476,13 +32482,13 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="B908" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C908" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D908">
         <v>2024</v>
@@ -32490,13 +32496,13 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="B909" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C909" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D909">
         <v>2024</v>
@@ -32504,13 +32510,13 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="B910" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C910" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D910">
         <v>2024</v>
@@ -32518,13 +32524,13 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" t="s">
-        <v>553</v>
+        <v>397</v>
       </c>
       <c r="B911" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C911" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D911">
         <v>2024</v>
@@ -32532,13 +32538,13 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="B912" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C912" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D912">
         <v>2024</v>
@@ -32546,13 +32552,13 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" t="s">
-        <v>554</v>
+        <v>202</v>
       </c>
       <c r="B913" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C913" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D913">
         <v>2024</v>
@@ -32560,13 +32566,13 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" t="s">
-        <v>202</v>
+        <v>555</v>
       </c>
       <c r="B914" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C914" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D914">
         <v>2024</v>
@@ -32574,13 +32580,13 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B915" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C915" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D915">
         <v>2024</v>
@@ -32588,13 +32594,13 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B916" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C916" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D916">
         <v>2024</v>
@@ -32602,13 +32608,13 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" t="s">
-        <v>557</v>
+        <v>85</v>
       </c>
       <c r="B917" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C917" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D917">
         <v>2024</v>
@@ -32619,10 +32625,10 @@
         <v>558</v>
       </c>
       <c r="B918" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C918" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D918">
         <v>2024</v>
@@ -32633,10 +32639,10 @@
         <v>559</v>
       </c>
       <c r="B919" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C919" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D919">
         <v>2024</v>
@@ -32647,10 +32653,10 @@
         <v>109</v>
       </c>
       <c r="B920" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C920" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D920">
         <v>2024</v>
@@ -32661,10 +32667,10 @@
         <v>385</v>
       </c>
       <c r="B921" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C921" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D921">
         <v>2024</v>
@@ -32675,10 +32681,10 @@
         <v>560</v>
       </c>
       <c r="B922" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C922" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D922">
         <v>2024</v>
@@ -32689,10 +32695,10 @@
         <v>379</v>
       </c>
       <c r="B923" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C923" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D923">
         <v>2024</v>
@@ -32700,13 +32706,13 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" t="s">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="B924" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C924" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D924">
         <v>2024</v>
@@ -32714,13 +32720,13 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" t="s">
-        <v>413</v>
+        <v>561</v>
       </c>
       <c r="B925" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C925" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D925">
         <v>2024</v>
@@ -32731,10 +32737,10 @@
         <v>562</v>
       </c>
       <c r="B926" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C926" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D926">
         <v>2024</v>
@@ -32745,10 +32751,10 @@
         <v>309</v>
       </c>
       <c r="B927" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C927" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D927">
         <v>2024</v>
@@ -32759,10 +32765,10 @@
         <v>563</v>
       </c>
       <c r="B928" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C928" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D928">
         <v>2024</v>
@@ -36396,7 +36402,7 @@
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" t="s">
-        <v>525</v>
+        <v>130</v>
       </c>
       <c r="B1188" t="s">
         <v>31</v>
@@ -36410,7 +36416,7 @@
     </row>
     <row r="1189" spans="1:4">
       <c r="A1189" t="s">
-        <v>130</v>
+        <v>544</v>
       </c>
       <c r="B1189" t="s">
         <v>31</v>
@@ -36424,7 +36430,7 @@
     </row>
     <row r="1190" spans="1:4">
       <c r="A1190" t="s">
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="B1190" t="s">
         <v>31</v>
@@ -36438,7 +36444,7 @@
     </row>
     <row r="1191" spans="1:4">
       <c r="A1191" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B1191" t="s">
         <v>31</v>
@@ -36452,7 +36458,7 @@
     </row>
     <row r="1192" spans="1:4">
       <c r="A1192" t="s">
-        <v>648</v>
+        <v>321</v>
       </c>
       <c r="B1192" t="s">
         <v>31</v>
@@ -36466,7 +36472,7 @@
     </row>
     <row r="1193" spans="1:4">
       <c r="A1193" t="s">
-        <v>85</v>
+        <v>649</v>
       </c>
       <c r="B1193" t="s">
         <v>31</v>
@@ -36480,7 +36486,7 @@
     </row>
     <row r="1194" spans="1:4">
       <c r="A1194" t="s">
-        <v>321</v>
+        <v>496</v>
       </c>
       <c r="B1194" t="s">
         <v>31</v>
@@ -36494,7 +36500,7 @@
     </row>
     <row r="1195" spans="1:4">
       <c r="A1195" t="s">
-        <v>649</v>
+        <v>209</v>
       </c>
       <c r="B1195" t="s">
         <v>31</v>
@@ -36508,7 +36514,7 @@
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" t="s">
-        <v>496</v>
+        <v>650</v>
       </c>
       <c r="B1196" t="s">
         <v>31</v>
@@ -36522,7 +36528,7 @@
     </row>
     <row r="1197" spans="1:4">
       <c r="A1197" t="s">
-        <v>209</v>
+        <v>651</v>
       </c>
       <c r="B1197" t="s">
         <v>31</v>
@@ -36536,13 +36542,13 @@
     </row>
     <row r="1198" spans="1:4">
       <c r="A1198" t="s">
-        <v>314</v>
+        <v>522</v>
       </c>
       <c r="B1198" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1198" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1198">
         <v>2024</v>
@@ -36550,7 +36556,7 @@
     </row>
     <row r="1199" spans="1:4">
       <c r="A1199" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B1199" t="s">
         <v>25</v>
@@ -36564,7 +36570,7 @@
     </row>
     <row r="1200" spans="1:4">
       <c r="A1200" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="B1200" t="s">
         <v>25</v>
@@ -36578,7 +36584,7 @@
     </row>
     <row r="1201" spans="1:4">
       <c r="A1201" t="s">
-        <v>445</v>
+        <v>154</v>
       </c>
       <c r="B1201" t="s">
         <v>25</v>
@@ -36592,7 +36598,7 @@
     </row>
     <row r="1202" spans="1:4">
       <c r="A1202" t="s">
-        <v>323</v>
+        <v>445</v>
       </c>
       <c r="B1202" t="s">
         <v>25</v>
@@ -36606,7 +36612,7 @@
     </row>
     <row r="1203" spans="1:4">
       <c r="A1203" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="B1203" t="s">
         <v>25</v>
@@ -36620,7 +36626,7 @@
     </row>
     <row r="1204" spans="1:4">
       <c r="A1204" t="s">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="B1204" t="s">
         <v>25</v>
@@ -36634,7 +36640,7 @@
     </row>
     <row r="1205" spans="1:4">
       <c r="A1205" t="s">
-        <v>650</v>
+        <v>460</v>
       </c>
       <c r="B1205" t="s">
         <v>25</v>
@@ -36648,7 +36654,7 @@
     </row>
     <row r="1206" spans="1:4">
       <c r="A1206" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1206" t="s">
         <v>25</v>
@@ -36662,7 +36668,7 @@
     </row>
     <row r="1207" spans="1:4">
       <c r="A1207" t="s">
-        <v>426</v>
+        <v>653</v>
       </c>
       <c r="B1207" t="s">
         <v>25</v>
@@ -36676,7 +36682,7 @@
     </row>
     <row r="1208" spans="1:4">
       <c r="A1208" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B1208" t="s">
         <v>25</v>
@@ -36690,7 +36696,7 @@
     </row>
     <row r="1209" spans="1:4">
       <c r="A1209" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="B1209" t="s">
         <v>25</v>
@@ -36704,7 +36710,7 @@
     </row>
     <row r="1210" spans="1:4">
       <c r="A1210" t="s">
-        <v>652</v>
+        <v>302</v>
       </c>
       <c r="B1210" t="s">
         <v>25</v>
@@ -36718,7 +36724,7 @@
     </row>
     <row r="1211" spans="1:4">
       <c r="A1211" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B1211" t="s">
         <v>25</v>
@@ -36732,7 +36738,7 @@
     </row>
     <row r="1212" spans="1:4">
       <c r="A1212" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B1212" t="s">
         <v>25</v>
@@ -36746,7 +36752,7 @@
     </row>
     <row r="1213" spans="1:4">
       <c r="A1213" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B1213" t="s">
         <v>25</v>
@@ -36760,7 +36766,7 @@
     </row>
     <row r="1214" spans="1:4">
       <c r="A1214" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1214" t="s">
         <v>25</v>
@@ -36774,7 +36780,7 @@
     </row>
     <row r="1215" spans="1:4">
       <c r="A1215" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B1215" t="s">
         <v>25</v>
@@ -36788,7 +36794,7 @@
     </row>
     <row r="1216" spans="1:4">
       <c r="A1216" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1216" t="s">
         <v>25</v>
@@ -36802,7 +36808,7 @@
     </row>
     <row r="1217" spans="1:4">
       <c r="A1217" t="s">
-        <v>362</v>
+        <v>660</v>
       </c>
       <c r="B1217" t="s">
         <v>25</v>
@@ -36816,7 +36822,7 @@
     </row>
     <row r="1218" spans="1:4">
       <c r="A1218" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="B1218" t="s">
         <v>25</v>
@@ -36830,7 +36836,7 @@
     </row>
     <row r="1219" spans="1:4">
       <c r="A1219" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="B1219" t="s">
         <v>25</v>
@@ -36844,7 +36850,7 @@
     </row>
     <row r="1220" spans="1:4">
       <c r="A1220" t="s">
-        <v>659</v>
+        <v>127</v>
       </c>
       <c r="B1220" t="s">
         <v>25</v>
@@ -36858,7 +36864,7 @@
     </row>
     <row r="1221" spans="1:4">
       <c r="A1221" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B1221" t="s">
         <v>25</v>
@@ -36872,7 +36878,7 @@
     </row>
     <row r="1222" spans="1:4">
       <c r="A1222" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B1222" t="s">
         <v>25</v>
@@ -36886,7 +36892,7 @@
     </row>
     <row r="1223" spans="1:4">
       <c r="A1223" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1223" t="s">
         <v>25</v>
@@ -36900,7 +36906,7 @@
     </row>
     <row r="1224" spans="1:4">
       <c r="A1224" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B1224" t="s">
         <v>25</v>
@@ -36914,7 +36920,7 @@
     </row>
     <row r="1225" spans="1:4">
       <c r="A1225" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B1225" t="s">
         <v>25</v>
@@ -36928,7 +36934,7 @@
     </row>
     <row r="1226" spans="1:4">
       <c r="A1226" t="s">
-        <v>357</v>
+        <v>666</v>
       </c>
       <c r="B1226" t="s">
         <v>25</v>
@@ -36942,13 +36948,13 @@
     </row>
     <row r="1227" spans="1:4">
       <c r="A1227" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="B1227" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1227" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1227">
         <v>2024</v>
@@ -36956,7 +36962,7 @@
     </row>
     <row r="1228" spans="1:4">
       <c r="A1228" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B1228" t="s">
         <v>28</v>
@@ -36970,7 +36976,7 @@
     </row>
     <row r="1229" spans="1:4">
       <c r="A1229" t="s">
-        <v>402</v>
+        <v>207</v>
       </c>
       <c r="B1229" t="s">
         <v>28</v>
@@ -36984,7 +36990,7 @@
     </row>
     <row r="1230" spans="1:4">
       <c r="A1230" t="s">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="B1230" t="s">
         <v>28</v>
@@ -36998,7 +37004,7 @@
     </row>
     <row r="1231" spans="1:4">
       <c r="A1231" t="s">
-        <v>485</v>
+        <v>237</v>
       </c>
       <c r="B1231" t="s">
         <v>28</v>
@@ -37012,7 +37018,7 @@
     </row>
     <row r="1232" spans="1:4">
       <c r="A1232" t="s">
-        <v>135</v>
+        <v>485</v>
       </c>
       <c r="B1232" t="s">
         <v>28</v>
@@ -37026,7 +37032,7 @@
     </row>
     <row r="1233" spans="1:4">
       <c r="A1233" t="s">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="B1233" t="s">
         <v>28</v>
@@ -37040,7 +37046,7 @@
     </row>
     <row r="1234" spans="1:4">
       <c r="A1234" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="B1234" t="s">
         <v>28</v>
@@ -37054,7 +37060,7 @@
     </row>
     <row r="1235" spans="1:4">
       <c r="A1235" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B1235" t="s">
         <v>28</v>
@@ -37068,7 +37074,7 @@
     </row>
     <row r="1236" spans="1:4">
       <c r="A1236" t="s">
-        <v>249</v>
+        <v>494</v>
       </c>
       <c r="B1236" t="s">
         <v>28</v>
@@ -37082,7 +37088,7 @@
     </row>
     <row r="1237" spans="1:4">
       <c r="A1237" t="s">
-        <v>486</v>
+        <v>249</v>
       </c>
       <c r="B1237" t="s">
         <v>28</v>
@@ -37096,7 +37102,7 @@
     </row>
     <row r="1238" spans="1:4">
       <c r="A1238" t="s">
-        <v>266</v>
+        <v>486</v>
       </c>
       <c r="B1238" t="s">
         <v>28</v>
@@ -37110,7 +37116,7 @@
     </row>
     <row r="1239" spans="1:4">
       <c r="A1239" t="s">
-        <v>484</v>
+        <v>266</v>
       </c>
       <c r="B1239" t="s">
         <v>28</v>
@@ -37124,7 +37130,7 @@
     </row>
     <row r="1240" spans="1:4">
       <c r="A1240" t="s">
-        <v>365</v>
+        <v>484</v>
       </c>
       <c r="B1240" t="s">
         <v>28</v>
@@ -37138,7 +37144,7 @@
     </row>
     <row r="1241" spans="1:4">
       <c r="A1241" t="s">
-        <v>94</v>
+        <v>365</v>
       </c>
       <c r="B1241" t="s">
         <v>28</v>
@@ -37152,7 +37158,7 @@
     </row>
     <row r="1242" spans="1:4">
       <c r="A1242" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B1242" t="s">
         <v>28</v>
@@ -37166,7 +37172,7 @@
     </row>
     <row r="1243" spans="1:4">
       <c r="A1243" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="B1243" t="s">
         <v>28</v>
@@ -37180,7 +37186,7 @@
     </row>
     <row r="1244" spans="1:4">
       <c r="A1244" t="s">
-        <v>92</v>
+        <v>469</v>
       </c>
       <c r="B1244" t="s">
         <v>28</v>
@@ -37194,7 +37200,7 @@
     </row>
     <row r="1245" spans="1:4">
       <c r="A1245" t="s">
-        <v>665</v>
+        <v>92</v>
       </c>
       <c r="B1245" t="s">
         <v>28</v>
@@ -37208,7 +37214,7 @@
     </row>
     <row r="1246" spans="1:4">
       <c r="A1246" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1246" t="s">
         <v>28</v>
@@ -37222,7 +37228,7 @@
     </row>
     <row r="1247" spans="1:4">
       <c r="A1247" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B1247" t="s">
         <v>28</v>
@@ -37236,7 +37242,7 @@
     </row>
     <row r="1248" spans="1:4">
       <c r="A1248" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1248" t="s">
         <v>28</v>
@@ -37250,7 +37256,7 @@
     </row>
     <row r="1249" spans="1:4">
       <c r="A1249" t="s">
-        <v>285</v>
+        <v>670</v>
       </c>
       <c r="B1249" t="s">
         <v>28</v>
@@ -37264,7 +37270,7 @@
     </row>
     <row r="1250" spans="1:4">
       <c r="A1250" t="s">
-        <v>669</v>
+        <v>285</v>
       </c>
       <c r="B1250" t="s">
         <v>28</v>
@@ -37278,7 +37284,7 @@
     </row>
     <row r="1251" spans="1:4">
       <c r="A1251" t="s">
-        <v>203</v>
+        <v>671</v>
       </c>
       <c r="B1251" t="s">
         <v>28</v>
@@ -37292,7 +37298,7 @@
     </row>
     <row r="1252" spans="1:4">
       <c r="A1252" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="B1252" t="s">
         <v>28</v>
@@ -37306,7 +37312,7 @@
     </row>
     <row r="1253" spans="1:4">
       <c r="A1253" t="s">
-        <v>670</v>
+        <v>112</v>
       </c>
       <c r="B1253" t="s">
         <v>28</v>
@@ -37320,7 +37326,7 @@
     </row>
     <row r="1254" spans="1:4">
       <c r="A1254" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1254" t="s">
         <v>28</v>
@@ -37334,7 +37340,7 @@
     </row>
     <row r="1255" spans="1:4">
       <c r="A1255" t="s">
-        <v>408</v>
+        <v>673</v>
       </c>
       <c r="B1255" t="s">
         <v>28</v>
@@ -37348,7 +37354,7 @@
     </row>
     <row r="1256" spans="1:4">
       <c r="A1256" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="B1256" t="s">
         <v>28</v>
@@ -37362,7 +37368,7 @@
     </row>
     <row r="1257" spans="1:4">
       <c r="A1257" t="s">
-        <v>672</v>
+        <v>91</v>
       </c>
       <c r="B1257" t="s">
         <v>28</v>
@@ -37376,13 +37382,13 @@
     </row>
     <row r="1258" spans="1:4">
       <c r="A1258" t="s">
-        <v>185</v>
+        <v>674</v>
       </c>
       <c r="B1258" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1258" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1258">
         <v>2024</v>
@@ -37390,7 +37396,7 @@
     </row>
     <row r="1259" spans="1:4">
       <c r="A1259" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="B1259" t="s">
         <v>32</v>
@@ -37404,7 +37410,7 @@
     </row>
     <row r="1260" spans="1:4">
       <c r="A1260" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="B1260" t="s">
         <v>32</v>
@@ -37418,7 +37424,7 @@
     </row>
     <row r="1261" spans="1:4">
       <c r="A1261" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="B1261" t="s">
         <v>32</v>
@@ -37432,7 +37438,7 @@
     </row>
     <row r="1262" spans="1:4">
       <c r="A1262" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="B1262" t="s">
         <v>32</v>
@@ -37446,7 +37452,7 @@
     </row>
     <row r="1263" spans="1:4">
       <c r="A1263" t="s">
-        <v>530</v>
+        <v>194</v>
       </c>
       <c r="B1263" t="s">
         <v>32</v>
@@ -37460,7 +37466,7 @@
     </row>
     <row r="1264" spans="1:4">
       <c r="A1264" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="B1264" t="s">
         <v>32</v>
@@ -37474,7 +37480,7 @@
     </row>
     <row r="1265" spans="1:4">
       <c r="A1265" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B1265" t="s">
         <v>32</v>
@@ -37488,7 +37494,7 @@
     </row>
     <row r="1266" spans="1:4">
       <c r="A1266" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="B1266" t="s">
         <v>32</v>
@@ -37502,7 +37508,7 @@
     </row>
     <row r="1267" spans="1:4">
       <c r="A1267" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B1267" t="s">
         <v>32</v>
@@ -37516,7 +37522,7 @@
     </row>
     <row r="1268" spans="1:4">
       <c r="A1268" t="s">
-        <v>121</v>
+        <v>356</v>
       </c>
       <c r="B1268" t="s">
         <v>32</v>
@@ -37530,7 +37536,7 @@
     </row>
     <row r="1269" spans="1:4">
       <c r="A1269" t="s">
-        <v>391</v>
+        <v>121</v>
       </c>
       <c r="B1269" t="s">
         <v>32</v>
@@ -37544,7 +37550,7 @@
     </row>
     <row r="1270" spans="1:4">
       <c r="A1270" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="B1270" t="s">
         <v>32</v>
@@ -37558,7 +37564,7 @@
     </row>
     <row r="1271" spans="1:4">
       <c r="A1271" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="B1271" t="s">
         <v>32</v>
@@ -37572,7 +37578,7 @@
     </row>
     <row r="1272" spans="1:4">
       <c r="A1272" t="s">
-        <v>673</v>
+        <v>204</v>
       </c>
       <c r="B1272" t="s">
         <v>32</v>
@@ -37586,7 +37592,7 @@
     </row>
     <row r="1273" spans="1:4">
       <c r="A1273" t="s">
-        <v>313</v>
+        <v>675</v>
       </c>
       <c r="B1273" t="s">
         <v>32</v>
@@ -37600,7 +37606,7 @@
     </row>
     <row r="1274" spans="1:4">
       <c r="A1274" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="B1274" t="s">
         <v>32</v>
@@ -37614,7 +37620,7 @@
     </row>
     <row r="1275" spans="1:4">
       <c r="A1275" t="s">
-        <v>674</v>
+        <v>98</v>
       </c>
       <c r="B1275" t="s">
         <v>32</v>
@@ -37628,7 +37634,7 @@
     </row>
     <row r="1276" spans="1:4">
       <c r="A1276" t="s">
-        <v>487</v>
+        <v>676</v>
       </c>
       <c r="B1276" t="s">
         <v>32</v>
@@ -37642,7 +37648,7 @@
     </row>
     <row r="1277" spans="1:4">
       <c r="A1277" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="B1277" t="s">
         <v>32</v>
@@ -37656,7 +37662,7 @@
     </row>
     <row r="1278" spans="1:4">
       <c r="A1278" t="s">
-        <v>498</v>
+        <v>320</v>
       </c>
       <c r="B1278" t="s">
         <v>32</v>
@@ -37670,7 +37676,7 @@
     </row>
     <row r="1279" spans="1:4">
       <c r="A1279" t="s">
-        <v>675</v>
+        <v>498</v>
       </c>
       <c r="B1279" t="s">
         <v>32</v>
@@ -37684,7 +37690,7 @@
     </row>
     <row r="1280" spans="1:4">
       <c r="A1280" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1280" t="s">
         <v>32</v>
@@ -37698,7 +37704,7 @@
     </row>
     <row r="1281" spans="1:4">
       <c r="A1281" t="s">
-        <v>165</v>
+        <v>678</v>
       </c>
       <c r="B1281" t="s">
         <v>32</v>
@@ -37712,7 +37718,7 @@
     </row>
     <row r="1282" spans="1:4">
       <c r="A1282" t="s">
-        <v>677</v>
+        <v>165</v>
       </c>
       <c r="B1282" t="s">
         <v>32</v>
@@ -37726,7 +37732,7 @@
     </row>
     <row r="1283" spans="1:4">
       <c r="A1283" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B1283" t="s">
         <v>32</v>
@@ -37740,7 +37746,7 @@
     </row>
     <row r="1284" spans="1:4">
       <c r="A1284" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B1284" t="s">
         <v>32</v>
@@ -37749,6 +37755,20 @@
         <v>74</v>
       </c>
       <c r="D1284">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4">
+      <c r="A1285" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1285">
         <v>2024</v>
       </c>
     </row>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6697" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="683">
   <si>
     <t>Week</t>
   </si>
@@ -1677,67 +1677,64 @@
     <t>Juan Yepez</t>
   </si>
   <si>
+    <t>Luis Campusano</t>
+  </si>
+  <si>
+    <t>Cody Bradford</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Junior Caminero</t>
+  </si>
+  <si>
+    <t>James McArthur</t>
+  </si>
+  <si>
+    <t>Austin Wells</t>
+  </si>
+  <si>
+    <t>Trevor Megill</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Ben Joyce</t>
+  </si>
+  <si>
+    <t>Zack Gelof</t>
+  </si>
+  <si>
+    <t>Ryan O'Hearn</t>
+  </si>
+  <si>
+    <t>Hunter Gaddis</t>
+  </si>
+  <si>
+    <t>Kirby Yates</t>
+  </si>
+  <si>
+    <t>Yimi Garcia</t>
+  </si>
+  <si>
+    <t>James Wood</t>
+  </si>
+  <si>
+    <t>Willi Castro</t>
+  </si>
+  <si>
+    <t>Joe Jimenez</t>
+  </si>
+  <si>
+    <t>Wilyer Abreu</t>
+  </si>
+  <si>
     <t>Tobias Myers</t>
-  </si>
-  <si>
-    <t>Luis Campusano</t>
-  </si>
-  <si>
-    <t>Cody Bradford</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>James McArthur</t>
-  </si>
-  <si>
-    <t>Junior Caminero</t>
-  </si>
-  <si>
-    <t>Paul Blackburn</t>
-  </si>
-  <si>
-    <t>Trevor Megill</t>
-  </si>
-  <si>
-    <t>Austin Wells</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Ben Joyce</t>
-  </si>
-  <si>
-    <t>Zack Gelof</t>
-  </si>
-  <si>
-    <t>Ryan O'Hearn</t>
-  </si>
-  <si>
-    <t>Hunter Gaddis</t>
-  </si>
-  <si>
-    <t>Kirby Yates</t>
-  </si>
-  <si>
-    <t>Yimi Garcia</t>
-  </si>
-  <si>
-    <t>James Wood</t>
-  </si>
-  <si>
-    <t>Willi Castro</t>
-  </si>
-  <si>
-    <t>Joe Jimenez</t>
-  </si>
-  <si>
-    <t>Wilyer Abreu</t>
-  </si>
-  <si>
-    <t>Coby Mayo</t>
   </si>
   <si>
     <t>Yoshinobu Yamamoto</t>
@@ -17092,7 +17089,7 @@
         <v>35</v>
       </c>
       <c r="L207">
-        <v>0.39171975</v>
+        <v>0.39490446</v>
       </c>
       <c r="M207" t="s">
         <v>35</v>
@@ -17234,7 +17231,7 @@
         <v>35</v>
       </c>
       <c r="L209">
-        <v>0.28571429</v>
+        <v>0.28881988</v>
       </c>
       <c r="M209" t="s">
         <v>36</v>
@@ -17429,7 +17426,7 @@
         <v>35</v>
       </c>
       <c r="F212">
-        <v>1.55487805</v>
+        <v>1.57317073</v>
       </c>
       <c r="G212" t="s">
         <v>36</v>
@@ -17849,52 +17846,52 @@
         <v>30</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F218">
-        <v>1.33333333</v>
+        <v>1.62352941</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>7.30588235</v>
       </c>
       <c r="I218" t="s">
         <v>36</v>
       </c>
       <c r="J218">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K218" t="s">
         <v>36</v>
       </c>
       <c r="L218">
-        <v>0.26086957</v>
+        <v>0.29370629</v>
       </c>
       <c r="M218" t="s">
         <v>35</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O218" t="s">
         <v>37</v>
       </c>
       <c r="P218">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q218" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R218">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T218">
         <v>1</v>
@@ -17903,7 +17900,7 @@
         <v>35</v>
       </c>
       <c r="V218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W218" t="s">
         <v>36</v>
@@ -17920,52 +17917,52 @@
         <v>26</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F219">
-        <v>1.35</v>
+        <v>1.42105263</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
-        <v>4.5</v>
+        <v>5.11578947</v>
       </c>
       <c r="I219" t="s">
         <v>35</v>
       </c>
       <c r="J219">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K219" t="s">
         <v>35</v>
       </c>
       <c r="L219">
-        <v>0.22368421</v>
+        <v>0.27350427</v>
       </c>
       <c r="M219" t="s">
         <v>36</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O219" t="s">
         <v>37</v>
       </c>
       <c r="P219">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R219">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T219">
         <v>0</v>
@@ -17991,61 +17988,61 @@
         <v>29</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
         <v>36</v>
       </c>
       <c r="F220">
-        <v>1.58823529</v>
+        <v>1.22033898</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
       </c>
       <c r="H220">
-        <v>6.35294118</v>
+        <v>4.11864407</v>
       </c>
       <c r="I220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J220">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L220">
-        <v>0.31081081</v>
+        <v>0.33846154</v>
       </c>
       <c r="M220" t="s">
         <v>36</v>
       </c>
       <c r="N220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O220" t="s">
         <v>37</v>
       </c>
       <c r="P220">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q220" t="s">
         <v>36</v>
       </c>
       <c r="R220">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U220" t="s">
         <v>36</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W220" t="s">
         <v>36</v>
@@ -18062,61 +18059,61 @@
         <v>28</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E221" t="s">
         <v>35</v>
       </c>
       <c r="F221">
-        <v>1.0212766</v>
+        <v>1.12087912</v>
       </c>
       <c r="G221" t="s">
         <v>35</v>
       </c>
       <c r="H221">
-        <v>3.44680851</v>
+        <v>4.15384615</v>
       </c>
       <c r="I221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J221">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L221">
-        <v>0.41666667</v>
+        <v>0.38636364</v>
       </c>
       <c r="M221" t="s">
         <v>35</v>
       </c>
       <c r="N221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O221" t="s">
         <v>37</v>
       </c>
       <c r="P221">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q221" t="s">
         <v>35</v>
       </c>
       <c r="R221">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U221" t="s">
         <v>35</v>
       </c>
       <c r="V221">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W221" t="s">
         <v>35</v>
@@ -18133,31 +18130,31 @@
         <v>32</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
         <v>35</v>
       </c>
       <c r="F222">
-        <v>1.56521739</v>
+        <v>1.53846154</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H222">
-        <v>2.34782609</v>
+        <v>2.76923077</v>
       </c>
       <c r="I222" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J222">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K222" t="s">
         <v>35</v>
       </c>
       <c r="L222">
-        <v>0.30666667</v>
+        <v>0.26470588</v>
       </c>
       <c r="M222" t="s">
         <v>36</v>
@@ -18169,25 +18166,25 @@
         <v>36</v>
       </c>
       <c r="P222">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R222">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U222" t="s">
         <v>35</v>
       </c>
       <c r="V222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W222" t="s">
         <v>35</v>
@@ -18204,52 +18201,52 @@
         <v>27</v>
       </c>
       <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223">
+        <v>1.22222222</v>
+      </c>
+      <c r="G223" t="s">
+        <v>36</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>36</v>
+      </c>
+      <c r="J223">
+        <v>8</v>
+      </c>
+      <c r="K223" t="s">
+        <v>36</v>
+      </c>
+      <c r="L223">
+        <v>0.27972028</v>
+      </c>
+      <c r="M223" t="s">
+        <v>35</v>
+      </c>
+      <c r="N223">
         <v>3</v>
       </c>
-      <c r="E223" t="s">
-        <v>36</v>
-      </c>
-      <c r="F223">
-        <v>1.125</v>
-      </c>
-      <c r="G223" t="s">
-        <v>37</v>
-      </c>
-      <c r="H223">
-        <v>2.25</v>
-      </c>
-      <c r="I223" t="s">
-        <v>37</v>
-      </c>
-      <c r="J223">
-        <v>6</v>
-      </c>
-      <c r="K223" t="s">
-        <v>36</v>
-      </c>
-      <c r="L223">
-        <v>0.31395349</v>
-      </c>
-      <c r="M223" t="s">
-        <v>35</v>
-      </c>
-      <c r="N223">
-        <v>2</v>
-      </c>
       <c r="O223" t="s">
         <v>35</v>
       </c>
       <c r="P223">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R223">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T223">
         <v>0</v>
@@ -18275,61 +18272,61 @@
         <v>34</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F224">
-        <v>1.07462687</v>
+        <v>1.02631579</v>
       </c>
       <c r="G224" t="s">
         <v>36</v>
       </c>
       <c r="H224">
-        <v>5.23880597</v>
+        <v>4.97368421</v>
       </c>
       <c r="I224" t="s">
         <v>36</v>
       </c>
       <c r="J224">
+        <v>22</v>
+      </c>
+      <c r="K224" t="s">
+        <v>36</v>
+      </c>
+      <c r="L224">
+        <v>0.28571429</v>
+      </c>
+      <c r="M224" t="s">
+        <v>36</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>35</v>
+      </c>
+      <c r="P224">
+        <v>20</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>35</v>
+      </c>
+      <c r="R224">
         <v>19</v>
       </c>
-      <c r="K224" t="s">
-        <v>36</v>
-      </c>
-      <c r="L224">
-        <v>0.3220339</v>
-      </c>
-      <c r="M224" t="s">
-        <v>35</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224" t="s">
-        <v>37</v>
-      </c>
-      <c r="P224">
-        <v>9</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>35</v>
-      </c>
-      <c r="R224">
-        <v>3</v>
-      </c>
       <c r="S224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T224">
         <v>2</v>
       </c>
       <c r="U224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V224">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W224" t="s">
         <v>35</v>
@@ -18346,61 +18343,61 @@
         <v>25</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F225">
-        <v>0.86956522</v>
+        <v>0.9529411800000001</v>
       </c>
       <c r="G225" t="s">
         <v>35</v>
       </c>
       <c r="H225">
-        <v>3.52173913</v>
+        <v>3.49411765</v>
       </c>
       <c r="I225" t="s">
         <v>35</v>
       </c>
       <c r="J225">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K225" t="s">
         <v>35</v>
       </c>
       <c r="L225">
-        <v>0.30769231</v>
+        <v>0.34482759</v>
       </c>
       <c r="M225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N225">
         <v>1</v>
       </c>
       <c r="O225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P225">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q225" t="s">
         <v>36</v>
       </c>
       <c r="R225">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U225" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W225" t="s">
         <v>36</v>
@@ -18417,31 +18414,31 @@
         <v>33</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226" t="s">
         <v>36</v>
       </c>
       <c r="F226">
-        <v>1.17391304</v>
+        <v>1.21875</v>
       </c>
       <c r="G226" t="s">
         <v>35</v>
       </c>
       <c r="H226">
-        <v>4.10869565</v>
+        <v>2.953125</v>
       </c>
       <c r="I226" t="s">
         <v>35</v>
       </c>
       <c r="J226">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K226" t="s">
         <v>35</v>
       </c>
       <c r="L226">
-        <v>0.26190476</v>
+        <v>0.29166667</v>
       </c>
       <c r="M226" t="s">
         <v>36</v>
@@ -18450,22 +18447,22 @@
         <v>1</v>
       </c>
       <c r="O226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P226">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q226" t="s">
         <v>36</v>
       </c>
       <c r="R226">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U226" t="s">
         <v>36</v>
@@ -18488,55 +18485,55 @@
         <v>24</v>
       </c>
       <c r="D227">
+        <v>8</v>
+      </c>
+      <c r="E227" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227">
+        <v>1.39285714</v>
+      </c>
+      <c r="G227" t="s">
+        <v>36</v>
+      </c>
+      <c r="H227">
+        <v>3.53571429</v>
+      </c>
+      <c r="I227" t="s">
+        <v>36</v>
+      </c>
+      <c r="J227">
+        <v>19</v>
+      </c>
+      <c r="K227" t="s">
+        <v>36</v>
+      </c>
+      <c r="L227">
+        <v>0.359375</v>
+      </c>
+      <c r="M227" t="s">
+        <v>35</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>35</v>
+      </c>
+      <c r="P227">
+        <v>21</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>35</v>
+      </c>
+      <c r="R227">
+        <v>20</v>
+      </c>
+      <c r="S227" t="s">
+        <v>35</v>
+      </c>
+      <c r="T227">
         <v>3</v>
-      </c>
-      <c r="E227" t="s">
-        <v>35</v>
-      </c>
-      <c r="F227">
-        <v>1.42372881</v>
-      </c>
-      <c r="G227" t="s">
-        <v>36</v>
-      </c>
-      <c r="H227">
-        <v>4.57627119</v>
-      </c>
-      <c r="I227" t="s">
-        <v>36</v>
-      </c>
-      <c r="J227">
-        <v>12</v>
-      </c>
-      <c r="K227" t="s">
-        <v>36</v>
-      </c>
-      <c r="L227">
-        <v>0.375</v>
-      </c>
-      <c r="M227" t="s">
-        <v>35</v>
-      </c>
-      <c r="N227">
-        <v>1</v>
-      </c>
-      <c r="O227" t="s">
-        <v>37</v>
-      </c>
-      <c r="P227">
-        <v>14</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>35</v>
-      </c>
-      <c r="R227">
-        <v>8</v>
-      </c>
-      <c r="S227" t="s">
-        <v>36</v>
-      </c>
-      <c r="T227">
-        <v>2</v>
       </c>
       <c r="U227" t="s">
         <v>35</v>
@@ -18559,64 +18556,64 @@
         <v>31</v>
       </c>
       <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>35</v>
+      </c>
+      <c r="F228">
+        <v>1.19354839</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
+      <c r="H228">
+        <v>3.48387097</v>
+      </c>
+      <c r="I228" t="s">
+        <v>36</v>
+      </c>
+      <c r="J228">
+        <v>35</v>
+      </c>
+      <c r="K228" t="s">
+        <v>36</v>
+      </c>
+      <c r="L228">
+        <v>0.33333333</v>
+      </c>
+      <c r="M228" t="s">
+        <v>35</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>36</v>
+      </c>
+      <c r="P228">
+        <v>15</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>35</v>
+      </c>
+      <c r="R228">
+        <v>17</v>
+      </c>
+      <c r="S228" t="s">
+        <v>35</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="E228" t="s">
-        <v>35</v>
-      </c>
-      <c r="F228">
-        <v>0.78571429</v>
-      </c>
-      <c r="G228" t="s">
-        <v>35</v>
-      </c>
-      <c r="H228">
-        <v>1.28571429</v>
-      </c>
-      <c r="I228" t="s">
-        <v>35</v>
-      </c>
-      <c r="J228">
-        <v>16</v>
-      </c>
-      <c r="K228" t="s">
-        <v>36</v>
-      </c>
-      <c r="L228">
-        <v>0.2987013</v>
-      </c>
-      <c r="M228" t="s">
-        <v>36</v>
-      </c>
-      <c r="N228">
-        <v>0</v>
-      </c>
-      <c r="O228" t="s">
-        <v>36</v>
-      </c>
-      <c r="P228">
-        <v>9</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>37</v>
-      </c>
-      <c r="R228">
-        <v>10</v>
-      </c>
-      <c r="S228" t="s">
-        <v>35</v>
-      </c>
-      <c r="T228">
+      <c r="U228" t="s">
+        <v>36</v>
+      </c>
+      <c r="V228">
         <v>2</v>
       </c>
-      <c r="U228" t="s">
-        <v>36</v>
-      </c>
-      <c r="V228">
-        <v>1</v>
-      </c>
       <c r="W228" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -18636,49 +18633,49 @@
         <v>36</v>
       </c>
       <c r="F229">
-        <v>1.02631579</v>
+        <v>1.21621622</v>
       </c>
       <c r="G229" t="s">
         <v>36</v>
       </c>
       <c r="H229">
-        <v>2.13157895</v>
+        <v>3.40540541</v>
       </c>
       <c r="I229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J229">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K229" t="s">
         <v>35</v>
       </c>
       <c r="L229">
-        <v>0.37288136</v>
+        <v>0.31578947</v>
       </c>
       <c r="M229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O229" t="s">
         <v>35</v>
       </c>
       <c r="P229">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R229">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S229" t="s">
         <v>36</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U229" t="s">
         <v>35</v>
@@ -18687,7 +18684,7 @@
         <v>1</v>
       </c>
       <c r="W229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -19776,7 +19773,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1283"/>
+  <dimension ref="A1:D1284"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19801,10 +19798,10 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" t="s">
         <v>682</v>
-      </c>
-      <c r="C2" t="s">
-        <v>683</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -19815,10 +19812,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" t="s">
         <v>682</v>
-      </c>
-      <c r="C3" t="s">
-        <v>683</v>
       </c>
       <c r="D3">
         <v>2021</v>
@@ -19829,10 +19826,10 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C4" t="s">
         <v>682</v>
-      </c>
-      <c r="C4" t="s">
-        <v>683</v>
       </c>
       <c r="D4">
         <v>2021</v>
@@ -19843,10 +19840,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" t="s">
         <v>682</v>
-      </c>
-      <c r="C5" t="s">
-        <v>683</v>
       </c>
       <c r="D5">
         <v>2021</v>
@@ -19857,10 +19854,10 @@
         <v>80</v>
       </c>
       <c r="B6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" t="s">
         <v>682</v>
-      </c>
-      <c r="C6" t="s">
-        <v>683</v>
       </c>
       <c r="D6">
         <v>2021</v>
@@ -19871,10 +19868,10 @@
         <v>81</v>
       </c>
       <c r="B7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" t="s">
         <v>682</v>
-      </c>
-      <c r="C7" t="s">
-        <v>683</v>
       </c>
       <c r="D7">
         <v>2021</v>
@@ -19885,10 +19882,10 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" t="s">
         <v>682</v>
-      </c>
-      <c r="C8" t="s">
-        <v>683</v>
       </c>
       <c r="D8">
         <v>2021</v>
@@ -19899,10 +19896,10 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C9" t="s">
         <v>682</v>
-      </c>
-      <c r="C9" t="s">
-        <v>683</v>
       </c>
       <c r="D9">
         <v>2021</v>
@@ -19913,10 +19910,10 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" t="s">
         <v>682</v>
-      </c>
-      <c r="C10" t="s">
-        <v>683</v>
       </c>
       <c r="D10">
         <v>2021</v>
@@ -19927,10 +19924,10 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" t="s">
         <v>682</v>
-      </c>
-      <c r="C11" t="s">
-        <v>683</v>
       </c>
       <c r="D11">
         <v>2021</v>
@@ -19941,10 +19938,10 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" t="s">
         <v>682</v>
-      </c>
-      <c r="C12" t="s">
-        <v>683</v>
       </c>
       <c r="D12">
         <v>2021</v>
@@ -19955,10 +19952,10 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" t="s">
         <v>682</v>
-      </c>
-      <c r="C13" t="s">
-        <v>683</v>
       </c>
       <c r="D13">
         <v>2021</v>
@@ -19969,10 +19966,10 @@
         <v>88</v>
       </c>
       <c r="B14" t="s">
+        <v>681</v>
+      </c>
+      <c r="C14" t="s">
         <v>682</v>
-      </c>
-      <c r="C14" t="s">
-        <v>683</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -19983,10 +19980,10 @@
         <v>89</v>
       </c>
       <c r="B15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" t="s">
         <v>682</v>
-      </c>
-      <c r="C15" t="s">
-        <v>683</v>
       </c>
       <c r="D15">
         <v>2021</v>
@@ -19997,10 +19994,10 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
+        <v>681</v>
+      </c>
+      <c r="C16" t="s">
         <v>682</v>
-      </c>
-      <c r="C16" t="s">
-        <v>683</v>
       </c>
       <c r="D16">
         <v>2021</v>
@@ -20011,10 +20008,10 @@
         <v>91</v>
       </c>
       <c r="B17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C17" t="s">
         <v>682</v>
-      </c>
-      <c r="C17" t="s">
-        <v>683</v>
       </c>
       <c r="D17">
         <v>2021</v>
@@ -20025,10 +20022,10 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C18" t="s">
         <v>682</v>
-      </c>
-      <c r="C18" t="s">
-        <v>683</v>
       </c>
       <c r="D18">
         <v>2021</v>
@@ -20039,10 +20036,10 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" t="s">
         <v>682</v>
-      </c>
-      <c r="C19" t="s">
-        <v>683</v>
       </c>
       <c r="D19">
         <v>2021</v>
@@ -20053,10 +20050,10 @@
         <v>94</v>
       </c>
       <c r="B20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C20" t="s">
         <v>682</v>
-      </c>
-      <c r="C20" t="s">
-        <v>683</v>
       </c>
       <c r="D20">
         <v>2021</v>
@@ -20067,10 +20064,10 @@
         <v>95</v>
       </c>
       <c r="B21" t="s">
+        <v>681</v>
+      </c>
+      <c r="C21" t="s">
         <v>682</v>
-      </c>
-      <c r="C21" t="s">
-        <v>683</v>
       </c>
       <c r="D21">
         <v>2021</v>
@@ -20081,10 +20078,10 @@
         <v>96</v>
       </c>
       <c r="B22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C22" t="s">
         <v>682</v>
-      </c>
-      <c r="C22" t="s">
-        <v>683</v>
       </c>
       <c r="D22">
         <v>2021</v>
@@ -20095,10 +20092,10 @@
         <v>97</v>
       </c>
       <c r="B23" t="s">
+        <v>681</v>
+      </c>
+      <c r="C23" t="s">
         <v>682</v>
-      </c>
-      <c r="C23" t="s">
-        <v>683</v>
       </c>
       <c r="D23">
         <v>2021</v>
@@ -20109,10 +20106,10 @@
         <v>98</v>
       </c>
       <c r="B24" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24" t="s">
         <v>682</v>
-      </c>
-      <c r="C24" t="s">
-        <v>683</v>
       </c>
       <c r="D24">
         <v>2021</v>
@@ -20123,10 +20120,10 @@
         <v>99</v>
       </c>
       <c r="B25" t="s">
+        <v>681</v>
+      </c>
+      <c r="C25" t="s">
         <v>682</v>
-      </c>
-      <c r="C25" t="s">
-        <v>683</v>
       </c>
       <c r="D25">
         <v>2021</v>
@@ -20137,10 +20134,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
+        <v>681</v>
+      </c>
+      <c r="C26" t="s">
         <v>682</v>
-      </c>
-      <c r="C26" t="s">
-        <v>683</v>
       </c>
       <c r="D26">
         <v>2021</v>
@@ -20151,10 +20148,10 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" t="s">
         <v>682</v>
-      </c>
-      <c r="C27" t="s">
-        <v>683</v>
       </c>
       <c r="D27">
         <v>2021</v>
@@ -20165,10 +20162,10 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
+        <v>681</v>
+      </c>
+      <c r="C28" t="s">
         <v>682</v>
-      </c>
-      <c r="C28" t="s">
-        <v>683</v>
       </c>
       <c r="D28">
         <v>2021</v>
@@ -20179,10 +20176,10 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
+        <v>681</v>
+      </c>
+      <c r="C29" t="s">
         <v>682</v>
-      </c>
-      <c r="C29" t="s">
-        <v>683</v>
       </c>
       <c r="D29">
         <v>2021</v>
@@ -20193,10 +20190,10 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
+        <v>681</v>
+      </c>
+      <c r="C30" t="s">
         <v>682</v>
-      </c>
-      <c r="C30" t="s">
-        <v>683</v>
       </c>
       <c r="D30">
         <v>2021</v>
@@ -20207,10 +20204,10 @@
         <v>105</v>
       </c>
       <c r="B31" t="s">
+        <v>681</v>
+      </c>
+      <c r="C31" t="s">
         <v>682</v>
-      </c>
-      <c r="C31" t="s">
-        <v>683</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -20221,10 +20218,10 @@
         <v>106</v>
       </c>
       <c r="B32" t="s">
+        <v>681</v>
+      </c>
+      <c r="C32" t="s">
         <v>682</v>
-      </c>
-      <c r="C32" t="s">
-        <v>683</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -20235,10 +20232,10 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
+        <v>681</v>
+      </c>
+      <c r="C33" t="s">
         <v>682</v>
-      </c>
-      <c r="C33" t="s">
-        <v>683</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -20249,10 +20246,10 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
+        <v>681</v>
+      </c>
+      <c r="C34" t="s">
         <v>682</v>
-      </c>
-      <c r="C34" t="s">
-        <v>683</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -20263,10 +20260,10 @@
         <v>109</v>
       </c>
       <c r="B35" t="s">
+        <v>681</v>
+      </c>
+      <c r="C35" t="s">
         <v>682</v>
-      </c>
-      <c r="C35" t="s">
-        <v>683</v>
       </c>
       <c r="D35">
         <v>2021</v>
@@ -20277,10 +20274,10 @@
         <v>110</v>
       </c>
       <c r="B36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C36" t="s">
         <v>682</v>
-      </c>
-      <c r="C36" t="s">
-        <v>683</v>
       </c>
       <c r="D36">
         <v>2021</v>
@@ -20291,10 +20288,10 @@
         <v>111</v>
       </c>
       <c r="B37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C37" t="s">
         <v>682</v>
-      </c>
-      <c r="C37" t="s">
-        <v>683</v>
       </c>
       <c r="D37">
         <v>2021</v>
@@ -20305,10 +20302,10 @@
         <v>112</v>
       </c>
       <c r="B38" t="s">
+        <v>681</v>
+      </c>
+      <c r="C38" t="s">
         <v>682</v>
-      </c>
-      <c r="C38" t="s">
-        <v>683</v>
       </c>
       <c r="D38">
         <v>2021</v>
@@ -20319,10 +20316,10 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
+        <v>681</v>
+      </c>
+      <c r="C39" t="s">
         <v>682</v>
-      </c>
-      <c r="C39" t="s">
-        <v>683</v>
       </c>
       <c r="D39">
         <v>2021</v>
@@ -20333,10 +20330,10 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" t="s">
         <v>682</v>
-      </c>
-      <c r="C40" t="s">
-        <v>683</v>
       </c>
       <c r="D40">
         <v>2021</v>
@@ -20347,10 +20344,10 @@
         <v>115</v>
       </c>
       <c r="B41" t="s">
+        <v>681</v>
+      </c>
+      <c r="C41" t="s">
         <v>682</v>
-      </c>
-      <c r="C41" t="s">
-        <v>683</v>
       </c>
       <c r="D41">
         <v>2021</v>
@@ -20361,10 +20358,10 @@
         <v>116</v>
       </c>
       <c r="B42" t="s">
+        <v>681</v>
+      </c>
+      <c r="C42" t="s">
         <v>682</v>
-      </c>
-      <c r="C42" t="s">
-        <v>683</v>
       </c>
       <c r="D42">
         <v>2021</v>
@@ -20375,10 +20372,10 @@
         <v>117</v>
       </c>
       <c r="B43" t="s">
+        <v>681</v>
+      </c>
+      <c r="C43" t="s">
         <v>682</v>
-      </c>
-      <c r="C43" t="s">
-        <v>683</v>
       </c>
       <c r="D43">
         <v>2021</v>
@@ -20389,10 +20386,10 @@
         <v>118</v>
       </c>
       <c r="B44" t="s">
+        <v>681</v>
+      </c>
+      <c r="C44" t="s">
         <v>682</v>
-      </c>
-      <c r="C44" t="s">
-        <v>683</v>
       </c>
       <c r="D44">
         <v>2021</v>
@@ -20403,10 +20400,10 @@
         <v>119</v>
       </c>
       <c r="B45" t="s">
+        <v>681</v>
+      </c>
+      <c r="C45" t="s">
         <v>682</v>
-      </c>
-      <c r="C45" t="s">
-        <v>683</v>
       </c>
       <c r="D45">
         <v>2021</v>
@@ -20417,10 +20414,10 @@
         <v>120</v>
       </c>
       <c r="B46" t="s">
+        <v>681</v>
+      </c>
+      <c r="C46" t="s">
         <v>682</v>
-      </c>
-      <c r="C46" t="s">
-        <v>683</v>
       </c>
       <c r="D46">
         <v>2021</v>
@@ -20431,10 +20428,10 @@
         <v>121</v>
       </c>
       <c r="B47" t="s">
+        <v>681</v>
+      </c>
+      <c r="C47" t="s">
         <v>682</v>
-      </c>
-      <c r="C47" t="s">
-        <v>683</v>
       </c>
       <c r="D47">
         <v>2021</v>
@@ -20445,10 +20442,10 @@
         <v>122</v>
       </c>
       <c r="B48" t="s">
+        <v>681</v>
+      </c>
+      <c r="C48" t="s">
         <v>682</v>
-      </c>
-      <c r="C48" t="s">
-        <v>683</v>
       </c>
       <c r="D48">
         <v>2021</v>
@@ -20459,10 +20456,10 @@
         <v>123</v>
       </c>
       <c r="B49" t="s">
+        <v>681</v>
+      </c>
+      <c r="C49" t="s">
         <v>682</v>
-      </c>
-      <c r="C49" t="s">
-        <v>683</v>
       </c>
       <c r="D49">
         <v>2021</v>
@@ -20473,10 +20470,10 @@
         <v>124</v>
       </c>
       <c r="B50" t="s">
+        <v>681</v>
+      </c>
+      <c r="C50" t="s">
         <v>682</v>
-      </c>
-      <c r="C50" t="s">
-        <v>683</v>
       </c>
       <c r="D50">
         <v>2021</v>
@@ -20487,10 +20484,10 @@
         <v>125</v>
       </c>
       <c r="B51" t="s">
+        <v>681</v>
+      </c>
+      <c r="C51" t="s">
         <v>682</v>
-      </c>
-      <c r="C51" t="s">
-        <v>683</v>
       </c>
       <c r="D51">
         <v>2021</v>
@@ -23511,10 +23508,10 @@
         <v>320</v>
       </c>
       <c r="B267" t="s">
+        <v>681</v>
+      </c>
+      <c r="C267" t="s">
         <v>682</v>
-      </c>
-      <c r="C267" t="s">
-        <v>683</v>
       </c>
       <c r="D267">
         <v>2022</v>
@@ -23525,10 +23522,10 @@
         <v>194</v>
       </c>
       <c r="B268" t="s">
+        <v>681</v>
+      </c>
+      <c r="C268" t="s">
         <v>682</v>
-      </c>
-      <c r="C268" t="s">
-        <v>683</v>
       </c>
       <c r="D268">
         <v>2022</v>
@@ -23539,10 +23536,10 @@
         <v>291</v>
       </c>
       <c r="B269" t="s">
+        <v>681</v>
+      </c>
+      <c r="C269" t="s">
         <v>682</v>
-      </c>
-      <c r="C269" t="s">
-        <v>683</v>
       </c>
       <c r="D269">
         <v>2022</v>
@@ -23553,10 +23550,10 @@
         <v>293</v>
       </c>
       <c r="B270" t="s">
+        <v>681</v>
+      </c>
+      <c r="C270" t="s">
         <v>682</v>
-      </c>
-      <c r="C270" t="s">
-        <v>683</v>
       </c>
       <c r="D270">
         <v>2022</v>
@@ -23567,10 +23564,10 @@
         <v>77</v>
       </c>
       <c r="B271" t="s">
+        <v>681</v>
+      </c>
+      <c r="C271" t="s">
         <v>682</v>
-      </c>
-      <c r="C271" t="s">
-        <v>683</v>
       </c>
       <c r="D271">
         <v>2022</v>
@@ -23581,10 +23578,10 @@
         <v>254</v>
       </c>
       <c r="B272" t="s">
+        <v>681</v>
+      </c>
+      <c r="C272" t="s">
         <v>682</v>
-      </c>
-      <c r="C272" t="s">
-        <v>683</v>
       </c>
       <c r="D272">
         <v>2022</v>
@@ -23595,10 +23592,10 @@
         <v>88</v>
       </c>
       <c r="B273" t="s">
+        <v>681</v>
+      </c>
+      <c r="C273" t="s">
         <v>682</v>
-      </c>
-      <c r="C273" t="s">
-        <v>683</v>
       </c>
       <c r="D273">
         <v>2022</v>
@@ -23609,10 +23606,10 @@
         <v>99</v>
       </c>
       <c r="B274" t="s">
+        <v>681</v>
+      </c>
+      <c r="C274" t="s">
         <v>682</v>
-      </c>
-      <c r="C274" t="s">
-        <v>683</v>
       </c>
       <c r="D274">
         <v>2022</v>
@@ -23623,10 +23620,10 @@
         <v>78</v>
       </c>
       <c r="B275" t="s">
+        <v>681</v>
+      </c>
+      <c r="C275" t="s">
         <v>682</v>
-      </c>
-      <c r="C275" t="s">
-        <v>683</v>
       </c>
       <c r="D275">
         <v>2022</v>
@@ -23637,10 +23634,10 @@
         <v>251</v>
       </c>
       <c r="B276" t="s">
+        <v>681</v>
+      </c>
+      <c r="C276" t="s">
         <v>682</v>
-      </c>
-      <c r="C276" t="s">
-        <v>683</v>
       </c>
       <c r="D276">
         <v>2022</v>
@@ -23651,10 +23648,10 @@
         <v>303</v>
       </c>
       <c r="B277" t="s">
+        <v>681</v>
+      </c>
+      <c r="C277" t="s">
         <v>682</v>
-      </c>
-      <c r="C277" t="s">
-        <v>683</v>
       </c>
       <c r="D277">
         <v>2022</v>
@@ -23665,10 +23662,10 @@
         <v>302</v>
       </c>
       <c r="B278" t="s">
+        <v>681</v>
+      </c>
+      <c r="C278" t="s">
         <v>682</v>
-      </c>
-      <c r="C278" t="s">
-        <v>683</v>
       </c>
       <c r="D278">
         <v>2022</v>
@@ -23679,10 +23676,10 @@
         <v>308</v>
       </c>
       <c r="B279" t="s">
+        <v>681</v>
+      </c>
+      <c r="C279" t="s">
         <v>682</v>
-      </c>
-      <c r="C279" t="s">
-        <v>683</v>
       </c>
       <c r="D279">
         <v>2022</v>
@@ -23693,10 +23690,10 @@
         <v>340</v>
       </c>
       <c r="B280" t="s">
+        <v>681</v>
+      </c>
+      <c r="C280" t="s">
         <v>682</v>
-      </c>
-      <c r="C280" t="s">
-        <v>683</v>
       </c>
       <c r="D280">
         <v>2022</v>
@@ -23707,10 +23704,10 @@
         <v>341</v>
       </c>
       <c r="B281" t="s">
+        <v>681</v>
+      </c>
+      <c r="C281" t="s">
         <v>682</v>
-      </c>
-      <c r="C281" t="s">
-        <v>683</v>
       </c>
       <c r="D281">
         <v>2022</v>
@@ -23721,10 +23718,10 @@
         <v>342</v>
       </c>
       <c r="B282" t="s">
+        <v>681</v>
+      </c>
+      <c r="C282" t="s">
         <v>682</v>
-      </c>
-      <c r="C282" t="s">
-        <v>683</v>
       </c>
       <c r="D282">
         <v>2022</v>
@@ -23735,10 +23732,10 @@
         <v>310</v>
       </c>
       <c r="B283" t="s">
+        <v>681</v>
+      </c>
+      <c r="C283" t="s">
         <v>682</v>
-      </c>
-      <c r="C283" t="s">
-        <v>683</v>
       </c>
       <c r="D283">
         <v>2022</v>
@@ -23749,10 +23746,10 @@
         <v>268</v>
       </c>
       <c r="B284" t="s">
+        <v>681</v>
+      </c>
+      <c r="C284" t="s">
         <v>682</v>
-      </c>
-      <c r="C284" t="s">
-        <v>683</v>
       </c>
       <c r="D284">
         <v>2022</v>
@@ -23763,10 +23760,10 @@
         <v>343</v>
       </c>
       <c r="B285" t="s">
+        <v>681</v>
+      </c>
+      <c r="C285" t="s">
         <v>682</v>
-      </c>
-      <c r="C285" t="s">
-        <v>683</v>
       </c>
       <c r="D285">
         <v>2022</v>
@@ -23777,10 +23774,10 @@
         <v>344</v>
       </c>
       <c r="B286" t="s">
+        <v>681</v>
+      </c>
+      <c r="C286" t="s">
         <v>682</v>
-      </c>
-      <c r="C286" t="s">
-        <v>683</v>
       </c>
       <c r="D286">
         <v>2022</v>
@@ -23791,10 +23788,10 @@
         <v>276</v>
       </c>
       <c r="B287" t="s">
+        <v>681</v>
+      </c>
+      <c r="C287" t="s">
         <v>682</v>
-      </c>
-      <c r="C287" t="s">
-        <v>683</v>
       </c>
       <c r="D287">
         <v>2022</v>
@@ -23805,10 +23802,10 @@
         <v>93</v>
       </c>
       <c r="B288" t="s">
+        <v>681</v>
+      </c>
+      <c r="C288" t="s">
         <v>682</v>
-      </c>
-      <c r="C288" t="s">
-        <v>683</v>
       </c>
       <c r="D288">
         <v>2022</v>
@@ -23819,10 +23816,10 @@
         <v>242</v>
       </c>
       <c r="B289" t="s">
+        <v>681</v>
+      </c>
+      <c r="C289" t="s">
         <v>682</v>
-      </c>
-      <c r="C289" t="s">
-        <v>683</v>
       </c>
       <c r="D289">
         <v>2022</v>
@@ -23833,10 +23830,10 @@
         <v>277</v>
       </c>
       <c r="B290" t="s">
+        <v>681</v>
+      </c>
+      <c r="C290" t="s">
         <v>682</v>
-      </c>
-      <c r="C290" t="s">
-        <v>683</v>
       </c>
       <c r="D290">
         <v>2022</v>
@@ -23847,10 +23844,10 @@
         <v>339</v>
       </c>
       <c r="B291" t="s">
+        <v>681</v>
+      </c>
+      <c r="C291" t="s">
         <v>682</v>
-      </c>
-      <c r="C291" t="s">
-        <v>683</v>
       </c>
       <c r="D291">
         <v>2022</v>
@@ -23861,10 +23858,10 @@
         <v>345</v>
       </c>
       <c r="B292" t="s">
+        <v>681</v>
+      </c>
+      <c r="C292" t="s">
         <v>682</v>
-      </c>
-      <c r="C292" t="s">
-        <v>683</v>
       </c>
       <c r="D292">
         <v>2022</v>
@@ -23875,10 +23872,10 @@
         <v>181</v>
       </c>
       <c r="B293" t="s">
+        <v>681</v>
+      </c>
+      <c r="C293" t="s">
         <v>682</v>
-      </c>
-      <c r="C293" t="s">
-        <v>683</v>
       </c>
       <c r="D293">
         <v>2022</v>
@@ -23889,10 +23886,10 @@
         <v>214</v>
       </c>
       <c r="B294" t="s">
+        <v>681</v>
+      </c>
+      <c r="C294" t="s">
         <v>682</v>
-      </c>
-      <c r="C294" t="s">
-        <v>683</v>
       </c>
       <c r="D294">
         <v>2022</v>
@@ -23903,10 +23900,10 @@
         <v>279</v>
       </c>
       <c r="B295" t="s">
+        <v>681</v>
+      </c>
+      <c r="C295" t="s">
         <v>682</v>
-      </c>
-      <c r="C295" t="s">
-        <v>683</v>
       </c>
       <c r="D295">
         <v>2022</v>
@@ -23917,10 +23914,10 @@
         <v>249</v>
       </c>
       <c r="B296" t="s">
+        <v>681</v>
+      </c>
+      <c r="C296" t="s">
         <v>682</v>
-      </c>
-      <c r="C296" t="s">
-        <v>683</v>
       </c>
       <c r="D296">
         <v>2022</v>
@@ -23931,10 +23928,10 @@
         <v>142</v>
       </c>
       <c r="B297" t="s">
+        <v>681</v>
+      </c>
+      <c r="C297" t="s">
         <v>682</v>
-      </c>
-      <c r="C297" t="s">
-        <v>683</v>
       </c>
       <c r="D297">
         <v>2022</v>
@@ -23945,10 +23942,10 @@
         <v>170</v>
       </c>
       <c r="B298" t="s">
+        <v>681</v>
+      </c>
+      <c r="C298" t="s">
         <v>682</v>
-      </c>
-      <c r="C298" t="s">
-        <v>683</v>
       </c>
       <c r="D298">
         <v>2022</v>
@@ -23959,10 +23956,10 @@
         <v>312</v>
       </c>
       <c r="B299" t="s">
+        <v>681</v>
+      </c>
+      <c r="C299" t="s">
         <v>682</v>
-      </c>
-      <c r="C299" t="s">
-        <v>683</v>
       </c>
       <c r="D299">
         <v>2022</v>
@@ -23973,10 +23970,10 @@
         <v>163</v>
       </c>
       <c r="B300" t="s">
+        <v>681</v>
+      </c>
+      <c r="C300" t="s">
         <v>682</v>
-      </c>
-      <c r="C300" t="s">
-        <v>683</v>
       </c>
       <c r="D300">
         <v>2022</v>
@@ -23987,10 +23984,10 @@
         <v>346</v>
       </c>
       <c r="B301" t="s">
+        <v>681</v>
+      </c>
+      <c r="C301" t="s">
         <v>682</v>
-      </c>
-      <c r="C301" t="s">
-        <v>683</v>
       </c>
       <c r="D301">
         <v>2022</v>
@@ -24001,10 +23998,10 @@
         <v>244</v>
       </c>
       <c r="B302" t="s">
+        <v>681</v>
+      </c>
+      <c r="C302" t="s">
         <v>682</v>
-      </c>
-      <c r="C302" t="s">
-        <v>683</v>
       </c>
       <c r="D302">
         <v>2022</v>
@@ -24015,10 +24012,10 @@
         <v>118</v>
       </c>
       <c r="B303" t="s">
+        <v>681</v>
+      </c>
+      <c r="C303" t="s">
         <v>682</v>
-      </c>
-      <c r="C303" t="s">
-        <v>683</v>
       </c>
       <c r="D303">
         <v>2022</v>
@@ -24029,10 +24026,10 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
+        <v>681</v>
+      </c>
+      <c r="C304" t="s">
         <v>682</v>
-      </c>
-      <c r="C304" t="s">
-        <v>683</v>
       </c>
       <c r="D304">
         <v>2022</v>
@@ -24043,10 +24040,10 @@
         <v>280</v>
       </c>
       <c r="B305" t="s">
+        <v>681</v>
+      </c>
+      <c r="C305" t="s">
         <v>682</v>
-      </c>
-      <c r="C305" t="s">
-        <v>683</v>
       </c>
       <c r="D305">
         <v>2022</v>
@@ -24057,10 +24054,10 @@
         <v>347</v>
       </c>
       <c r="B306" t="s">
+        <v>681</v>
+      </c>
+      <c r="C306" t="s">
         <v>682</v>
-      </c>
-      <c r="C306" t="s">
-        <v>683</v>
       </c>
       <c r="D306">
         <v>2022</v>
@@ -24071,10 +24068,10 @@
         <v>319</v>
       </c>
       <c r="B307" t="s">
+        <v>681</v>
+      </c>
+      <c r="C307" t="s">
         <v>682</v>
-      </c>
-      <c r="C307" t="s">
-        <v>683</v>
       </c>
       <c r="D307">
         <v>2022</v>
@@ -24085,10 +24082,10 @@
         <v>348</v>
       </c>
       <c r="B308" t="s">
+        <v>681</v>
+      </c>
+      <c r="C308" t="s">
         <v>682</v>
-      </c>
-      <c r="C308" t="s">
-        <v>683</v>
       </c>
       <c r="D308">
         <v>2022</v>
@@ -24099,10 +24096,10 @@
         <v>349</v>
       </c>
       <c r="B309" t="s">
+        <v>681</v>
+      </c>
+      <c r="C309" t="s">
         <v>682</v>
-      </c>
-      <c r="C309" t="s">
-        <v>683</v>
       </c>
       <c r="D309">
         <v>2022</v>
@@ -24113,10 +24110,10 @@
         <v>350</v>
       </c>
       <c r="B310" t="s">
+        <v>681</v>
+      </c>
+      <c r="C310" t="s">
         <v>682</v>
-      </c>
-      <c r="C310" t="s">
-        <v>683</v>
       </c>
       <c r="D310">
         <v>2022</v>
@@ -24127,10 +24124,10 @@
         <v>351</v>
       </c>
       <c r="B311" t="s">
+        <v>681</v>
+      </c>
+      <c r="C311" t="s">
         <v>682</v>
-      </c>
-      <c r="C311" t="s">
-        <v>683</v>
       </c>
       <c r="D311">
         <v>2022</v>
@@ -24141,10 +24138,10 @@
         <v>139</v>
       </c>
       <c r="B312" t="s">
+        <v>681</v>
+      </c>
+      <c r="C312" t="s">
         <v>682</v>
-      </c>
-      <c r="C312" t="s">
-        <v>683</v>
       </c>
       <c r="D312">
         <v>2022</v>
@@ -24155,10 +24152,10 @@
         <v>84</v>
       </c>
       <c r="B313" t="s">
+        <v>681</v>
+      </c>
+      <c r="C313" t="s">
         <v>682</v>
-      </c>
-      <c r="C313" t="s">
-        <v>683</v>
       </c>
       <c r="D313">
         <v>2022</v>
@@ -24169,10 +24166,10 @@
         <v>352</v>
       </c>
       <c r="B314" t="s">
+        <v>681</v>
+      </c>
+      <c r="C314" t="s">
         <v>682</v>
-      </c>
-      <c r="C314" t="s">
-        <v>683</v>
       </c>
       <c r="D314">
         <v>2022</v>
@@ -24183,10 +24180,10 @@
         <v>178</v>
       </c>
       <c r="B315" t="s">
+        <v>681</v>
+      </c>
+      <c r="C315" t="s">
         <v>682</v>
-      </c>
-      <c r="C315" t="s">
-        <v>683</v>
       </c>
       <c r="D315">
         <v>2022</v>
@@ -24197,10 +24194,10 @@
         <v>220</v>
       </c>
       <c r="B316" t="s">
+        <v>681</v>
+      </c>
+      <c r="C316" t="s">
         <v>682</v>
-      </c>
-      <c r="C316" t="s">
-        <v>683</v>
       </c>
       <c r="D316">
         <v>2022</v>
@@ -27599,10 +27596,10 @@
         <v>302</v>
       </c>
       <c r="B559" t="s">
+        <v>681</v>
+      </c>
+      <c r="C559" t="s">
         <v>682</v>
-      </c>
-      <c r="C559" t="s">
-        <v>683</v>
       </c>
       <c r="D559">
         <v>2023</v>
@@ -27613,10 +27610,10 @@
         <v>313</v>
       </c>
       <c r="B560" t="s">
+        <v>681</v>
+      </c>
+      <c r="C560" t="s">
         <v>682</v>
-      </c>
-      <c r="C560" t="s">
-        <v>683</v>
       </c>
       <c r="D560">
         <v>2023</v>
@@ -27627,10 +27624,10 @@
         <v>320</v>
       </c>
       <c r="B561" t="s">
+        <v>681</v>
+      </c>
+      <c r="C561" t="s">
         <v>682</v>
-      </c>
-      <c r="C561" t="s">
-        <v>683</v>
       </c>
       <c r="D561">
         <v>2023</v>
@@ -27641,10 +27638,10 @@
         <v>451</v>
       </c>
       <c r="B562" t="s">
+        <v>681</v>
+      </c>
+      <c r="C562" t="s">
         <v>682</v>
-      </c>
-      <c r="C562" t="s">
-        <v>683</v>
       </c>
       <c r="D562">
         <v>2023</v>
@@ -27655,10 +27652,10 @@
         <v>88</v>
       </c>
       <c r="B563" t="s">
+        <v>681</v>
+      </c>
+      <c r="C563" t="s">
         <v>682</v>
-      </c>
-      <c r="C563" t="s">
-        <v>683</v>
       </c>
       <c r="D563">
         <v>2023</v>
@@ -27669,10 +27666,10 @@
         <v>204</v>
       </c>
       <c r="B564" t="s">
+        <v>681</v>
+      </c>
+      <c r="C564" t="s">
         <v>682</v>
-      </c>
-      <c r="C564" t="s">
-        <v>683</v>
       </c>
       <c r="D564">
         <v>2023</v>
@@ -27683,10 +27680,10 @@
         <v>136</v>
       </c>
       <c r="B565" t="s">
+        <v>681</v>
+      </c>
+      <c r="C565" t="s">
         <v>682</v>
-      </c>
-      <c r="C565" t="s">
-        <v>683</v>
       </c>
       <c r="D565">
         <v>2023</v>
@@ -27697,10 +27694,10 @@
         <v>165</v>
       </c>
       <c r="B566" t="s">
+        <v>681</v>
+      </c>
+      <c r="C566" t="s">
         <v>682</v>
-      </c>
-      <c r="C566" t="s">
-        <v>683</v>
       </c>
       <c r="D566">
         <v>2023</v>
@@ -27711,10 +27708,10 @@
         <v>103</v>
       </c>
       <c r="B567" t="s">
+        <v>681</v>
+      </c>
+      <c r="C567" t="s">
         <v>682</v>
-      </c>
-      <c r="C567" t="s">
-        <v>683</v>
       </c>
       <c r="D567">
         <v>2023</v>
@@ -27725,10 +27722,10 @@
         <v>291</v>
       </c>
       <c r="B568" t="s">
+        <v>681</v>
+      </c>
+      <c r="C568" t="s">
         <v>682</v>
-      </c>
-      <c r="C568" t="s">
-        <v>683</v>
       </c>
       <c r="D568">
         <v>2023</v>
@@ -27739,10 +27736,10 @@
         <v>293</v>
       </c>
       <c r="B569" t="s">
+        <v>681</v>
+      </c>
+      <c r="C569" t="s">
         <v>682</v>
-      </c>
-      <c r="C569" t="s">
-        <v>683</v>
       </c>
       <c r="D569">
         <v>2023</v>
@@ -27753,10 +27750,10 @@
         <v>363</v>
       </c>
       <c r="B570" t="s">
+        <v>681</v>
+      </c>
+      <c r="C570" t="s">
         <v>682</v>
-      </c>
-      <c r="C570" t="s">
-        <v>683</v>
       </c>
       <c r="D570">
         <v>2023</v>
@@ -27767,10 +27764,10 @@
         <v>357</v>
       </c>
       <c r="B571" t="s">
+        <v>681</v>
+      </c>
+      <c r="C571" t="s">
         <v>682</v>
-      </c>
-      <c r="C571" t="s">
-        <v>683</v>
       </c>
       <c r="D571">
         <v>2023</v>
@@ -27781,10 +27778,10 @@
         <v>202</v>
       </c>
       <c r="B572" t="s">
+        <v>681</v>
+      </c>
+      <c r="C572" t="s">
         <v>682</v>
-      </c>
-      <c r="C572" t="s">
-        <v>683</v>
       </c>
       <c r="D572">
         <v>2023</v>
@@ -27795,10 +27792,10 @@
         <v>77</v>
       </c>
       <c r="B573" t="s">
+        <v>681</v>
+      </c>
+      <c r="C573" t="s">
         <v>682</v>
-      </c>
-      <c r="C573" t="s">
-        <v>683</v>
       </c>
       <c r="D573">
         <v>2023</v>
@@ -27809,10 +27806,10 @@
         <v>192</v>
       </c>
       <c r="B574" t="s">
+        <v>681</v>
+      </c>
+      <c r="C574" t="s">
         <v>682</v>
-      </c>
-      <c r="C574" t="s">
-        <v>683</v>
       </c>
       <c r="D574">
         <v>2023</v>
@@ -27823,10 +27820,10 @@
         <v>240</v>
       </c>
       <c r="B575" t="s">
+        <v>681</v>
+      </c>
+      <c r="C575" t="s">
         <v>682</v>
-      </c>
-      <c r="C575" t="s">
-        <v>683</v>
       </c>
       <c r="D575">
         <v>2023</v>
@@ -27837,10 +27834,10 @@
         <v>258</v>
       </c>
       <c r="B576" t="s">
+        <v>681</v>
+      </c>
+      <c r="C576" t="s">
         <v>682</v>
-      </c>
-      <c r="C576" t="s">
-        <v>683</v>
       </c>
       <c r="D576">
         <v>2023</v>
@@ -27851,10 +27848,10 @@
         <v>166</v>
       </c>
       <c r="B577" t="s">
+        <v>681</v>
+      </c>
+      <c r="C577" t="s">
         <v>682</v>
-      </c>
-      <c r="C577" t="s">
-        <v>683</v>
       </c>
       <c r="D577">
         <v>2023</v>
@@ -27865,10 +27862,10 @@
         <v>437</v>
       </c>
       <c r="B578" t="s">
+        <v>681</v>
+      </c>
+      <c r="C578" t="s">
         <v>682</v>
-      </c>
-      <c r="C578" t="s">
-        <v>683</v>
       </c>
       <c r="D578">
         <v>2023</v>
@@ -27879,10 +27876,10 @@
         <v>139</v>
       </c>
       <c r="B579" t="s">
+        <v>681</v>
+      </c>
+      <c r="C579" t="s">
         <v>682</v>
-      </c>
-      <c r="C579" t="s">
-        <v>683</v>
       </c>
       <c r="D579">
         <v>2023</v>
@@ -27893,10 +27890,10 @@
         <v>277</v>
       </c>
       <c r="B580" t="s">
+        <v>681</v>
+      </c>
+      <c r="C580" t="s">
         <v>682</v>
-      </c>
-      <c r="C580" t="s">
-        <v>683</v>
       </c>
       <c r="D580">
         <v>2023</v>
@@ -27907,10 +27904,10 @@
         <v>303</v>
       </c>
       <c r="B581" t="s">
+        <v>681</v>
+      </c>
+      <c r="C581" t="s">
         <v>682</v>
-      </c>
-      <c r="C581" t="s">
-        <v>683</v>
       </c>
       <c r="D581">
         <v>2023</v>
@@ -27921,10 +27918,10 @@
         <v>390</v>
       </c>
       <c r="B582" t="s">
+        <v>681</v>
+      </c>
+      <c r="C582" t="s">
         <v>682</v>
-      </c>
-      <c r="C582" t="s">
-        <v>683</v>
       </c>
       <c r="D582">
         <v>2023</v>
@@ -27935,10 +27932,10 @@
         <v>417</v>
       </c>
       <c r="B583" t="s">
+        <v>681</v>
+      </c>
+      <c r="C583" t="s">
         <v>682</v>
-      </c>
-      <c r="C583" t="s">
-        <v>683</v>
       </c>
       <c r="D583">
         <v>2023</v>
@@ -27949,10 +27946,10 @@
         <v>445</v>
       </c>
       <c r="B584" t="s">
+        <v>681</v>
+      </c>
+      <c r="C584" t="s">
         <v>682</v>
-      </c>
-      <c r="C584" t="s">
-        <v>683</v>
       </c>
       <c r="D584">
         <v>2023</v>
@@ -27963,10 +27960,10 @@
         <v>452</v>
       </c>
       <c r="B585" t="s">
+        <v>681</v>
+      </c>
+      <c r="C585" t="s">
         <v>682</v>
-      </c>
-      <c r="C585" t="s">
-        <v>683</v>
       </c>
       <c r="D585">
         <v>2023</v>
@@ -27977,10 +27974,10 @@
         <v>226</v>
       </c>
       <c r="B586" t="s">
+        <v>681</v>
+      </c>
+      <c r="C586" t="s">
         <v>682</v>
-      </c>
-      <c r="C586" t="s">
-        <v>683</v>
       </c>
       <c r="D586">
         <v>2023</v>
@@ -27991,10 +27988,10 @@
         <v>440</v>
       </c>
       <c r="B587" t="s">
+        <v>681</v>
+      </c>
+      <c r="C587" t="s">
         <v>682</v>
-      </c>
-      <c r="C587" t="s">
-        <v>683</v>
       </c>
       <c r="D587">
         <v>2023</v>
@@ -28005,10 +28002,10 @@
         <v>259</v>
       </c>
       <c r="B588" t="s">
+        <v>681</v>
+      </c>
+      <c r="C588" t="s">
         <v>682</v>
-      </c>
-      <c r="C588" t="s">
-        <v>683</v>
       </c>
       <c r="D588">
         <v>2023</v>
@@ -28019,10 +28016,10 @@
         <v>392</v>
       </c>
       <c r="B589" t="s">
+        <v>681</v>
+      </c>
+      <c r="C589" t="s">
         <v>682</v>
-      </c>
-      <c r="C589" t="s">
-        <v>683</v>
       </c>
       <c r="D589">
         <v>2023</v>
@@ -28033,10 +28030,10 @@
         <v>183</v>
       </c>
       <c r="B590" t="s">
+        <v>681</v>
+      </c>
+      <c r="C590" t="s">
         <v>682</v>
-      </c>
-      <c r="C590" t="s">
-        <v>683</v>
       </c>
       <c r="D590">
         <v>2023</v>
@@ -28047,10 +28044,10 @@
         <v>305</v>
       </c>
       <c r="B591" t="s">
+        <v>681</v>
+      </c>
+      <c r="C591" t="s">
         <v>682</v>
-      </c>
-      <c r="C591" t="s">
-        <v>683</v>
       </c>
       <c r="D591">
         <v>2023</v>
@@ -28061,10 +28058,10 @@
         <v>376</v>
       </c>
       <c r="B592" t="s">
+        <v>681</v>
+      </c>
+      <c r="C592" t="s">
         <v>682</v>
-      </c>
-      <c r="C592" t="s">
-        <v>683</v>
       </c>
       <c r="D592">
         <v>2023</v>
@@ -28075,10 +28072,10 @@
         <v>323</v>
       </c>
       <c r="B593" t="s">
+        <v>681</v>
+      </c>
+      <c r="C593" t="s">
         <v>682</v>
-      </c>
-      <c r="C593" t="s">
-        <v>683</v>
       </c>
       <c r="D593">
         <v>2023</v>
@@ -28089,10 +28086,10 @@
         <v>343</v>
       </c>
       <c r="B594" t="s">
+        <v>681</v>
+      </c>
+      <c r="C594" t="s">
         <v>682</v>
-      </c>
-      <c r="C594" t="s">
-        <v>683</v>
       </c>
       <c r="D594">
         <v>2023</v>
@@ -28103,10 +28100,10 @@
         <v>453</v>
       </c>
       <c r="B595" t="s">
+        <v>681</v>
+      </c>
+      <c r="C595" t="s">
         <v>682</v>
-      </c>
-      <c r="C595" t="s">
-        <v>683</v>
       </c>
       <c r="D595">
         <v>2023</v>
@@ -28117,10 +28114,10 @@
         <v>319</v>
       </c>
       <c r="B596" t="s">
+        <v>681</v>
+      </c>
+      <c r="C596" t="s">
         <v>682</v>
-      </c>
-      <c r="C596" t="s">
-        <v>683</v>
       </c>
       <c r="D596">
         <v>2023</v>
@@ -28131,10 +28128,10 @@
         <v>84</v>
       </c>
       <c r="B597" t="s">
+        <v>681</v>
+      </c>
+      <c r="C597" t="s">
         <v>682</v>
-      </c>
-      <c r="C597" t="s">
-        <v>683</v>
       </c>
       <c r="D597">
         <v>2023</v>
@@ -28145,10 +28142,10 @@
         <v>429</v>
       </c>
       <c r="B598" t="s">
+        <v>681</v>
+      </c>
+      <c r="C598" t="s">
         <v>682</v>
-      </c>
-      <c r="C598" t="s">
-        <v>683</v>
       </c>
       <c r="D598">
         <v>2023</v>
@@ -28159,10 +28156,10 @@
         <v>454</v>
       </c>
       <c r="B599" t="s">
+        <v>681</v>
+      </c>
+      <c r="C599" t="s">
         <v>682</v>
-      </c>
-      <c r="C599" t="s">
-        <v>683</v>
       </c>
       <c r="D599">
         <v>2023</v>
@@ -28173,10 +28170,10 @@
         <v>418</v>
       </c>
       <c r="B600" t="s">
+        <v>681</v>
+      </c>
+      <c r="C600" t="s">
         <v>682</v>
-      </c>
-      <c r="C600" t="s">
-        <v>683</v>
       </c>
       <c r="D600">
         <v>2023</v>
@@ -28187,10 +28184,10 @@
         <v>385</v>
       </c>
       <c r="B601" t="s">
+        <v>681</v>
+      </c>
+      <c r="C601" t="s">
         <v>682</v>
-      </c>
-      <c r="C601" t="s">
-        <v>683</v>
       </c>
       <c r="D601">
         <v>2023</v>
@@ -28201,10 +28198,10 @@
         <v>362</v>
       </c>
       <c r="B602" t="s">
+        <v>681</v>
+      </c>
+      <c r="C602" t="s">
         <v>682</v>
-      </c>
-      <c r="C602" t="s">
-        <v>683</v>
       </c>
       <c r="D602">
         <v>2023</v>
@@ -28215,10 +28212,10 @@
         <v>298</v>
       </c>
       <c r="B603" t="s">
+        <v>681</v>
+      </c>
+      <c r="C603" t="s">
         <v>682</v>
-      </c>
-      <c r="C603" t="s">
-        <v>683</v>
       </c>
       <c r="D603">
         <v>2023</v>
@@ -28229,10 +28226,10 @@
         <v>249</v>
       </c>
       <c r="B604" t="s">
+        <v>681</v>
+      </c>
+      <c r="C604" t="s">
         <v>682</v>
-      </c>
-      <c r="C604" t="s">
-        <v>683</v>
       </c>
       <c r="D604">
         <v>2023</v>
@@ -28243,10 +28240,10 @@
         <v>455</v>
       </c>
       <c r="B605" t="s">
+        <v>681</v>
+      </c>
+      <c r="C605" t="s">
         <v>682</v>
-      </c>
-      <c r="C605" t="s">
-        <v>683</v>
       </c>
       <c r="D605">
         <v>2023</v>
@@ -28257,10 +28254,10 @@
         <v>412</v>
       </c>
       <c r="B606" t="s">
+        <v>681</v>
+      </c>
+      <c r="C606" t="s">
         <v>682</v>
-      </c>
-      <c r="C606" t="s">
-        <v>683</v>
       </c>
       <c r="D606">
         <v>2023</v>
@@ -28271,10 +28268,10 @@
         <v>255</v>
       </c>
       <c r="B607" t="s">
+        <v>681</v>
+      </c>
+      <c r="C607" t="s">
         <v>682</v>
-      </c>
-      <c r="C607" t="s">
-        <v>683</v>
       </c>
       <c r="D607">
         <v>2023</v>
@@ -28285,10 +28282,10 @@
         <v>456</v>
       </c>
       <c r="B608" t="s">
+        <v>681</v>
+      </c>
+      <c r="C608" t="s">
         <v>682</v>
-      </c>
-      <c r="C608" t="s">
-        <v>683</v>
       </c>
       <c r="D608">
         <v>2023</v>
@@ -32079,10 +32076,10 @@
         <v>185</v>
       </c>
       <c r="B879" t="s">
+        <v>681</v>
+      </c>
+      <c r="C879" t="s">
         <v>682</v>
-      </c>
-      <c r="C879" t="s">
-        <v>683</v>
       </c>
       <c r="D879">
         <v>2024</v>
@@ -32090,13 +32087,13 @@
     </row>
     <row r="880" spans="1:4">
       <c r="A880" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="B880" t="s">
+        <v>681</v>
+      </c>
+      <c r="C880" t="s">
         <v>682</v>
-      </c>
-      <c r="C880" t="s">
-        <v>683</v>
       </c>
       <c r="D880">
         <v>2024</v>
@@ -32104,13 +32101,13 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="B881" t="s">
+        <v>681</v>
+      </c>
+      <c r="C881" t="s">
         <v>682</v>
-      </c>
-      <c r="C881" t="s">
-        <v>683</v>
       </c>
       <c r="D881">
         <v>2024</v>
@@ -32118,13 +32115,13 @@
     </row>
     <row r="882" spans="1:4">
       <c r="A882" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="B882" t="s">
+        <v>681</v>
+      </c>
+      <c r="C882" t="s">
         <v>682</v>
-      </c>
-      <c r="C882" t="s">
-        <v>683</v>
       </c>
       <c r="D882">
         <v>2024</v>
@@ -32132,13 +32129,13 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" t="s">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="B883" t="s">
+        <v>681</v>
+      </c>
+      <c r="C883" t="s">
         <v>682</v>
-      </c>
-      <c r="C883" t="s">
-        <v>683</v>
       </c>
       <c r="D883">
         <v>2024</v>
@@ -32146,13 +32143,13 @@
     </row>
     <row r="884" spans="1:4">
       <c r="A884" t="s">
-        <v>352</v>
+        <v>546</v>
       </c>
       <c r="B884" t="s">
+        <v>681</v>
+      </c>
+      <c r="C884" t="s">
         <v>682</v>
-      </c>
-      <c r="C884" t="s">
-        <v>683</v>
       </c>
       <c r="D884">
         <v>2024</v>
@@ -32160,13 +32157,13 @@
     </row>
     <row r="885" spans="1:4">
       <c r="A885" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B885" t="s">
+        <v>681</v>
+      </c>
+      <c r="C885" t="s">
         <v>682</v>
-      </c>
-      <c r="C885" t="s">
-        <v>683</v>
       </c>
       <c r="D885">
         <v>2024</v>
@@ -32174,13 +32171,13 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="B886" t="s">
+        <v>681</v>
+      </c>
+      <c r="C886" t="s">
         <v>682</v>
-      </c>
-      <c r="C886" t="s">
-        <v>683</v>
       </c>
       <c r="D886">
         <v>2024</v>
@@ -32188,13 +32185,13 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="B887" t="s">
+        <v>681</v>
+      </c>
+      <c r="C887" t="s">
         <v>682</v>
-      </c>
-      <c r="C887" t="s">
-        <v>683</v>
       </c>
       <c r="D887">
         <v>2024</v>
@@ -32202,13 +32199,13 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" t="s">
-        <v>536</v>
+        <v>429</v>
       </c>
       <c r="B888" t="s">
+        <v>681</v>
+      </c>
+      <c r="C888" t="s">
         <v>682</v>
-      </c>
-      <c r="C888" t="s">
-        <v>683</v>
       </c>
       <c r="D888">
         <v>2024</v>
@@ -32216,13 +32213,13 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="B889" t="s">
+        <v>681</v>
+      </c>
+      <c r="C889" t="s">
         <v>682</v>
-      </c>
-      <c r="C889" t="s">
-        <v>683</v>
       </c>
       <c r="D889">
         <v>2024</v>
@@ -32230,13 +32227,13 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" t="s">
-        <v>90</v>
+        <v>435</v>
       </c>
       <c r="B890" t="s">
+        <v>681</v>
+      </c>
+      <c r="C890" t="s">
         <v>682</v>
-      </c>
-      <c r="C890" t="s">
-        <v>683</v>
       </c>
       <c r="D890">
         <v>2024</v>
@@ -32244,13 +32241,13 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B891" t="s">
+        <v>681</v>
+      </c>
+      <c r="C891" t="s">
         <v>682</v>
-      </c>
-      <c r="C891" t="s">
-        <v>683</v>
       </c>
       <c r="D891">
         <v>2024</v>
@@ -32258,13 +32255,13 @@
     </row>
     <row r="892" spans="1:4">
       <c r="A892" t="s">
-        <v>435</v>
+        <v>533</v>
       </c>
       <c r="B892" t="s">
+        <v>681</v>
+      </c>
+      <c r="C892" t="s">
         <v>682</v>
-      </c>
-      <c r="C892" t="s">
-        <v>683</v>
       </c>
       <c r="D892">
         <v>2024</v>
@@ -32272,13 +32269,13 @@
     </row>
     <row r="893" spans="1:4">
       <c r="A893" t="s">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="B893" t="s">
+        <v>681</v>
+      </c>
+      <c r="C893" t="s">
         <v>682</v>
-      </c>
-      <c r="C893" t="s">
-        <v>683</v>
       </c>
       <c r="D893">
         <v>2024</v>
@@ -32286,13 +32283,13 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" t="s">
-        <v>170</v>
+        <v>504</v>
       </c>
       <c r="B894" t="s">
+        <v>681</v>
+      </c>
+      <c r="C894" t="s">
         <v>682</v>
-      </c>
-      <c r="C894" t="s">
-        <v>683</v>
       </c>
       <c r="D894">
         <v>2024</v>
@@ -32300,13 +32297,13 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B895" t="s">
+        <v>681</v>
+      </c>
+      <c r="C895" t="s">
         <v>682</v>
-      </c>
-      <c r="C895" t="s">
-        <v>683</v>
       </c>
       <c r="D895">
         <v>2024</v>
@@ -32314,13 +32311,13 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B896" t="s">
+        <v>681</v>
+      </c>
+      <c r="C896" t="s">
         <v>682</v>
-      </c>
-      <c r="C896" t="s">
-        <v>683</v>
       </c>
       <c r="D896">
         <v>2024</v>
@@ -32328,13 +32325,13 @@
     </row>
     <row r="897" spans="1:4">
       <c r="A897" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="B897" t="s">
+        <v>681</v>
+      </c>
+      <c r="C897" t="s">
         <v>682</v>
-      </c>
-      <c r="C897" t="s">
-        <v>683</v>
       </c>
       <c r="D897">
         <v>2024</v>
@@ -32342,13 +32339,13 @@
     </row>
     <row r="898" spans="1:4">
       <c r="A898" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="B898" t="s">
+        <v>681</v>
+      </c>
+      <c r="C898" t="s">
         <v>682</v>
-      </c>
-      <c r="C898" t="s">
-        <v>683</v>
       </c>
       <c r="D898">
         <v>2024</v>
@@ -32356,13 +32353,13 @@
     </row>
     <row r="899" spans="1:4">
       <c r="A899" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="B899" t="s">
+        <v>681</v>
+      </c>
+      <c r="C899" t="s">
         <v>682</v>
-      </c>
-      <c r="C899" t="s">
-        <v>683</v>
       </c>
       <c r="D899">
         <v>2024</v>
@@ -32370,13 +32367,13 @@
     </row>
     <row r="900" spans="1:4">
       <c r="A900" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="B900" t="s">
+        <v>681</v>
+      </c>
+      <c r="C900" t="s">
         <v>682</v>
-      </c>
-      <c r="C900" t="s">
-        <v>683</v>
       </c>
       <c r="D900">
         <v>2024</v>
@@ -32384,13 +32381,13 @@
     </row>
     <row r="901" spans="1:4">
       <c r="A901" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B901" t="s">
+        <v>681</v>
+      </c>
+      <c r="C901" t="s">
         <v>682</v>
-      </c>
-      <c r="C901" t="s">
-        <v>683</v>
       </c>
       <c r="D901">
         <v>2024</v>
@@ -32398,13 +32395,13 @@
     </row>
     <row r="902" spans="1:4">
       <c r="A902" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B902" t="s">
+        <v>681</v>
+      </c>
+      <c r="C902" t="s">
         <v>682</v>
-      </c>
-      <c r="C902" t="s">
-        <v>683</v>
       </c>
       <c r="D902">
         <v>2024</v>
@@ -32412,13 +32409,13 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
       <c r="B903" t="s">
+        <v>681</v>
+      </c>
+      <c r="C903" t="s">
         <v>682</v>
-      </c>
-      <c r="C903" t="s">
-        <v>683</v>
       </c>
       <c r="D903">
         <v>2024</v>
@@ -32426,13 +32423,13 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B904" t="s">
+        <v>681</v>
+      </c>
+      <c r="C904" t="s">
         <v>682</v>
-      </c>
-      <c r="C904" t="s">
-        <v>683</v>
       </c>
       <c r="D904">
         <v>2024</v>
@@ -32440,13 +32437,13 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
       <c r="B905" t="s">
+        <v>681</v>
+      </c>
+      <c r="C905" t="s">
         <v>682</v>
-      </c>
-      <c r="C905" t="s">
-        <v>683</v>
       </c>
       <c r="D905">
         <v>2024</v>
@@ -32454,13 +32451,13 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="B906" t="s">
+        <v>681</v>
+      </c>
+      <c r="C906" t="s">
         <v>682</v>
-      </c>
-      <c r="C906" t="s">
-        <v>683</v>
       </c>
       <c r="D906">
         <v>2024</v>
@@ -32468,13 +32465,13 @@
     </row>
     <row r="907" spans="1:4">
       <c r="A907" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B907" t="s">
+        <v>681</v>
+      </c>
+      <c r="C907" t="s">
         <v>682</v>
-      </c>
-      <c r="C907" t="s">
-        <v>683</v>
       </c>
       <c r="D907">
         <v>2024</v>
@@ -32482,13 +32479,13 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="B908" t="s">
+        <v>681</v>
+      </c>
+      <c r="C908" t="s">
         <v>682</v>
-      </c>
-      <c r="C908" t="s">
-        <v>683</v>
       </c>
       <c r="D908">
         <v>2024</v>
@@ -32496,13 +32493,13 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B909" t="s">
+        <v>681</v>
+      </c>
+      <c r="C909" t="s">
         <v>682</v>
-      </c>
-      <c r="C909" t="s">
-        <v>683</v>
       </c>
       <c r="D909">
         <v>2024</v>
@@ -32510,13 +32507,13 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" t="s">
-        <v>488</v>
+        <v>108</v>
       </c>
       <c r="B910" t="s">
+        <v>681</v>
+      </c>
+      <c r="C910" t="s">
         <v>682</v>
-      </c>
-      <c r="C910" t="s">
-        <v>683</v>
       </c>
       <c r="D910">
         <v>2024</v>
@@ -32524,13 +32521,13 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B911" t="s">
+        <v>681</v>
+      </c>
+      <c r="C911" t="s">
         <v>682</v>
-      </c>
-      <c r="C911" t="s">
-        <v>683</v>
       </c>
       <c r="D911">
         <v>2024</v>
@@ -32538,13 +32535,13 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" t="s">
-        <v>554</v>
+        <v>396</v>
       </c>
       <c r="B912" t="s">
+        <v>681</v>
+      </c>
+      <c r="C912" t="s">
         <v>682</v>
-      </c>
-      <c r="C912" t="s">
-        <v>683</v>
       </c>
       <c r="D912">
         <v>2024</v>
@@ -32555,10 +32552,10 @@
         <v>555</v>
       </c>
       <c r="B913" t="s">
+        <v>681</v>
+      </c>
+      <c r="C913" t="s">
         <v>682</v>
-      </c>
-      <c r="C913" t="s">
-        <v>683</v>
       </c>
       <c r="D913">
         <v>2024</v>
@@ -32566,13 +32563,13 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" t="s">
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="B914" t="s">
+        <v>681</v>
+      </c>
+      <c r="C914" t="s">
         <v>682</v>
-      </c>
-      <c r="C914" t="s">
-        <v>683</v>
       </c>
       <c r="D914">
         <v>2024</v>
@@ -32580,13 +32577,13 @@
     </row>
     <row r="915" spans="1:4">
       <c r="A915" t="s">
-        <v>201</v>
+        <v>556</v>
       </c>
       <c r="B915" t="s">
+        <v>681</v>
+      </c>
+      <c r="C915" t="s">
         <v>682</v>
-      </c>
-      <c r="C915" t="s">
-        <v>683</v>
       </c>
       <c r="D915">
         <v>2024</v>
@@ -32594,13 +32591,13 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B916" t="s">
+        <v>681</v>
+      </c>
+      <c r="C916" t="s">
         <v>682</v>
-      </c>
-      <c r="C916" t="s">
-        <v>683</v>
       </c>
       <c r="D916">
         <v>2024</v>
@@ -32608,13 +32605,13 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" t="s">
-        <v>108</v>
+        <v>558</v>
       </c>
       <c r="B917" t="s">
+        <v>681</v>
+      </c>
+      <c r="C917" t="s">
         <v>682</v>
-      </c>
-      <c r="C917" t="s">
-        <v>683</v>
       </c>
       <c r="D917">
         <v>2024</v>
@@ -32622,13 +32619,13 @@
     </row>
     <row r="918" spans="1:4">
       <c r="A918" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="B918" t="s">
+        <v>681</v>
+      </c>
+      <c r="C918" t="s">
         <v>682</v>
-      </c>
-      <c r="C918" t="s">
-        <v>683</v>
       </c>
       <c r="D918">
         <v>2024</v>
@@ -32636,13 +32633,13 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" t="s">
-        <v>384</v>
+        <v>559</v>
       </c>
       <c r="B919" t="s">
+        <v>681</v>
+      </c>
+      <c r="C919" t="s">
         <v>682</v>
-      </c>
-      <c r="C919" t="s">
-        <v>683</v>
       </c>
       <c r="D919">
         <v>2024</v>
@@ -32650,13 +32647,13 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" t="s">
-        <v>558</v>
+        <v>84</v>
       </c>
       <c r="B920" t="s">
+        <v>681</v>
+      </c>
+      <c r="C920" t="s">
         <v>682</v>
-      </c>
-      <c r="C920" t="s">
-        <v>683</v>
       </c>
       <c r="D920">
         <v>2024</v>
@@ -32664,13 +32661,13 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B921" t="s">
+        <v>681</v>
+      </c>
+      <c r="C921" t="s">
         <v>682</v>
-      </c>
-      <c r="C921" t="s">
-        <v>683</v>
       </c>
       <c r="D921">
         <v>2024</v>
@@ -32678,13 +32675,13 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" t="s">
-        <v>84</v>
+        <v>561</v>
       </c>
       <c r="B922" t="s">
+        <v>681</v>
+      </c>
+      <c r="C922" t="s">
         <v>682</v>
-      </c>
-      <c r="C922" t="s">
-        <v>683</v>
       </c>
       <c r="D922">
         <v>2024</v>
@@ -32692,13 +32689,13 @@
     </row>
     <row r="923" spans="1:4">
       <c r="A923" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B923" t="s">
+        <v>681</v>
+      </c>
+      <c r="C923" t="s">
         <v>682</v>
-      </c>
-      <c r="C923" t="s">
-        <v>683</v>
       </c>
       <c r="D923">
         <v>2024</v>
@@ -32706,13 +32703,13 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" t="s">
-        <v>561</v>
+        <v>378</v>
       </c>
       <c r="B924" t="s">
+        <v>681</v>
+      </c>
+      <c r="C924" t="s">
         <v>682</v>
-      </c>
-      <c r="C924" t="s">
-        <v>683</v>
       </c>
       <c r="D924">
         <v>2024</v>
@@ -32720,13 +32717,13 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B925" t="s">
+        <v>681</v>
+      </c>
+      <c r="C925" t="s">
         <v>682</v>
-      </c>
-      <c r="C925" t="s">
-        <v>683</v>
       </c>
       <c r="D925">
         <v>2024</v>
@@ -32734,13 +32731,13 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="B926" t="s">
+        <v>681</v>
+      </c>
+      <c r="C926" t="s">
         <v>682</v>
-      </c>
-      <c r="C926" t="s">
-        <v>683</v>
       </c>
       <c r="D926">
         <v>2024</v>
@@ -32748,13 +32745,13 @@
     </row>
     <row r="927" spans="1:4">
       <c r="A927" t="s">
-        <v>563</v>
+        <v>279</v>
       </c>
       <c r="B927" t="s">
+        <v>681</v>
+      </c>
+      <c r="C927" t="s">
         <v>682</v>
-      </c>
-      <c r="C927" t="s">
-        <v>683</v>
       </c>
       <c r="D927">
         <v>2024</v>
@@ -32762,13 +32759,13 @@
     </row>
     <row r="928" spans="1:4">
       <c r="A928" t="s">
-        <v>564</v>
+        <v>412</v>
       </c>
       <c r="B928" t="s">
+        <v>681</v>
+      </c>
+      <c r="C928" t="s">
         <v>682</v>
-      </c>
-      <c r="C928" t="s">
-        <v>683</v>
       </c>
       <c r="D928">
         <v>2024</v>
@@ -32958,7 +32955,7 @@
     </row>
     <row r="942" spans="1:4">
       <c r="A942" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B942" t="s">
         <v>33</v>
@@ -32972,7 +32969,7 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B943" t="s">
         <v>33</v>
@@ -32986,7 +32983,7 @@
     </row>
     <row r="944" spans="1:4">
       <c r="A944" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B944" t="s">
         <v>33</v>
@@ -33000,7 +32997,7 @@
     </row>
     <row r="945" spans="1:4">
       <c r="A945" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B945" t="s">
         <v>33</v>
@@ -33056,7 +33053,7 @@
     </row>
     <row r="949" spans="1:4">
       <c r="A949" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B949" t="s">
         <v>33</v>
@@ -33084,7 +33081,7 @@
     </row>
     <row r="951" spans="1:4">
       <c r="A951" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B951" t="s">
         <v>33</v>
@@ -33098,7 +33095,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" t="s">
-        <v>385</v>
+        <v>570</v>
       </c>
       <c r="B952" t="s">
         <v>33</v>
@@ -33126,7 +33123,7 @@
     </row>
     <row r="954" spans="1:4">
       <c r="A954" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B954" t="s">
         <v>33</v>
@@ -33140,7 +33137,7 @@
     </row>
     <row r="955" spans="1:4">
       <c r="A955" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="B955" t="s">
         <v>33</v>
@@ -33154,7 +33151,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" t="s">
-        <v>573</v>
+        <v>314</v>
       </c>
       <c r="B956" t="s">
         <v>33</v>
@@ -33168,7 +33165,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="B957" t="s">
         <v>33</v>
@@ -33182,13 +33179,13 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" t="s">
-        <v>433</v>
+        <v>90</v>
       </c>
       <c r="B958" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C958" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D958">
         <v>2024</v>
@@ -33196,7 +33193,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" t="s">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="B959" t="s">
         <v>23</v>
@@ -33210,7 +33207,7 @@
     </row>
     <row r="960" spans="1:4">
       <c r="A960" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="B960" t="s">
         <v>23</v>
@@ -33224,7 +33221,7 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" t="s">
-        <v>574</v>
+        <v>154</v>
       </c>
       <c r="B961" t="s">
         <v>23</v>
@@ -33238,7 +33235,7 @@
     </row>
     <row r="962" spans="1:4">
       <c r="A962" t="s">
-        <v>318</v>
+        <v>573</v>
       </c>
       <c r="B962" t="s">
         <v>23</v>
@@ -33252,7 +33249,7 @@
     </row>
     <row r="963" spans="1:4">
       <c r="A963" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
       <c r="B963" t="s">
         <v>23</v>
@@ -33266,7 +33263,7 @@
     </row>
     <row r="964" spans="1:4">
       <c r="A964" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="B964" t="s">
         <v>23</v>
@@ -33280,7 +33277,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B965" t="s">
         <v>23</v>
@@ -33294,7 +33291,7 @@
     </row>
     <row r="966" spans="1:4">
       <c r="A966" t="s">
-        <v>282</v>
+        <v>502</v>
       </c>
       <c r="B966" t="s">
         <v>23</v>
@@ -33308,7 +33305,7 @@
     </row>
     <row r="967" spans="1:4">
       <c r="A967" t="s">
-        <v>470</v>
+        <v>282</v>
       </c>
       <c r="B967" t="s">
         <v>23</v>
@@ -33322,7 +33319,7 @@
     </row>
     <row r="968" spans="1:4">
       <c r="A968" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B968" t="s">
         <v>23</v>
@@ -33336,7 +33333,7 @@
     </row>
     <row r="969" spans="1:4">
       <c r="A969" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="B969" t="s">
         <v>23</v>
@@ -33350,7 +33347,7 @@
     </row>
     <row r="970" spans="1:4">
       <c r="A970" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="B970" t="s">
         <v>23</v>
@@ -33364,7 +33361,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" t="s">
-        <v>209</v>
+        <v>574</v>
       </c>
       <c r="B971" t="s">
         <v>23</v>
@@ -33378,7 +33375,7 @@
     </row>
     <row r="972" spans="1:4">
       <c r="A972" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="B972" t="s">
         <v>23</v>
@@ -33392,7 +33389,7 @@
     </row>
     <row r="973" spans="1:4">
       <c r="A973" t="s">
-        <v>465</v>
+        <v>288</v>
       </c>
       <c r="B973" t="s">
         <v>23</v>
@@ -33406,7 +33403,7 @@
     </row>
     <row r="974" spans="1:4">
       <c r="A974" t="s">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="B974" t="s">
         <v>23</v>
@@ -33420,7 +33417,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" t="s">
-        <v>576</v>
+        <v>317</v>
       </c>
       <c r="B975" t="s">
         <v>23</v>
@@ -33434,7 +33431,7 @@
     </row>
     <row r="976" spans="1:4">
       <c r="A976" t="s">
-        <v>148</v>
+        <v>575</v>
       </c>
       <c r="B976" t="s">
         <v>23</v>
@@ -33448,7 +33445,7 @@
     </row>
     <row r="977" spans="1:4">
       <c r="A977" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="B977" t="s">
         <v>23</v>
@@ -33462,7 +33459,7 @@
     </row>
     <row r="978" spans="1:4">
       <c r="A978" t="s">
-        <v>577</v>
+        <v>335</v>
       </c>
       <c r="B978" t="s">
         <v>23</v>
@@ -33476,7 +33473,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B979" t="s">
         <v>23</v>
@@ -33490,7 +33487,7 @@
     </row>
     <row r="980" spans="1:4">
       <c r="A980" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B980" t="s">
         <v>23</v>
@@ -33504,7 +33501,7 @@
     </row>
     <row r="981" spans="1:4">
       <c r="A981" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B981" t="s">
         <v>23</v>
@@ -33518,7 +33515,7 @@
     </row>
     <row r="982" spans="1:4">
       <c r="A982" t="s">
-        <v>403</v>
+        <v>579</v>
       </c>
       <c r="B982" t="s">
         <v>23</v>
@@ -33532,7 +33529,7 @@
     </row>
     <row r="983" spans="1:4">
       <c r="A983" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="B983" t="s">
         <v>23</v>
@@ -33546,7 +33543,7 @@
     </row>
     <row r="984" spans="1:4">
       <c r="A984" t="s">
-        <v>581</v>
+        <v>323</v>
       </c>
       <c r="B984" t="s">
         <v>23</v>
@@ -33560,7 +33557,7 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B985" t="s">
         <v>23</v>
@@ -33574,7 +33571,7 @@
     </row>
     <row r="986" spans="1:4">
       <c r="A986" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B986" t="s">
         <v>23</v>
@@ -33588,7 +33585,7 @@
     </row>
     <row r="987" spans="1:4">
       <c r="A987" t="s">
-        <v>346</v>
+        <v>582</v>
       </c>
       <c r="B987" t="s">
         <v>23</v>
@@ -33602,7 +33599,7 @@
     </row>
     <row r="988" spans="1:4">
       <c r="A988" t="s">
-        <v>584</v>
+        <v>346</v>
       </c>
       <c r="B988" t="s">
         <v>23</v>
@@ -33616,13 +33613,13 @@
     </row>
     <row r="989" spans="1:4">
       <c r="A989" t="s">
-        <v>321</v>
+        <v>583</v>
       </c>
       <c r="B989" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C989" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D989">
         <v>2024</v>
@@ -33630,7 +33627,7 @@
     </row>
     <row r="990" spans="1:4">
       <c r="A990" t="s">
-        <v>510</v>
+        <v>321</v>
       </c>
       <c r="B990" t="s">
         <v>26</v>
@@ -33644,7 +33641,7 @@
     </row>
     <row r="991" spans="1:4">
       <c r="A991" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="B991" t="s">
         <v>26</v>
@@ -33658,7 +33655,7 @@
     </row>
     <row r="992" spans="1:4">
       <c r="A992" t="s">
-        <v>176</v>
+        <v>472</v>
       </c>
       <c r="B992" t="s">
         <v>26</v>
@@ -33672,7 +33669,7 @@
     </row>
     <row r="993" spans="1:4">
       <c r="A993" t="s">
-        <v>475</v>
+        <v>176</v>
       </c>
       <c r="B993" t="s">
         <v>26</v>
@@ -33686,7 +33683,7 @@
     </row>
     <row r="994" spans="1:4">
       <c r="A994" t="s">
-        <v>585</v>
+        <v>475</v>
       </c>
       <c r="B994" t="s">
         <v>26</v>
@@ -33700,7 +33697,7 @@
     </row>
     <row r="995" spans="1:4">
       <c r="A995" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B995" t="s">
         <v>26</v>
@@ -33714,7 +33711,7 @@
     </row>
     <row r="996" spans="1:4">
       <c r="A996" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B996" t="s">
         <v>26</v>
@@ -33728,7 +33725,7 @@
     </row>
     <row r="997" spans="1:4">
       <c r="A997" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="B997" t="s">
         <v>26</v>
@@ -33742,7 +33739,7 @@
     </row>
     <row r="998" spans="1:4">
       <c r="A998" t="s">
-        <v>163</v>
+        <v>469</v>
       </c>
       <c r="B998" t="s">
         <v>26</v>
@@ -33756,7 +33753,7 @@
     </row>
     <row r="999" spans="1:4">
       <c r="A999" t="s">
-        <v>409</v>
+        <v>163</v>
       </c>
       <c r="B999" t="s">
         <v>26</v>
@@ -33770,7 +33767,7 @@
     </row>
     <row r="1000" spans="1:4">
       <c r="A1000" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B1000" t="s">
         <v>26</v>
@@ -33784,7 +33781,7 @@
     </row>
     <row r="1001" spans="1:4">
       <c r="A1001" t="s">
-        <v>588</v>
+        <v>437</v>
       </c>
       <c r="B1001" t="s">
         <v>26</v>
@@ -33798,7 +33795,7 @@
     </row>
     <row r="1002" spans="1:4">
       <c r="A1002" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B1002" t="s">
         <v>26</v>
@@ -33812,7 +33809,7 @@
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" t="s">
-        <v>327</v>
+        <v>588</v>
       </c>
       <c r="B1003" t="s">
         <v>26</v>
@@ -33826,7 +33823,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" t="s">
-        <v>538</v>
+        <v>327</v>
       </c>
       <c r="B1004" t="s">
         <v>26</v>
@@ -33840,7 +33837,7 @@
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="B1005" t="s">
         <v>26</v>
@@ -33854,7 +33851,7 @@
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B1006" t="s">
         <v>26</v>
@@ -33868,7 +33865,7 @@
     </row>
     <row r="1007" spans="1:4">
       <c r="A1007" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1007" t="s">
         <v>26</v>
@@ -33882,7 +33879,7 @@
     </row>
     <row r="1008" spans="1:4">
       <c r="A1008" t="s">
-        <v>303</v>
+        <v>591</v>
       </c>
       <c r="B1008" t="s">
         <v>26</v>
@@ -33896,7 +33893,7 @@
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" t="s">
-        <v>446</v>
+        <v>303</v>
       </c>
       <c r="B1009" t="s">
         <v>26</v>
@@ -33910,7 +33907,7 @@
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="B1010" t="s">
         <v>26</v>
@@ -33924,7 +33921,7 @@
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="B1011" t="s">
         <v>26</v>
@@ -33938,7 +33935,7 @@
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="B1012" t="s">
         <v>26</v>
@@ -33952,7 +33949,7 @@
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="B1013" t="s">
         <v>26</v>
@@ -33966,7 +33963,7 @@
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" t="s">
-        <v>593</v>
+        <v>305</v>
       </c>
       <c r="B1014" t="s">
         <v>26</v>
@@ -33980,13 +33977,13 @@
     </row>
     <row r="1015" spans="1:4">
       <c r="A1015" t="s">
-        <v>235</v>
+        <v>592</v>
       </c>
       <c r="B1015" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1015" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1015">
         <v>2024</v>
@@ -33994,7 +33991,7 @@
     </row>
     <row r="1016" spans="1:4">
       <c r="A1016" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B1016" t="s">
         <v>24</v>
@@ -34008,7 +34005,7 @@
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B1017" t="s">
         <v>24</v>
@@ -34022,7 +34019,7 @@
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="B1018" t="s">
         <v>24</v>
@@ -34036,7 +34033,7 @@
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" t="s">
-        <v>238</v>
+        <v>404</v>
       </c>
       <c r="B1019" t="s">
         <v>24</v>
@@ -34050,7 +34047,7 @@
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="B1020" t="s">
         <v>24</v>
@@ -34064,7 +34061,7 @@
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B1021" t="s">
         <v>24</v>
@@ -34078,7 +34075,7 @@
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" t="s">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="B1022" t="s">
         <v>24</v>
@@ -34092,7 +34089,7 @@
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
       <c r="B1023" t="s">
         <v>24</v>
@@ -34106,7 +34103,7 @@
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="B1024" t="s">
         <v>24</v>
@@ -34120,7 +34117,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1025" t="s">
         <v>24</v>
@@ -34134,7 +34131,7 @@
     </row>
     <row r="1026" spans="1:4">
       <c r="A1026" t="s">
-        <v>506</v>
+        <v>340</v>
       </c>
       <c r="B1026" t="s">
         <v>24</v>
@@ -34148,7 +34145,7 @@
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" t="s">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="B1027" t="s">
         <v>24</v>
@@ -34162,7 +34159,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="B1028" t="s">
         <v>24</v>
@@ -34176,7 +34173,7 @@
     </row>
     <row r="1029" spans="1:4">
       <c r="A1029" t="s">
-        <v>264</v>
+        <v>118</v>
       </c>
       <c r="B1029" t="s">
         <v>24</v>
@@ -34190,7 +34187,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="B1030" t="s">
         <v>24</v>
@@ -34204,7 +34201,7 @@
     </row>
     <row r="1031" spans="1:4">
       <c r="A1031" t="s">
-        <v>594</v>
+        <v>131</v>
       </c>
       <c r="B1031" t="s">
         <v>24</v>
@@ -34218,7 +34215,7 @@
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" t="s">
-        <v>205</v>
+        <v>593</v>
       </c>
       <c r="B1032" t="s">
         <v>24</v>
@@ -34232,7 +34229,7 @@
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033" t="s">
-        <v>499</v>
+        <v>205</v>
       </c>
       <c r="B1033" t="s">
         <v>24</v>
@@ -34246,7 +34243,7 @@
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034" t="s">
-        <v>595</v>
+        <v>499</v>
       </c>
       <c r="B1034" t="s">
         <v>24</v>
@@ -34260,7 +34257,7 @@
     </row>
     <row r="1035" spans="1:4">
       <c r="A1035" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1035" t="s">
         <v>24</v>
@@ -34274,7 +34271,7 @@
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" t="s">
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="B1036" t="s">
         <v>24</v>
@@ -34288,7 +34285,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" t="s">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="B1037" t="s">
         <v>24</v>
@@ -34302,7 +34299,7 @@
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="B1038" t="s">
         <v>24</v>
@@ -34316,7 +34313,7 @@
     </row>
     <row r="1039" spans="1:4">
       <c r="A1039" t="s">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="B1039" t="s">
         <v>24</v>
@@ -34330,7 +34327,7 @@
     </row>
     <row r="1040" spans="1:4">
       <c r="A1040" t="s">
-        <v>597</v>
+        <v>343</v>
       </c>
       <c r="B1040" t="s">
         <v>24</v>
@@ -34344,7 +34341,7 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1041" t="s">
         <v>24</v>
@@ -34358,7 +34355,7 @@
     </row>
     <row r="1042" spans="1:4">
       <c r="A1042" t="s">
-        <v>218</v>
+        <v>597</v>
       </c>
       <c r="B1042" t="s">
         <v>24</v>
@@ -34372,7 +34369,7 @@
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="B1043" t="s">
         <v>24</v>
@@ -34386,13 +34383,13 @@
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="B1044" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1044" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1044">
         <v>2024</v>
@@ -34400,7 +34397,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="B1045" t="s">
         <v>27</v>
@@ -34414,7 +34411,7 @@
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="B1046" t="s">
         <v>27</v>
@@ -34428,7 +34425,7 @@
     </row>
     <row r="1047" spans="1:4">
       <c r="A1047" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="B1047" t="s">
         <v>27</v>
@@ -34442,7 +34439,7 @@
     </row>
     <row r="1048" spans="1:4">
       <c r="A1048" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="B1048" t="s">
         <v>27</v>
@@ -34456,7 +34453,7 @@
     </row>
     <row r="1049" spans="1:4">
       <c r="A1049" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B1049" t="s">
         <v>27</v>
@@ -34470,7 +34467,7 @@
     </row>
     <row r="1050" spans="1:4">
       <c r="A1050" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="B1050" t="s">
         <v>27</v>
@@ -34484,7 +34481,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="B1051" t="s">
         <v>27</v>
@@ -34498,7 +34495,7 @@
     </row>
     <row r="1052" spans="1:4">
       <c r="A1052" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="B1052" t="s">
         <v>27</v>
@@ -34512,7 +34509,7 @@
     </row>
     <row r="1053" spans="1:4">
       <c r="A1053" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="B1053" t="s">
         <v>27</v>
@@ -34526,7 +34523,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B1054" t="s">
         <v>27</v>
@@ -34540,7 +34537,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B1055" t="s">
         <v>27</v>
@@ -34554,7 +34551,7 @@
     </row>
     <row r="1056" spans="1:4">
       <c r="A1056" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="B1056" t="s">
         <v>27</v>
@@ -34568,7 +34565,7 @@
     </row>
     <row r="1057" spans="1:4">
       <c r="A1057" t="s">
-        <v>599</v>
+        <v>291</v>
       </c>
       <c r="B1057" t="s">
         <v>27</v>
@@ -34582,7 +34579,7 @@
     </row>
     <row r="1058" spans="1:4">
       <c r="A1058" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="B1058" t="s">
         <v>27</v>
@@ -34596,7 +34593,7 @@
     </row>
     <row r="1059" spans="1:4">
       <c r="A1059" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="B1059" t="s">
         <v>27</v>
@@ -34610,7 +34607,7 @@
     </row>
     <row r="1060" spans="1:4">
       <c r="A1060" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="B1060" t="s">
         <v>27</v>
@@ -34624,7 +34621,7 @@
     </row>
     <row r="1061" spans="1:4">
       <c r="A1061" t="s">
-        <v>601</v>
+        <v>375</v>
       </c>
       <c r="B1061" t="s">
         <v>27</v>
@@ -34638,7 +34635,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B1062" t="s">
         <v>27</v>
@@ -34652,7 +34649,7 @@
     </row>
     <row r="1063" spans="1:4">
       <c r="A1063" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="B1063" t="s">
         <v>27</v>
@@ -34666,7 +34663,7 @@
     </row>
     <row r="1064" spans="1:4">
       <c r="A1064" t="s">
-        <v>603</v>
+        <v>432</v>
       </c>
       <c r="B1064" t="s">
         <v>27</v>
@@ -34680,7 +34677,7 @@
     </row>
     <row r="1065" spans="1:4">
       <c r="A1065" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1065" t="s">
         <v>27</v>
@@ -34694,7 +34691,7 @@
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B1066" t="s">
         <v>27</v>
@@ -34708,7 +34705,7 @@
     </row>
     <row r="1067" spans="1:4">
       <c r="A1067" t="s">
-        <v>195</v>
+        <v>604</v>
       </c>
       <c r="B1067" t="s">
         <v>27</v>
@@ -34722,7 +34719,7 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" t="s">
-        <v>507</v>
+        <v>195</v>
       </c>
       <c r="B1068" t="s">
         <v>27</v>
@@ -34736,7 +34733,7 @@
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="B1069" t="s">
         <v>27</v>
@@ -34750,7 +34747,7 @@
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B1070" t="s">
         <v>27</v>
@@ -34764,7 +34761,7 @@
     </row>
     <row r="1071" spans="1:4">
       <c r="A1071" t="s">
-        <v>417</v>
+        <v>606</v>
       </c>
       <c r="B1071" t="s">
         <v>27</v>
@@ -34778,7 +34775,7 @@
     </row>
     <row r="1072" spans="1:4">
       <c r="A1072" t="s">
-        <v>608</v>
+        <v>417</v>
       </c>
       <c r="B1072" t="s">
         <v>27</v>
@@ -34792,7 +34789,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B1073" t="s">
         <v>27</v>
@@ -34806,7 +34803,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" t="s">
-        <v>490</v>
+        <v>608</v>
       </c>
       <c r="B1074" t="s">
         <v>27</v>
@@ -34820,13 +34817,13 @@
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" t="s">
-        <v>189</v>
+        <v>490</v>
       </c>
       <c r="B1075" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1075" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D1075">
         <v>2024</v>
@@ -34834,7 +34831,7 @@
     </row>
     <row r="1076" spans="1:4">
       <c r="A1076" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B1076" t="s">
         <v>34</v>
@@ -34848,7 +34845,7 @@
     </row>
     <row r="1077" spans="1:4">
       <c r="A1077" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="B1077" t="s">
         <v>34</v>
@@ -34862,7 +34859,7 @@
     </row>
     <row r="1078" spans="1:4">
       <c r="A1078" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="B1078" t="s">
         <v>34</v>
@@ -34876,7 +34873,7 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="B1079" t="s">
         <v>34</v>
@@ -34890,7 +34887,7 @@
     </row>
     <row r="1080" spans="1:4">
       <c r="A1080" t="s">
-        <v>172</v>
+        <v>537</v>
       </c>
       <c r="B1080" t="s">
         <v>34</v>
@@ -34904,7 +34901,7 @@
     </row>
     <row r="1081" spans="1:4">
       <c r="A1081" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="B1081" t="s">
         <v>34</v>
@@ -34918,7 +34915,7 @@
     </row>
     <row r="1082" spans="1:4">
       <c r="A1082" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="B1082" t="s">
         <v>34</v>
@@ -34932,7 +34929,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" t="s">
-        <v>106</v>
+        <v>501</v>
       </c>
       <c r="B1083" t="s">
         <v>34</v>
@@ -34946,7 +34943,7 @@
     </row>
     <row r="1084" spans="1:4">
       <c r="A1084" t="s">
-        <v>415</v>
+        <v>106</v>
       </c>
       <c r="B1084" t="s">
         <v>34</v>
@@ -34960,7 +34957,7 @@
     </row>
     <row r="1085" spans="1:4">
       <c r="A1085" t="s">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="B1085" t="s">
         <v>34</v>
@@ -34974,7 +34971,7 @@
     </row>
     <row r="1086" spans="1:4">
       <c r="A1086" t="s">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="B1086" t="s">
         <v>34</v>
@@ -34988,7 +34985,7 @@
     </row>
     <row r="1087" spans="1:4">
       <c r="A1087" t="s">
-        <v>610</v>
+        <v>413</v>
       </c>
       <c r="B1087" t="s">
         <v>34</v>
@@ -35002,7 +34999,7 @@
     </row>
     <row r="1088" spans="1:4">
       <c r="A1088" t="s">
-        <v>276</v>
+        <v>609</v>
       </c>
       <c r="B1088" t="s">
         <v>34</v>
@@ -35016,7 +35013,7 @@
     </row>
     <row r="1089" spans="1:4">
       <c r="A1089" t="s">
-        <v>611</v>
+        <v>276</v>
       </c>
       <c r="B1089" t="s">
         <v>34</v>
@@ -35030,7 +35027,7 @@
     </row>
     <row r="1090" spans="1:4">
       <c r="A1090" t="s">
-        <v>351</v>
+        <v>610</v>
       </c>
       <c r="B1090" t="s">
         <v>34</v>
@@ -35044,7 +35041,7 @@
     </row>
     <row r="1091" spans="1:4">
       <c r="A1091" t="s">
-        <v>541</v>
+        <v>351</v>
       </c>
       <c r="B1091" t="s">
         <v>34</v>
@@ -35058,7 +35055,7 @@
     </row>
     <row r="1092" spans="1:4">
       <c r="A1092" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
       <c r="B1092" t="s">
         <v>34</v>
@@ -35072,7 +35069,7 @@
     </row>
     <row r="1093" spans="1:4">
       <c r="A1093" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="B1093" t="s">
         <v>34</v>
@@ -35086,7 +35083,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" t="s">
-        <v>612</v>
+        <v>215</v>
       </c>
       <c r="B1094" t="s">
         <v>34</v>
@@ -35100,7 +35097,7 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="B1095" t="s">
         <v>34</v>
@@ -35114,7 +35111,7 @@
     </row>
     <row r="1096" spans="1:4">
       <c r="A1096" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="B1096" t="s">
         <v>34</v>
@@ -35128,7 +35125,7 @@
     </row>
     <row r="1097" spans="1:4">
       <c r="A1097" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="B1097" t="s">
         <v>34</v>
@@ -35142,7 +35139,7 @@
     </row>
     <row r="1098" spans="1:4">
       <c r="A1098" t="s">
-        <v>613</v>
+        <v>299</v>
       </c>
       <c r="B1098" t="s">
         <v>34</v>
@@ -35156,7 +35153,7 @@
     </row>
     <row r="1099" spans="1:4">
       <c r="A1099" t="s">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="B1099" t="s">
         <v>34</v>
@@ -35170,7 +35167,7 @@
     </row>
     <row r="1100" spans="1:4">
       <c r="A1100" t="s">
-        <v>614</v>
+        <v>449</v>
       </c>
       <c r="B1100" t="s">
         <v>34</v>
@@ -35184,7 +35181,7 @@
     </row>
     <row r="1101" spans="1:4">
       <c r="A1101" t="s">
-        <v>113</v>
+        <v>613</v>
       </c>
       <c r="B1101" t="s">
         <v>34</v>
@@ -35198,7 +35195,7 @@
     </row>
     <row r="1102" spans="1:4">
       <c r="A1102" t="s">
-        <v>615</v>
+        <v>113</v>
       </c>
       <c r="B1102" t="s">
         <v>34</v>
@@ -35212,7 +35209,7 @@
     </row>
     <row r="1103" spans="1:4">
       <c r="A1103" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B1103" t="s">
         <v>34</v>
@@ -35226,7 +35223,7 @@
     </row>
     <row r="1104" spans="1:4">
       <c r="A1104" t="s">
-        <v>423</v>
+        <v>615</v>
       </c>
       <c r="B1104" t="s">
         <v>34</v>
@@ -35240,13 +35237,13 @@
     </row>
     <row r="1105" spans="1:4">
       <c r="A1105" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="B1105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1105">
         <v>2024</v>
@@ -35254,7 +35251,7 @@
     </row>
     <row r="1106" spans="1:4">
       <c r="A1106" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="B1106" t="s">
         <v>29</v>
@@ -35268,7 +35265,7 @@
     </row>
     <row r="1107" spans="1:4">
       <c r="A1107" t="s">
-        <v>463</v>
+        <v>243</v>
       </c>
       <c r="B1107" t="s">
         <v>29</v>
@@ -35282,7 +35279,7 @@
     </row>
     <row r="1108" spans="1:4">
       <c r="A1108" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="B1108" t="s">
         <v>29</v>
@@ -35296,7 +35293,7 @@
     </row>
     <row r="1109" spans="1:4">
       <c r="A1109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1109" t="s">
         <v>29</v>
@@ -35310,7 +35307,7 @@
     </row>
     <row r="1110" spans="1:4">
       <c r="A1110" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B1110" t="s">
         <v>29</v>
@@ -35324,7 +35321,7 @@
     </row>
     <row r="1111" spans="1:4">
       <c r="A1111" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B1111" t="s">
         <v>29</v>
@@ -35338,7 +35335,7 @@
     </row>
     <row r="1112" spans="1:4">
       <c r="A1112" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="B1112" t="s">
         <v>29</v>
@@ -35352,7 +35349,7 @@
     </row>
     <row r="1113" spans="1:4">
       <c r="A1113" t="s">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="B1113" t="s">
         <v>29</v>
@@ -35366,7 +35363,7 @@
     </row>
     <row r="1114" spans="1:4">
       <c r="A1114" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B1114" t="s">
         <v>29</v>
@@ -35380,7 +35377,7 @@
     </row>
     <row r="1115" spans="1:4">
       <c r="A1115" t="s">
-        <v>617</v>
+        <v>365</v>
       </c>
       <c r="B1115" t="s">
         <v>29</v>
@@ -35394,7 +35391,7 @@
     </row>
     <row r="1116" spans="1:4">
       <c r="A1116" t="s">
-        <v>387</v>
+        <v>616</v>
       </c>
       <c r="B1116" t="s">
         <v>29</v>
@@ -35408,7 +35405,7 @@
     </row>
     <row r="1117" spans="1:4">
       <c r="A1117" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B1117" t="s">
         <v>29</v>
@@ -35422,7 +35419,7 @@
     </row>
     <row r="1118" spans="1:4">
       <c r="A1118" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="B1118" t="s">
         <v>29</v>
@@ -35436,7 +35433,7 @@
     </row>
     <row r="1119" spans="1:4">
       <c r="A1119" t="s">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="B1119" t="s">
         <v>29</v>
@@ -35450,7 +35447,7 @@
     </row>
     <row r="1120" spans="1:4">
       <c r="A1120" t="s">
-        <v>258</v>
+        <v>617</v>
       </c>
       <c r="B1120" t="s">
         <v>29</v>
@@ -35464,7 +35461,7 @@
     </row>
     <row r="1121" spans="1:4">
       <c r="A1121" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B1121" t="s">
         <v>29</v>
@@ -35478,7 +35475,7 @@
     </row>
     <row r="1122" spans="1:4">
       <c r="A1122" t="s">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="B1122" t="s">
         <v>29</v>
@@ -35492,7 +35489,7 @@
     </row>
     <row r="1123" spans="1:4">
       <c r="A1123" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="B1123" t="s">
         <v>29</v>
@@ -35506,7 +35503,7 @@
     </row>
     <row r="1124" spans="1:4">
       <c r="A1124" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="B1124" t="s">
         <v>29</v>
@@ -35520,7 +35517,7 @@
     </row>
     <row r="1125" spans="1:4">
       <c r="A1125" t="s">
-        <v>619</v>
+        <v>296</v>
       </c>
       <c r="B1125" t="s">
         <v>29</v>
@@ -35534,7 +35531,7 @@
     </row>
     <row r="1126" spans="1:4">
       <c r="A1126" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B1126" t="s">
         <v>29</v>
@@ -35548,7 +35545,7 @@
     </row>
     <row r="1127" spans="1:4">
       <c r="A1127" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B1127" t="s">
         <v>29</v>
@@ -35562,7 +35559,7 @@
     </row>
     <row r="1128" spans="1:4">
       <c r="A1128" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B1128" t="s">
         <v>29</v>
@@ -35576,7 +35573,7 @@
     </row>
     <row r="1129" spans="1:4">
       <c r="A1129" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B1129" t="s">
         <v>29</v>
@@ -35590,7 +35587,7 @@
     </row>
     <row r="1130" spans="1:4">
       <c r="A1130" t="s">
-        <v>285</v>
+        <v>622</v>
       </c>
       <c r="B1130" t="s">
         <v>29</v>
@@ -35604,7 +35601,7 @@
     </row>
     <row r="1131" spans="1:4">
       <c r="A1131" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="B1131" t="s">
         <v>29</v>
@@ -35618,7 +35615,7 @@
     </row>
     <row r="1132" spans="1:4">
       <c r="A1132" t="s">
-        <v>624</v>
+        <v>254</v>
       </c>
       <c r="B1132" t="s">
         <v>29</v>
@@ -35632,7 +35629,7 @@
     </row>
     <row r="1133" spans="1:4">
       <c r="A1133" t="s">
-        <v>139</v>
+        <v>623</v>
       </c>
       <c r="B1133" t="s">
         <v>29</v>
@@ -35646,7 +35643,7 @@
     </row>
     <row r="1134" spans="1:4">
       <c r="A1134" t="s">
-        <v>625</v>
+        <v>139</v>
       </c>
       <c r="B1134" t="s">
         <v>29</v>
@@ -35660,7 +35657,7 @@
     </row>
     <row r="1135" spans="1:4">
       <c r="A1135" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B1135" t="s">
         <v>29</v>
@@ -35674,13 +35671,13 @@
     </row>
     <row r="1136" spans="1:4">
       <c r="A1136" t="s">
-        <v>152</v>
+        <v>625</v>
       </c>
       <c r="B1136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1136">
         <v>2024</v>
@@ -35688,7 +35685,7 @@
     </row>
     <row r="1137" spans="1:4">
       <c r="A1137" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B1137" t="s">
         <v>30</v>
@@ -35702,7 +35699,7 @@
     </row>
     <row r="1138" spans="1:4">
       <c r="A1138" t="s">
-        <v>441</v>
+        <v>86</v>
       </c>
       <c r="B1138" t="s">
         <v>30</v>
@@ -35716,7 +35713,7 @@
     </row>
     <row r="1139" spans="1:4">
       <c r="A1139" t="s">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="B1139" t="s">
         <v>30</v>
@@ -35730,7 +35727,7 @@
     </row>
     <row r="1140" spans="1:4">
       <c r="A1140" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="B1140" t="s">
         <v>30</v>
@@ -35744,7 +35741,7 @@
     </row>
     <row r="1141" spans="1:4">
       <c r="A1141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1141" t="s">
         <v>30</v>
@@ -35758,7 +35755,7 @@
     </row>
     <row r="1142" spans="1:4">
       <c r="A1142" t="s">
-        <v>522</v>
+        <v>262</v>
       </c>
       <c r="B1142" t="s">
         <v>30</v>
@@ -35772,7 +35769,7 @@
     </row>
     <row r="1143" spans="1:4">
       <c r="A1143" t="s">
-        <v>211</v>
+        <v>522</v>
       </c>
       <c r="B1143" t="s">
         <v>30</v>
@@ -35786,7 +35783,7 @@
     </row>
     <row r="1144" spans="1:4">
       <c r="A1144" t="s">
-        <v>511</v>
+        <v>211</v>
       </c>
       <c r="B1144" t="s">
         <v>30</v>
@@ -35800,7 +35797,7 @@
     </row>
     <row r="1145" spans="1:4">
       <c r="A1145" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="B1145" t="s">
         <v>30</v>
@@ -35814,7 +35811,7 @@
     </row>
     <row r="1146" spans="1:4">
       <c r="A1146" t="s">
-        <v>627</v>
+        <v>467</v>
       </c>
       <c r="B1146" t="s">
         <v>30</v>
@@ -35828,7 +35825,7 @@
     </row>
     <row r="1147" spans="1:4">
       <c r="A1147" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B1147" t="s">
         <v>30</v>
@@ -35842,7 +35839,7 @@
     </row>
     <row r="1148" spans="1:4">
       <c r="A1148" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B1148" t="s">
         <v>30</v>
@@ -35856,7 +35853,7 @@
     </row>
     <row r="1149" spans="1:4">
       <c r="A1149" t="s">
-        <v>290</v>
+        <v>628</v>
       </c>
       <c r="B1149" t="s">
         <v>30</v>
@@ -35870,7 +35867,7 @@
     </row>
     <row r="1150" spans="1:4">
       <c r="A1150" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="B1150" t="s">
         <v>30</v>
@@ -35884,7 +35881,7 @@
     </row>
     <row r="1151" spans="1:4">
       <c r="A1151" t="s">
-        <v>630</v>
+        <v>87</v>
       </c>
       <c r="B1151" t="s">
         <v>30</v>
@@ -35898,7 +35895,7 @@
     </row>
     <row r="1152" spans="1:4">
       <c r="A1152" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B1152" t="s">
         <v>30</v>
@@ -35912,7 +35909,7 @@
     </row>
     <row r="1153" spans="1:4">
       <c r="A1153" t="s">
-        <v>418</v>
+        <v>630</v>
       </c>
       <c r="B1153" t="s">
         <v>30</v>
@@ -35926,7 +35923,7 @@
     </row>
     <row r="1154" spans="1:4">
       <c r="A1154" t="s">
-        <v>632</v>
+        <v>418</v>
       </c>
       <c r="B1154" t="s">
         <v>30</v>
@@ -35940,7 +35937,7 @@
     </row>
     <row r="1155" spans="1:4">
       <c r="A1155" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B1155" t="s">
         <v>30</v>
@@ -35954,7 +35951,7 @@
     </row>
     <row r="1156" spans="1:4">
       <c r="A1156" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B1156" t="s">
         <v>30</v>
@@ -35968,7 +35965,7 @@
     </row>
     <row r="1157" spans="1:4">
       <c r="A1157" t="s">
-        <v>498</v>
+        <v>633</v>
       </c>
       <c r="B1157" t="s">
         <v>30</v>
@@ -35982,7 +35979,7 @@
     </row>
     <row r="1158" spans="1:4">
       <c r="A1158" t="s">
-        <v>635</v>
+        <v>498</v>
       </c>
       <c r="B1158" t="s">
         <v>30</v>
@@ -35996,7 +35993,7 @@
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1159" t="s">
         <v>30</v>
@@ -36010,7 +36007,7 @@
     </row>
     <row r="1160" spans="1:4">
       <c r="A1160" t="s">
-        <v>124</v>
+        <v>635</v>
       </c>
       <c r="B1160" t="s">
         <v>30</v>
@@ -36024,7 +36021,7 @@
     </row>
     <row r="1161" spans="1:4">
       <c r="A1161" t="s">
-        <v>637</v>
+        <v>124</v>
       </c>
       <c r="B1161" t="s">
         <v>30</v>
@@ -36038,7 +36035,7 @@
     </row>
     <row r="1162" spans="1:4">
       <c r="A1162" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B1162" t="s">
         <v>30</v>
@@ -36052,7 +36049,7 @@
     </row>
     <row r="1163" spans="1:4">
       <c r="A1163" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B1163" t="s">
         <v>30</v>
@@ -36066,7 +36063,7 @@
     </row>
     <row r="1164" spans="1:4">
       <c r="A1164" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B1164" t="s">
         <v>30</v>
@@ -36080,7 +36077,7 @@
     </row>
     <row r="1165" spans="1:4">
       <c r="A1165" t="s">
-        <v>395</v>
+        <v>639</v>
       </c>
       <c r="B1165" t="s">
         <v>30</v>
@@ -36094,13 +36091,13 @@
     </row>
     <row r="1166" spans="1:4">
       <c r="A1166" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1166" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D1166">
         <v>2024</v>
@@ -36108,7 +36105,7 @@
     </row>
     <row r="1167" spans="1:4">
       <c r="A1167" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="B1167" t="s">
         <v>31</v>
@@ -36122,7 +36119,7 @@
     </row>
     <row r="1168" spans="1:4">
       <c r="A1168" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="B1168" t="s">
         <v>31</v>
@@ -36136,7 +36133,7 @@
     </row>
     <row r="1169" spans="1:4">
       <c r="A1169" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="B1169" t="s">
         <v>31</v>
@@ -36150,7 +36147,7 @@
     </row>
     <row r="1170" spans="1:4">
       <c r="A1170" t="s">
-        <v>374</v>
+        <v>194</v>
       </c>
       <c r="B1170" t="s">
         <v>31</v>
@@ -36164,7 +36161,7 @@
     </row>
     <row r="1171" spans="1:4">
       <c r="A1171" t="s">
-        <v>526</v>
+        <v>374</v>
       </c>
       <c r="B1171" t="s">
         <v>31</v>
@@ -36178,7 +36175,7 @@
     </row>
     <row r="1172" spans="1:4">
       <c r="A1172" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="B1172" t="s">
         <v>31</v>
@@ -36192,7 +36189,7 @@
     </row>
     <row r="1173" spans="1:4">
       <c r="A1173" t="s">
-        <v>233</v>
+        <v>494</v>
       </c>
       <c r="B1173" t="s">
         <v>31</v>
@@ -36206,7 +36203,7 @@
     </row>
     <row r="1174" spans="1:4">
       <c r="A1174" t="s">
-        <v>641</v>
+        <v>233</v>
       </c>
       <c r="B1174" t="s">
         <v>31</v>
@@ -36220,7 +36217,7 @@
     </row>
     <row r="1175" spans="1:4">
       <c r="A1175" t="s">
-        <v>227</v>
+        <v>640</v>
       </c>
       <c r="B1175" t="s">
         <v>31</v>
@@ -36234,7 +36231,7 @@
     </row>
     <row r="1176" spans="1:4">
       <c r="A1176" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B1176" t="s">
         <v>31</v>
@@ -36248,7 +36245,7 @@
     </row>
     <row r="1177" spans="1:4">
       <c r="A1177" t="s">
-        <v>642</v>
+        <v>166</v>
       </c>
       <c r="B1177" t="s">
         <v>31</v>
@@ -36262,7 +36259,7 @@
     </row>
     <row r="1178" spans="1:4">
       <c r="A1178" t="s">
-        <v>347</v>
+        <v>641</v>
       </c>
       <c r="B1178" t="s">
         <v>31</v>
@@ -36276,7 +36273,7 @@
     </row>
     <row r="1179" spans="1:4">
       <c r="A1179" t="s">
-        <v>643</v>
+        <v>347</v>
       </c>
       <c r="B1179" t="s">
         <v>31</v>
@@ -36290,7 +36287,7 @@
     </row>
     <row r="1180" spans="1:4">
       <c r="A1180" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B1180" t="s">
         <v>31</v>
@@ -36304,7 +36301,7 @@
     </row>
     <row r="1181" spans="1:4">
       <c r="A1181" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B1181" t="s">
         <v>31</v>
@@ -36318,7 +36315,7 @@
     </row>
     <row r="1182" spans="1:4">
       <c r="A1182" t="s">
-        <v>454</v>
+        <v>644</v>
       </c>
       <c r="B1182" t="s">
         <v>31</v>
@@ -36332,7 +36329,7 @@
     </row>
     <row r="1183" spans="1:4">
       <c r="A1183" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="B1183" t="s">
         <v>31</v>
@@ -36346,7 +36343,7 @@
     </row>
     <row r="1184" spans="1:4">
       <c r="A1184" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="B1184" t="s">
         <v>31</v>
@@ -36360,7 +36357,7 @@
     </row>
     <row r="1185" spans="1:4">
       <c r="A1185" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="B1185" t="s">
         <v>31</v>
@@ -36374,7 +36371,7 @@
     </row>
     <row r="1186" spans="1:4">
       <c r="A1186" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="B1186" t="s">
         <v>31</v>
@@ -36388,7 +36385,7 @@
     </row>
     <row r="1187" spans="1:4">
       <c r="A1187" t="s">
-        <v>543</v>
+        <v>129</v>
       </c>
       <c r="B1187" t="s">
         <v>31</v>
@@ -36402,7 +36399,7 @@
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" t="s">
-        <v>646</v>
+        <v>543</v>
       </c>
       <c r="B1188" t="s">
         <v>31</v>
@@ -36416,7 +36413,7 @@
     </row>
     <row r="1189" spans="1:4">
       <c r="A1189" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1189" t="s">
         <v>31</v>
@@ -36430,7 +36427,7 @@
     </row>
     <row r="1190" spans="1:4">
       <c r="A1190" t="s">
-        <v>320</v>
+        <v>646</v>
       </c>
       <c r="B1190" t="s">
         <v>31</v>
@@ -36444,7 +36441,7 @@
     </row>
     <row r="1191" spans="1:4">
       <c r="A1191" t="s">
-        <v>648</v>
+        <v>320</v>
       </c>
       <c r="B1191" t="s">
         <v>31</v>
@@ -36458,7 +36455,7 @@
     </row>
     <row r="1192" spans="1:4">
       <c r="A1192" t="s">
-        <v>495</v>
+        <v>647</v>
       </c>
       <c r="B1192" t="s">
         <v>31</v>
@@ -36472,7 +36469,7 @@
     </row>
     <row r="1193" spans="1:4">
       <c r="A1193" t="s">
-        <v>208</v>
+        <v>495</v>
       </c>
       <c r="B1193" t="s">
         <v>31</v>
@@ -36486,7 +36483,7 @@
     </row>
     <row r="1194" spans="1:4">
       <c r="A1194" t="s">
-        <v>649</v>
+        <v>208</v>
       </c>
       <c r="B1194" t="s">
         <v>31</v>
@@ -36500,7 +36497,7 @@
     </row>
     <row r="1195" spans="1:4">
       <c r="A1195" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B1195" t="s">
         <v>31</v>
@@ -36514,7 +36511,7 @@
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" t="s">
-        <v>521</v>
+        <v>649</v>
       </c>
       <c r="B1196" t="s">
         <v>31</v>
@@ -36528,13 +36525,13 @@
     </row>
     <row r="1197" spans="1:4">
       <c r="A1197" t="s">
-        <v>313</v>
+        <v>521</v>
       </c>
       <c r="B1197" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1197" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1197">
         <v>2024</v>
@@ -36542,7 +36539,7 @@
     </row>
     <row r="1198" spans="1:4">
       <c r="A1198" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B1198" t="s">
         <v>25</v>
@@ -36556,7 +36553,7 @@
     </row>
     <row r="1199" spans="1:4">
       <c r="A1199" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="B1199" t="s">
         <v>25</v>
@@ -36570,7 +36567,7 @@
     </row>
     <row r="1200" spans="1:4">
       <c r="A1200" t="s">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="B1200" t="s">
         <v>25</v>
@@ -36584,7 +36581,7 @@
     </row>
     <row r="1201" spans="1:4">
       <c r="A1201" t="s">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="B1201" t="s">
         <v>25</v>
@@ -36598,7 +36595,7 @@
     </row>
     <row r="1202" spans="1:4">
       <c r="A1202" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="B1202" t="s">
         <v>25</v>
@@ -36612,7 +36609,7 @@
     </row>
     <row r="1203" spans="1:4">
       <c r="A1203" t="s">
-        <v>459</v>
+        <v>251</v>
       </c>
       <c r="B1203" t="s">
         <v>25</v>
@@ -36626,7 +36623,7 @@
     </row>
     <row r="1204" spans="1:4">
       <c r="A1204" t="s">
-        <v>651</v>
+        <v>459</v>
       </c>
       <c r="B1204" t="s">
         <v>25</v>
@@ -36640,7 +36637,7 @@
     </row>
     <row r="1205" spans="1:4">
       <c r="A1205" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B1205" t="s">
         <v>25</v>
@@ -36654,7 +36651,7 @@
     </row>
     <row r="1206" spans="1:4">
       <c r="A1206" t="s">
-        <v>425</v>
+        <v>651</v>
       </c>
       <c r="B1206" t="s">
         <v>25</v>
@@ -36668,7 +36665,7 @@
     </row>
     <row r="1207" spans="1:4">
       <c r="A1207" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B1207" t="s">
         <v>25</v>
@@ -36682,7 +36679,7 @@
     </row>
     <row r="1208" spans="1:4">
       <c r="A1208" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
       <c r="B1208" t="s">
         <v>25</v>
@@ -36696,7 +36693,7 @@
     </row>
     <row r="1209" spans="1:4">
       <c r="A1209" t="s">
-        <v>653</v>
+        <v>301</v>
       </c>
       <c r="B1209" t="s">
         <v>25</v>
@@ -36710,7 +36707,7 @@
     </row>
     <row r="1210" spans="1:4">
       <c r="A1210" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B1210" t="s">
         <v>25</v>
@@ -36724,7 +36721,7 @@
     </row>
     <row r="1211" spans="1:4">
       <c r="A1211" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B1211" t="s">
         <v>25</v>
@@ -36738,7 +36735,7 @@
     </row>
     <row r="1212" spans="1:4">
       <c r="A1212" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B1212" t="s">
         <v>25</v>
@@ -36752,7 +36749,7 @@
     </row>
     <row r="1213" spans="1:4">
       <c r="A1213" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B1213" t="s">
         <v>25</v>
@@ -36766,7 +36763,7 @@
     </row>
     <row r="1214" spans="1:4">
       <c r="A1214" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B1214" t="s">
         <v>25</v>
@@ -36780,7 +36777,7 @@
     </row>
     <row r="1215" spans="1:4">
       <c r="A1215" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B1215" t="s">
         <v>25</v>
@@ -36794,7 +36791,7 @@
     </row>
     <row r="1216" spans="1:4">
       <c r="A1216" t="s">
-        <v>361</v>
+        <v>658</v>
       </c>
       <c r="B1216" t="s">
         <v>25</v>
@@ -36808,7 +36805,7 @@
     </row>
     <row r="1217" spans="1:4">
       <c r="A1217" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="B1217" t="s">
         <v>25</v>
@@ -36822,7 +36819,7 @@
     </row>
     <row r="1218" spans="1:4">
       <c r="A1218" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
       <c r="B1218" t="s">
         <v>25</v>
@@ -36836,7 +36833,7 @@
     </row>
     <row r="1219" spans="1:4">
       <c r="A1219" t="s">
-        <v>660</v>
+        <v>126</v>
       </c>
       <c r="B1219" t="s">
         <v>25</v>
@@ -36850,7 +36847,7 @@
     </row>
     <row r="1220" spans="1:4">
       <c r="A1220" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B1220" t="s">
         <v>25</v>
@@ -36864,7 +36861,7 @@
     </row>
     <row r="1221" spans="1:4">
       <c r="A1221" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B1221" t="s">
         <v>25</v>
@@ -36878,7 +36875,7 @@
     </row>
     <row r="1222" spans="1:4">
       <c r="A1222" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B1222" t="s">
         <v>25</v>
@@ -36892,7 +36889,7 @@
     </row>
     <row r="1223" spans="1:4">
       <c r="A1223" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B1223" t="s">
         <v>25</v>
@@ -36906,7 +36903,7 @@
     </row>
     <row r="1224" spans="1:4">
       <c r="A1224" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B1224" t="s">
         <v>25</v>
@@ -36920,7 +36917,7 @@
     </row>
     <row r="1225" spans="1:4">
       <c r="A1225" t="s">
-        <v>356</v>
+        <v>664</v>
       </c>
       <c r="B1225" t="s">
         <v>25</v>
@@ -36934,7 +36931,7 @@
     </row>
     <row r="1226" spans="1:4">
       <c r="A1226" t="s">
-        <v>666</v>
+        <v>356</v>
       </c>
       <c r="B1226" t="s">
         <v>25</v>
@@ -36948,13 +36945,13 @@
     </row>
     <row r="1227" spans="1:4">
       <c r="A1227" t="s">
-        <v>257</v>
+        <v>665</v>
       </c>
       <c r="B1227" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1227" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1227">
         <v>2024</v>
@@ -36962,7 +36959,7 @@
     </row>
     <row r="1228" spans="1:4">
       <c r="A1228" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B1228" t="s">
         <v>28</v>
@@ -36976,7 +36973,7 @@
     </row>
     <row r="1229" spans="1:4">
       <c r="A1229" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="B1229" t="s">
         <v>28</v>
@@ -36990,7 +36987,7 @@
     </row>
     <row r="1230" spans="1:4">
       <c r="A1230" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
       <c r="B1230" t="s">
         <v>28</v>
@@ -37004,7 +37001,7 @@
     </row>
     <row r="1231" spans="1:4">
       <c r="A1231" t="s">
-        <v>484</v>
+        <v>236</v>
       </c>
       <c r="B1231" t="s">
         <v>28</v>
@@ -37018,7 +37015,7 @@
     </row>
     <row r="1232" spans="1:4">
       <c r="A1232" t="s">
-        <v>134</v>
+        <v>484</v>
       </c>
       <c r="B1232" t="s">
         <v>28</v>
@@ -37032,7 +37029,7 @@
     </row>
     <row r="1233" spans="1:4">
       <c r="A1233" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
       <c r="B1233" t="s">
         <v>28</v>
@@ -37046,7 +37043,7 @@
     </row>
     <row r="1234" spans="1:4">
       <c r="A1234" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="B1234" t="s">
         <v>28</v>
@@ -37060,7 +37057,7 @@
     </row>
     <row r="1235" spans="1:4">
       <c r="A1235" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B1235" t="s">
         <v>28</v>
@@ -37074,7 +37071,7 @@
     </row>
     <row r="1236" spans="1:4">
       <c r="A1236" t="s">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="B1236" t="s">
         <v>28</v>
@@ -37088,7 +37085,7 @@
     </row>
     <row r="1237" spans="1:4">
       <c r="A1237" t="s">
-        <v>485</v>
+        <v>248</v>
       </c>
       <c r="B1237" t="s">
         <v>28</v>
@@ -37102,7 +37099,7 @@
     </row>
     <row r="1238" spans="1:4">
       <c r="A1238" t="s">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="B1238" t="s">
         <v>28</v>
@@ -37116,7 +37113,7 @@
     </row>
     <row r="1239" spans="1:4">
       <c r="A1239" t="s">
-        <v>483</v>
+        <v>265</v>
       </c>
       <c r="B1239" t="s">
         <v>28</v>
@@ -37130,7 +37127,7 @@
     </row>
     <row r="1240" spans="1:4">
       <c r="A1240" t="s">
-        <v>364</v>
+        <v>483</v>
       </c>
       <c r="B1240" t="s">
         <v>28</v>
@@ -37144,7 +37141,7 @@
     </row>
     <row r="1241" spans="1:4">
       <c r="A1241" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="B1241" t="s">
         <v>28</v>
@@ -37158,7 +37155,7 @@
     </row>
     <row r="1242" spans="1:4">
       <c r="A1242" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B1242" t="s">
         <v>28</v>
@@ -37172,7 +37169,7 @@
     </row>
     <row r="1243" spans="1:4">
       <c r="A1243" t="s">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="B1243" t="s">
         <v>28</v>
@@ -37186,7 +37183,7 @@
     </row>
     <row r="1244" spans="1:4">
       <c r="A1244" t="s">
-        <v>91</v>
+        <v>468</v>
       </c>
       <c r="B1244" t="s">
         <v>28</v>
@@ -37200,7 +37197,7 @@
     </row>
     <row r="1245" spans="1:4">
       <c r="A1245" t="s">
-        <v>667</v>
+        <v>91</v>
       </c>
       <c r="B1245" t="s">
         <v>28</v>
@@ -37214,7 +37211,7 @@
     </row>
     <row r="1246" spans="1:4">
       <c r="A1246" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B1246" t="s">
         <v>28</v>
@@ -37228,7 +37225,7 @@
     </row>
     <row r="1247" spans="1:4">
       <c r="A1247" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B1247" t="s">
         <v>28</v>
@@ -37242,7 +37239,7 @@
     </row>
     <row r="1248" spans="1:4">
       <c r="A1248" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B1248" t="s">
         <v>28</v>
@@ -37256,7 +37253,7 @@
     </row>
     <row r="1249" spans="1:4">
       <c r="A1249" t="s">
-        <v>284</v>
+        <v>669</v>
       </c>
       <c r="B1249" t="s">
         <v>28</v>
@@ -37270,7 +37267,7 @@
     </row>
     <row r="1250" spans="1:4">
       <c r="A1250" t="s">
-        <v>671</v>
+        <v>284</v>
       </c>
       <c r="B1250" t="s">
         <v>28</v>
@@ -37284,7 +37281,7 @@
     </row>
     <row r="1251" spans="1:4">
       <c r="A1251" t="s">
-        <v>202</v>
+        <v>670</v>
       </c>
       <c r="B1251" t="s">
         <v>28</v>
@@ -37298,7 +37295,7 @@
     </row>
     <row r="1252" spans="1:4">
       <c r="A1252" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B1252" t="s">
         <v>28</v>
@@ -37312,7 +37309,7 @@
     </row>
     <row r="1253" spans="1:4">
       <c r="A1253" t="s">
-        <v>672</v>
+        <v>111</v>
       </c>
       <c r="B1253" t="s">
         <v>28</v>
@@ -37326,7 +37323,7 @@
     </row>
     <row r="1254" spans="1:4">
       <c r="A1254" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B1254" t="s">
         <v>28</v>
@@ -37340,7 +37337,7 @@
     </row>
     <row r="1255" spans="1:4">
       <c r="A1255" t="s">
-        <v>407</v>
+        <v>672</v>
       </c>
       <c r="B1255" t="s">
         <v>28</v>
@@ -37354,7 +37351,7 @@
     </row>
     <row r="1256" spans="1:4">
       <c r="A1256" t="s">
-        <v>674</v>
+        <v>407</v>
       </c>
       <c r="B1256" t="s">
         <v>28</v>
@@ -37368,13 +37365,13 @@
     </row>
     <row r="1257" spans="1:4">
       <c r="A1257" t="s">
-        <v>184</v>
+        <v>673</v>
       </c>
       <c r="B1257" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1257" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1257">
         <v>2024</v>
@@ -37382,7 +37379,7 @@
     </row>
     <row r="1258" spans="1:4">
       <c r="A1258" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="B1258" t="s">
         <v>32</v>
@@ -37396,7 +37393,7 @@
     </row>
     <row r="1259" spans="1:4">
       <c r="A1259" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="B1259" t="s">
         <v>32</v>
@@ -37410,7 +37407,7 @@
     </row>
     <row r="1260" spans="1:4">
       <c r="A1260" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B1260" t="s">
         <v>32</v>
@@ -37424,7 +37421,7 @@
     </row>
     <row r="1261" spans="1:4">
       <c r="A1261" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B1261" t="s">
         <v>32</v>
@@ -37438,7 +37435,7 @@
     </row>
     <row r="1262" spans="1:4">
       <c r="A1262" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="B1262" t="s">
         <v>32</v>
@@ -37452,7 +37449,7 @@
     </row>
     <row r="1263" spans="1:4">
       <c r="A1263" t="s">
-        <v>363</v>
+        <v>529</v>
       </c>
       <c r="B1263" t="s">
         <v>32</v>
@@ -37466,7 +37463,7 @@
     </row>
     <row r="1264" spans="1:4">
       <c r="A1264" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="B1264" t="s">
         <v>32</v>
@@ -37480,7 +37477,7 @@
     </row>
     <row r="1265" spans="1:4">
       <c r="A1265" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="B1265" t="s">
         <v>32</v>
@@ -37494,7 +37491,7 @@
     </row>
     <row r="1266" spans="1:4">
       <c r="A1266" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="B1266" t="s">
         <v>32</v>
@@ -37508,7 +37505,7 @@
     </row>
     <row r="1267" spans="1:4">
       <c r="A1267" t="s">
-        <v>120</v>
+        <v>355</v>
       </c>
       <c r="B1267" t="s">
         <v>32</v>
@@ -37522,7 +37519,7 @@
     </row>
     <row r="1268" spans="1:4">
       <c r="A1268" t="s">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="B1268" t="s">
         <v>32</v>
@@ -37536,7 +37533,7 @@
     </row>
     <row r="1269" spans="1:4">
       <c r="A1269" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
       <c r="B1269" t="s">
         <v>32</v>
@@ -37550,7 +37547,7 @@
     </row>
     <row r="1270" spans="1:4">
       <c r="A1270" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="B1270" t="s">
         <v>32</v>
@@ -37564,7 +37561,7 @@
     </row>
     <row r="1271" spans="1:4">
       <c r="A1271" t="s">
-        <v>675</v>
+        <v>203</v>
       </c>
       <c r="B1271" t="s">
         <v>32</v>
@@ -37578,7 +37575,7 @@
     </row>
     <row r="1272" spans="1:4">
       <c r="A1272" t="s">
-        <v>312</v>
+        <v>674</v>
       </c>
       <c r="B1272" t="s">
         <v>32</v>
@@ -37592,7 +37589,7 @@
     </row>
     <row r="1273" spans="1:4">
       <c r="A1273" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="B1273" t="s">
         <v>32</v>
@@ -37606,7 +37603,7 @@
     </row>
     <row r="1274" spans="1:4">
       <c r="A1274" t="s">
-        <v>676</v>
+        <v>97</v>
       </c>
       <c r="B1274" t="s">
         <v>32</v>
@@ -37620,7 +37617,7 @@
     </row>
     <row r="1275" spans="1:4">
       <c r="A1275" t="s">
-        <v>486</v>
+        <v>675</v>
       </c>
       <c r="B1275" t="s">
         <v>32</v>
@@ -37634,7 +37631,7 @@
     </row>
     <row r="1276" spans="1:4">
       <c r="A1276" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="B1276" t="s">
         <v>32</v>
@@ -37648,7 +37645,7 @@
     </row>
     <row r="1277" spans="1:4">
       <c r="A1277" t="s">
-        <v>497</v>
+        <v>319</v>
       </c>
       <c r="B1277" t="s">
         <v>32</v>
@@ -37662,7 +37659,7 @@
     </row>
     <row r="1278" spans="1:4">
       <c r="A1278" t="s">
-        <v>677</v>
+        <v>497</v>
       </c>
       <c r="B1278" t="s">
         <v>32</v>
@@ -37676,7 +37673,7 @@
     </row>
     <row r="1279" spans="1:4">
       <c r="A1279" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B1279" t="s">
         <v>32</v>
@@ -37690,7 +37687,7 @@
     </row>
     <row r="1280" spans="1:4">
       <c r="A1280" t="s">
-        <v>164</v>
+        <v>677</v>
       </c>
       <c r="B1280" t="s">
         <v>32</v>
@@ -37704,7 +37701,7 @@
     </row>
     <row r="1281" spans="1:4">
       <c r="A1281" t="s">
-        <v>679</v>
+        <v>164</v>
       </c>
       <c r="B1281" t="s">
         <v>32</v>
@@ -37718,7 +37715,7 @@
     </row>
     <row r="1282" spans="1:4">
       <c r="A1282" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B1282" t="s">
         <v>32</v>
@@ -37732,7 +37729,7 @@
     </row>
     <row r="1283" spans="1:4">
       <c r="A1283" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B1283" t="s">
         <v>32</v>
@@ -37741,6 +37738,20 @@
         <v>73</v>
       </c>
       <c r="D1283">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4">
+      <c r="A1284" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1284">
         <v>2024</v>
       </c>
     </row>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -32521,7 +32521,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" t="s">
-        <v>554</v>
+        <v>396</v>
       </c>
       <c r="B911" t="s">
         <v>681</v>
@@ -32535,7 +32535,7 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="B912" t="s">
         <v>681</v>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -32507,7 +32507,7 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="B910" t="s">
         <v>681</v>
@@ -32521,7 +32521,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="B911" t="s">
         <v>681</v>
@@ -32605,7 +32605,7 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" t="s">
-        <v>558</v>
+        <v>84</v>
       </c>
       <c r="B917" t="s">
         <v>681</v>
@@ -32619,7 +32619,7 @@
     </row>
     <row r="918" spans="1:4">
       <c r="A918" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="B918" t="s">
         <v>681</v>
@@ -32633,7 +32633,7 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" t="s">
-        <v>559</v>
+        <v>384</v>
       </c>
       <c r="B919" t="s">
         <v>681</v>
@@ -32647,7 +32647,7 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" t="s">
-        <v>84</v>
+        <v>559</v>
       </c>
       <c r="B920" t="s">
         <v>681</v>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W241"/>
+  <dimension ref="A1:Y241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,16 @@
           <t>SB</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Record</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +656,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -741,6 +759,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +862,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -931,6 +965,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1026,6 +1068,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1121,6 +1171,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1274,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1311,6 +1377,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1406,6 +1480,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1501,6 +1583,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1596,6 +1686,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1691,6 +1789,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1786,6 +1892,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1881,6 +1995,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1976,6 +2098,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2071,6 +2201,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2166,6 +2304,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2261,6 +2407,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2356,6 +2510,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2451,6 +2613,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2546,6 +2716,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2641,6 +2819,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2736,6 +2922,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2831,6 +3025,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2926,6 +3128,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3021,6 +3231,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3116,6 +3334,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3211,6 +3437,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3306,6 +3540,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3401,6 +3643,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3496,6 +3746,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3591,6 +3849,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3686,6 +3952,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3781,6 +4055,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3876,6 +4158,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3971,6 +4261,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4066,6 +4364,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4161,6 +4467,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4256,6 +4570,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4351,6 +4673,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4446,6 +4776,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4541,6 +4879,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y43" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4636,6 +4982,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4731,6 +5085,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4826,6 +5188,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4921,6 +5291,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y47" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5016,6 +5394,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5111,6 +5497,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5206,6 +5600,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5301,6 +5703,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5396,6 +5806,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y52" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5491,6 +5909,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5586,6 +6012,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5681,6 +6115,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5776,6 +6218,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5871,6 +6321,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y57" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5966,6 +6424,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6061,6 +6527,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6156,6 +6630,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6251,6 +6733,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y61" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6346,6 +6836,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6441,6 +6939,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y63" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6536,6 +7042,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6631,6 +7145,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y65" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6726,6 +7248,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6821,6 +7351,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6916,6 +7454,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7011,6 +7557,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7106,6 +7660,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7201,6 +7763,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7296,6 +7866,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7391,6 +7969,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7486,6 +8072,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y74" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7581,6 +8175,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7676,6 +8278,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7771,6 +8381,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y77" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7866,6 +8484,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7961,6 +8587,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -8056,6 +8690,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -8151,6 +8793,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8246,6 +8896,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y82" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8341,6 +8999,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8436,6 +9102,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y84" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8531,6 +9205,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y85" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8626,6 +9308,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>1-8-1</t>
+        </is>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8721,6 +9411,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>8-1-1</t>
+        </is>
+      </c>
+      <c r="Y87" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8816,6 +9514,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8911,6 +9617,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y89" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9006,6 +9720,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -9101,6 +9823,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y91" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9196,6 +9926,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9291,6 +10029,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9386,6 +10132,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y94" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9481,6 +10235,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y95" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9576,6 +10338,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9671,6 +10441,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9766,6 +10544,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9861,6 +10647,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9956,6 +10750,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -10051,6 +10853,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -10146,6 +10956,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y102" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10241,6 +11059,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y103" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10336,6 +11162,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y104" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -10431,6 +11265,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y105" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10526,6 +11368,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10621,6 +11471,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10716,6 +11574,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y108" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10811,6 +11677,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y109" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10906,6 +11780,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y110" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -11001,6 +11883,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y111" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -11096,6 +11986,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -11191,6 +12089,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y113" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -11286,6 +12192,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -11381,6 +12295,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y115" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -11476,6 +12398,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11571,6 +12501,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -11666,6 +12604,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11761,6 +12707,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11856,6 +12810,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y120" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11951,6 +12913,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y121" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12046,6 +13016,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y122" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -12141,6 +13119,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y123" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -12236,6 +13222,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -12331,6 +13325,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y125" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -12426,6 +13428,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -12521,6 +13531,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y127" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -12616,6 +13634,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -12711,6 +13737,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y129" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -12806,6 +13840,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y130" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -12901,6 +13943,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y131" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -12996,6 +14046,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y132" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -13091,6 +14149,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y133" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -13186,6 +14252,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>1-9-0</t>
+        </is>
+      </c>
+      <c r="Y134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -13281,6 +14355,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>9-1-0</t>
+        </is>
+      </c>
+      <c r="Y135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -13376,6 +14458,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>1-9-0</t>
+        </is>
+      </c>
+      <c r="Y136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -13471,6 +14561,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>9-1-0</t>
+        </is>
+      </c>
+      <c r="Y137" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -13566,6 +14664,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y138" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -13661,6 +14767,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -13756,6 +14870,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y140" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -13851,6 +14973,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -13946,6 +15076,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y142" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -14041,6 +15179,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y143" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -14136,6 +15282,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y144" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -14231,6 +15385,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -14326,6 +15488,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y146" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -14421,6 +15591,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y147" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -14516,6 +15694,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y148" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -14611,6 +15797,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -14706,6 +15900,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="Y150" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -14801,6 +16003,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="Y151" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -14896,6 +16106,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y152" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -14991,6 +16209,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y153" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -15086,6 +16312,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y154" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -15181,6 +16415,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y155" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -15276,6 +16518,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y156" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -15371,6 +16621,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y157" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -15466,6 +16724,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y158" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -15561,6 +16827,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y159" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -15656,6 +16930,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y160" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -15751,6 +17033,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y161" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -15846,6 +17136,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -15941,6 +17239,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y163" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -16036,6 +17342,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y164" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -16131,6 +17445,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y165" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -16226,6 +17548,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y166" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -16321,6 +17651,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -16416,6 +17754,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -16511,6 +17857,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y169" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -16606,6 +17960,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="Y170" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -16701,6 +18063,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="Y171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -16796,6 +18166,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y172" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -16891,6 +18269,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -16986,6 +18372,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y174" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -17081,6 +18475,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -17176,6 +18578,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y176" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -17271,6 +18681,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -17366,6 +18784,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -17461,6 +18887,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -17556,6 +18990,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -17651,6 +19093,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -17746,6 +19196,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>6-2-2</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -17841,6 +19299,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>2-6-2</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -17936,6 +19402,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>8-0-2</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -18031,6 +19505,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>0-8-2</t>
+        </is>
+      </c>
+      <c r="Y185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -18126,6 +19608,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -18221,6 +19711,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -18316,6 +19814,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y188" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -18411,6 +19917,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>5-5-0</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -18506,6 +20020,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -18601,6 +20123,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y191" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -18696,6 +20226,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y192" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -18791,6 +20329,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y193" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -18886,6 +20432,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y194" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -18981,6 +20535,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y195" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -19076,6 +20638,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -19171,6 +20741,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y197" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -19266,6 +20844,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -19361,6 +20947,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y199" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -19456,6 +21050,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>10-0-0</t>
+        </is>
+      </c>
+      <c r="Y200" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -19551,6 +21153,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>0-10-0</t>
+        </is>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -19646,6 +21256,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y202" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -19741,6 +21359,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y203" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -19836,6 +21462,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>8-1-1</t>
+        </is>
+      </c>
+      <c r="Y204" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -19931,6 +21565,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>1-8-1</t>
+        </is>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -20026,6 +21668,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>1-9-0</t>
+        </is>
+      </c>
+      <c r="Y206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -20121,6 +21771,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>9-1-0</t>
+        </is>
+      </c>
+      <c r="Y207" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -20216,6 +21874,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>7-3-0</t>
+        </is>
+      </c>
+      <c r="Y208" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -20311,6 +21977,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>3-7-0</t>
+        </is>
+      </c>
+      <c r="Y209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -20406,6 +22080,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>2-5-3</t>
+        </is>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -20501,6 +22183,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>5-2-3</t>
+        </is>
+      </c>
+      <c r="Y211" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -20596,6 +22286,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y212" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -20691,6 +22389,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y213" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -20786,6 +22492,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>4-4-2</t>
+        </is>
+      </c>
+      <c r="Y214" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -20881,6 +22595,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>4-4-2</t>
+        </is>
+      </c>
+      <c r="Y215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -20976,6 +22698,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y216" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -21071,6 +22801,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y217" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -21119,7 +22857,7 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>0.28070175</v>
+        <v>0.28362573</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -21165,6 +22903,14 @@
         <is>
           <t>WIN</t>
         </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y218" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -21261,6 +23007,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>6-4-0</t>
+        </is>
+      </c>
+      <c r="Y219" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -21356,6 +23110,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>1-8-1</t>
+        </is>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -21451,6 +23213,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>8-1-1</t>
+        </is>
+      </c>
+      <c r="Y221" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -21546,6 +23316,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>5-4-1</t>
+        </is>
+      </c>
+      <c r="Y222" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -21641,6 +23419,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>4-5-1</t>
+        </is>
+      </c>
+      <c r="Y223" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -21736,6 +23522,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y224" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -21831,6 +23625,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -21926,6 +23728,14 @@
           <t>LOSS</t>
         </is>
       </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>2-7-1</t>
+        </is>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -22021,6 +23831,14 @@
           <t>WIN</t>
         </is>
       </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>7-2-1</t>
+        </is>
+      </c>
+      <c r="Y227" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -22069,7 +23887,7 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>0.33663366</v>
+        <v>0.33333333</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
@@ -22115,6 +23933,14 @@
         <is>
           <t>TIE</t>
         </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="229">
@@ -22211,6 +24037,14 @@
           <t>TIE</t>
         </is>
       </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y229" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -22227,55 +24061,55 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>TIE</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0.9</v>
+        <v>0.83076923</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>1.35</v>
+        <v>1.66153846</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="L230" t="n">
-        <v>0.27272727</v>
+        <v>0.27419355</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -22283,28 +24117,36 @@
         </is>
       </c>
       <c r="R230" t="n">
+        <v>14</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
         <v>4</v>
       </c>
-      <c r="S230" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="T230" t="n">
-        <v>1</v>
-      </c>
       <c r="U230" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
       </c>
       <c r="V230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W230" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y230" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="231">
@@ -22322,55 +24164,55 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>TIE</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1.16666667</v>
+        <v>1.04347826</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>1.5</v>
+        <v>3.52173913</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="L231" t="n">
-        <v>0.26666667</v>
+        <v>0.35185185</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -22378,7 +24220,7 @@
         </is>
       </c>
       <c r="R231" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -22386,7 +24228,7 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
@@ -22400,6 +24242,14 @@
         <is>
           <t>LOSS</t>
         </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="232">
@@ -22417,7 +24267,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -22425,15 +24275,15 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1.18421053</v>
+        <v>1.18965517</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>4.97368421</v>
+        <v>3.72413793</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -22441,7 +24291,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -22449,7 +24299,7 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>0.23529412</v>
+        <v>0.26811594</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -22457,15 +24307,15 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -22473,7 +24323,7 @@
         </is>
       </c>
       <c r="R232" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -22485,16 +24335,24 @@
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>TIE</t>
         </is>
       </c>
       <c r="V232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W232" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="233">
@@ -22512,7 +24370,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -22520,15 +24378,15 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1.13793103</v>
+        <v>1.26428571</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>1.86206897</v>
+        <v>3.08571429</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -22536,7 +24394,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -22544,7 +24402,7 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>0.41304348</v>
+        <v>0.36774194</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
@@ -22552,35 +24410,35 @@
         </is>
       </c>
       <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>23</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
         <v>1</v>
       </c>
-      <c r="O233" t="inlineStr">
+      <c r="U233" t="inlineStr">
         <is>
           <t>TIE</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>7</v>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="T233" t="n">
-        <v>0</v>
-      </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>LOSS</t>
         </is>
       </c>
       <c r="V233" t="n">
@@ -22590,6 +24448,14 @@
         <is>
           <t>LOSS</t>
         </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y233" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="234">
@@ -22607,35 +24473,31 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Infinity</t>
-        </is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>1.3902439</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Infinity</t>
-        </is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>4.6097561</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -22643,7 +24505,7 @@
         </is>
       </c>
       <c r="L234" t="n">
-        <v>0.34</v>
+        <v>0.38345865</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
@@ -22655,11 +24517,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -22667,28 +24529,36 @@
         </is>
       </c>
       <c r="R234" t="n">
+        <v>19</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>1</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V234" t="n">
         <v>4</v>
       </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="T234" t="n">
-        <v>0</v>
-      </c>
-      <c r="U234" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V234" t="n">
-        <v>1</v>
-      </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -22706,84 +24576,92 @@
         </is>
       </c>
       <c r="D235" t="n">
+        <v>6</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.69230769</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>2.07692308</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>27</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>0.3028169</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="F235" t="n">
-        <v>0.14285714</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="H235" t="n">
-        <v>1.28571429</v>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="J235" t="n">
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>12</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V235" t="n">
         <v>8</v>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>0.17142857</v>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="N235" t="n">
-        <v>0</v>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="P235" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>3</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="T235" t="n">
-        <v>1</v>
-      </c>
-      <c r="U235" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="V235" t="n">
-        <v>1</v>
-      </c>
       <c r="W235" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y235" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="236">
@@ -22801,7 +24679,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -22809,31 +24687,31 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1.5</v>
+        <v>0.80357143</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>4.5</v>
+        <v>2.41071429</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>0.3</v>
+        <v>0.36752137</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22845,40 +24723,48 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="P236" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>TIE</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>11</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V236" t="n">
         <v>5</v>
       </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="R236" t="n">
-        <v>2</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="T236" t="n">
-        <v>0</v>
-      </c>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V236" t="n">
-        <v>2</v>
-      </c>
       <c r="W236" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y236" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="237">
@@ -22896,7 +24782,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -22904,55 +24790,55 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1.28571429</v>
+        <v>1.05405405</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>3.64864865</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>11</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>0.2972973</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
           <t>TIE</t>
         </is>
       </c>
-      <c r="H237" t="n">
-        <v>5.14285714</v>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="J237" t="n">
-        <v>8</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>0.29545455</v>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="P237" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
       <c r="R237" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22964,7 +24850,7 @@
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="V237" t="n">
@@ -22974,6 +24860,14 @@
         <is>
           <t>LOSS</t>
         </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="238">
@@ -22991,7 +24885,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -22999,15 +24893,15 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.80769231</v>
+        <v>1.01086957</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>2.07692308</v>
+        <v>4.98913043</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -23015,7 +24909,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -23023,52 +24917,60 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>0.39393939</v>
+        <v>0.29411765</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>15</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>2</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
           <t>TIE</t>
         </is>
       </c>
-      <c r="P238" t="n">
+      <c r="V238" t="n">
         <v>5</v>
       </c>
-      <c r="Q238" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="R238" t="n">
-        <v>5</v>
-      </c>
-      <c r="S238" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="T238" t="n">
-        <v>1</v>
-      </c>
-      <c r="U238" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="V238" t="n">
-        <v>1</v>
-      </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>3-6-1</t>
+        </is>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="239">
@@ -23086,7 +24988,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -23094,15 +24996,15 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1.53061224</v>
+        <v>1.22727273</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>8.81632653</v>
+        <v>4.90909091</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -23110,7 +25012,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -23118,11 +25020,11 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>0.26923077</v>
+        <v>0.32413793</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="N239" t="n">
@@ -23130,40 +25032,48 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>26</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>2</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
           <t>TIE</t>
         </is>
       </c>
-      <c r="P239" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="R239" t="n">
-        <v>14</v>
-      </c>
-      <c r="S239" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="T239" t="n">
-        <v>1</v>
-      </c>
-      <c r="U239" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
       <c r="V239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>TIE</t>
-        </is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>6-3-1</t>
+        </is>
+      </c>
+      <c r="Y239" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="240">
@@ -23181,15 +25091,15 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>1.76086957</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -23197,7 +25107,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>5.14285714</v>
+        <v>7.92391304</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -23205,43 +25115,43 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="L240" t="n">
-        <v>0.33333333</v>
+        <v>0.28571429</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="T240" t="n">
@@ -23259,6 +25169,14 @@
         <is>
           <t>LOSS</t>
         </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>2-8-0</t>
+        </is>
+      </c>
+      <c r="Y240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -23276,15 +25194,15 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1.05405405</v>
+        <v>1.07142857</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -23292,7 +25210,7 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>2.18918919</v>
+        <v>3.85714286</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -23300,47 +25218,47 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>0.15151515</v>
+        <v>0.28888889</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="P241" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>20</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T241" t="n">
         <v>2</v>
-      </c>
-      <c r="Q241" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="R241" t="n">
-        <v>1</v>
-      </c>
-      <c r="S241" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="T241" t="n">
-        <v>1</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
@@ -23354,6 +25272,14 @@
         <is>
           <t>WIN</t>
         </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>8-2-0</t>
+        </is>
+      </c>
+      <c r="Y241" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -42321,7 +44247,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Bobby Miller</t>
+          <t>Taylor Ward</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -42341,7 +44267,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Reid Detmers</t>
+          <t>Bobby Miller</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -42361,7 +44287,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>Kodai Senga</t>
+          <t>Reid Detmers</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -42381,7 +44307,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Eduardo Rodriguez</t>
+          <t>Kodai Senga</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -42401,7 +44327,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Cristian Javier</t>
+          <t>Luis Rengifo</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -42421,7 +44347,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Spencer Strider</t>
+          <t>Cristian Javier</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -42441,7 +44367,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Sean Murphy</t>
+          <t>Spencer Strider</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -42461,7 +44387,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>Nolan Jones</t>
+          <t>Eduardo Rodriguez</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -42481,7 +44407,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Adbert Alzolay</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -42501,7 +44427,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Spencer Torkelson</t>
+          <t>Nolan Jones</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -42521,7 +44447,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Matt McLain</t>
+          <t>Adbert Alzolay</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -42541,7 +44467,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Jung Hoo Lee</t>
+          <t>Spencer Torkelson</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -42561,7 +44487,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Matt Waldron</t>
+          <t>Jung Hoo Lee</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -42581,7 +44507,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Kyle Bradish</t>
+          <t>Matt McLain</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -42601,7 +44527,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Braxton Garrett</t>
+          <t>Cody Bradford</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -42621,7 +44547,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Jordan Hicks</t>
+          <t>Kyle Bradish</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -42641,7 +44567,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Clarke Schmidt</t>
+          <t>Braxton Garrett</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -42661,7 +44587,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Shane Bieber</t>
+          <t>Jordan Hicks</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -42681,7 +44607,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Jose Leclerc</t>
+          <t>Clarke Schmidt</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -42701,7 +44627,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Alex Lange</t>
+          <t>Shane Bieber</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -42721,7 +44647,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Juan Yepez</t>
+          <t>Jose Leclerc</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -42741,7 +44667,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Thairo Estrada</t>
+          <t>Alex Lange</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -42761,7 +44687,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Paul Blackburn</t>
+          <t>Thairo Estrada</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -42821,7 +44747,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Bryan De La Cruz</t>
+          <t>Juan Yepez</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -42841,7 +44767,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Cody Bradford</t>
+          <t>Chad Green</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -42861,7 +44787,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Chad Green</t>
+          <t>Jose Quintana</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -42901,7 +44827,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Michael Conforto</t>
+          <t>Paul Blackburn</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -42921,7 +44847,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Jason Adam</t>
+          <t>Michael Conforto</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -42961,7 +44887,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Austin Wells</t>
+          <t>Dean Kremer</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -42981,7 +44907,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Amed Rosario</t>
+          <t>Austin Wells</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -43001,7 +44927,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Jose Quintana</t>
+          <t>Aaron Civale</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -43021,7 +44947,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Andrew Benintendi</t>
+          <t>Gavin Lux</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -43041,7 +44967,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Aaron Civale</t>
+          <t>Amed Rosario</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -43061,7 +44987,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>James McArthur</t>
+          <t>Zack Gelof</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -43081,7 +45007,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Gavin Lux</t>
+          <t>James McArthur</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -43101,7 +45027,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Trevor Megill</t>
+          <t>Travis d'Arnaud</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -43121,7 +45047,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Zack Gelof</t>
+          <t>Trevor Megill</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -43141,7 +45067,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Travis d'Arnaud</t>
+          <t>Triston McKenzie</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -43161,7 +45087,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Triston McKenzie</t>
+          <t>Martin Perez</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -43181,7 +45107,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Ben Rice</t>
+          <t>Trevor Williams</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -45841,7 +47767,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Luis Rengifo</t>
+          <t>Ben Lively</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -45861,7 +47787,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>Dean Kremer</t>
+          <t>Ryne Stanek</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -45881,7 +47807,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Ben Lively</t>
+          <t>Erick Fedde</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -45901,7 +47827,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Ryne Stanek</t>
+          <t>Logan Webb</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -45921,7 +47847,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Erick Fedde</t>
+          <t>Isaac Paredes</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -45941,7 +47867,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Logan Webb</t>
+          <t>Lawrence Butler</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -45961,7 +47887,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>Isaac Paredes</t>
+          <t>Jose Iglesias</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
@@ -45981,7 +47907,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Lawrence Butler</t>
+          <t>Ryne Nelson</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -46001,7 +47927,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Jose Iglesias</t>
+          <t>Ernie Clement</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -46021,7 +47947,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Taylor Ward</t>
+          <t>Jake Burger</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -46041,7 +47967,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Ryne Nelson</t>
+          <t>Jason Adam</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -46061,7 +47987,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>Ernie Clement</t>
+          <t>Andrew Benintendi</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
@@ -46081,17 +48007,17 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Jake Burger</t>
+          <t>Gerrit Cole</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Speed Kills</t>
+          <t>Team Motter</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Isaac Cisco</t>
+          <t>Ethan Motter</t>
         </is>
       </c>
       <c r="D1073" t="n">
@@ -46101,7 +48027,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Rafael Devers</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -46121,7 +48047,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Rafael Devers</t>
+          <t>Zac Gallen</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -46141,7 +48067,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Zac Gallen</t>
+          <t>Michael Harris II</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -46161,7 +48087,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>Michael Harris II</t>
+          <t>CJ Abrams</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
@@ -46181,7 +48107,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>CJ Abrams</t>
+          <t>Jesus Luzardo</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
@@ -46201,7 +48127,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Jesus Luzardo</t>
+          <t>Justin Steele</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
@@ -46221,7 +48147,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Justin Steele</t>
+          <t>Zach Eflin</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
@@ -46241,7 +48167,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Zach Eflin</t>
+          <t>Chris Bassitt</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
@@ -46261,7 +48187,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>Chris Bassitt</t>
+          <t>Anthony Santander</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
@@ -46281,7 +48207,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Anthony Santander</t>
+          <t>Jose Berrios</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
@@ -46301,7 +48227,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Jose Berrios</t>
+          <t>Josh Naylor</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
@@ -46321,7 +48247,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Josh Naylor</t>
+          <t>Gabriel Moreno</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
@@ -46341,7 +48267,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Gabriel Moreno</t>
+          <t>Craig Kimbrel</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
@@ -46361,7 +48287,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Craig Kimbrel</t>
+          <t>Shota Imanaga</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
@@ -46381,7 +48307,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Shota Imanaga</t>
+          <t>Yandy Diaz</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -46401,7 +48327,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Yandy Diaz</t>
+          <t>Kyle Finnegan</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -46421,7 +48347,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Kyle Finnegan</t>
+          <t>Giancarlo Stanton</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
@@ -46441,7 +48367,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Giancarlo Stanton</t>
+          <t>Byron Buxton</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
@@ -46461,7 +48387,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>Byron Buxton</t>
+          <t>Matt Strahm</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
@@ -46481,7 +48407,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Matt Strahm</t>
+          <t>Jake Fraley</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
@@ -46501,7 +48427,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Jake Fraley</t>
+          <t>Jake Cronenworth</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
@@ -46521,7 +48447,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Jake Cronenworth</t>
+          <t>Yusei Kikuchi</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
@@ -46541,7 +48467,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Yusei Kikuchi</t>
+          <t>Griffin Jax</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
@@ -46561,7 +48487,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>Griffin Jax</t>
+          <t>Brendan Donovan</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
@@ -46581,7 +48507,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Brendan Donovan</t>
+          <t>Jackson Chourio</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -46601,7 +48527,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Jackson Chourio</t>
+          <t>Isiah Kiner-Falefa</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
@@ -46621,7 +48547,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Isiah Kiner-Falefa</t>
+          <t>Matt Vierling</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
@@ -46641,7 +48567,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Matt Vierling</t>
+          <t>Kyle Harrison</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -46661,7 +48587,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>Kyle Harrison</t>
+          <t>Lars Nootbaar</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
@@ -46681,17 +48607,17 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Lars Nootbaar</t>
+          <t>Yordan Alvarez</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Team Motter</t>
+          <t>Parker Is clutch</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Ethan Motter</t>
+          <t>Tyler Free</t>
         </is>
       </c>
       <c r="D1103" t="n">
@@ -46701,7 +48627,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Yordan Alvarez</t>
+          <t>Jose Ramirez</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -46721,7 +48647,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Jose Ramirez</t>
+          <t>Luis Robert Jr.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -46741,7 +48667,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Luis Robert Jr.</t>
+          <t>Logan Gilbert</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -46761,7 +48687,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Logan Gilbert</t>
+          <t>Devin Williams</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -46781,7 +48707,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Devin Williams</t>
+          <t>Luis Arraez</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
@@ -46801,7 +48727,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Luis Arraez</t>
+          <t>Nick Castellanos</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
@@ -46821,7 +48747,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Nick Castellanos</t>
+          <t>Salvador Perez</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
@@ -46841,7 +48767,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Salvador Perez</t>
+          <t>David Bednar</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
@@ -46861,7 +48787,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>David Bednar</t>
+          <t>Justin Verlander</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
@@ -46881,7 +48807,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Justin Verlander</t>
+          <t>Francisco Alvarez</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
@@ -46901,7 +48827,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Francisco Alvarez</t>
+          <t>Tanner Scott</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -46921,7 +48847,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Tanner Scott</t>
+          <t>Willy Adames</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
@@ -46941,7 +48867,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Willy Adames</t>
+          <t>Ezequiel Tovar</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
@@ -46961,7 +48887,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Ezequiel Tovar</t>
+          <t>Jacob deGrom</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
@@ -46981,7 +48907,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Jacob deGrom</t>
+          <t>Ranger Suarez</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -47001,7 +48927,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Ranger Suarez</t>
+          <t>Brady Singer</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
@@ -47021,7 +48947,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Brady Singer</t>
+          <t>Daulton Varsho</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
@@ -47041,7 +48967,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Daulton Varsho</t>
+          <t>Tommy Edman</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
@@ -47061,7 +48987,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>Tommy Edman</t>
+          <t>Javier Assad</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
@@ -47081,7 +49007,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Javier Assad</t>
+          <t>JoJo Romero</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
@@ -47101,7 +49027,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>JoJo Romero</t>
+          <t>Albert Suarez</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
@@ -47121,7 +49047,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Albert Suarez</t>
+          <t>Kyle Tucker</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
@@ -47141,7 +49067,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Kyle Tucker</t>
+          <t>Framber Valdez</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
@@ -47161,7 +49087,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Framber Valdez</t>
+          <t>Dylan Moore</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
@@ -47181,7 +49107,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Dylan Moore</t>
+          <t>Brandon Lowe</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
@@ -47201,7 +49127,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Brandon Lowe</t>
+          <t>Jacob Young</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
@@ -47221,7 +49147,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Jacob Young</t>
+          <t>Griffin Canning</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
@@ -47241,7 +49167,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Griffin Canning</t>
+          <t>Yariel Rodriguez</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
@@ -47261,7 +49187,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>Yariel Rodriguez</t>
+          <t>Tyler Rogers</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -47281,7 +49207,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Tyler Rogers</t>
+          <t>Wyatt Langford</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
@@ -47301,17 +49227,17 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Wyatt Langford</t>
+          <t>Mookie Betts</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Parker Is clutch</t>
+          <t>Franco Jr. High School</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Tyler Free</t>
+          <t>austin  brown</t>
         </is>
       </c>
       <c r="D1134" t="n">
@@ -47321,7 +49247,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Mookie Betts</t>
+          <t>Luis Castillo</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
@@ -47341,7 +49267,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Luis Castillo</t>
+          <t>Adley Rutschman</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
@@ -47361,7 +49287,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Adley Rutschman</t>
+          <t>Aaron Nola</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -47381,7 +49307,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Aaron Nola</t>
+          <t>Randy Arozarena</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
@@ -47401,7 +49327,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Randy Arozarena</t>
+          <t>Josh Hader</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
@@ -47421,7 +49347,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Josh Hader</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
@@ -47441,7 +49367,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>Teoscar Hernandez</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -47461,7 +49387,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>Teoscar Hernandez</t>
+          <t>Bryce Miller</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -47481,7 +49407,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Bryce Miller</t>
+          <t>Jared Jones</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -47501,7 +49427,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Jared Jones</t>
+          <t>Brice Turang</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -47521,7 +49447,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Brice Turang</t>
+          <t>Mason Miller</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -47541,7 +49467,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Mason Miller</t>
+          <t>J.D. Martinez</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
@@ -47561,7 +49487,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>J.D. Martinez</t>
+          <t>Clayton Kershaw</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -47581,7 +49507,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Clayton Kershaw</t>
+          <t>Gavin Stone</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -47601,7 +49527,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Gavin Stone</t>
+          <t>David Fry</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -47621,7 +49547,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>David Fry</t>
+          <t>Jose Miranda</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -47641,7 +49567,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Jose Miranda</t>
+          <t>Michael Busch</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -47661,7 +49587,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>Michael Busch</t>
+          <t>Jake Irvin</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -47681,7 +49607,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Jake Irvin</t>
+          <t>Jordan Westburg</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
@@ -47701,7 +49627,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Jordan Westburg</t>
+          <t>Jazz Chisholm Jr.</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
@@ -47721,7 +49647,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Jazz Chisholm Jr.</t>
+          <t>Cade Smith</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -47741,7 +49667,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Cade Smith</t>
+          <t>Max Schuemann</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -47761,7 +49687,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>Max Schuemann</t>
+          <t>Max Kepler</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -47781,7 +49707,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Max Kepler</t>
+          <t>Masyn Winn</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
@@ -47801,7 +49727,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Masyn Winn</t>
+          <t>Colton Cowser</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -47821,7 +49747,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Colton Cowser</t>
+          <t>Ryan Walker</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -47841,7 +49767,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Ryan Walker</t>
+          <t>Michael Wacha</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -47861,7 +49787,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Michael Wacha</t>
+          <t>Joey Ortiz</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
@@ -47881,17 +49807,17 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Jordan Walker</t>
+          <t>Ronald Acuna Jr.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Franco Jr. High School</t>
+          <t>Another Sunday Collapse</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>austin  brown</t>
+          <t>Austin Yates</t>
         </is>
       </c>
       <c r="D1163" t="n">
@@ -47901,7 +49827,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Ronald Acuna Jr.</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -47921,7 +49847,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Freddy Peralta</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -47941,7 +49867,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Freddy Peralta</t>
+          <t>Emmanuel Clase</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
@@ -47961,7 +49887,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Emmanuel Clase</t>
+          <t>Alexis Diaz</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -47981,7 +49907,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Alexis Diaz</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -48001,7 +49927,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Bailey Ober</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
@@ -48021,7 +49947,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Bailey Ober</t>
+          <t>Walker Buehler</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
@@ -48041,7 +49967,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Walker Buehler</t>
+          <t>Christopher Morel</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -48061,7 +49987,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>Christopher Morel</t>
+          <t>Marcus Stroman</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
@@ -48081,7 +50007,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Marcus Stroman</t>
+          <t>Ryan Mountcastle</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
@@ -48101,7 +50027,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Ryan Mountcastle</t>
+          <t>JJ Bleday</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
@@ -48121,7 +50047,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>JJ Bleday</t>
+          <t>Jon Gray</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
@@ -48141,7 +50067,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Jon Gray</t>
+          <t>Shea Langeliers</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
@@ -48161,7 +50087,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>Shea Langeliers</t>
+          <t>Ceddanne Rafaela</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
@@ -48181,7 +50107,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Ceddanne Rafaela</t>
+          <t>Grayson Rodriguez</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -48201,7 +50127,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Grayson Rodriguez</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
@@ -48221,7 +50147,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Seth Lugo</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
@@ -48241,7 +50167,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Seth Lugo</t>
+          <t>Camilo Doval</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
@@ -48261,7 +50187,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>Camilo Doval</t>
+          <t>Alex Verdugo</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
@@ -48281,7 +50207,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Alex Verdugo</t>
+          <t>Nolan Gorman</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
@@ -48301,7 +50227,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Nolan Gorman</t>
+          <t>Tyler Phillips</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
@@ -48321,7 +50247,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Tyler Phillips</t>
+          <t>Cedric Mullins</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
@@ -48341,7 +50267,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Cedric Mullins</t>
+          <t>Colin Rea</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -48361,7 +50287,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>Colin Rea</t>
+          <t>Lance Lynn</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -48381,7 +50307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>James Paxton</t>
+          <t>Nick Martinez</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -48401,7 +50327,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Lance Lynn</t>
+          <t>Jose Soriano</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
@@ -48421,7 +50347,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Nick Martinez</t>
+          <t>Jeimer Candelario</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -48441,7 +50367,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Jose Soriano</t>
+          <t>Luis Garcia Jr.</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
@@ -48461,7 +50387,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>Jeimer Candelario</t>
+          <t>Taijuan Walker</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
@@ -48481,17 +50407,17 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Luis Garcia Jr.</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Another Sunday Collapse</t>
+          <t>Corbin on the Cob</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Austin Yates</t>
+          <t>Zach Yates</t>
         </is>
       </c>
       <c r="D1193" t="n">
@@ -48501,7 +50427,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Corbin Burnes</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
@@ -48521,7 +50447,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Corbin Burnes</t>
+          <t>Francisco Lindor</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
@@ -48541,7 +50467,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Francisco Lindor</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
@@ -48561,7 +50487,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Edwin Diaz</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -48581,7 +50507,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Edwin Diaz</t>
+          <t>Carlos Rodon</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -48601,7 +50527,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Carlos Rodon</t>
+          <t>Bryan Abreu</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -48621,7 +50547,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Bryan Abreu</t>
+          <t>MacKenzie Gore</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -48641,7 +50567,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>MacKenzie Gore</t>
+          <t>Reynaldo Lopez</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
@@ -48661,7 +50587,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>Reynaldo Lopez</t>
+          <t>Jurickson Profar</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
@@ -48681,7 +50607,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Jurickson Profar</t>
+          <t>Evan Phillips</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -48701,7 +50627,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Evan Phillips</t>
+          <t>Adolis Garcia</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -48721,7 +50647,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Adolis Garcia</t>
+          <t>Evan Carter</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -48741,7 +50667,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Evan Carter</t>
+          <t>Ben Brown</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -48761,7 +50687,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Heliot Ramos</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -48781,7 +50707,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Heliot Ramos</t>
+          <t>Spencer Horwitz</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -48801,7 +50727,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Spencer Horwitz</t>
+          <t>Logan O'Hoppe</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -48821,7 +50747,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Logan O'Hoppe</t>
+          <t>Spencer Schwellenbach</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -48841,7 +50767,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Spencer Schwellenbach</t>
+          <t>Zach Neto</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -48861,7 +50787,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Zach Neto</t>
+          <t>Andrew Heaney</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -48881,7 +50807,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Andrew Heaney</t>
+          <t>Hunter Greene</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
@@ -48901,7 +50827,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Hunter Greene</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
@@ -48921,7 +50847,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>Christian Scott</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -48941,7 +50867,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Christian Scott</t>
+          <t>A.J. Puk</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -48961,7 +50887,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>A.J. Puk</t>
+          <t>Xavier Edwards</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -48981,7 +50907,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Xavier Edwards</t>
+          <t>Victor Robles</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -49001,7 +50927,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Victor Robles</t>
+          <t>JP Sears</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
@@ -49021,7 +50947,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>JP Sears</t>
+          <t>Shane Baz</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
@@ -49041,7 +50967,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Shane Baz</t>
+          <t>Bowden Francis</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -49061,7 +50987,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>Bowden Francis</t>
+          <t>Junior Caminero</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -49081,17 +51007,17 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Junior Caminero</t>
+          <t>Freddie Freeman</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Corbin on the Cob</t>
+          <t>Team Munch</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Zach Yates</t>
+          <t>Dillon Ysseldyke</t>
         </is>
       </c>
       <c r="D1223" t="n">
@@ -49101,7 +51027,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Freddie Freeman</t>
+          <t>Bo Bichette</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -49121,7 +51047,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Bo Bichette</t>
+          <t>George Kirby</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -49141,7 +51067,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>George Kirby</t>
+          <t>Ketel Marte</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -49161,7 +51087,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Ketel Marte</t>
+          <t>Tarik Skubal</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -49181,7 +51107,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Tarik Skubal</t>
+          <t>George Springer</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -49201,7 +51127,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>George Springer</t>
+          <t>Ha-Seong Kim</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
@@ -49221,7 +51147,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Ha-Seong Kim</t>
+          <t>Clay Holmes</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -49241,7 +51167,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Clay Holmes</t>
+          <t>Masataka Yoshida</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -49261,7 +51187,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>Masataka Yoshida</t>
+          <t>Paul Sewald</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
@@ -49281,7 +51207,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Paul Sewald</t>
+          <t>Andres Munoz</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -49301,7 +51227,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Andres Munoz</t>
+          <t>Lourdes Gurriel Jr.</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -49321,7 +51247,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Lourdes Gurriel Jr.</t>
+          <t>Jarren Duran</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
@@ -49341,7 +51267,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Jarren Duran</t>
+          <t>Jonah Heim</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -49361,7 +51287,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>Jonah Heim</t>
+          <t>Nathan Eovaldi</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -49381,7 +51307,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Nathan Eovaldi</t>
+          <t>Anthony Rizzo</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
@@ -49401,7 +51327,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Anthony Rizzo</t>
+          <t>Brent Rooker</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -49421,7 +51347,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Brent Rooker</t>
+          <t>Willson Contreras</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -49441,7 +51367,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Willson Contreras</t>
+          <t>Garrett Crochet</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -49461,7 +51387,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>Garrett Crochet</t>
+          <t>Jose Caballero</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -49481,7 +51407,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Jose Caballero</t>
+          <t>Ronel Blanco</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
@@ -49501,7 +51427,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Ronel Blanco</t>
+          <t>Reese Olson</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -49521,7 +51447,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Reese Olson</t>
+          <t>Tyler Anderson</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -49541,7 +51467,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Tyler Anderson</t>
+          <t>Nestor Cortes</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -49561,7 +51487,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>Alec Marsh</t>
+          <t>Carlos Santana</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -49581,7 +51507,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Nestor Cortes</t>
+          <t>Jeff Hoffman</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -49601,7 +51527,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Carlos Santana</t>
+          <t>Nick Gonzales</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -49621,7 +51547,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Jeff Hoffman</t>
+          <t>Brayan Bello</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -49641,7 +51567,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Nick Gonzales</t>
+          <t>Jackson Holliday</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -49661,7 +51587,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>Brayan Bello</t>
+          <t>Bryan De La Cruz</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -49681,7 +51607,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Jackson Holliday</t>
+          <t>Matt Waldron</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeeklyData" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PreviousStandings" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rosters" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TotalPrizes" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24061,71 +24062,71 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.83333333</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>40</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>0.26696833</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
           <t>TIE</t>
         </is>
       </c>
-      <c r="F230" t="n">
-        <v>0.83076923</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="H230" t="n">
-        <v>1.66153846</v>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="J230" t="n">
+      <c r="P230" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
         <v>20</v>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>0.27419355</v>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="N230" t="n">
-        <v>2</v>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="P230" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="R230" t="n">
-        <v>14</v>
-      </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="T230" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
@@ -24133,7 +24134,7 @@
         </is>
       </c>
       <c r="V230" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W230" t="inlineStr">
         <is>
@@ -24142,11 +24143,11 @@
       </c>
       <c r="X230" t="inlineStr">
         <is>
-          <t>6-3-1</t>
+          <t>4-5-1</t>
         </is>
       </c>
       <c r="Y230" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="231">
@@ -24164,55 +24165,55 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>67</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>0.35326087</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
           <t>TIE</t>
         </is>
       </c>
-      <c r="F231" t="n">
-        <v>1.04347826</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="H231" t="n">
-        <v>3.52173913</v>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="J231" t="n">
-        <v>48</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>0.35185185</v>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="N231" t="n">
-        <v>1</v>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
       <c r="P231" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -24220,11 +24221,11 @@
         </is>
       </c>
       <c r="R231" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="T231" t="n">
@@ -24236,7 +24237,7 @@
         </is>
       </c>
       <c r="V231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W231" t="inlineStr">
         <is>
@@ -24245,11 +24246,11 @@
       </c>
       <c r="X231" t="inlineStr">
         <is>
-          <t>3-6-1</t>
+          <t>5-4-1</t>
         </is>
       </c>
       <c r="Y231" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="232">
@@ -24267,7 +24268,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -24275,7 +24276,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1.18965517</v>
+        <v>1.15116279</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -24283,7 +24284,7 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>3.72413793</v>
+        <v>3.76744186</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -24291,7 +24292,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -24299,7 +24300,7 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>0.26811594</v>
+        <v>0.29577465</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -24307,7 +24308,7 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -24315,7 +24316,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -24323,11 +24324,11 @@
         </is>
       </c>
       <c r="R232" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="T232" t="n">
@@ -24335,24 +24336,24 @@
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="V232" t="n">
+        <v>7</v>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>4-6-0</t>
+        </is>
+      </c>
+      <c r="Y232" t="n">
         <v>4</v>
-      </c>
-      <c r="W232" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="X232" t="inlineStr">
-        <is>
-          <t>3-6-1</t>
-        </is>
-      </c>
-      <c r="Y232" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="233">
@@ -24370,7 +24371,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -24378,7 +24379,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1.26428571</v>
+        <v>1.15135135</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -24386,7 +24387,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>3.08571429</v>
+        <v>2.48108108</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -24394,7 +24395,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -24402,7 +24403,7 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>0.36774194</v>
+        <v>0.36619718</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
@@ -24418,7 +24419,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -24426,24 +24427,24 @@
         </is>
       </c>
       <c r="R233" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="T233" t="n">
+        <v>2</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V233" t="n">
         <v>1</v>
       </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>TIE</t>
-        </is>
-      </c>
-      <c r="V233" t="n">
-        <v>0</v>
-      </c>
       <c r="W233" t="inlineStr">
         <is>
           <t>LOSS</t>
@@ -24451,11 +24452,11 @@
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>6-3-1</t>
+          <t>6-4-0</t>
         </is>
       </c>
       <c r="Y233" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
@@ -24473,7 +24474,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -24481,7 +24482,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1.3902439</v>
+        <v>1.23</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -24489,7 +24490,7 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>4.6097561</v>
+        <v>4.59</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -24497,7 +24498,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -24505,7 +24506,7 @@
         </is>
       </c>
       <c r="L234" t="n">
-        <v>0.38345865</v>
+        <v>0.37566138</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
@@ -24513,7 +24514,7 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -24521,7 +24522,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -24529,7 +24530,7 @@
         </is>
       </c>
       <c r="R234" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
@@ -24537,15 +24538,15 @@
         </is>
       </c>
       <c r="T234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="V234" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W234" t="inlineStr">
         <is>
@@ -24554,11 +24555,11 @@
       </c>
       <c r="X234" t="inlineStr">
         <is>
-          <t>2-8-0</t>
+          <t>3-7-0</t>
         </is>
       </c>
       <c r="Y234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -24576,7 +24577,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -24584,7 +24585,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0.69230769</v>
+        <v>1.06299213</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -24592,7 +24593,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>2.07692308</v>
+        <v>4.46456693</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -24600,7 +24601,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -24608,7 +24609,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>0.3028169</v>
+        <v>0.28899083</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -24616,7 +24617,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -24624,7 +24625,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -24632,7 +24633,7 @@
         </is>
       </c>
       <c r="R235" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S235" t="inlineStr">
         <is>
@@ -24644,11 +24645,11 @@
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="V235" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W235" t="inlineStr">
         <is>
@@ -24657,11 +24658,11 @@
       </c>
       <c r="X235" t="inlineStr">
         <is>
-          <t>8-2-0</t>
+          <t>7-3-0</t>
         </is>
       </c>
       <c r="Y235" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -24679,63 +24680,63 @@
         </is>
       </c>
       <c r="D236" t="n">
+        <v>4</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1.06153846</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>3.73846154</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>17</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>0.36363636</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>2</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="F236" t="n">
-        <v>0.80357143</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="H236" t="n">
-        <v>2.41071429</v>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="J236" t="n">
-        <v>14</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>0.36752137</v>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="N236" t="n">
-        <v>1</v>
-      </c>
       <c r="O236" t="inlineStr">
         <is>
           <t>LOSS</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="R236" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
@@ -24747,7 +24748,7 @@
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>TIE</t>
         </is>
       </c>
       <c r="V236" t="n">
@@ -24760,11 +24761,11 @@
       </c>
       <c r="X236" t="inlineStr">
         <is>
-          <t>6-3-1</t>
+          <t>5-4-1</t>
         </is>
       </c>
       <c r="Y236" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="237">
@@ -24782,7 +24783,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -24790,7 +24791,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1.05405405</v>
+        <v>1.11627907</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -24798,7 +24799,7 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>3.64864865</v>
+        <v>4.39534884</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -24806,7 +24807,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -24814,7 +24815,7 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>0.2972973</v>
+        <v>0.30733945</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
@@ -24822,35 +24823,35 @@
         </is>
       </c>
       <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>32</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
         <v>2</v>
       </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="P237" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q237" t="inlineStr">
+      <c r="U237" t="inlineStr">
         <is>
           <t>TIE</t>
-        </is>
-      </c>
-      <c r="R237" t="n">
-        <v>19</v>
-      </c>
-      <c r="S237" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="T237" t="n">
-        <v>1</v>
-      </c>
-      <c r="U237" t="inlineStr">
-        <is>
-          <t>LOSS</t>
         </is>
       </c>
       <c r="V237" t="n">
@@ -24863,11 +24864,11 @@
       </c>
       <c r="X237" t="inlineStr">
         <is>
-          <t>3-6-1</t>
+          <t>4-5-1</t>
         </is>
       </c>
       <c r="Y237" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="238">
@@ -24885,7 +24886,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -24893,7 +24894,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1.01086957</v>
+        <v>1.17293233</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -24901,7 +24902,7 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>4.98913043</v>
+        <v>4.87218045</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -24909,7 +24910,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -24917,7 +24918,7 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>0.29411765</v>
+        <v>0.30414747</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
@@ -24925,7 +24926,7 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -24933,7 +24934,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -24941,7 +24942,7 @@
         </is>
       </c>
       <c r="R238" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -24953,11 +24954,11 @@
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="V238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W238" t="inlineStr">
         <is>
@@ -24966,11 +24967,11 @@
       </c>
       <c r="X238" t="inlineStr">
         <is>
-          <t>3-6-1</t>
+          <t>3-7-0</t>
         </is>
       </c>
       <c r="Y238" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -24988,7 +24989,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -24996,7 +24997,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1.22727273</v>
+        <v>1.2</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -25004,7 +25005,7 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>4.90909091</v>
+        <v>4.62857143</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -25012,7 +25013,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -25020,7 +25021,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>0.32413793</v>
+        <v>0.33495146</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -25028,7 +25029,7 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -25036,7 +25037,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -25044,7 +25045,7 @@
         </is>
       </c>
       <c r="R239" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -25052,15 +25053,15 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>TIE</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="V239" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W239" t="inlineStr">
         <is>
@@ -25069,11 +25070,11 @@
       </c>
       <c r="X239" t="inlineStr">
         <is>
-          <t>6-3-1</t>
+          <t>7-3-0</t>
         </is>
       </c>
       <c r="Y239" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -25091,7 +25092,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -25099,7 +25100,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1.76086957</v>
+        <v>1.69565217</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -25107,7 +25108,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>7.92391304</v>
+        <v>6.65217391</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -25115,7 +25116,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -25123,11 +25124,11 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>0.28571429</v>
+        <v>0.32</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="N240" t="n">
@@ -25139,7 +25140,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -25147,7 +25148,7 @@
         </is>
       </c>
       <c r="R240" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -25163,7 +25164,7 @@
         </is>
       </c>
       <c r="V240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W240" t="inlineStr">
         <is>
@@ -25172,11 +25173,11 @@
       </c>
       <c r="X240" t="inlineStr">
         <is>
-          <t>2-8-0</t>
+          <t>3-7-0</t>
         </is>
       </c>
       <c r="Y240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -25194,7 +25195,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -25202,7 +25203,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1.07142857</v>
+        <v>1.43181818</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -25210,7 +25211,7 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>3.85714286</v>
+        <v>6.13636364</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -25218,7 +25219,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -25226,11 +25227,11 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>0.28888889</v>
+        <v>0.31308411</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="N241" t="n">
@@ -25242,7 +25243,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -25250,7 +25251,7 @@
         </is>
       </c>
       <c r="R241" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -25258,7 +25259,7 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
@@ -25266,7 +25267,7 @@
         </is>
       </c>
       <c r="V241" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W241" t="inlineStr">
         <is>
@@ -25275,11 +25276,11 @@
       </c>
       <c r="X241" t="inlineStr">
         <is>
-          <t>8-2-0</t>
+          <t>7-3-0</t>
         </is>
       </c>
       <c r="Y241" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -26554,7 +26555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1281"/>
+  <dimension ref="A1:D1280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44267,7 +44268,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Bobby Miller</t>
+          <t>Reid Detmers</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -44287,7 +44288,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>Reid Detmers</t>
+          <t>Kodai Senga</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -44307,7 +44308,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Kodai Senga</t>
+          <t>Luis Rengifo</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -44327,7 +44328,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Luis Rengifo</t>
+          <t>Cristian Javier</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -44347,7 +44348,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Cristian Javier</t>
+          <t>Spencer Strider</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -44367,7 +44368,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Spencer Strider</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -44407,7 +44408,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Sean Murphy</t>
+          <t>Nolan Jones</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -44427,7 +44428,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Nolan Jones</t>
+          <t>Adbert Alzolay</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -44447,7 +44448,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Adbert Alzolay</t>
+          <t>Spencer Torkelson</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -44467,7 +44468,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Spencer Torkelson</t>
+          <t>Jung Hoo Lee</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -44487,7 +44488,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Jung Hoo Lee</t>
+          <t>Matt McLain</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -44507,7 +44508,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Matt McLain</t>
+          <t>Kyle Bradish</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -44527,7 +44528,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Cody Bradford</t>
+          <t>Braxton Garrett</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -44547,7 +44548,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Kyle Bradish</t>
+          <t>Jordan Hicks</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -44567,7 +44568,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Braxton Garrett</t>
+          <t>Clarke Schmidt</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -44587,7 +44588,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Jordan Hicks</t>
+          <t>Shane Bieber</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -44607,7 +44608,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Clarke Schmidt</t>
+          <t>Jose Leclerc</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -44627,7 +44628,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Shane Bieber</t>
+          <t>Cody Bradford</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -44647,7 +44648,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Jose Leclerc</t>
+          <t>Alex Lange</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -44667,7 +44668,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Alex Lange</t>
+          <t>Thairo Estrada</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -44687,7 +44688,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Thairo Estrada</t>
+          <t>Eury Perez</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -44707,7 +44708,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Eury Perez</t>
+          <t>Jason Foley</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -44727,7 +44728,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Jason Foley</t>
+          <t>Chad Green</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -44767,7 +44768,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Chad Green</t>
+          <t>Luis Campusano</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -44787,7 +44788,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Jose Quintana</t>
+          <t>Paul Blackburn</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -44807,7 +44808,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Luis Campusano</t>
+          <t>Michael Conforto</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -44827,7 +44828,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Paul Blackburn</t>
+          <t>Kenta Maeda</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -44847,7 +44848,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Michael Conforto</t>
+          <t>Austin Wells</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -44867,7 +44868,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Kenta Maeda</t>
+          <t>Dean Kremer</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -44887,7 +44888,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Dean Kremer</t>
+          <t>Aaron Civale</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -44907,7 +44908,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Austin Wells</t>
+          <t>Amed Rosario</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -44927,7 +44928,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Aaron Civale</t>
+          <t>Jose Quintana</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -44947,7 +44948,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Gavin Lux</t>
+          <t>James McArthur</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -44967,7 +44968,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Amed Rosario</t>
+          <t>Jeffrey Springs</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -45007,7 +45008,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>James McArthur</t>
+          <t>Travis d'Arnaud</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -45027,7 +45028,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Travis d'Arnaud</t>
+          <t>Trevor Megill</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -45047,7 +45048,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Trevor Megill</t>
+          <t>Triston McKenzie</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -45067,7 +45068,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Triston McKenzie</t>
+          <t>Martin Perez</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -45087,7 +45088,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Martin Perez</t>
+          <t>Trevor Williams</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -45107,7 +45108,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Trevor Williams</t>
+          <t>Jordan Walker</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -45447,7 +45448,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Yimi Garcia</t>
+          <t>Oneil Cruz</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -45467,7 +45468,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Oneil Cruz</t>
+          <t>Max Fried</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -45487,7 +45488,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>Max Fried</t>
+          <t>Jameson Taillon</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -45507,7 +45508,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Jameson Taillon</t>
+          <t>James Wood</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -45527,7 +45528,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>James Wood</t>
+          <t>Yennier Cano</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -45547,7 +45548,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Yennier Cano</t>
+          <t>Willi Castro</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -45567,7 +45568,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Willi Castro</t>
+          <t>Joe Jimenez</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -45587,7 +45588,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Joe Jimenez</t>
+          <t>Wilyer Abreu</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -45607,7 +45608,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Wilyer Abreu</t>
+          <t>Josh Lowe</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -45627,7 +45628,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Josh Lowe</t>
+          <t>Max Muncy</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -45647,7 +45648,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Max Muncy</t>
+          <t>Tobias Myers</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -45667,7 +45668,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Tobias Myers</t>
+          <t>Josh Bell</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -45687,7 +45688,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Josh Bell</t>
+          <t>Bobby Miller</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -46167,7 +46168,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Abraham Toro</t>
+          <t>Joc Pederson</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -46187,7 +46188,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>Joc Pederson</t>
+          <t>Tyler Stephenson</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -46207,7 +46208,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Tyler Stephenson</t>
+          <t>Bryan Hudson</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -46227,7 +46228,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Bryan Hudson</t>
+          <t>Yainer Diaz</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -46247,7 +46248,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Yainer Diaz</t>
+          <t>Ryan Pepiot</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -46267,7 +46268,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Ryan Pepiot</t>
+          <t>J.P. Crawford</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -46287,7 +46288,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>J.P. Crawford</t>
+          <t>Dansby Swanson</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -46307,17 +46308,17 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Dansby Swanson</t>
+          <t>Austin Riley</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>Dumpster  Bangers</t>
+          <t>Boating  With Jose</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>Carson Motter</t>
+          <t>Logan Heitkamp</t>
         </is>
       </c>
       <c r="D988" t="n">
@@ -46327,7 +46328,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Austin Riley</t>
+          <t>Josh Jung</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -46347,7 +46348,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Josh Jung</t>
+          <t>Gavin Williams</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -46367,7 +46368,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Gavin Williams</t>
+          <t>Cody Bellinger</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -46387,7 +46388,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>Cody Bellinger</t>
+          <t>Kerry Carpenter</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -46407,7 +46408,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Kerry Carpenter</t>
+          <t>Paul Skenes</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -46427,7 +46428,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Paul Skenes</t>
+          <t>Brenton Doyle</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -46447,7 +46448,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Brenton Doyle</t>
+          <t>Daniel Hudson</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -46467,7 +46468,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Daniel Hudson</t>
+          <t>Andrew Abbott</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -46487,7 +46488,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>Andrew Abbott</t>
+          <t>Jonathan India</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -46507,7 +46508,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Jonathan India</t>
+          <t>Seiya Suzuki</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -46527,7 +46528,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Seiya Suzuki</t>
+          <t>Nick Lodolo</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -46547,7 +46548,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Nick Lodolo</t>
+          <t>Patrick Bailey</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -46567,7 +46568,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Patrick Bailey</t>
+          <t>Alec Burleson</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -46587,7 +46588,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>Alec Burleson</t>
+          <t>Trea Turner</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -46607,7 +46608,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Trea Turner</t>
+          <t>Kutter Crawford</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -46627,7 +46628,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Kutter Crawford</t>
+          <t>Jackson Merrill</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -46647,7 +46648,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Jackson Merrill</t>
+          <t>Andrew Kittredge</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -46667,7 +46668,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Andrew Kittredge</t>
+          <t>Mark Vientos</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -46687,7 +46688,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Mark Vientos</t>
+          <t>Robbie Ray</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -46707,7 +46708,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Robbie Ray</t>
+          <t>Nick Pivetta</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -46727,7 +46728,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Nick Pivetta</t>
+          <t>Ryan Pressly</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -46747,7 +46748,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Ryan Pressly</t>
+          <t>Jesse Winker</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -46767,7 +46768,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Jesse Winker</t>
+          <t>Pete Alonso</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -46787,7 +46788,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>Pete Alonso</t>
+          <t>Tyler Mahle</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -46807,7 +46808,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Tyler Mahle</t>
+          <t>Tyler Fitzgerald</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -46827,17 +46828,17 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Tyler Fitzgerald</t>
+          <t>Aaron Judge</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Boating  With Jose</t>
+          <t>Team Free</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>Logan Heitkamp</t>
+          <t>Preston Free</t>
         </is>
       </c>
       <c r="D1014" t="n">
@@ -46847,7 +46848,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Aaron Judge</t>
+          <t>Marcus Semien</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -46867,7 +46868,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Marcus Semien</t>
+          <t>Paul Goldschmidt</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -46887,7 +46888,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>Paul Goldschmidt</t>
+          <t>Tyler Glasnow</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -46907,7 +46908,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Tyler Glasnow</t>
+          <t>Will Smith</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -46927,7 +46928,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Will Smith</t>
+          <t>Xander Bogaerts</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -46947,7 +46948,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Xander Bogaerts</t>
+          <t>Dylan Cease</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -46967,7 +46968,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Dylan Cease</t>
+          <t>Merrill Kelly</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -46987,7 +46988,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>Merrill Kelly</t>
+          <t>Raisel Iglesias</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -47007,7 +47008,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Raisel Iglesias</t>
+          <t>Brandon Nimmo</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -47027,7 +47028,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Brandon Nimmo</t>
+          <t>Steven Kwan</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -47047,7 +47048,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Steven Kwan</t>
+          <t>TJ Friedl</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -47067,7 +47068,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>TJ Friedl</t>
+          <t>Eloy Jimenez</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -47087,7 +47088,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>Eloy Jimenez</t>
+          <t>Ke'Bryan Hayes</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -47107,7 +47108,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Ke'Bryan Hayes</t>
+          <t>Jeff McNeil</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -47127,7 +47128,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Jeff McNeil</t>
+          <t>Justin Turner</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -47147,7 +47148,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Justin Turner</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -47167,7 +47168,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Max Scherzer</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr">
@@ -47187,7 +47188,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>Max Scherzer</t>
+          <t>Carlos Estevez</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr">
@@ -47207,7 +47208,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Carlos Estevez</t>
+          <t>Colt Keith</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr">
@@ -47227,7 +47228,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Colt Keith</t>
+          <t>Brusdar Graterol</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
@@ -47247,7 +47248,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Brusdar Graterol</t>
+          <t>Brandon Marsh</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
@@ -47267,7 +47268,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Brandon Marsh</t>
+          <t>Charlie Blackmon</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -47287,7 +47288,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>Charlie Blackmon</t>
+          <t>Nathaniel Lowe</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
@@ -47307,7 +47308,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Nathaniel Lowe</t>
+          <t>Luis Severino</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
@@ -47327,7 +47328,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Luis Severino</t>
+          <t>Luis Gil</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
@@ -47347,7 +47348,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Luis Gil</t>
+          <t>Kenley Jansen</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
@@ -47367,7 +47368,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Kenley Jansen</t>
+          <t>Eugenio Suarez</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
@@ -47387,17 +47388,17 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>Eugenio Suarez</t>
+          <t>Juan Soto</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Team Free</t>
+          <t>Speed Kills</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>Preston Free</t>
+          <t>Isaac Cisco</t>
         </is>
       </c>
       <c r="D1042" t="n">
@@ -47407,7 +47408,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Juan Soto</t>
+          <t>Ozzie Albies</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
@@ -47427,7 +47428,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Ozzie Albies</t>
+          <t>Alex Bregman</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
@@ -47447,7 +47448,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Alex Bregman</t>
+          <t>Nolan Arenado</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
@@ -47467,7 +47468,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Nolan Arenado</t>
+          <t>Christian Walker</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
@@ -47487,7 +47488,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>Christian Walker</t>
+          <t>William Contreras</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
@@ -47507,7 +47508,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>William Contreras</t>
+          <t>Blake Snell</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
@@ -47527,7 +47528,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Blake Snell</t>
+          <t>Joe Musgrove</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
@@ -47547,7 +47548,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Joe Musgrove</t>
+          <t>Chris Sale</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
@@ -47567,7 +47568,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Chris Sale</t>
+          <t>Gleyber Torres</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
@@ -47587,7 +47588,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>Gleyber Torres</t>
+          <t>Ian Happ</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
@@ -47607,7 +47608,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Ian Happ</t>
+          <t>Charlie Morton</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
@@ -47627,7 +47628,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Charlie Morton</t>
+          <t>Carlos Correa</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
@@ -47647,7 +47648,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Carlos Correa</t>
+          <t>Robert Suarez</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
@@ -47667,7 +47668,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Robert Suarez</t>
+          <t>A.J. Minter</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
@@ -47687,7 +47688,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>A.J. Minter</t>
+          <t>Tanner Houck</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -47707,7 +47708,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Tanner Houck</t>
+          <t>David Robertson</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
@@ -47727,7 +47728,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>David Robertson</t>
+          <t>Josh Smith</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
@@ -47747,7 +47748,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Josh Smith</t>
+          <t>Ben Lively</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -47767,7 +47768,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Ben Lively</t>
+          <t>Ryne Stanek</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
@@ -47787,7 +47788,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>Ryne Stanek</t>
+          <t>Erick Fedde</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -47807,7 +47808,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Erick Fedde</t>
+          <t>Logan Webb</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
@@ -47827,7 +47828,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Logan Webb</t>
+          <t>Isaac Paredes</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -47847,7 +47848,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Isaac Paredes</t>
+          <t>Lawrence Butler</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
@@ -47867,7 +47868,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Lawrence Butler</t>
+          <t>Jose Iglesias</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -47887,7 +47888,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>Jose Iglesias</t>
+          <t>Ryne Nelson</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
@@ -47907,7 +47908,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Ryne Nelson</t>
+          <t>Ernie Clement</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
@@ -47927,7 +47928,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Ernie Clement</t>
+          <t>Jake Burger</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
@@ -47947,7 +47948,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Jake Burger</t>
+          <t>Jason Adam</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
@@ -47967,7 +47968,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Jason Adam</t>
+          <t>Andrew Benintendi</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
@@ -47987,17 +47988,17 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>Andrew Benintendi</t>
+          <t>Gerrit Cole</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Speed Kills</t>
+          <t>Team Motter</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Isaac Cisco</t>
+          <t>Ethan Motter</t>
         </is>
       </c>
       <c r="D1072" t="n">
@@ -48007,7 +48008,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Rafael Devers</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
@@ -48027,7 +48028,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Rafael Devers</t>
+          <t>Zac Gallen</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -48047,7 +48048,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Zac Gallen</t>
+          <t>Michael Harris II</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -48067,7 +48068,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Michael Harris II</t>
+          <t>CJ Abrams</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
@@ -48087,7 +48088,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>CJ Abrams</t>
+          <t>Jesus Luzardo</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
@@ -48107,7 +48108,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Jesus Luzardo</t>
+          <t>Justin Steele</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
@@ -48127,7 +48128,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Justin Steele</t>
+          <t>Zach Eflin</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
@@ -48147,7 +48148,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Zach Eflin</t>
+          <t>Chris Bassitt</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
@@ -48167,7 +48168,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Chris Bassitt</t>
+          <t>Anthony Santander</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
@@ -48187,7 +48188,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>Anthony Santander</t>
+          <t>Jose Berrios</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
@@ -48207,7 +48208,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Jose Berrios</t>
+          <t>Josh Naylor</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
@@ -48227,7 +48228,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Josh Naylor</t>
+          <t>Gabriel Moreno</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
@@ -48247,7 +48248,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Gabriel Moreno</t>
+          <t>Craig Kimbrel</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
@@ -48267,7 +48268,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Craig Kimbrel</t>
+          <t>Shota Imanaga</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
@@ -48287,7 +48288,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Shota Imanaga</t>
+          <t>Yandy Diaz</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
@@ -48307,7 +48308,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Yandy Diaz</t>
+          <t>Kyle Finnegan</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
@@ -48327,7 +48328,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Kyle Finnegan</t>
+          <t>Giancarlo Stanton</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
@@ -48347,7 +48348,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Giancarlo Stanton</t>
+          <t>Byron Buxton</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
@@ -48367,7 +48368,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Byron Buxton</t>
+          <t>Matt Strahm</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
@@ -48387,7 +48388,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>Matt Strahm</t>
+          <t>Jake Fraley</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
@@ -48407,7 +48408,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Jake Fraley</t>
+          <t>Jake Cronenworth</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
@@ -48427,7 +48428,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Jake Cronenworth</t>
+          <t>Yusei Kikuchi</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
@@ -48447,7 +48448,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Yusei Kikuchi</t>
+          <t>Griffin Jax</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
@@ -48467,7 +48468,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Griffin Jax</t>
+          <t>Brendan Donovan</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
@@ -48487,7 +48488,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>Brendan Donovan</t>
+          <t>Jackson Chourio</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
@@ -48507,7 +48508,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Jackson Chourio</t>
+          <t>Isiah Kiner-Falefa</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -48527,7 +48528,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Isiah Kiner-Falefa</t>
+          <t>Matt Vierling</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
@@ -48547,7 +48548,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Matt Vierling</t>
+          <t>Kyle Harrison</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
@@ -48567,7 +48568,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Kyle Harrison</t>
+          <t>Lars Nootbaar</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
@@ -48587,17 +48588,17 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>Lars Nootbaar</t>
+          <t>Yordan Alvarez</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Team Motter</t>
+          <t>Parker Is clutch</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Ethan Motter</t>
+          <t>Tyler Free</t>
         </is>
       </c>
       <c r="D1102" t="n">
@@ -48607,7 +48608,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Yordan Alvarez</t>
+          <t>Jose Ramirez</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
@@ -48627,7 +48628,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Jose Ramirez</t>
+          <t>Luis Robert Jr.</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
@@ -48647,7 +48648,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Luis Robert Jr.</t>
+          <t>Logan Gilbert</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
@@ -48667,7 +48668,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Logan Gilbert</t>
+          <t>Devin Williams</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
@@ -48687,7 +48688,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Devin Williams</t>
+          <t>Luis Arraez</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
@@ -48707,7 +48708,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Luis Arraez</t>
+          <t>Nick Castellanos</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
@@ -48727,7 +48728,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Nick Castellanos</t>
+          <t>Salvador Perez</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
@@ -48747,7 +48748,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Salvador Perez</t>
+          <t>David Bednar</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
@@ -48767,7 +48768,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>David Bednar</t>
+          <t>Justin Verlander</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
@@ -48787,7 +48788,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>Justin Verlander</t>
+          <t>Francisco Alvarez</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
@@ -48807,7 +48808,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Francisco Alvarez</t>
+          <t>Tanner Scott</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
@@ -48827,7 +48828,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Tanner Scott</t>
+          <t>Willy Adames</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
@@ -48847,7 +48848,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Willy Adames</t>
+          <t>Ezequiel Tovar</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
@@ -48867,7 +48868,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Ezequiel Tovar</t>
+          <t>Jacob deGrom</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
@@ -48887,7 +48888,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>Jacob deGrom</t>
+          <t>Ranger Suarez</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
@@ -48907,7 +48908,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Ranger Suarez</t>
+          <t>Brady Singer</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -48927,7 +48928,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Brady Singer</t>
+          <t>Daulton Varsho</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
@@ -48947,7 +48948,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Daulton Varsho</t>
+          <t>Tommy Edman</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
@@ -48967,7 +48968,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Tommy Edman</t>
+          <t>Javier Assad</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
@@ -48987,7 +48988,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>Javier Assad</t>
+          <t>JoJo Romero</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
@@ -49007,7 +49008,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>JoJo Romero</t>
+          <t>Albert Suarez</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
@@ -49027,7 +49028,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Albert Suarez</t>
+          <t>Kyle Tucker</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
@@ -49047,7 +49048,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Kyle Tucker</t>
+          <t>Framber Valdez</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
@@ -49067,7 +49068,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Framber Valdez</t>
+          <t>Dylan Moore</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
@@ -49087,7 +49088,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Dylan Moore</t>
+          <t>Brandon Lowe</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
@@ -49107,7 +49108,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Brandon Lowe</t>
+          <t>Jacob Young</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
@@ -49127,7 +49128,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Jacob Young</t>
+          <t>Griffin Canning</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
@@ -49147,7 +49148,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Griffin Canning</t>
+          <t>Yariel Rodriguez</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
@@ -49167,7 +49168,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Yariel Rodriguez</t>
+          <t>Tyler Rogers</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
@@ -49187,7 +49188,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>Tyler Rogers</t>
+          <t>Wyatt Langford</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -49207,17 +49208,17 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Wyatt Langford</t>
+          <t>Mookie Betts</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Parker Is clutch</t>
+          <t>Franco Jr. High School</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Tyler Free</t>
+          <t>austin  brown</t>
         </is>
       </c>
       <c r="D1133" t="n">
@@ -49227,7 +49228,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Mookie Betts</t>
+          <t>Luis Castillo</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
@@ -49247,7 +49248,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Luis Castillo</t>
+          <t>Adley Rutschman</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
@@ -49267,7 +49268,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Adley Rutschman</t>
+          <t>Aaron Nola</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
@@ -49287,7 +49288,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Aaron Nola</t>
+          <t>Randy Arozarena</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -49307,7 +49308,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Randy Arozarena</t>
+          <t>Josh Hader</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
@@ -49327,7 +49328,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Josh Hader</t>
+          <t>Triston Casas</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
@@ -49347,7 +49348,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Triston Casas</t>
+          <t>Teoscar Hernandez</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
@@ -49367,7 +49368,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Teoscar Hernandez</t>
+          <t>Bryce Miller</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -49387,7 +49388,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>Bryce Miller</t>
+          <t>Jared Jones</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -49407,7 +49408,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Jared Jones</t>
+          <t>Brice Turang</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -49427,7 +49428,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Brice Turang</t>
+          <t>Mason Miller</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -49447,7 +49448,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Mason Miller</t>
+          <t>J.D. Martinez</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -49467,7 +49468,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>J.D. Martinez</t>
+          <t>Clayton Kershaw</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
@@ -49487,7 +49488,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>Clayton Kershaw</t>
+          <t>Gavin Stone</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -49507,7 +49508,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Gavin Stone</t>
+          <t>David Fry</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -49527,7 +49528,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>David Fry</t>
+          <t>Jose Miranda</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -49547,7 +49548,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Jose Miranda</t>
+          <t>Michael Busch</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -49567,7 +49568,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Michael Busch</t>
+          <t>Jake Irvin</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -49587,7 +49588,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>Jake Irvin</t>
+          <t>Jordan Westburg</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -49607,7 +49608,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Jordan Westburg</t>
+          <t>Jazz Chisholm Jr.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
@@ -49627,7 +49628,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Jazz Chisholm Jr.</t>
+          <t>Cade Smith</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
@@ -49647,7 +49648,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Cade Smith</t>
+          <t>Max Kepler</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -49667,7 +49668,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Max Schuemann</t>
+          <t>Masyn Winn</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -49687,7 +49688,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>Max Kepler</t>
+          <t>Colton Cowser</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -49707,7 +49708,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Masyn Winn</t>
+          <t>Ryan Walker</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
@@ -49727,7 +49728,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Colton Cowser</t>
+          <t>Michael Wacha</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -49747,7 +49748,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Ryan Walker</t>
+          <t>Michael Lorenzen</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -49767,7 +49768,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Michael Wacha</t>
+          <t>Simeon Woods Richardson</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -49787,17 +49788,17 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Joey Ortiz</t>
+          <t>Ronald Acuna Jr.</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Franco Jr. High School</t>
+          <t>Another Sunday Collapse</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>austin  brown</t>
+          <t>Austin Yates</t>
         </is>
       </c>
       <c r="D1162" t="n">
@@ -49807,7 +49808,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Ronald Acuna Jr.</t>
+          <t>Gunnar Henderson</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
@@ -49827,7 +49828,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Gunnar Henderson</t>
+          <t>Freddy Peralta</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -49847,7 +49848,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Freddy Peralta</t>
+          <t>Emmanuel Clase</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -49867,7 +49868,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Emmanuel Clase</t>
+          <t>Alexis Diaz</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
@@ -49887,7 +49888,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Alexis Diaz</t>
+          <t>Anthony Volpe</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -49907,7 +49908,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Anthony Volpe</t>
+          <t>Bailey Ober</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -49927,7 +49928,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Bailey Ober</t>
+          <t>Walker Buehler</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
@@ -49947,7 +49948,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Walker Buehler</t>
+          <t>Christopher Morel</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
@@ -49967,7 +49968,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Christopher Morel</t>
+          <t>Marcus Stroman</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -49987,7 +49988,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>Marcus Stroman</t>
+          <t>Ryan Mountcastle</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
@@ -50007,7 +50008,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Ryan Mountcastle</t>
+          <t>JJ Bleday</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
@@ -50027,7 +50028,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>JJ Bleday</t>
+          <t>Jon Gray</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
@@ -50047,7 +50048,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Jon Gray</t>
+          <t>Shea Langeliers</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
@@ -50067,7 +50068,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Shea Langeliers</t>
+          <t>Ceddanne Rafaela</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
@@ -50087,7 +50088,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>Ceddanne Rafaela</t>
+          <t>Grayson Rodriguez</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
@@ -50107,7 +50108,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Grayson Rodriguez</t>
+          <t>Elly De La Cruz</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -50127,7 +50128,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Elly De La Cruz</t>
+          <t>Seth Lugo</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
@@ -50147,7 +50148,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Seth Lugo</t>
+          <t>Camilo Doval</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
@@ -50167,7 +50168,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Camilo Doval</t>
+          <t>Alex Verdugo</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
@@ -50187,7 +50188,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>Alex Verdugo</t>
+          <t>Nolan Gorman</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
@@ -50207,7 +50208,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Nolan Gorman</t>
+          <t>Tyler Phillips</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
@@ -50227,7 +50228,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Tyler Phillips</t>
+          <t>Cedric Mullins</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
@@ -50247,7 +50248,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Cedric Mullins</t>
+          <t>Colin Rea</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
@@ -50267,7 +50268,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Colin Rea</t>
+          <t>Lance Lynn</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -50287,7 +50288,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>Lance Lynn</t>
+          <t>Nick Martinez</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -50307,7 +50308,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Nick Martinez</t>
+          <t>Jose Soriano</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
@@ -50327,7 +50328,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Jose Soriano</t>
+          <t>Jeimer Candelario</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
@@ -50347,7 +50348,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Jeimer Candelario</t>
+          <t>Luis Garcia Jr.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -50367,7 +50368,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Luis Garcia Jr.</t>
+          <t>Taijuan Walker</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
@@ -50387,17 +50388,17 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>Taijuan Walker</t>
+          <t>Shohei Ohtani</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Another Sunday Collapse</t>
+          <t>Corbin on the Cob</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Austin Yates</t>
+          <t>Zach Yates</t>
         </is>
       </c>
       <c r="D1192" t="n">
@@ -50407,7 +50408,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Shohei Ohtani</t>
+          <t>Corbin Burnes</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
@@ -50427,7 +50428,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Corbin Burnes</t>
+          <t>Francisco Lindor</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
@@ -50447,7 +50448,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Francisco Lindor</t>
+          <t>Corbin Carroll</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
@@ -50467,7 +50468,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Corbin Carroll</t>
+          <t>Edwin Diaz</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
@@ -50487,7 +50488,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Edwin Diaz</t>
+          <t>Carlos Rodon</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -50507,7 +50508,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Carlos Rodon</t>
+          <t>Bryan Abreu</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -50527,7 +50528,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Bryan Abreu</t>
+          <t>MacKenzie Gore</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -50547,7 +50548,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>MacKenzie Gore</t>
+          <t>Reynaldo Lopez</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -50567,7 +50568,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Reynaldo Lopez</t>
+          <t>Jurickson Profar</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
@@ -50587,7 +50588,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>Jurickson Profar</t>
+          <t>Evan Phillips</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
@@ -50607,7 +50608,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Evan Phillips</t>
+          <t>Adolis Garcia</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -50627,7 +50628,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Adolis Garcia</t>
+          <t>Evan Carter</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -50647,7 +50648,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Evan Carter</t>
+          <t>Ben Brown</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -50667,7 +50668,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Ben Brown</t>
+          <t>Heliot Ramos</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -50687,7 +50688,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>Heliot Ramos</t>
+          <t>Spencer Horwitz</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -50707,7 +50708,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Spencer Horwitz</t>
+          <t>Logan O'Hoppe</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -50727,7 +50728,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Logan O'Hoppe</t>
+          <t>Spencer Schwellenbach</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -50747,7 +50748,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Spencer Schwellenbach</t>
+          <t>Zach Neto</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -50767,7 +50768,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Zach Neto</t>
+          <t>Andrew Heaney</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -50787,7 +50788,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Andrew Heaney</t>
+          <t>Hunter Greene</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -50807,7 +50808,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Hunter Greene</t>
+          <t>Manny Machado</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
@@ -50827,7 +50828,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Manny Machado</t>
+          <t>Christian Scott</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
@@ -50847,7 +50848,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Christian Scott</t>
+          <t>A.J. Puk</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -50867,7 +50868,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>A.J. Puk</t>
+          <t>Xavier Edwards</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -50887,7 +50888,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>Xavier Edwards</t>
+          <t>JP Sears</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -50907,7 +50908,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Victor Robles</t>
+          <t>Shane Baz</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -50927,7 +50928,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>JP Sears</t>
+          <t>Bowden Francis</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
@@ -50947,7 +50948,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Shane Baz</t>
+          <t>Junior Caminero</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
@@ -50967,7 +50968,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Bowden Francis</t>
+          <t>Gavin Lux</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -50987,17 +50988,17 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>Junior Caminero</t>
+          <t>Freddie Freeman</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Corbin on the Cob</t>
+          <t>Team Munch</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Zach Yates</t>
+          <t>Dillon Ysseldyke</t>
         </is>
       </c>
       <c r="D1222" t="n">
@@ -51007,7 +51008,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Freddie Freeman</t>
+          <t>Bo Bichette</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
@@ -51027,7 +51028,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Bo Bichette</t>
+          <t>George Kirby</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -51047,7 +51048,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>George Kirby</t>
+          <t>Ketel Marte</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -51067,7 +51068,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Ketel Marte</t>
+          <t>Tarik Skubal</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -51087,7 +51088,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Tarik Skubal</t>
+          <t>George Springer</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -51107,7 +51108,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>George Springer</t>
+          <t>Ha-Seong Kim</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
@@ -51127,7 +51128,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Ha-Seong Kim</t>
+          <t>Clay Holmes</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
@@ -51147,7 +51148,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Clay Holmes</t>
+          <t>Masataka Yoshida</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -51167,7 +51168,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Masataka Yoshida</t>
+          <t>Paul Sewald</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
@@ -51187,7 +51188,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>Paul Sewald</t>
+          <t>Andres Munoz</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
@@ -51207,7 +51208,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Andres Munoz</t>
+          <t>Lourdes Gurriel Jr.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -51227,7 +51228,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Lourdes Gurriel Jr.</t>
+          <t>Jarren Duran</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -51247,7 +51248,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Jarren Duran</t>
+          <t>Jonah Heim</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
@@ -51267,7 +51268,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Jonah Heim</t>
+          <t>Nathan Eovaldi</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
@@ -51287,7 +51288,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>Nathan Eovaldi</t>
+          <t>Anthony Rizzo</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -51307,7 +51308,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Anthony Rizzo</t>
+          <t>Brent Rooker</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
@@ -51327,7 +51328,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Brent Rooker</t>
+          <t>Willson Contreras</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
@@ -51347,7 +51348,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Willson Contreras</t>
+          <t>Garrett Crochet</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
@@ -51367,7 +51368,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Garrett Crochet</t>
+          <t>Jose Caballero</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -51387,7 +51388,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>Jose Caballero</t>
+          <t>Ronel Blanco</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
@@ -51407,7 +51408,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Ronel Blanco</t>
+          <t>Reese Olson</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
@@ -51427,7 +51428,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Reese Olson</t>
+          <t>Tyler Anderson</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
@@ -51447,7 +51448,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Tyler Anderson</t>
+          <t>Nestor Cortes</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -51467,7 +51468,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Nestor Cortes</t>
+          <t>Carlos Santana</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
@@ -51487,7 +51488,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>Carlos Santana</t>
+          <t>Jeff Hoffman</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
@@ -51507,7 +51508,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Jeff Hoffman</t>
+          <t>Nick Gonzales</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
@@ -51527,7 +51528,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Nick Gonzales</t>
+          <t>Brayan Bello</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
@@ -51547,7 +51548,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Brayan Bello</t>
+          <t>Jackson Holliday</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
@@ -51567,7 +51568,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Jackson Holliday</t>
+          <t>Bryan De La Cruz</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
@@ -51587,7 +51588,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>Bryan De La Cruz</t>
+          <t>Matt Waldron</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
@@ -51607,17 +51608,17 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Matt Waldron</t>
+          <t>Bryce Harper</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Team Munch</t>
+          <t>UFC Women's Champ: Trevor Bauer</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Dillon Ysseldyke</t>
+          <t>Denver Petersheim</t>
         </is>
       </c>
       <c r="D1253" t="n">
@@ -51627,7 +51628,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Bryce Harper</t>
+          <t>Zack Wheeler</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
@@ -51647,7 +51648,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Zack Wheeler</t>
+          <t>Corey Seager</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
@@ -51667,7 +51668,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Corey Seager</t>
+          <t>Kevin Gausman</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
@@ -51687,7 +51688,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>Kevin Gausman</t>
+          <t>J.T. Realmuto</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
@@ -51707,7 +51708,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>J.T. Realmuto</t>
+          <t>Jhoan Duran</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
@@ -51727,7 +51728,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Jhoan Duran</t>
+          <t>Andres Gimenez</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
@@ -51747,7 +51748,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Andres Gimenez</t>
+          <t>Jorge Soler</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
@@ -51767,7 +51768,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Jorge Soler</t>
+          <t>Alec Bohm</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
@@ -51787,7 +51788,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Alec Bohm</t>
+          <t>Ryan Helsley</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
@@ -51807,7 +51808,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Ryan Helsley</t>
+          <t>Rhys Hoskins</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
@@ -51827,7 +51828,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Rhys Hoskins</t>
+          <t>Jeremy Pena</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
@@ -51847,7 +51848,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Jeremy Pena</t>
+          <t>Yu Darvish</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
@@ -51867,7 +51868,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Yu Darvish</t>
+          <t>Matt Chapman</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
@@ -51887,7 +51888,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>Matt Chapman</t>
+          <t>Maikel Garcia</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
@@ -51907,7 +51908,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Maikel Garcia</t>
+          <t>Jack Flaherty</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
@@ -51927,7 +51928,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Jack Flaherty</t>
+          <t>Mark Canha</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
@@ -51947,7 +51948,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Mark Canha</t>
+          <t>Connor Joe</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
@@ -51967,7 +51968,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Connor Joe</t>
+          <t>Pete Fairbanks</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
@@ -51987,7 +51988,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>Pete Fairbanks</t>
+          <t>Kyle Gibson</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
@@ -52007,7 +52008,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Kyle Gibson</t>
+          <t>Hunter Brown</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
@@ -52027,7 +52028,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Hunter Brown</t>
+          <t>Tyler Freeman</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
@@ -52047,7 +52048,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Tyler Freeman</t>
+          <t>Zack Littell</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
@@ -52067,7 +52068,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Zack Littell</t>
+          <t>Tyler O'Neill</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
@@ -52087,7 +52088,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>Tyler O'Neill</t>
+          <t>Connor Wong</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
@@ -52107,7 +52108,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Connor Wong</t>
+          <t>Michael Toglia</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
@@ -52127,7 +52128,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Michael Toglia</t>
+          <t>Spencer Arrighetti</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
@@ -52147,7 +52148,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Spencer Arrighetti</t>
+          <t>Jake McCarthy</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
@@ -52164,24 +52165,157 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Jake McCarthy</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr">
-        <is>
-          <t>UFC Women's Champ: Trevor Bauer</t>
-        </is>
-      </c>
-      <c r="C1281" t="inlineStr">
-        <is>
-          <t>Denver Petersheim</t>
-        </is>
-      </c>
-      <c r="D1281" t="n">
-        <v>2024</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dumpster  Bangers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Team Munch</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joe Kelly's Fight Club</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Parker Is clutch</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Boating  With Jose</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Franco Jr. High School</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Team Motter</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Corbin on the Cob</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Team Free</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/FantasyData.xlsx
+++ b/data/FantasyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkergeis/Personal/Projects/FantasyBaseballApp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33F0A6-9D39-7F47-9A85-21539D9BE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC334B-6253-4E48-8BF4-09FF5331458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="707">
   <si>
     <t>Week</t>
   </si>
@@ -2146,6 +2146,9 @@
   </si>
   <si>
     <t>Small DylBob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botkins  Fighting </t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -21081,7 +21084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -21248,7 +21251,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="B7">
         <v>6</v>
